--- a/src/5.1_GLGC-Meta-Data-TEMPLATE.xlsx
+++ b/src/5.1_GLGC-Meta-Data-TEMPLATE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdron/Documents/GitHub/glgc_internal/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1923D990-7216-5F4B-ADFB-496C78118752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78CD976-1909-1343-9302-D8D549455085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cohort_summaries" sheetId="1" r:id="rId1"/>
@@ -1106,7 +1106,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1178,6 +1178,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1190,27 +1193,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1431,7 +1419,7 @@
   </sheetPr>
   <dimension ref="A1:AG492"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1444,9 +1432,9 @@
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="43.83203125" customWidth="1"/>
@@ -5100,60 +5088,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="34" t="s">
+      <c r="F1" s="40"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="46" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="33" t="s">
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33" t="s">
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
       <c r="Z1" s="23"/>
     </row>
     <row r="2" spans="1:26" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="36"/>
       <c r="E2" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="25" t="s">
         <v>86</v>
       </c>
       <c r="G2" s="25" t="s">
@@ -5233,7 +5221,7 @@
       <c r="E3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="8" t="s">
         <v>55</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -5299,7 +5287,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="3"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="44"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -5327,7 +5315,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="8"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="44"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -5355,7 +5343,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="3"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="44"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -5383,7 +5371,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="3"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="44"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -5411,7 +5399,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="44"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -5439,7 +5427,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="44"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -5467,7 +5455,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="44"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -5495,7 +5483,7 @@
       <c r="C11" s="6"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="44"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -5523,7 +5511,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="44"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -5551,7 +5539,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="44"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -5579,7 +5567,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="44"/>
+      <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -5607,7 +5595,7 @@
       <c r="C15" s="6"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="44"/>
+      <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -5635,7 +5623,7 @@
       <c r="C16" s="6"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="44"/>
+      <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -5663,7 +5651,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="44"/>
+      <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -5691,7 +5679,7 @@
       <c r="C18" s="6"/>
       <c r="D18" s="3"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="44"/>
+      <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -5719,7 +5707,7 @@
       <c r="C19" s="6"/>
       <c r="D19" s="3"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="44"/>
+      <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -5747,7 +5735,7 @@
       <c r="C20" s="6"/>
       <c r="D20" s="3"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="44"/>
+      <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -5775,7 +5763,7 @@
       <c r="C21" s="6"/>
       <c r="D21" s="3"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="44"/>
+      <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -5803,7 +5791,7 @@
       <c r="C22" s="6"/>
       <c r="D22" s="3"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="44"/>
+      <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -5831,7 +5819,7 @@
       <c r="C23" s="6"/>
       <c r="D23" s="3"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="44"/>
+      <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -5859,7 +5847,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="3"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="44"/>
+      <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
@@ -5887,7 +5875,7 @@
       <c r="C25" s="6"/>
       <c r="D25" s="3"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="44"/>
+      <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -5915,7 +5903,7 @@
       <c r="C26" s="6"/>
       <c r="D26" s="3"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="44"/>
+      <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -5943,7 +5931,7 @@
       <c r="C27" s="6"/>
       <c r="D27" s="3"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="44"/>
+      <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -5971,7 +5959,7 @@
       <c r="C28" s="6"/>
       <c r="D28" s="3"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="44"/>
+      <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -5999,7 +5987,7 @@
       <c r="C29" s="6"/>
       <c r="D29" s="3"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="44"/>
+      <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -6027,7 +6015,7 @@
       <c r="C30" s="6"/>
       <c r="D30" s="3"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="44"/>
+      <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
@@ -6055,7 +6043,7 @@
       <c r="C31" s="6"/>
       <c r="D31" s="3"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="44"/>
+      <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -6083,7 +6071,7 @@
       <c r="C32" s="6"/>
       <c r="D32" s="3"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="44"/>
+      <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
@@ -6111,7 +6099,7 @@
       <c r="C33" s="6"/>
       <c r="D33" s="3"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="44"/>
+      <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -6139,7 +6127,7 @@
       <c r="C34" s="6"/>
       <c r="D34" s="3"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="44"/>
+      <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -6167,7 +6155,7 @@
       <c r="C35" s="6"/>
       <c r="D35" s="3"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="44"/>
+      <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -6195,7 +6183,7 @@
       <c r="C36" s="6"/>
       <c r="D36" s="3"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="44"/>
+      <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
@@ -6223,7 +6211,7 @@
       <c r="C37" s="6"/>
       <c r="D37" s="3"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="44"/>
+      <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
@@ -6251,7 +6239,7 @@
       <c r="C38" s="6"/>
       <c r="D38" s="3"/>
       <c r="E38" s="6"/>
-      <c r="F38" s="44"/>
+      <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
@@ -6279,7 +6267,7 @@
       <c r="C39" s="6"/>
       <c r="D39" s="3"/>
       <c r="E39" s="6"/>
-      <c r="F39" s="44"/>
+      <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -6307,7 +6295,7 @@
       <c r="C40" s="6"/>
       <c r="D40" s="3"/>
       <c r="E40" s="6"/>
-      <c r="F40" s="44"/>
+      <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
@@ -6335,7 +6323,7 @@
       <c r="C41" s="6"/>
       <c r="D41" s="3"/>
       <c r="E41" s="6"/>
-      <c r="F41" s="44"/>
+      <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
@@ -6363,7 +6351,7 @@
       <c r="C42" s="6"/>
       <c r="D42" s="3"/>
       <c r="E42" s="6"/>
-      <c r="F42" s="44"/>
+      <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
@@ -6391,7 +6379,7 @@
       <c r="C43" s="6"/>
       <c r="D43" s="3"/>
       <c r="E43" s="6"/>
-      <c r="F43" s="44"/>
+      <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -6419,7 +6407,7 @@
       <c r="C44" s="6"/>
       <c r="D44" s="3"/>
       <c r="E44" s="6"/>
-      <c r="F44" s="44"/>
+      <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
@@ -6447,7 +6435,7 @@
       <c r="C45" s="6"/>
       <c r="D45" s="3"/>
       <c r="E45" s="6"/>
-      <c r="F45" s="44"/>
+      <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -6475,7 +6463,7 @@
       <c r="C46" s="6"/>
       <c r="D46" s="3"/>
       <c r="E46" s="6"/>
-      <c r="F46" s="44"/>
+      <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -6503,7 +6491,7 @@
       <c r="C47" s="6"/>
       <c r="D47" s="3"/>
       <c r="E47" s="6"/>
-      <c r="F47" s="44"/>
+      <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
@@ -6531,7 +6519,7 @@
       <c r="C48" s="6"/>
       <c r="D48" s="3"/>
       <c r="E48" s="6"/>
-      <c r="F48" s="44"/>
+      <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
@@ -6559,7 +6547,7 @@
       <c r="C49" s="6"/>
       <c r="D49" s="3"/>
       <c r="E49" s="6"/>
-      <c r="F49" s="44"/>
+      <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
@@ -6587,7 +6575,7 @@
       <c r="C50" s="6"/>
       <c r="D50" s="3"/>
       <c r="E50" s="6"/>
-      <c r="F50" s="44"/>
+      <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -6615,7 +6603,7 @@
       <c r="C51" s="6"/>
       <c r="D51" s="3"/>
       <c r="E51" s="6"/>
-      <c r="F51" s="44"/>
+      <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
@@ -6643,7 +6631,7 @@
       <c r="C52" s="6"/>
       <c r="D52" s="3"/>
       <c r="E52" s="6"/>
-      <c r="F52" s="44"/>
+      <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
@@ -6671,7 +6659,7 @@
       <c r="C53" s="6"/>
       <c r="D53" s="3"/>
       <c r="E53" s="6"/>
-      <c r="F53" s="44"/>
+      <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
@@ -6699,7 +6687,7 @@
       <c r="C54" s="6"/>
       <c r="D54" s="3"/>
       <c r="E54" s="6"/>
-      <c r="F54" s="44"/>
+      <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
@@ -6727,7 +6715,7 @@
       <c r="C55" s="6"/>
       <c r="D55" s="3"/>
       <c r="E55" s="6"/>
-      <c r="F55" s="44"/>
+      <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
@@ -6755,7 +6743,7 @@
       <c r="C56" s="6"/>
       <c r="D56" s="3"/>
       <c r="E56" s="6"/>
-      <c r="F56" s="44"/>
+      <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
@@ -6783,7 +6771,7 @@
       <c r="C57" s="6"/>
       <c r="D57" s="3"/>
       <c r="E57" s="6"/>
-      <c r="F57" s="44"/>
+      <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
@@ -6811,7 +6799,7 @@
       <c r="C58" s="6"/>
       <c r="D58" s="3"/>
       <c r="E58" s="6"/>
-      <c r="F58" s="44"/>
+      <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
@@ -6839,7 +6827,7 @@
       <c r="C59" s="6"/>
       <c r="D59" s="3"/>
       <c r="E59" s="6"/>
-      <c r="F59" s="44"/>
+      <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
@@ -6867,7 +6855,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="3"/>
       <c r="E60" s="6"/>
-      <c r="F60" s="44"/>
+      <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
@@ -6895,7 +6883,7 @@
       <c r="C61" s="6"/>
       <c r="D61" s="3"/>
       <c r="E61" s="6"/>
-      <c r="F61" s="44"/>
+      <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
@@ -6923,7 +6911,7 @@
       <c r="C62" s="6"/>
       <c r="D62" s="3"/>
       <c r="E62" s="6"/>
-      <c r="F62" s="44"/>
+      <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
@@ -6951,7 +6939,7 @@
       <c r="C63" s="6"/>
       <c r="D63" s="3"/>
       <c r="E63" s="6"/>
-      <c r="F63" s="44"/>
+      <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
@@ -6979,7 +6967,7 @@
       <c r="C64" s="6"/>
       <c r="D64" s="3"/>
       <c r="E64" s="6"/>
-      <c r="F64" s="44"/>
+      <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
@@ -7007,7 +6995,7 @@
       <c r="C65" s="6"/>
       <c r="D65" s="3"/>
       <c r="E65" s="6"/>
-      <c r="F65" s="44"/>
+      <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
@@ -7035,7 +7023,7 @@
       <c r="C66" s="6"/>
       <c r="D66" s="3"/>
       <c r="E66" s="6"/>
-      <c r="F66" s="44"/>
+      <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
@@ -7063,7 +7051,7 @@
       <c r="C67" s="6"/>
       <c r="D67" s="3"/>
       <c r="E67" s="6"/>
-      <c r="F67" s="44"/>
+      <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
@@ -7091,7 +7079,7 @@
       <c r="C68" s="6"/>
       <c r="D68" s="3"/>
       <c r="E68" s="6"/>
-      <c r="F68" s="44"/>
+      <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
@@ -7119,7 +7107,7 @@
       <c r="C69" s="6"/>
       <c r="D69" s="3"/>
       <c r="E69" s="6"/>
-      <c r="F69" s="44"/>
+      <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
@@ -7147,7 +7135,7 @@
       <c r="C70" s="6"/>
       <c r="D70" s="3"/>
       <c r="E70" s="6"/>
-      <c r="F70" s="44"/>
+      <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
@@ -7175,7 +7163,7 @@
       <c r="C71" s="6"/>
       <c r="D71" s="3"/>
       <c r="E71" s="6"/>
-      <c r="F71" s="44"/>
+      <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
@@ -7203,7 +7191,7 @@
       <c r="C72" s="6"/>
       <c r="D72" s="3"/>
       <c r="E72" s="6"/>
-      <c r="F72" s="44"/>
+      <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
@@ -7231,7 +7219,7 @@
       <c r="C73" s="6"/>
       <c r="D73" s="3"/>
       <c r="E73" s="6"/>
-      <c r="F73" s="44"/>
+      <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
@@ -7259,7 +7247,7 @@
       <c r="C74" s="6"/>
       <c r="D74" s="3"/>
       <c r="E74" s="6"/>
-      <c r="F74" s="44"/>
+      <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
@@ -7287,7 +7275,7 @@
       <c r="C75" s="6"/>
       <c r="D75" s="3"/>
       <c r="E75" s="6"/>
-      <c r="F75" s="44"/>
+      <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
@@ -7315,7 +7303,7 @@
       <c r="C76" s="6"/>
       <c r="D76" s="3"/>
       <c r="E76" s="6"/>
-      <c r="F76" s="44"/>
+      <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="7"/>
       <c r="I76" s="7"/>
@@ -7343,7 +7331,7 @@
       <c r="C77" s="6"/>
       <c r="D77" s="3"/>
       <c r="E77" s="6"/>
-      <c r="F77" s="44"/>
+      <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
@@ -7371,7 +7359,7 @@
       <c r="C78" s="6"/>
       <c r="D78" s="3"/>
       <c r="E78" s="6"/>
-      <c r="F78" s="44"/>
+      <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
@@ -7399,7 +7387,7 @@
       <c r="C79" s="6"/>
       <c r="D79" s="3"/>
       <c r="E79" s="6"/>
-      <c r="F79" s="44"/>
+      <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
@@ -7427,7 +7415,7 @@
       <c r="C80" s="6"/>
       <c r="D80" s="3"/>
       <c r="E80" s="6"/>
-      <c r="F80" s="44"/>
+      <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
@@ -7455,7 +7443,7 @@
       <c r="C81" s="6"/>
       <c r="D81" s="3"/>
       <c r="E81" s="6"/>
-      <c r="F81" s="44"/>
+      <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
@@ -7483,7 +7471,7 @@
       <c r="C82" s="6"/>
       <c r="D82" s="3"/>
       <c r="E82" s="6"/>
-      <c r="F82" s="44"/>
+      <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
@@ -7511,7 +7499,7 @@
       <c r="C83" s="6"/>
       <c r="D83" s="3"/>
       <c r="E83" s="6"/>
-      <c r="F83" s="44"/>
+      <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
@@ -7539,7 +7527,7 @@
       <c r="C84" s="6"/>
       <c r="D84" s="3"/>
       <c r="E84" s="6"/>
-      <c r="F84" s="44"/>
+      <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
@@ -7567,7 +7555,7 @@
       <c r="C85" s="6"/>
       <c r="D85" s="3"/>
       <c r="E85" s="6"/>
-      <c r="F85" s="44"/>
+      <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="7"/>
       <c r="I85" s="7"/>
@@ -7595,7 +7583,7 @@
       <c r="C86" s="6"/>
       <c r="D86" s="3"/>
       <c r="E86" s="6"/>
-      <c r="F86" s="44"/>
+      <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
@@ -7623,7 +7611,7 @@
       <c r="C87" s="6"/>
       <c r="D87" s="3"/>
       <c r="E87" s="6"/>
-      <c r="F87" s="44"/>
+      <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>
@@ -7651,7 +7639,7 @@
       <c r="C88" s="6"/>
       <c r="D88" s="3"/>
       <c r="E88" s="6"/>
-      <c r="F88" s="44"/>
+      <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
@@ -7679,7 +7667,7 @@
       <c r="C89" s="6"/>
       <c r="D89" s="3"/>
       <c r="E89" s="6"/>
-      <c r="F89" s="44"/>
+      <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="7"/>
       <c r="I89" s="7"/>
@@ -7707,7 +7695,7 @@
       <c r="C90" s="6"/>
       <c r="D90" s="3"/>
       <c r="E90" s="6"/>
-      <c r="F90" s="44"/>
+      <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="7"/>
       <c r="I90" s="7"/>
@@ -7735,7 +7723,7 @@
       <c r="C91" s="6"/>
       <c r="D91" s="3"/>
       <c r="E91" s="6"/>
-      <c r="F91" s="44"/>
+      <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="7"/>
       <c r="I91" s="7"/>
@@ -7763,7 +7751,7 @@
       <c r="C92" s="6"/>
       <c r="D92" s="3"/>
       <c r="E92" s="6"/>
-      <c r="F92" s="44"/>
+      <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="7"/>
       <c r="I92" s="7"/>
@@ -7791,7 +7779,7 @@
       <c r="C93" s="6"/>
       <c r="D93" s="3"/>
       <c r="E93" s="6"/>
-      <c r="F93" s="44"/>
+      <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="7"/>
       <c r="I93" s="7"/>
@@ -7819,7 +7807,7 @@
       <c r="C94" s="6"/>
       <c r="D94" s="3"/>
       <c r="E94" s="6"/>
-      <c r="F94" s="44"/>
+      <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="7"/>
       <c r="I94" s="7"/>
@@ -7847,7 +7835,7 @@
       <c r="C95" s="6"/>
       <c r="D95" s="3"/>
       <c r="E95" s="6"/>
-      <c r="F95" s="44"/>
+      <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="7"/>
       <c r="I95" s="7"/>
@@ -7875,7 +7863,7 @@
       <c r="C96" s="6"/>
       <c r="D96" s="3"/>
       <c r="E96" s="6"/>
-      <c r="F96" s="44"/>
+      <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="7"/>
       <c r="I96" s="7"/>
@@ -7903,7 +7891,7 @@
       <c r="C97" s="6"/>
       <c r="D97" s="3"/>
       <c r="E97" s="6"/>
-      <c r="F97" s="44"/>
+      <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="7"/>
       <c r="I97" s="7"/>
@@ -7931,7 +7919,7 @@
       <c r="C98" s="6"/>
       <c r="D98" s="3"/>
       <c r="E98" s="6"/>
-      <c r="F98" s="44"/>
+      <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="7"/>
       <c r="I98" s="7"/>
@@ -7959,7 +7947,7 @@
       <c r="C99" s="6"/>
       <c r="D99" s="3"/>
       <c r="E99" s="6"/>
-      <c r="F99" s="44"/>
+      <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
@@ -7987,7 +7975,7 @@
       <c r="C100" s="6"/>
       <c r="D100" s="3"/>
       <c r="E100" s="6"/>
-      <c r="F100" s="44"/>
+      <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="7"/>
       <c r="I100" s="7"/>
@@ -8015,7 +8003,7 @@
       <c r="C101" s="6"/>
       <c r="D101" s="3"/>
       <c r="E101" s="6"/>
-      <c r="F101" s="44"/>
+      <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="7"/>
       <c r="I101" s="7"/>
@@ -8043,7 +8031,7 @@
       <c r="C102" s="6"/>
       <c r="D102" s="3"/>
       <c r="E102" s="6"/>
-      <c r="F102" s="44"/>
+      <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="7"/>
       <c r="I102" s="7"/>
@@ -8071,7 +8059,7 @@
       <c r="C103" s="6"/>
       <c r="D103" s="3"/>
       <c r="E103" s="6"/>
-      <c r="F103" s="44"/>
+      <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="7"/>
       <c r="I103" s="7"/>
@@ -8099,7 +8087,7 @@
       <c r="C104" s="6"/>
       <c r="D104" s="3"/>
       <c r="E104" s="6"/>
-      <c r="F104" s="44"/>
+      <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="7"/>
       <c r="I104" s="7"/>
@@ -8127,7 +8115,7 @@
       <c r="C105" s="6"/>
       <c r="D105" s="3"/>
       <c r="E105" s="6"/>
-      <c r="F105" s="44"/>
+      <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="7"/>
       <c r="I105" s="7"/>
@@ -8155,7 +8143,7 @@
       <c r="C106" s="6"/>
       <c r="D106" s="3"/>
       <c r="E106" s="6"/>
-      <c r="F106" s="44"/>
+      <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="7"/>
       <c r="I106" s="7"/>
@@ -8183,7 +8171,7 @@
       <c r="C107" s="6"/>
       <c r="D107" s="3"/>
       <c r="E107" s="6"/>
-      <c r="F107" s="44"/>
+      <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="7"/>
       <c r="I107" s="7"/>
@@ -8211,7 +8199,7 @@
       <c r="C108" s="6"/>
       <c r="D108" s="3"/>
       <c r="E108" s="6"/>
-      <c r="F108" s="44"/>
+      <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="7"/>
       <c r="I108" s="7"/>
@@ -8239,7 +8227,7 @@
       <c r="C109" s="6"/>
       <c r="D109" s="3"/>
       <c r="E109" s="6"/>
-      <c r="F109" s="44"/>
+      <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="7"/>
       <c r="I109" s="7"/>
@@ -8267,7 +8255,7 @@
       <c r="C110" s="6"/>
       <c r="D110" s="3"/>
       <c r="E110" s="6"/>
-      <c r="F110" s="44"/>
+      <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="7"/>
       <c r="I110" s="7"/>
@@ -8295,7 +8283,7 @@
       <c r="C111" s="6"/>
       <c r="D111" s="3"/>
       <c r="E111" s="6"/>
-      <c r="F111" s="44"/>
+      <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="7"/>
       <c r="I111" s="7"/>
@@ -8323,7 +8311,7 @@
       <c r="C112" s="6"/>
       <c r="D112" s="3"/>
       <c r="E112" s="6"/>
-      <c r="F112" s="44"/>
+      <c r="F112" s="3"/>
       <c r="G112" s="3"/>
       <c r="H112" s="7"/>
       <c r="I112" s="7"/>
@@ -8351,7 +8339,7 @@
       <c r="C113" s="6"/>
       <c r="D113" s="3"/>
       <c r="E113" s="6"/>
-      <c r="F113" s="44"/>
+      <c r="F113" s="3"/>
       <c r="G113" s="3"/>
       <c r="H113" s="7"/>
       <c r="I113" s="7"/>
@@ -8379,7 +8367,7 @@
       <c r="C114" s="6"/>
       <c r="D114" s="3"/>
       <c r="E114" s="6"/>
-      <c r="F114" s="44"/>
+      <c r="F114" s="3"/>
       <c r="G114" s="3"/>
       <c r="H114" s="7"/>
       <c r="I114" s="7"/>
@@ -8407,7 +8395,7 @@
       <c r="C115" s="6"/>
       <c r="D115" s="3"/>
       <c r="E115" s="6"/>
-      <c r="F115" s="44"/>
+      <c r="F115" s="3"/>
       <c r="G115" s="3"/>
       <c r="H115" s="7"/>
       <c r="I115" s="7"/>
@@ -8435,7 +8423,7 @@
       <c r="C116" s="6"/>
       <c r="D116" s="3"/>
       <c r="E116" s="6"/>
-      <c r="F116" s="44"/>
+      <c r="F116" s="3"/>
       <c r="G116" s="3"/>
       <c r="H116" s="7"/>
       <c r="I116" s="7"/>
@@ -8463,7 +8451,7 @@
       <c r="C117" s="6"/>
       <c r="D117" s="3"/>
       <c r="E117" s="6"/>
-      <c r="F117" s="44"/>
+      <c r="F117" s="3"/>
       <c r="G117" s="3"/>
       <c r="H117" s="7"/>
       <c r="I117" s="7"/>
@@ -8491,7 +8479,7 @@
       <c r="C118" s="6"/>
       <c r="D118" s="3"/>
       <c r="E118" s="6"/>
-      <c r="F118" s="44"/>
+      <c r="F118" s="3"/>
       <c r="G118" s="3"/>
       <c r="H118" s="7"/>
       <c r="I118" s="7"/>
@@ -8519,7 +8507,7 @@
       <c r="C119" s="6"/>
       <c r="D119" s="3"/>
       <c r="E119" s="6"/>
-      <c r="F119" s="44"/>
+      <c r="F119" s="3"/>
       <c r="G119" s="3"/>
       <c r="H119" s="7"/>
       <c r="I119" s="7"/>
@@ -8547,7 +8535,7 @@
       <c r="C120" s="6"/>
       <c r="D120" s="3"/>
       <c r="E120" s="6"/>
-      <c r="F120" s="44"/>
+      <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="7"/>
       <c r="I120" s="7"/>
@@ -8575,7 +8563,7 @@
       <c r="C121" s="6"/>
       <c r="D121" s="3"/>
       <c r="E121" s="6"/>
-      <c r="F121" s="44"/>
+      <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="7"/>
       <c r="I121" s="7"/>
@@ -8603,7 +8591,7 @@
       <c r="C122" s="6"/>
       <c r="D122" s="3"/>
       <c r="E122" s="6"/>
-      <c r="F122" s="44"/>
+      <c r="F122" s="3"/>
       <c r="G122" s="3"/>
       <c r="H122" s="7"/>
       <c r="I122" s="7"/>
@@ -8631,7 +8619,7 @@
       <c r="C123" s="6"/>
       <c r="D123" s="3"/>
       <c r="E123" s="6"/>
-      <c r="F123" s="44"/>
+      <c r="F123" s="3"/>
       <c r="G123" s="3"/>
       <c r="H123" s="7"/>
       <c r="I123" s="7"/>
@@ -8659,7 +8647,7 @@
       <c r="C124" s="6"/>
       <c r="D124" s="3"/>
       <c r="E124" s="6"/>
-      <c r="F124" s="44"/>
+      <c r="F124" s="3"/>
       <c r="G124" s="3"/>
       <c r="H124" s="7"/>
       <c r="I124" s="7"/>
@@ -8687,7 +8675,7 @@
       <c r="C125" s="6"/>
       <c r="D125" s="3"/>
       <c r="E125" s="6"/>
-      <c r="F125" s="44"/>
+      <c r="F125" s="3"/>
       <c r="G125" s="3"/>
       <c r="H125" s="7"/>
       <c r="I125" s="7"/>
@@ -8715,7 +8703,7 @@
       <c r="C126" s="6"/>
       <c r="D126" s="3"/>
       <c r="E126" s="6"/>
-      <c r="F126" s="44"/>
+      <c r="F126" s="3"/>
       <c r="G126" s="3"/>
       <c r="H126" s="7"/>
       <c r="I126" s="7"/>
@@ -8743,7 +8731,7 @@
       <c r="C127" s="6"/>
       <c r="D127" s="3"/>
       <c r="E127" s="6"/>
-      <c r="F127" s="44"/>
+      <c r="F127" s="3"/>
       <c r="G127" s="3"/>
       <c r="H127" s="7"/>
       <c r="I127" s="7"/>
@@ -8771,7 +8759,7 @@
       <c r="C128" s="6"/>
       <c r="D128" s="3"/>
       <c r="E128" s="6"/>
-      <c r="F128" s="44"/>
+      <c r="F128" s="3"/>
       <c r="G128" s="3"/>
       <c r="H128" s="7"/>
       <c r="I128" s="7"/>
@@ -8799,7 +8787,7 @@
       <c r="C129" s="6"/>
       <c r="D129" s="3"/>
       <c r="E129" s="6"/>
-      <c r="F129" s="44"/>
+      <c r="F129" s="3"/>
       <c r="G129" s="3"/>
       <c r="H129" s="7"/>
       <c r="I129" s="7"/>
@@ -8827,7 +8815,7 @@
       <c r="C130" s="6"/>
       <c r="D130" s="3"/>
       <c r="E130" s="6"/>
-      <c r="F130" s="44"/>
+      <c r="F130" s="3"/>
       <c r="G130" s="3"/>
       <c r="H130" s="7"/>
       <c r="I130" s="7"/>
@@ -8855,7 +8843,7 @@
       <c r="C131" s="6"/>
       <c r="D131" s="3"/>
       <c r="E131" s="6"/>
-      <c r="F131" s="44"/>
+      <c r="F131" s="3"/>
       <c r="G131" s="3"/>
       <c r="H131" s="7"/>
       <c r="I131" s="7"/>
@@ -8883,7 +8871,7 @@
       <c r="C132" s="6"/>
       <c r="D132" s="3"/>
       <c r="E132" s="6"/>
-      <c r="F132" s="44"/>
+      <c r="F132" s="3"/>
       <c r="G132" s="3"/>
       <c r="H132" s="7"/>
       <c r="I132" s="7"/>
@@ -8911,7 +8899,7 @@
       <c r="C133" s="6"/>
       <c r="D133" s="3"/>
       <c r="E133" s="6"/>
-      <c r="F133" s="44"/>
+      <c r="F133" s="3"/>
       <c r="G133" s="3"/>
       <c r="H133" s="7"/>
       <c r="I133" s="7"/>
@@ -8939,7 +8927,7 @@
       <c r="C134" s="6"/>
       <c r="D134" s="3"/>
       <c r="E134" s="6"/>
-      <c r="F134" s="44"/>
+      <c r="F134" s="3"/>
       <c r="G134" s="3"/>
       <c r="H134" s="7"/>
       <c r="I134" s="7"/>
@@ -8967,7 +8955,7 @@
       <c r="C135" s="6"/>
       <c r="D135" s="3"/>
       <c r="E135" s="6"/>
-      <c r="F135" s="44"/>
+      <c r="F135" s="3"/>
       <c r="G135" s="3"/>
       <c r="H135" s="7"/>
       <c r="I135" s="7"/>
@@ -8995,7 +8983,7 @@
       <c r="C136" s="6"/>
       <c r="D136" s="3"/>
       <c r="E136" s="6"/>
-      <c r="F136" s="44"/>
+      <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136" s="7"/>
       <c r="I136" s="7"/>
@@ -9023,7 +9011,7 @@
       <c r="C137" s="6"/>
       <c r="D137" s="3"/>
       <c r="E137" s="6"/>
-      <c r="F137" s="44"/>
+      <c r="F137" s="3"/>
       <c r="G137" s="3"/>
       <c r="H137" s="7"/>
       <c r="I137" s="7"/>
@@ -9051,7 +9039,7 @@
       <c r="C138" s="6"/>
       <c r="D138" s="3"/>
       <c r="E138" s="6"/>
-      <c r="F138" s="44"/>
+      <c r="F138" s="3"/>
       <c r="G138" s="3"/>
       <c r="H138" s="7"/>
       <c r="I138" s="7"/>
@@ -9079,7 +9067,7 @@
       <c r="C139" s="6"/>
       <c r="D139" s="3"/>
       <c r="E139" s="6"/>
-      <c r="F139" s="44"/>
+      <c r="F139" s="3"/>
       <c r="G139" s="3"/>
       <c r="H139" s="7"/>
       <c r="I139" s="7"/>
@@ -9107,7 +9095,7 @@
       <c r="C140" s="6"/>
       <c r="D140" s="3"/>
       <c r="E140" s="6"/>
-      <c r="F140" s="44"/>
+      <c r="F140" s="3"/>
       <c r="G140" s="3"/>
       <c r="H140" s="7"/>
       <c r="I140" s="7"/>
@@ -9135,7 +9123,7 @@
       <c r="C141" s="6"/>
       <c r="D141" s="3"/>
       <c r="E141" s="6"/>
-      <c r="F141" s="44"/>
+      <c r="F141" s="3"/>
       <c r="G141" s="3"/>
       <c r="H141" s="7"/>
       <c r="I141" s="7"/>
@@ -9163,7 +9151,7 @@
       <c r="C142" s="6"/>
       <c r="D142" s="3"/>
       <c r="E142" s="6"/>
-      <c r="F142" s="44"/>
+      <c r="F142" s="3"/>
       <c r="G142" s="3"/>
       <c r="H142" s="7"/>
       <c r="I142" s="7"/>
@@ -9191,7 +9179,7 @@
       <c r="C143" s="6"/>
       <c r="D143" s="3"/>
       <c r="E143" s="6"/>
-      <c r="F143" s="44"/>
+      <c r="F143" s="3"/>
       <c r="G143" s="3"/>
       <c r="H143" s="7"/>
       <c r="I143" s="7"/>
@@ -9219,7 +9207,7 @@
       <c r="C144" s="6"/>
       <c r="D144" s="3"/>
       <c r="E144" s="6"/>
-      <c r="F144" s="44"/>
+      <c r="F144" s="3"/>
       <c r="G144" s="3"/>
       <c r="H144" s="7"/>
       <c r="I144" s="7"/>
@@ -9247,7 +9235,7 @@
       <c r="C145" s="6"/>
       <c r="D145" s="3"/>
       <c r="E145" s="6"/>
-      <c r="F145" s="44"/>
+      <c r="F145" s="3"/>
       <c r="G145" s="3"/>
       <c r="H145" s="7"/>
       <c r="I145" s="7"/>
@@ -9275,7 +9263,7 @@
       <c r="C146" s="6"/>
       <c r="D146" s="3"/>
       <c r="E146" s="6"/>
-      <c r="F146" s="44"/>
+      <c r="F146" s="3"/>
       <c r="G146" s="3"/>
       <c r="H146" s="7"/>
       <c r="I146" s="7"/>
@@ -9303,7 +9291,7 @@
       <c r="C147" s="6"/>
       <c r="D147" s="3"/>
       <c r="E147" s="6"/>
-      <c r="F147" s="44"/>
+      <c r="F147" s="3"/>
       <c r="G147" s="3"/>
       <c r="H147" s="7"/>
       <c r="I147" s="7"/>
@@ -9331,7 +9319,7 @@
       <c r="C148" s="6"/>
       <c r="D148" s="3"/>
       <c r="E148" s="6"/>
-      <c r="F148" s="44"/>
+      <c r="F148" s="3"/>
       <c r="G148" s="3"/>
       <c r="H148" s="7"/>
       <c r="I148" s="7"/>
@@ -9359,7 +9347,7 @@
       <c r="C149" s="6"/>
       <c r="D149" s="3"/>
       <c r="E149" s="6"/>
-      <c r="F149" s="44"/>
+      <c r="F149" s="3"/>
       <c r="G149" s="3"/>
       <c r="H149" s="7"/>
       <c r="I149" s="7"/>
@@ -9387,7 +9375,7 @@
       <c r="C150" s="6"/>
       <c r="D150" s="3"/>
       <c r="E150" s="6"/>
-      <c r="F150" s="44"/>
+      <c r="F150" s="3"/>
       <c r="G150" s="3"/>
       <c r="H150" s="7"/>
       <c r="I150" s="7"/>
@@ -9415,7 +9403,7 @@
       <c r="C151" s="6"/>
       <c r="D151" s="3"/>
       <c r="E151" s="6"/>
-      <c r="F151" s="44"/>
+      <c r="F151" s="3"/>
       <c r="G151" s="3"/>
       <c r="H151" s="7"/>
       <c r="I151" s="7"/>
@@ -9443,7 +9431,7 @@
       <c r="C152" s="6"/>
       <c r="D152" s="3"/>
       <c r="E152" s="6"/>
-      <c r="F152" s="44"/>
+      <c r="F152" s="3"/>
       <c r="G152" s="3"/>
       <c r="H152" s="7"/>
       <c r="I152" s="7"/>
@@ -9471,7 +9459,7 @@
       <c r="C153" s="6"/>
       <c r="D153" s="3"/>
       <c r="E153" s="6"/>
-      <c r="F153" s="44"/>
+      <c r="F153" s="3"/>
       <c r="G153" s="3"/>
       <c r="H153" s="7"/>
       <c r="I153" s="7"/>
@@ -9499,7 +9487,7 @@
       <c r="C154" s="6"/>
       <c r="D154" s="3"/>
       <c r="E154" s="6"/>
-      <c r="F154" s="44"/>
+      <c r="F154" s="3"/>
       <c r="G154" s="3"/>
       <c r="H154" s="7"/>
       <c r="I154" s="7"/>
@@ -9527,7 +9515,7 @@
       <c r="C155" s="6"/>
       <c r="D155" s="3"/>
       <c r="E155" s="6"/>
-      <c r="F155" s="44"/>
+      <c r="F155" s="3"/>
       <c r="G155" s="3"/>
       <c r="H155" s="7"/>
       <c r="I155" s="7"/>
@@ -9555,7 +9543,7 @@
       <c r="C156" s="6"/>
       <c r="D156" s="3"/>
       <c r="E156" s="6"/>
-      <c r="F156" s="44"/>
+      <c r="F156" s="3"/>
       <c r="G156" s="3"/>
       <c r="H156" s="7"/>
       <c r="I156" s="7"/>
@@ -9583,7 +9571,7 @@
       <c r="C157" s="6"/>
       <c r="D157" s="3"/>
       <c r="E157" s="6"/>
-      <c r="F157" s="44"/>
+      <c r="F157" s="3"/>
       <c r="G157" s="3"/>
       <c r="H157" s="7"/>
       <c r="I157" s="7"/>
@@ -9611,7 +9599,7 @@
       <c r="C158" s="6"/>
       <c r="D158" s="3"/>
       <c r="E158" s="6"/>
-      <c r="F158" s="44"/>
+      <c r="F158" s="3"/>
       <c r="G158" s="3"/>
       <c r="H158" s="7"/>
       <c r="I158" s="7"/>
@@ -9639,7 +9627,7 @@
       <c r="C159" s="6"/>
       <c r="D159" s="3"/>
       <c r="E159" s="6"/>
-      <c r="F159" s="44"/>
+      <c r="F159" s="3"/>
       <c r="G159" s="3"/>
       <c r="H159" s="7"/>
       <c r="I159" s="7"/>
@@ -9667,7 +9655,7 @@
       <c r="C160" s="6"/>
       <c r="D160" s="3"/>
       <c r="E160" s="6"/>
-      <c r="F160" s="44"/>
+      <c r="F160" s="3"/>
       <c r="G160" s="3"/>
       <c r="H160" s="7"/>
       <c r="I160" s="7"/>
@@ -9695,7 +9683,7 @@
       <c r="C161" s="6"/>
       <c r="D161" s="3"/>
       <c r="E161" s="6"/>
-      <c r="F161" s="44"/>
+      <c r="F161" s="3"/>
       <c r="G161" s="3"/>
       <c r="H161" s="7"/>
       <c r="I161" s="7"/>
@@ -9723,7 +9711,7 @@
       <c r="C162" s="6"/>
       <c r="D162" s="3"/>
       <c r="E162" s="6"/>
-      <c r="F162" s="44"/>
+      <c r="F162" s="3"/>
       <c r="G162" s="3"/>
       <c r="H162" s="7"/>
       <c r="I162" s="7"/>
@@ -9751,7 +9739,7 @@
       <c r="C163" s="6"/>
       <c r="D163" s="3"/>
       <c r="E163" s="6"/>
-      <c r="F163" s="44"/>
+      <c r="F163" s="3"/>
       <c r="G163" s="3"/>
       <c r="H163" s="7"/>
       <c r="I163" s="7"/>
@@ -9779,7 +9767,7 @@
       <c r="C164" s="6"/>
       <c r="D164" s="3"/>
       <c r="E164" s="6"/>
-      <c r="F164" s="44"/>
+      <c r="F164" s="3"/>
       <c r="G164" s="3"/>
       <c r="H164" s="7"/>
       <c r="I164" s="7"/>
@@ -9807,7 +9795,7 @@
       <c r="C165" s="6"/>
       <c r="D165" s="3"/>
       <c r="E165" s="6"/>
-      <c r="F165" s="44"/>
+      <c r="F165" s="3"/>
       <c r="G165" s="3"/>
       <c r="H165" s="7"/>
       <c r="I165" s="7"/>
@@ -9835,7 +9823,7 @@
       <c r="C166" s="6"/>
       <c r="D166" s="3"/>
       <c r="E166" s="6"/>
-      <c r="F166" s="44"/>
+      <c r="F166" s="3"/>
       <c r="G166" s="3"/>
       <c r="H166" s="7"/>
       <c r="I166" s="7"/>
@@ -9863,7 +9851,7 @@
       <c r="C167" s="6"/>
       <c r="D167" s="3"/>
       <c r="E167" s="6"/>
-      <c r="F167" s="44"/>
+      <c r="F167" s="3"/>
       <c r="G167" s="3"/>
       <c r="H167" s="7"/>
       <c r="I167" s="7"/>
@@ -9891,7 +9879,7 @@
       <c r="C168" s="6"/>
       <c r="D168" s="3"/>
       <c r="E168" s="6"/>
-      <c r="F168" s="44"/>
+      <c r="F168" s="3"/>
       <c r="G168" s="3"/>
       <c r="H168" s="7"/>
       <c r="I168" s="7"/>
@@ -9919,7 +9907,7 @@
       <c r="C169" s="6"/>
       <c r="D169" s="3"/>
       <c r="E169" s="6"/>
-      <c r="F169" s="44"/>
+      <c r="F169" s="3"/>
       <c r="G169" s="3"/>
       <c r="H169" s="7"/>
       <c r="I169" s="7"/>
@@ -9947,7 +9935,7 @@
       <c r="C170" s="6"/>
       <c r="D170" s="3"/>
       <c r="E170" s="6"/>
-      <c r="F170" s="44"/>
+      <c r="F170" s="3"/>
       <c r="G170" s="3"/>
       <c r="H170" s="7"/>
       <c r="I170" s="7"/>
@@ -9975,7 +9963,7 @@
       <c r="C171" s="6"/>
       <c r="D171" s="3"/>
       <c r="E171" s="6"/>
-      <c r="F171" s="44"/>
+      <c r="F171" s="3"/>
       <c r="G171" s="3"/>
       <c r="H171" s="7"/>
       <c r="I171" s="7"/>
@@ -10003,7 +9991,7 @@
       <c r="C172" s="6"/>
       <c r="D172" s="3"/>
       <c r="E172" s="6"/>
-      <c r="F172" s="44"/>
+      <c r="F172" s="3"/>
       <c r="G172" s="3"/>
       <c r="H172" s="7"/>
       <c r="I172" s="7"/>
@@ -10031,7 +10019,7 @@
       <c r="C173" s="6"/>
       <c r="D173" s="3"/>
       <c r="E173" s="6"/>
-      <c r="F173" s="44"/>
+      <c r="F173" s="3"/>
       <c r="G173" s="3"/>
       <c r="H173" s="7"/>
       <c r="I173" s="7"/>
@@ -10059,7 +10047,7 @@
       <c r="C174" s="6"/>
       <c r="D174" s="3"/>
       <c r="E174" s="6"/>
-      <c r="F174" s="44"/>
+      <c r="F174" s="3"/>
       <c r="G174" s="3"/>
       <c r="H174" s="7"/>
       <c r="I174" s="7"/>
@@ -10087,7 +10075,7 @@
       <c r="C175" s="6"/>
       <c r="D175" s="3"/>
       <c r="E175" s="6"/>
-      <c r="F175" s="44"/>
+      <c r="F175" s="3"/>
       <c r="G175" s="3"/>
       <c r="H175" s="7"/>
       <c r="I175" s="7"/>
@@ -10115,7 +10103,7 @@
       <c r="C176" s="6"/>
       <c r="D176" s="3"/>
       <c r="E176" s="6"/>
-      <c r="F176" s="44"/>
+      <c r="F176" s="3"/>
       <c r="G176" s="3"/>
       <c r="H176" s="7"/>
       <c r="I176" s="7"/>
@@ -10143,7 +10131,7 @@
       <c r="C177" s="6"/>
       <c r="D177" s="3"/>
       <c r="E177" s="6"/>
-      <c r="F177" s="44"/>
+      <c r="F177" s="3"/>
       <c r="G177" s="3"/>
       <c r="H177" s="7"/>
       <c r="I177" s="7"/>
@@ -10171,7 +10159,7 @@
       <c r="C178" s="6"/>
       <c r="D178" s="3"/>
       <c r="E178" s="6"/>
-      <c r="F178" s="44"/>
+      <c r="F178" s="3"/>
       <c r="G178" s="3"/>
       <c r="H178" s="7"/>
       <c r="I178" s="7"/>
@@ -10199,7 +10187,7 @@
       <c r="C179" s="6"/>
       <c r="D179" s="3"/>
       <c r="E179" s="6"/>
-      <c r="F179" s="44"/>
+      <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="H179" s="7"/>
       <c r="I179" s="7"/>
@@ -10227,7 +10215,7 @@
       <c r="C180" s="6"/>
       <c r="D180" s="3"/>
       <c r="E180" s="6"/>
-      <c r="F180" s="44"/>
+      <c r="F180" s="3"/>
       <c r="G180" s="3"/>
       <c r="H180" s="7"/>
       <c r="I180" s="7"/>
@@ -10255,7 +10243,7 @@
       <c r="C181" s="6"/>
       <c r="D181" s="3"/>
       <c r="E181" s="6"/>
-      <c r="F181" s="44"/>
+      <c r="F181" s="3"/>
       <c r="G181" s="3"/>
       <c r="H181" s="7"/>
       <c r="I181" s="7"/>
@@ -10283,7 +10271,7 @@
       <c r="C182" s="6"/>
       <c r="D182" s="3"/>
       <c r="E182" s="6"/>
-      <c r="F182" s="44"/>
+      <c r="F182" s="3"/>
       <c r="G182" s="3"/>
       <c r="H182" s="7"/>
       <c r="I182" s="7"/>
@@ -10311,7 +10299,7 @@
       <c r="C183" s="6"/>
       <c r="D183" s="3"/>
       <c r="E183" s="6"/>
-      <c r="F183" s="44"/>
+      <c r="F183" s="3"/>
       <c r="G183" s="3"/>
       <c r="H183" s="7"/>
       <c r="I183" s="7"/>
@@ -10339,7 +10327,7 @@
       <c r="C184" s="6"/>
       <c r="D184" s="3"/>
       <c r="E184" s="6"/>
-      <c r="F184" s="44"/>
+      <c r="F184" s="3"/>
       <c r="G184" s="3"/>
       <c r="H184" s="7"/>
       <c r="I184" s="7"/>
@@ -10367,7 +10355,7 @@
       <c r="C185" s="6"/>
       <c r="D185" s="3"/>
       <c r="E185" s="6"/>
-      <c r="F185" s="44"/>
+      <c r="F185" s="3"/>
       <c r="G185" s="3"/>
       <c r="H185" s="7"/>
       <c r="I185" s="7"/>
@@ -10395,7 +10383,7 @@
       <c r="C186" s="6"/>
       <c r="D186" s="3"/>
       <c r="E186" s="6"/>
-      <c r="F186" s="44"/>
+      <c r="F186" s="3"/>
       <c r="G186" s="3"/>
       <c r="H186" s="7"/>
       <c r="I186" s="7"/>
@@ -10423,7 +10411,7 @@
       <c r="C187" s="6"/>
       <c r="D187" s="3"/>
       <c r="E187" s="6"/>
-      <c r="F187" s="44"/>
+      <c r="F187" s="3"/>
       <c r="G187" s="3"/>
       <c r="H187" s="7"/>
       <c r="I187" s="7"/>
@@ -10451,7 +10439,7 @@
       <c r="C188" s="6"/>
       <c r="D188" s="3"/>
       <c r="E188" s="6"/>
-      <c r="F188" s="44"/>
+      <c r="F188" s="3"/>
       <c r="G188" s="3"/>
       <c r="H188" s="7"/>
       <c r="I188" s="7"/>
@@ -10479,7 +10467,7 @@
       <c r="C189" s="6"/>
       <c r="D189" s="3"/>
       <c r="E189" s="6"/>
-      <c r="F189" s="44"/>
+      <c r="F189" s="3"/>
       <c r="G189" s="3"/>
       <c r="H189" s="7"/>
       <c r="I189" s="7"/>
@@ -10507,7 +10495,7 @@
       <c r="C190" s="6"/>
       <c r="D190" s="3"/>
       <c r="E190" s="6"/>
-      <c r="F190" s="44"/>
+      <c r="F190" s="3"/>
       <c r="G190" s="3"/>
       <c r="H190" s="7"/>
       <c r="I190" s="7"/>
@@ -10535,7 +10523,7 @@
       <c r="C191" s="6"/>
       <c r="D191" s="3"/>
       <c r="E191" s="6"/>
-      <c r="F191" s="44"/>
+      <c r="F191" s="3"/>
       <c r="G191" s="3"/>
       <c r="H191" s="7"/>
       <c r="I191" s="7"/>
@@ -10563,7 +10551,7 @@
       <c r="C192" s="6"/>
       <c r="D192" s="3"/>
       <c r="E192" s="6"/>
-      <c r="F192" s="44"/>
+      <c r="F192" s="3"/>
       <c r="G192" s="3"/>
       <c r="H192" s="7"/>
       <c r="I192" s="7"/>
@@ -10591,7 +10579,7 @@
       <c r="C193" s="6"/>
       <c r="D193" s="3"/>
       <c r="E193" s="6"/>
-      <c r="F193" s="44"/>
+      <c r="F193" s="3"/>
       <c r="G193" s="3"/>
       <c r="H193" s="7"/>
       <c r="I193" s="7"/>
@@ -10619,7 +10607,7 @@
       <c r="C194" s="6"/>
       <c r="D194" s="3"/>
       <c r="E194" s="6"/>
-      <c r="F194" s="44"/>
+      <c r="F194" s="3"/>
       <c r="G194" s="3"/>
       <c r="H194" s="7"/>
       <c r="I194" s="7"/>
@@ -10647,7 +10635,7 @@
       <c r="C195" s="6"/>
       <c r="D195" s="3"/>
       <c r="E195" s="6"/>
-      <c r="F195" s="44"/>
+      <c r="F195" s="3"/>
       <c r="G195" s="3"/>
       <c r="H195" s="7"/>
       <c r="I195" s="7"/>
@@ -10675,7 +10663,7 @@
       <c r="C196" s="6"/>
       <c r="D196" s="3"/>
       <c r="E196" s="6"/>
-      <c r="F196" s="44"/>
+      <c r="F196" s="3"/>
       <c r="G196" s="3"/>
       <c r="H196" s="7"/>
       <c r="I196" s="7"/>
@@ -10703,7 +10691,7 @@
       <c r="C197" s="6"/>
       <c r="D197" s="3"/>
       <c r="E197" s="6"/>
-      <c r="F197" s="44"/>
+      <c r="F197" s="3"/>
       <c r="G197" s="3"/>
       <c r="H197" s="7"/>
       <c r="I197" s="7"/>
@@ -10731,7 +10719,7 @@
       <c r="C198" s="6"/>
       <c r="D198" s="3"/>
       <c r="E198" s="6"/>
-      <c r="F198" s="44"/>
+      <c r="F198" s="3"/>
       <c r="G198" s="3"/>
       <c r="H198" s="7"/>
       <c r="I198" s="7"/>
@@ -10759,7 +10747,7 @@
       <c r="C199" s="6"/>
       <c r="D199" s="3"/>
       <c r="E199" s="6"/>
-      <c r="F199" s="44"/>
+      <c r="F199" s="3"/>
       <c r="G199" s="3"/>
       <c r="H199" s="7"/>
       <c r="I199" s="7"/>
@@ -10787,7 +10775,7 @@
       <c r="C200" s="6"/>
       <c r="D200" s="3"/>
       <c r="E200" s="6"/>
-      <c r="F200" s="44"/>
+      <c r="F200" s="3"/>
       <c r="G200" s="3"/>
       <c r="H200" s="7"/>
       <c r="I200" s="7"/>
@@ -10815,7 +10803,7 @@
       <c r="C201" s="6"/>
       <c r="D201" s="3"/>
       <c r="E201" s="6"/>
-      <c r="F201" s="44"/>
+      <c r="F201" s="3"/>
       <c r="G201" s="3"/>
       <c r="H201" s="7"/>
       <c r="I201" s="7"/>
@@ -10843,7 +10831,7 @@
       <c r="C202" s="6"/>
       <c r="D202" s="3"/>
       <c r="E202" s="6"/>
-      <c r="F202" s="44"/>
+      <c r="F202" s="3"/>
       <c r="G202" s="3"/>
       <c r="H202" s="7"/>
       <c r="I202" s="7"/>
@@ -10871,7 +10859,7 @@
       <c r="C203" s="6"/>
       <c r="D203" s="3"/>
       <c r="E203" s="6"/>
-      <c r="F203" s="44"/>
+      <c r="F203" s="3"/>
       <c r="G203" s="3"/>
       <c r="H203" s="7"/>
       <c r="I203" s="7"/>
@@ -10899,7 +10887,7 @@
       <c r="C204" s="6"/>
       <c r="D204" s="3"/>
       <c r="E204" s="6"/>
-      <c r="F204" s="44"/>
+      <c r="F204" s="3"/>
       <c r="G204" s="3"/>
       <c r="H204" s="7"/>
       <c r="I204" s="7"/>
@@ -10927,7 +10915,7 @@
       <c r="C205" s="6"/>
       <c r="D205" s="3"/>
       <c r="E205" s="6"/>
-      <c r="F205" s="44"/>
+      <c r="F205" s="3"/>
       <c r="G205" s="3"/>
       <c r="H205" s="7"/>
       <c r="I205" s="7"/>
@@ -10955,7 +10943,7 @@
       <c r="C206" s="6"/>
       <c r="D206" s="3"/>
       <c r="E206" s="6"/>
-      <c r="F206" s="44"/>
+      <c r="F206" s="3"/>
       <c r="G206" s="3"/>
       <c r="H206" s="7"/>
       <c r="I206" s="7"/>
@@ -10983,7 +10971,7 @@
       <c r="C207" s="6"/>
       <c r="D207" s="3"/>
       <c r="E207" s="6"/>
-      <c r="F207" s="44"/>
+      <c r="F207" s="3"/>
       <c r="G207" s="3"/>
       <c r="H207" s="7"/>
       <c r="I207" s="7"/>
@@ -11011,7 +10999,7 @@
       <c r="C208" s="6"/>
       <c r="D208" s="3"/>
       <c r="E208" s="6"/>
-      <c r="F208" s="44"/>
+      <c r="F208" s="3"/>
       <c r="G208" s="3"/>
       <c r="H208" s="7"/>
       <c r="I208" s="7"/>
@@ -11039,7 +11027,7 @@
       <c r="C209" s="6"/>
       <c r="D209" s="3"/>
       <c r="E209" s="6"/>
-      <c r="F209" s="44"/>
+      <c r="F209" s="3"/>
       <c r="G209" s="3"/>
       <c r="H209" s="7"/>
       <c r="I209" s="7"/>
@@ -11067,7 +11055,7 @@
       <c r="C210" s="6"/>
       <c r="D210" s="3"/>
       <c r="E210" s="6"/>
-      <c r="F210" s="44"/>
+      <c r="F210" s="3"/>
       <c r="G210" s="3"/>
       <c r="H210" s="7"/>
       <c r="I210" s="7"/>
@@ -11095,7 +11083,7 @@
       <c r="C211" s="6"/>
       <c r="D211" s="3"/>
       <c r="E211" s="6"/>
-      <c r="F211" s="44"/>
+      <c r="F211" s="3"/>
       <c r="G211" s="3"/>
       <c r="H211" s="7"/>
       <c r="I211" s="7"/>
@@ -11123,7 +11111,7 @@
       <c r="C212" s="6"/>
       <c r="D212" s="3"/>
       <c r="E212" s="6"/>
-      <c r="F212" s="44"/>
+      <c r="F212" s="3"/>
       <c r="G212" s="3"/>
       <c r="H212" s="7"/>
       <c r="I212" s="7"/>
@@ -11151,7 +11139,7 @@
       <c r="C213" s="6"/>
       <c r="D213" s="3"/>
       <c r="E213" s="6"/>
-      <c r="F213" s="44"/>
+      <c r="F213" s="3"/>
       <c r="G213" s="3"/>
       <c r="H213" s="7"/>
       <c r="I213" s="7"/>
@@ -11179,7 +11167,7 @@
       <c r="C214" s="6"/>
       <c r="D214" s="3"/>
       <c r="E214" s="6"/>
-      <c r="F214" s="44"/>
+      <c r="F214" s="3"/>
       <c r="G214" s="3"/>
       <c r="H214" s="7"/>
       <c r="I214" s="7"/>
@@ -11207,7 +11195,7 @@
       <c r="C215" s="6"/>
       <c r="D215" s="3"/>
       <c r="E215" s="6"/>
-      <c r="F215" s="44"/>
+      <c r="F215" s="3"/>
       <c r="G215" s="3"/>
       <c r="H215" s="7"/>
       <c r="I215" s="7"/>
@@ -11235,7 +11223,7 @@
       <c r="C216" s="6"/>
       <c r="D216" s="3"/>
       <c r="E216" s="6"/>
-      <c r="F216" s="44"/>
+      <c r="F216" s="3"/>
       <c r="G216" s="3"/>
       <c r="H216" s="7"/>
       <c r="I216" s="7"/>
@@ -11263,7 +11251,7 @@
       <c r="C217" s="6"/>
       <c r="D217" s="3"/>
       <c r="E217" s="6"/>
-      <c r="F217" s="44"/>
+      <c r="F217" s="3"/>
       <c r="G217" s="3"/>
       <c r="H217" s="7"/>
       <c r="I217" s="7"/>
@@ -11291,7 +11279,7 @@
       <c r="C218" s="6"/>
       <c r="D218" s="3"/>
       <c r="E218" s="6"/>
-      <c r="F218" s="44"/>
+      <c r="F218" s="3"/>
       <c r="G218" s="3"/>
       <c r="H218" s="7"/>
       <c r="I218" s="7"/>
@@ -11319,7 +11307,7 @@
       <c r="C219" s="6"/>
       <c r="D219" s="3"/>
       <c r="E219" s="6"/>
-      <c r="F219" s="44"/>
+      <c r="F219" s="3"/>
       <c r="G219" s="3"/>
       <c r="H219" s="7"/>
       <c r="I219" s="7"/>
@@ -11347,7 +11335,7 @@
       <c r="C220" s="6"/>
       <c r="D220" s="3"/>
       <c r="E220" s="6"/>
-      <c r="F220" s="44"/>
+      <c r="F220" s="3"/>
       <c r="G220" s="3"/>
       <c r="H220" s="7"/>
       <c r="I220" s="7"/>
@@ -11375,7 +11363,7 @@
       <c r="C221" s="6"/>
       <c r="D221" s="3"/>
       <c r="E221" s="6"/>
-      <c r="F221" s="44"/>
+      <c r="F221" s="3"/>
       <c r="G221" s="3"/>
       <c r="H221" s="7"/>
       <c r="I221" s="7"/>
@@ -11403,7 +11391,7 @@
       <c r="C222" s="6"/>
       <c r="D222" s="3"/>
       <c r="E222" s="6"/>
-      <c r="F222" s="44"/>
+      <c r="F222" s="3"/>
       <c r="G222" s="3"/>
       <c r="H222" s="7"/>
       <c r="I222" s="7"/>
@@ -11431,7 +11419,7 @@
       <c r="C223" s="6"/>
       <c r="D223" s="3"/>
       <c r="E223" s="6"/>
-      <c r="F223" s="44"/>
+      <c r="F223" s="3"/>
       <c r="G223" s="3"/>
       <c r="H223" s="7"/>
       <c r="I223" s="7"/>
@@ -11459,7 +11447,7 @@
       <c r="C224" s="6"/>
       <c r="D224" s="3"/>
       <c r="E224" s="6"/>
-      <c r="F224" s="44"/>
+      <c r="F224" s="3"/>
       <c r="G224" s="3"/>
       <c r="H224" s="7"/>
       <c r="I224" s="7"/>
@@ -11487,7 +11475,7 @@
       <c r="C225" s="6"/>
       <c r="D225" s="3"/>
       <c r="E225" s="6"/>
-      <c r="F225" s="44"/>
+      <c r="F225" s="3"/>
       <c r="G225" s="3"/>
       <c r="H225" s="7"/>
       <c r="I225" s="7"/>
@@ -11515,7 +11503,7 @@
       <c r="C226" s="6"/>
       <c r="D226" s="3"/>
       <c r="E226" s="6"/>
-      <c r="F226" s="44"/>
+      <c r="F226" s="3"/>
       <c r="G226" s="3"/>
       <c r="H226" s="7"/>
       <c r="I226" s="7"/>
@@ -11543,7 +11531,7 @@
       <c r="C227" s="6"/>
       <c r="D227" s="3"/>
       <c r="E227" s="6"/>
-      <c r="F227" s="44"/>
+      <c r="F227" s="3"/>
       <c r="G227" s="3"/>
       <c r="H227" s="7"/>
       <c r="I227" s="7"/>
@@ -11571,7 +11559,7 @@
       <c r="C228" s="6"/>
       <c r="D228" s="3"/>
       <c r="E228" s="6"/>
-      <c r="F228" s="44"/>
+      <c r="F228" s="3"/>
       <c r="G228" s="3"/>
       <c r="H228" s="7"/>
       <c r="I228" s="7"/>
@@ -11599,7 +11587,7 @@
       <c r="C229" s="6"/>
       <c r="D229" s="3"/>
       <c r="E229" s="6"/>
-      <c r="F229" s="44"/>
+      <c r="F229" s="3"/>
       <c r="G229" s="3"/>
       <c r="H229" s="7"/>
       <c r="I229" s="7"/>
@@ -11627,7 +11615,7 @@
       <c r="C230" s="6"/>
       <c r="D230" s="3"/>
       <c r="E230" s="6"/>
-      <c r="F230" s="44"/>
+      <c r="F230" s="3"/>
       <c r="G230" s="3"/>
       <c r="H230" s="7"/>
       <c r="I230" s="7"/>
@@ -11655,7 +11643,7 @@
       <c r="C231" s="6"/>
       <c r="D231" s="3"/>
       <c r="E231" s="6"/>
-      <c r="F231" s="44"/>
+      <c r="F231" s="3"/>
       <c r="G231" s="3"/>
       <c r="H231" s="7"/>
       <c r="I231" s="7"/>
@@ -11683,7 +11671,7 @@
       <c r="C232" s="6"/>
       <c r="D232" s="3"/>
       <c r="E232" s="6"/>
-      <c r="F232" s="44"/>
+      <c r="F232" s="3"/>
       <c r="G232" s="3"/>
       <c r="H232" s="7"/>
       <c r="I232" s="7"/>
@@ -11711,7 +11699,7 @@
       <c r="C233" s="6"/>
       <c r="D233" s="3"/>
       <c r="E233" s="6"/>
-      <c r="F233" s="44"/>
+      <c r="F233" s="3"/>
       <c r="G233" s="3"/>
       <c r="H233" s="7"/>
       <c r="I233" s="7"/>
@@ -11739,7 +11727,7 @@
       <c r="C234" s="6"/>
       <c r="D234" s="3"/>
       <c r="E234" s="6"/>
-      <c r="F234" s="44"/>
+      <c r="F234" s="3"/>
       <c r="G234" s="3"/>
       <c r="H234" s="7"/>
       <c r="I234" s="7"/>
@@ -11767,7 +11755,7 @@
       <c r="C235" s="6"/>
       <c r="D235" s="3"/>
       <c r="E235" s="6"/>
-      <c r="F235" s="44"/>
+      <c r="F235" s="3"/>
       <c r="G235" s="3"/>
       <c r="H235" s="7"/>
       <c r="I235" s="7"/>
@@ -11795,7 +11783,7 @@
       <c r="C236" s="6"/>
       <c r="D236" s="3"/>
       <c r="E236" s="6"/>
-      <c r="F236" s="44"/>
+      <c r="F236" s="3"/>
       <c r="G236" s="3"/>
       <c r="H236" s="7"/>
       <c r="I236" s="7"/>
@@ -11823,7 +11811,7 @@
       <c r="C237" s="6"/>
       <c r="D237" s="3"/>
       <c r="E237" s="6"/>
-      <c r="F237" s="44"/>
+      <c r="F237" s="3"/>
       <c r="G237" s="3"/>
       <c r="H237" s="7"/>
       <c r="I237" s="7"/>
@@ -11851,7 +11839,7 @@
       <c r="C238" s="6"/>
       <c r="D238" s="3"/>
       <c r="E238" s="6"/>
-      <c r="F238" s="44"/>
+      <c r="F238" s="3"/>
       <c r="G238" s="3"/>
       <c r="H238" s="7"/>
       <c r="I238" s="7"/>
@@ -11879,7 +11867,7 @@
       <c r="C239" s="6"/>
       <c r="D239" s="3"/>
       <c r="E239" s="6"/>
-      <c r="F239" s="44"/>
+      <c r="F239" s="3"/>
       <c r="G239" s="3"/>
       <c r="H239" s="7"/>
       <c r="I239" s="7"/>
@@ -11907,7 +11895,7 @@
       <c r="C240" s="6"/>
       <c r="D240" s="3"/>
       <c r="E240" s="6"/>
-      <c r="F240" s="44"/>
+      <c r="F240" s="3"/>
       <c r="G240" s="3"/>
       <c r="H240" s="7"/>
       <c r="I240" s="7"/>
@@ -11935,7 +11923,7 @@
       <c r="C241" s="6"/>
       <c r="D241" s="3"/>
       <c r="E241" s="6"/>
-      <c r="F241" s="44"/>
+      <c r="F241" s="3"/>
       <c r="G241" s="3"/>
       <c r="H241" s="7"/>
       <c r="I241" s="7"/>
@@ -11963,7 +11951,7 @@
       <c r="C242" s="6"/>
       <c r="D242" s="3"/>
       <c r="E242" s="6"/>
-      <c r="F242" s="44"/>
+      <c r="F242" s="3"/>
       <c r="G242" s="3"/>
       <c r="H242" s="7"/>
       <c r="I242" s="7"/>
@@ -11991,7 +11979,7 @@
       <c r="C243" s="6"/>
       <c r="D243" s="3"/>
       <c r="E243" s="6"/>
-      <c r="F243" s="44"/>
+      <c r="F243" s="3"/>
       <c r="G243" s="3"/>
       <c r="H243" s="7"/>
       <c r="I243" s="7"/>
@@ -12019,7 +12007,7 @@
       <c r="C244" s="6"/>
       <c r="D244" s="3"/>
       <c r="E244" s="6"/>
-      <c r="F244" s="44"/>
+      <c r="F244" s="3"/>
       <c r="G244" s="3"/>
       <c r="H244" s="7"/>
       <c r="I244" s="7"/>
@@ -12047,7 +12035,7 @@
       <c r="C245" s="6"/>
       <c r="D245" s="3"/>
       <c r="E245" s="6"/>
-      <c r="F245" s="44"/>
+      <c r="F245" s="3"/>
       <c r="G245" s="3"/>
       <c r="H245" s="7"/>
       <c r="I245" s="7"/>
@@ -12075,7 +12063,7 @@
       <c r="C246" s="6"/>
       <c r="D246" s="3"/>
       <c r="E246" s="6"/>
-      <c r="F246" s="44"/>
+      <c r="F246" s="3"/>
       <c r="G246" s="3"/>
       <c r="H246" s="7"/>
       <c r="I246" s="7"/>
@@ -12103,7 +12091,7 @@
       <c r="C247" s="6"/>
       <c r="D247" s="3"/>
       <c r="E247" s="6"/>
-      <c r="F247" s="44"/>
+      <c r="F247" s="3"/>
       <c r="G247" s="3"/>
       <c r="H247" s="7"/>
       <c r="I247" s="7"/>
@@ -12131,7 +12119,7 @@
       <c r="C248" s="6"/>
       <c r="D248" s="3"/>
       <c r="E248" s="6"/>
-      <c r="F248" s="44"/>
+      <c r="F248" s="3"/>
       <c r="G248" s="3"/>
       <c r="H248" s="7"/>
       <c r="I248" s="7"/>
@@ -12159,7 +12147,7 @@
       <c r="C249" s="6"/>
       <c r="D249" s="3"/>
       <c r="E249" s="6"/>
-      <c r="F249" s="44"/>
+      <c r="F249" s="3"/>
       <c r="G249" s="3"/>
       <c r="H249" s="7"/>
       <c r="I249" s="7"/>
@@ -12187,7 +12175,7 @@
       <c r="C250" s="6"/>
       <c r="D250" s="3"/>
       <c r="E250" s="6"/>
-      <c r="F250" s="44"/>
+      <c r="F250" s="3"/>
       <c r="G250" s="3"/>
       <c r="H250" s="7"/>
       <c r="I250" s="7"/>
@@ -12215,7 +12203,7 @@
       <c r="C251" s="6"/>
       <c r="D251" s="3"/>
       <c r="E251" s="6"/>
-      <c r="F251" s="44"/>
+      <c r="F251" s="3"/>
       <c r="G251" s="3"/>
       <c r="H251" s="7"/>
       <c r="I251" s="7"/>
@@ -12243,7 +12231,7 @@
       <c r="C252" s="6"/>
       <c r="D252" s="3"/>
       <c r="E252" s="6"/>
-      <c r="F252" s="44"/>
+      <c r="F252" s="3"/>
       <c r="G252" s="3"/>
       <c r="H252" s="7"/>
       <c r="I252" s="7"/>
@@ -12271,7 +12259,7 @@
       <c r="C253" s="6"/>
       <c r="D253" s="3"/>
       <c r="E253" s="6"/>
-      <c r="F253" s="44"/>
+      <c r="F253" s="3"/>
       <c r="G253" s="3"/>
       <c r="H253" s="7"/>
       <c r="I253" s="7"/>
@@ -12299,7 +12287,7 @@
       <c r="C254" s="6"/>
       <c r="D254" s="3"/>
       <c r="E254" s="6"/>
-      <c r="F254" s="44"/>
+      <c r="F254" s="3"/>
       <c r="G254" s="3"/>
       <c r="H254" s="7"/>
       <c r="I254" s="7"/>
@@ -12327,7 +12315,7 @@
       <c r="C255" s="6"/>
       <c r="D255" s="3"/>
       <c r="E255" s="6"/>
-      <c r="F255" s="44"/>
+      <c r="F255" s="3"/>
       <c r="G255" s="3"/>
       <c r="H255" s="7"/>
       <c r="I255" s="7"/>
@@ -12355,7 +12343,7 @@
       <c r="C256" s="6"/>
       <c r="D256" s="3"/>
       <c r="E256" s="6"/>
-      <c r="F256" s="44"/>
+      <c r="F256" s="3"/>
       <c r="G256" s="3"/>
       <c r="H256" s="7"/>
       <c r="I256" s="7"/>
@@ -12383,7 +12371,7 @@
       <c r="C257" s="6"/>
       <c r="D257" s="3"/>
       <c r="E257" s="6"/>
-      <c r="F257" s="44"/>
+      <c r="F257" s="3"/>
       <c r="G257" s="3"/>
       <c r="H257" s="7"/>
       <c r="I257" s="7"/>
@@ -12411,7 +12399,7 @@
       <c r="C258" s="6"/>
       <c r="D258" s="3"/>
       <c r="E258" s="6"/>
-      <c r="F258" s="44"/>
+      <c r="F258" s="3"/>
       <c r="G258" s="3"/>
       <c r="H258" s="7"/>
       <c r="I258" s="7"/>
@@ -12439,7 +12427,7 @@
       <c r="C259" s="6"/>
       <c r="D259" s="3"/>
       <c r="E259" s="6"/>
-      <c r="F259" s="44"/>
+      <c r="F259" s="3"/>
       <c r="G259" s="3"/>
       <c r="H259" s="7"/>
       <c r="I259" s="7"/>
@@ -12467,7 +12455,7 @@
       <c r="C260" s="6"/>
       <c r="D260" s="3"/>
       <c r="E260" s="6"/>
-      <c r="F260" s="44"/>
+      <c r="F260" s="3"/>
       <c r="G260" s="3"/>
       <c r="H260" s="7"/>
       <c r="I260" s="7"/>
@@ -12495,7 +12483,7 @@
       <c r="C261" s="6"/>
       <c r="D261" s="3"/>
       <c r="E261" s="6"/>
-      <c r="F261" s="44"/>
+      <c r="F261" s="3"/>
       <c r="G261" s="3"/>
       <c r="H261" s="7"/>
       <c r="I261" s="7"/>
@@ -12523,7 +12511,7 @@
       <c r="C262" s="6"/>
       <c r="D262" s="3"/>
       <c r="E262" s="6"/>
-      <c r="F262" s="44"/>
+      <c r="F262" s="3"/>
       <c r="G262" s="3"/>
       <c r="H262" s="7"/>
       <c r="I262" s="7"/>
@@ -12551,7 +12539,7 @@
       <c r="C263" s="6"/>
       <c r="D263" s="3"/>
       <c r="E263" s="6"/>
-      <c r="F263" s="44"/>
+      <c r="F263" s="3"/>
       <c r="G263" s="3"/>
       <c r="H263" s="7"/>
       <c r="I263" s="7"/>
@@ -12579,7 +12567,7 @@
       <c r="C264" s="6"/>
       <c r="D264" s="3"/>
       <c r="E264" s="6"/>
-      <c r="F264" s="44"/>
+      <c r="F264" s="3"/>
       <c r="G264" s="3"/>
       <c r="H264" s="7"/>
       <c r="I264" s="7"/>
@@ -12607,7 +12595,7 @@
       <c r="C265" s="6"/>
       <c r="D265" s="3"/>
       <c r="E265" s="6"/>
-      <c r="F265" s="44"/>
+      <c r="F265" s="3"/>
       <c r="G265" s="3"/>
       <c r="H265" s="7"/>
       <c r="I265" s="7"/>
@@ -12635,7 +12623,7 @@
       <c r="C266" s="6"/>
       <c r="D266" s="3"/>
       <c r="E266" s="6"/>
-      <c r="F266" s="44"/>
+      <c r="F266" s="3"/>
       <c r="G266" s="3"/>
       <c r="H266" s="7"/>
       <c r="I266" s="7"/>
@@ -12663,7 +12651,7 @@
       <c r="C267" s="6"/>
       <c r="D267" s="3"/>
       <c r="E267" s="6"/>
-      <c r="F267" s="44"/>
+      <c r="F267" s="3"/>
       <c r="G267" s="3"/>
       <c r="H267" s="7"/>
       <c r="I267" s="7"/>
@@ -12691,7 +12679,7 @@
       <c r="C268" s="6"/>
       <c r="D268" s="3"/>
       <c r="E268" s="6"/>
-      <c r="F268" s="44"/>
+      <c r="F268" s="3"/>
       <c r="G268" s="3"/>
       <c r="H268" s="7"/>
       <c r="I268" s="7"/>
@@ -12719,7 +12707,7 @@
       <c r="C269" s="6"/>
       <c r="D269" s="3"/>
       <c r="E269" s="6"/>
-      <c r="F269" s="44"/>
+      <c r="F269" s="3"/>
       <c r="G269" s="3"/>
       <c r="H269" s="7"/>
       <c r="I269" s="7"/>
@@ -12747,7 +12735,7 @@
       <c r="C270" s="6"/>
       <c r="D270" s="3"/>
       <c r="E270" s="6"/>
-      <c r="F270" s="44"/>
+      <c r="F270" s="3"/>
       <c r="G270" s="3"/>
       <c r="H270" s="7"/>
       <c r="I270" s="7"/>
@@ -12775,7 +12763,7 @@
       <c r="C271" s="6"/>
       <c r="D271" s="3"/>
       <c r="E271" s="6"/>
-      <c r="F271" s="44"/>
+      <c r="F271" s="3"/>
       <c r="G271" s="3"/>
       <c r="H271" s="7"/>
       <c r="I271" s="7"/>
@@ -12803,7 +12791,7 @@
       <c r="C272" s="6"/>
       <c r="D272" s="3"/>
       <c r="E272" s="6"/>
-      <c r="F272" s="44"/>
+      <c r="F272" s="3"/>
       <c r="G272" s="3"/>
       <c r="H272" s="7"/>
       <c r="I272" s="7"/>
@@ -12831,7 +12819,7 @@
       <c r="C273" s="6"/>
       <c r="D273" s="3"/>
       <c r="E273" s="6"/>
-      <c r="F273" s="44"/>
+      <c r="F273" s="3"/>
       <c r="G273" s="3"/>
       <c r="H273" s="7"/>
       <c r="I273" s="7"/>
@@ -12859,7 +12847,7 @@
       <c r="C274" s="6"/>
       <c r="D274" s="3"/>
       <c r="E274" s="6"/>
-      <c r="F274" s="44"/>
+      <c r="F274" s="3"/>
       <c r="G274" s="3"/>
       <c r="H274" s="7"/>
       <c r="I274" s="7"/>
@@ -12887,7 +12875,7 @@
       <c r="C275" s="6"/>
       <c r="D275" s="3"/>
       <c r="E275" s="6"/>
-      <c r="F275" s="44"/>
+      <c r="F275" s="3"/>
       <c r="G275" s="3"/>
       <c r="H275" s="7"/>
       <c r="I275" s="7"/>
@@ -12915,7 +12903,7 @@
       <c r="C276" s="6"/>
       <c r="D276" s="3"/>
       <c r="E276" s="6"/>
-      <c r="F276" s="44"/>
+      <c r="F276" s="3"/>
       <c r="G276" s="3"/>
       <c r="H276" s="7"/>
       <c r="I276" s="7"/>
@@ -12943,7 +12931,7 @@
       <c r="C277" s="6"/>
       <c r="D277" s="3"/>
       <c r="E277" s="6"/>
-      <c r="F277" s="44"/>
+      <c r="F277" s="3"/>
       <c r="G277" s="3"/>
       <c r="H277" s="7"/>
       <c r="I277" s="7"/>
@@ -12971,7 +12959,7 @@
       <c r="C278" s="6"/>
       <c r="D278" s="3"/>
       <c r="E278" s="6"/>
-      <c r="F278" s="44"/>
+      <c r="F278" s="3"/>
       <c r="G278" s="3"/>
       <c r="H278" s="7"/>
       <c r="I278" s="7"/>
@@ -12999,7 +12987,7 @@
       <c r="C279" s="6"/>
       <c r="D279" s="3"/>
       <c r="E279" s="6"/>
-      <c r="F279" s="44"/>
+      <c r="F279" s="3"/>
       <c r="G279" s="3"/>
       <c r="H279" s="7"/>
       <c r="I279" s="7"/>
@@ -13027,7 +13015,7 @@
       <c r="C280" s="6"/>
       <c r="D280" s="3"/>
       <c r="E280" s="6"/>
-      <c r="F280" s="44"/>
+      <c r="F280" s="3"/>
       <c r="G280" s="3"/>
       <c r="H280" s="7"/>
       <c r="I280" s="7"/>
@@ -13055,7 +13043,7 @@
       <c r="C281" s="6"/>
       <c r="D281" s="3"/>
       <c r="E281" s="6"/>
-      <c r="F281" s="44"/>
+      <c r="F281" s="3"/>
       <c r="G281" s="3"/>
       <c r="H281" s="7"/>
       <c r="I281" s="7"/>
@@ -13083,7 +13071,7 @@
       <c r="C282" s="6"/>
       <c r="D282" s="3"/>
       <c r="E282" s="6"/>
-      <c r="F282" s="44"/>
+      <c r="F282" s="3"/>
       <c r="G282" s="3"/>
       <c r="H282" s="7"/>
       <c r="I282" s="7"/>
@@ -13111,7 +13099,7 @@
       <c r="C283" s="6"/>
       <c r="D283" s="3"/>
       <c r="E283" s="6"/>
-      <c r="F283" s="44"/>
+      <c r="F283" s="3"/>
       <c r="G283" s="3"/>
       <c r="H283" s="7"/>
       <c r="I283" s="7"/>
@@ -13139,7 +13127,7 @@
       <c r="C284" s="6"/>
       <c r="D284" s="3"/>
       <c r="E284" s="6"/>
-      <c r="F284" s="44"/>
+      <c r="F284" s="3"/>
       <c r="G284" s="3"/>
       <c r="H284" s="7"/>
       <c r="I284" s="7"/>
@@ -13167,7 +13155,7 @@
       <c r="C285" s="6"/>
       <c r="D285" s="3"/>
       <c r="E285" s="6"/>
-      <c r="F285" s="44"/>
+      <c r="F285" s="3"/>
       <c r="G285" s="3"/>
       <c r="H285" s="7"/>
       <c r="I285" s="7"/>
@@ -13195,7 +13183,7 @@
       <c r="C286" s="6"/>
       <c r="D286" s="3"/>
       <c r="E286" s="6"/>
-      <c r="F286" s="44"/>
+      <c r="F286" s="3"/>
       <c r="G286" s="3"/>
       <c r="H286" s="7"/>
       <c r="I286" s="7"/>
@@ -13223,7 +13211,7 @@
       <c r="C287" s="6"/>
       <c r="D287" s="3"/>
       <c r="E287" s="6"/>
-      <c r="F287" s="44"/>
+      <c r="F287" s="3"/>
       <c r="G287" s="3"/>
       <c r="H287" s="7"/>
       <c r="I287" s="7"/>
@@ -13251,7 +13239,7 @@
       <c r="C288" s="6"/>
       <c r="D288" s="3"/>
       <c r="E288" s="6"/>
-      <c r="F288" s="44"/>
+      <c r="F288" s="3"/>
       <c r="G288" s="3"/>
       <c r="H288" s="7"/>
       <c r="I288" s="7"/>
@@ -13279,7 +13267,7 @@
       <c r="C289" s="6"/>
       <c r="D289" s="3"/>
       <c r="E289" s="6"/>
-      <c r="F289" s="44"/>
+      <c r="F289" s="3"/>
       <c r="G289" s="3"/>
       <c r="H289" s="7"/>
       <c r="I289" s="7"/>
@@ -13307,7 +13295,7 @@
       <c r="C290" s="6"/>
       <c r="D290" s="3"/>
       <c r="E290" s="6"/>
-      <c r="F290" s="44"/>
+      <c r="F290" s="3"/>
       <c r="G290" s="3"/>
       <c r="H290" s="7"/>
       <c r="I290" s="7"/>
@@ -13335,7 +13323,7 @@
       <c r="C291" s="6"/>
       <c r="D291" s="3"/>
       <c r="E291" s="6"/>
-      <c r="F291" s="44"/>
+      <c r="F291" s="3"/>
       <c r="G291" s="3"/>
       <c r="H291" s="7"/>
       <c r="I291" s="7"/>
@@ -13363,7 +13351,7 @@
       <c r="C292" s="6"/>
       <c r="D292" s="3"/>
       <c r="E292" s="6"/>
-      <c r="F292" s="44"/>
+      <c r="F292" s="3"/>
       <c r="G292" s="3"/>
       <c r="H292" s="7"/>
       <c r="I292" s="7"/>
@@ -13391,7 +13379,7 @@
       <c r="C293" s="6"/>
       <c r="D293" s="3"/>
       <c r="E293" s="6"/>
-      <c r="F293" s="44"/>
+      <c r="F293" s="3"/>
       <c r="G293" s="3"/>
       <c r="H293" s="7"/>
       <c r="I293" s="7"/>
@@ -13419,7 +13407,7 @@
       <c r="C294" s="6"/>
       <c r="D294" s="3"/>
       <c r="E294" s="6"/>
-      <c r="F294" s="44"/>
+      <c r="F294" s="3"/>
       <c r="G294" s="3"/>
       <c r="H294" s="7"/>
       <c r="I294" s="7"/>
@@ -13447,7 +13435,7 @@
       <c r="C295" s="6"/>
       <c r="D295" s="3"/>
       <c r="E295" s="6"/>
-      <c r="F295" s="44"/>
+      <c r="F295" s="3"/>
       <c r="G295" s="3"/>
       <c r="H295" s="7"/>
       <c r="I295" s="7"/>
@@ -13475,7 +13463,7 @@
       <c r="C296" s="6"/>
       <c r="D296" s="3"/>
       <c r="E296" s="6"/>
-      <c r="F296" s="44"/>
+      <c r="F296" s="3"/>
       <c r="G296" s="3"/>
       <c r="H296" s="7"/>
       <c r="I296" s="7"/>
@@ -13503,7 +13491,7 @@
       <c r="C297" s="6"/>
       <c r="D297" s="3"/>
       <c r="E297" s="6"/>
-      <c r="F297" s="44"/>
+      <c r="F297" s="3"/>
       <c r="G297" s="3"/>
       <c r="H297" s="7"/>
       <c r="I297" s="7"/>
@@ -13531,7 +13519,7 @@
       <c r="C298" s="6"/>
       <c r="D298" s="3"/>
       <c r="E298" s="6"/>
-      <c r="F298" s="44"/>
+      <c r="F298" s="3"/>
       <c r="G298" s="3"/>
       <c r="H298" s="7"/>
       <c r="I298" s="7"/>
@@ -13559,7 +13547,7 @@
       <c r="C299" s="6"/>
       <c r="D299" s="3"/>
       <c r="E299" s="6"/>
-      <c r="F299" s="44"/>
+      <c r="F299" s="3"/>
       <c r="G299" s="3"/>
       <c r="H299" s="7"/>
       <c r="I299" s="7"/>
@@ -13587,7 +13575,7 @@
       <c r="C300" s="6"/>
       <c r="D300" s="3"/>
       <c r="E300" s="6"/>
-      <c r="F300" s="44"/>
+      <c r="F300" s="3"/>
       <c r="G300" s="3"/>
       <c r="H300" s="7"/>
       <c r="I300" s="7"/>
@@ -13615,7 +13603,7 @@
       <c r="C301" s="6"/>
       <c r="D301" s="3"/>
       <c r="E301" s="6"/>
-      <c r="F301" s="44"/>
+      <c r="F301" s="3"/>
       <c r="G301" s="3"/>
       <c r="H301" s="7"/>
       <c r="I301" s="7"/>
@@ -13643,7 +13631,7 @@
       <c r="C302" s="6"/>
       <c r="D302" s="3"/>
       <c r="E302" s="6"/>
-      <c r="F302" s="44"/>
+      <c r="F302" s="3"/>
       <c r="G302" s="3"/>
       <c r="H302" s="7"/>
       <c r="I302" s="7"/>
@@ -13671,7 +13659,7 @@
       <c r="C303" s="6"/>
       <c r="D303" s="3"/>
       <c r="E303" s="6"/>
-      <c r="F303" s="44"/>
+      <c r="F303" s="3"/>
       <c r="G303" s="3"/>
       <c r="H303" s="7"/>
       <c r="I303" s="7"/>
@@ -13699,7 +13687,7 @@
       <c r="C304" s="6"/>
       <c r="D304" s="3"/>
       <c r="E304" s="6"/>
-      <c r="F304" s="44"/>
+      <c r="F304" s="3"/>
       <c r="G304" s="3"/>
       <c r="H304" s="7"/>
       <c r="I304" s="7"/>
@@ -13727,7 +13715,7 @@
       <c r="C305" s="6"/>
       <c r="D305" s="3"/>
       <c r="E305" s="6"/>
-      <c r="F305" s="44"/>
+      <c r="F305" s="3"/>
       <c r="G305" s="3"/>
       <c r="H305" s="7"/>
       <c r="I305" s="7"/>
@@ -13755,7 +13743,7 @@
       <c r="C306" s="6"/>
       <c r="D306" s="3"/>
       <c r="E306" s="6"/>
-      <c r="F306" s="44"/>
+      <c r="F306" s="3"/>
       <c r="G306" s="3"/>
       <c r="H306" s="7"/>
       <c r="I306" s="7"/>
@@ -13783,7 +13771,7 @@
       <c r="C307" s="6"/>
       <c r="D307" s="3"/>
       <c r="E307" s="6"/>
-      <c r="F307" s="44"/>
+      <c r="F307" s="3"/>
       <c r="G307" s="3"/>
       <c r="H307" s="7"/>
       <c r="I307" s="7"/>
@@ -13811,7 +13799,7 @@
       <c r="C308" s="6"/>
       <c r="D308" s="3"/>
       <c r="E308" s="6"/>
-      <c r="F308" s="44"/>
+      <c r="F308" s="3"/>
       <c r="G308" s="3"/>
       <c r="H308" s="7"/>
       <c r="I308" s="7"/>
@@ -13839,7 +13827,7 @@
       <c r="C309" s="6"/>
       <c r="D309" s="3"/>
       <c r="E309" s="6"/>
-      <c r="F309" s="44"/>
+      <c r="F309" s="3"/>
       <c r="G309" s="3"/>
       <c r="H309" s="7"/>
       <c r="I309" s="7"/>
@@ -13867,7 +13855,7 @@
       <c r="C310" s="6"/>
       <c r="D310" s="3"/>
       <c r="E310" s="6"/>
-      <c r="F310" s="44"/>
+      <c r="F310" s="3"/>
       <c r="G310" s="3"/>
       <c r="H310" s="7"/>
       <c r="I310" s="7"/>
@@ -13895,7 +13883,7 @@
       <c r="C311" s="6"/>
       <c r="D311" s="3"/>
       <c r="E311" s="6"/>
-      <c r="F311" s="44"/>
+      <c r="F311" s="3"/>
       <c r="G311" s="3"/>
       <c r="H311" s="7"/>
       <c r="I311" s="7"/>
@@ -13923,7 +13911,7 @@
       <c r="C312" s="6"/>
       <c r="D312" s="3"/>
       <c r="E312" s="6"/>
-      <c r="F312" s="44"/>
+      <c r="F312" s="3"/>
       <c r="G312" s="3"/>
       <c r="H312" s="7"/>
       <c r="I312" s="7"/>
@@ -13951,7 +13939,7 @@
       <c r="C313" s="6"/>
       <c r="D313" s="3"/>
       <c r="E313" s="6"/>
-      <c r="F313" s="44"/>
+      <c r="F313" s="3"/>
       <c r="G313" s="3"/>
       <c r="H313" s="7"/>
       <c r="I313" s="7"/>
@@ -13979,7 +13967,7 @@
       <c r="C314" s="6"/>
       <c r="D314" s="3"/>
       <c r="E314" s="6"/>
-      <c r="F314" s="44"/>
+      <c r="F314" s="3"/>
       <c r="G314" s="3"/>
       <c r="H314" s="7"/>
       <c r="I314" s="7"/>
@@ -14007,7 +13995,7 @@
       <c r="C315" s="6"/>
       <c r="D315" s="3"/>
       <c r="E315" s="6"/>
-      <c r="F315" s="44"/>
+      <c r="F315" s="3"/>
       <c r="G315" s="3"/>
       <c r="H315" s="7"/>
       <c r="I315" s="7"/>
@@ -14035,7 +14023,7 @@
       <c r="C316" s="6"/>
       <c r="D316" s="3"/>
       <c r="E316" s="6"/>
-      <c r="F316" s="44"/>
+      <c r="F316" s="3"/>
       <c r="G316" s="3"/>
       <c r="H316" s="7"/>
       <c r="I316" s="7"/>
@@ -14063,7 +14051,7 @@
       <c r="C317" s="6"/>
       <c r="D317" s="3"/>
       <c r="E317" s="6"/>
-      <c r="F317" s="44"/>
+      <c r="F317" s="3"/>
       <c r="G317" s="3"/>
       <c r="H317" s="7"/>
       <c r="I317" s="7"/>
@@ -14091,7 +14079,7 @@
       <c r="C318" s="6"/>
       <c r="D318" s="3"/>
       <c r="E318" s="6"/>
-      <c r="F318" s="44"/>
+      <c r="F318" s="3"/>
       <c r="G318" s="3"/>
       <c r="H318" s="7"/>
       <c r="I318" s="7"/>
@@ -14119,7 +14107,7 @@
       <c r="C319" s="6"/>
       <c r="D319" s="3"/>
       <c r="E319" s="6"/>
-      <c r="F319" s="44"/>
+      <c r="F319" s="3"/>
       <c r="G319" s="3"/>
       <c r="H319" s="7"/>
       <c r="I319" s="7"/>
@@ -14147,7 +14135,7 @@
       <c r="C320" s="6"/>
       <c r="D320" s="3"/>
       <c r="E320" s="6"/>
-      <c r="F320" s="44"/>
+      <c r="F320" s="3"/>
       <c r="G320" s="3"/>
       <c r="H320" s="7"/>
       <c r="I320" s="7"/>
@@ -14175,7 +14163,7 @@
       <c r="C321" s="6"/>
       <c r="D321" s="3"/>
       <c r="E321" s="6"/>
-      <c r="F321" s="44"/>
+      <c r="F321" s="3"/>
       <c r="G321" s="3"/>
       <c r="H321" s="7"/>
       <c r="I321" s="7"/>
@@ -14203,7 +14191,7 @@
       <c r="C322" s="6"/>
       <c r="D322" s="3"/>
       <c r="E322" s="6"/>
-      <c r="F322" s="44"/>
+      <c r="F322" s="3"/>
       <c r="G322" s="3"/>
       <c r="H322" s="7"/>
       <c r="I322" s="7"/>
@@ -14231,7 +14219,7 @@
       <c r="C323" s="6"/>
       <c r="D323" s="3"/>
       <c r="E323" s="6"/>
-      <c r="F323" s="44"/>
+      <c r="F323" s="3"/>
       <c r="G323" s="3"/>
       <c r="H323" s="7"/>
       <c r="I323" s="7"/>
@@ -14259,7 +14247,7 @@
       <c r="C324" s="6"/>
       <c r="D324" s="3"/>
       <c r="E324" s="6"/>
-      <c r="F324" s="44"/>
+      <c r="F324" s="3"/>
       <c r="G324" s="3"/>
       <c r="H324" s="7"/>
       <c r="I324" s="7"/>
@@ -14287,7 +14275,7 @@
       <c r="C325" s="6"/>
       <c r="D325" s="3"/>
       <c r="E325" s="6"/>
-      <c r="F325" s="44"/>
+      <c r="F325" s="3"/>
       <c r="G325" s="3"/>
       <c r="H325" s="7"/>
       <c r="I325" s="7"/>
@@ -14315,7 +14303,7 @@
       <c r="C326" s="6"/>
       <c r="D326" s="3"/>
       <c r="E326" s="6"/>
-      <c r="F326" s="44"/>
+      <c r="F326" s="3"/>
       <c r="G326" s="3"/>
       <c r="H326" s="7"/>
       <c r="I326" s="7"/>
@@ -14343,7 +14331,7 @@
       <c r="C327" s="6"/>
       <c r="D327" s="3"/>
       <c r="E327" s="6"/>
-      <c r="F327" s="44"/>
+      <c r="F327" s="3"/>
       <c r="G327" s="3"/>
       <c r="H327" s="7"/>
       <c r="I327" s="7"/>
@@ -14371,7 +14359,7 @@
       <c r="C328" s="6"/>
       <c r="D328" s="3"/>
       <c r="E328" s="6"/>
-      <c r="F328" s="44"/>
+      <c r="F328" s="3"/>
       <c r="G328" s="3"/>
       <c r="H328" s="7"/>
       <c r="I328" s="7"/>
@@ -14399,7 +14387,7 @@
       <c r="C329" s="6"/>
       <c r="D329" s="3"/>
       <c r="E329" s="6"/>
-      <c r="F329" s="44"/>
+      <c r="F329" s="3"/>
       <c r="G329" s="3"/>
       <c r="H329" s="7"/>
       <c r="I329" s="7"/>
@@ -14427,7 +14415,7 @@
       <c r="C330" s="6"/>
       <c r="D330" s="3"/>
       <c r="E330" s="6"/>
-      <c r="F330" s="44"/>
+      <c r="F330" s="3"/>
       <c r="G330" s="3"/>
       <c r="H330" s="7"/>
       <c r="I330" s="7"/>
@@ -14455,7 +14443,7 @@
       <c r="C331" s="6"/>
       <c r="D331" s="3"/>
       <c r="E331" s="6"/>
-      <c r="F331" s="44"/>
+      <c r="F331" s="3"/>
       <c r="G331" s="3"/>
       <c r="H331" s="7"/>
       <c r="I331" s="7"/>
@@ -14483,7 +14471,7 @@
       <c r="C332" s="6"/>
       <c r="D332" s="3"/>
       <c r="E332" s="6"/>
-      <c r="F332" s="44"/>
+      <c r="F332" s="3"/>
       <c r="G332" s="3"/>
       <c r="H332" s="7"/>
       <c r="I332" s="7"/>
@@ -14511,7 +14499,7 @@
       <c r="C333" s="6"/>
       <c r="D333" s="3"/>
       <c r="E333" s="6"/>
-      <c r="F333" s="44"/>
+      <c r="F333" s="3"/>
       <c r="G333" s="3"/>
       <c r="H333" s="7"/>
       <c r="I333" s="7"/>
@@ -14539,7 +14527,7 @@
       <c r="C334" s="6"/>
       <c r="D334" s="3"/>
       <c r="E334" s="6"/>
-      <c r="F334" s="44"/>
+      <c r="F334" s="3"/>
       <c r="G334" s="3"/>
       <c r="H334" s="7"/>
       <c r="I334" s="7"/>
@@ -14567,7 +14555,7 @@
       <c r="C335" s="6"/>
       <c r="D335" s="3"/>
       <c r="E335" s="6"/>
-      <c r="F335" s="44"/>
+      <c r="F335" s="3"/>
       <c r="G335" s="3"/>
       <c r="H335" s="7"/>
       <c r="I335" s="7"/>
@@ -14595,7 +14583,7 @@
       <c r="C336" s="6"/>
       <c r="D336" s="3"/>
       <c r="E336" s="6"/>
-      <c r="F336" s="44"/>
+      <c r="F336" s="3"/>
       <c r="G336" s="3"/>
       <c r="H336" s="7"/>
       <c r="I336" s="7"/>
@@ -14623,7 +14611,7 @@
       <c r="C337" s="6"/>
       <c r="D337" s="3"/>
       <c r="E337" s="6"/>
-      <c r="F337" s="44"/>
+      <c r="F337" s="3"/>
       <c r="G337" s="3"/>
       <c r="H337" s="7"/>
       <c r="I337" s="7"/>
@@ -14651,7 +14639,7 @@
       <c r="C338" s="6"/>
       <c r="D338" s="3"/>
       <c r="E338" s="6"/>
-      <c r="F338" s="44"/>
+      <c r="F338" s="3"/>
       <c r="G338" s="3"/>
       <c r="H338" s="7"/>
       <c r="I338" s="7"/>
@@ -14679,7 +14667,7 @@
       <c r="C339" s="6"/>
       <c r="D339" s="3"/>
       <c r="E339" s="6"/>
-      <c r="F339" s="44"/>
+      <c r="F339" s="3"/>
       <c r="G339" s="3"/>
       <c r="H339" s="7"/>
       <c r="I339" s="7"/>
@@ -14707,7 +14695,7 @@
       <c r="C340" s="6"/>
       <c r="D340" s="3"/>
       <c r="E340" s="6"/>
-      <c r="F340" s="44"/>
+      <c r="F340" s="3"/>
       <c r="G340" s="3"/>
       <c r="H340" s="7"/>
       <c r="I340" s="7"/>
@@ -14735,7 +14723,7 @@
       <c r="C341" s="6"/>
       <c r="D341" s="3"/>
       <c r="E341" s="6"/>
-      <c r="F341" s="44"/>
+      <c r="F341" s="3"/>
       <c r="G341" s="3"/>
       <c r="H341" s="7"/>
       <c r="I341" s="7"/>
@@ -14763,7 +14751,7 @@
       <c r="C342" s="6"/>
       <c r="D342" s="3"/>
       <c r="E342" s="6"/>
-      <c r="F342" s="44"/>
+      <c r="F342" s="3"/>
       <c r="G342" s="3"/>
       <c r="H342" s="7"/>
       <c r="I342" s="7"/>
@@ -14791,7 +14779,7 @@
       <c r="C343" s="6"/>
       <c r="D343" s="3"/>
       <c r="E343" s="6"/>
-      <c r="F343" s="44"/>
+      <c r="F343" s="3"/>
       <c r="G343" s="3"/>
       <c r="H343" s="7"/>
       <c r="I343" s="7"/>
@@ -14819,7 +14807,7 @@
       <c r="C344" s="6"/>
       <c r="D344" s="3"/>
       <c r="E344" s="6"/>
-      <c r="F344" s="44"/>
+      <c r="F344" s="3"/>
       <c r="G344" s="3"/>
       <c r="H344" s="7"/>
       <c r="I344" s="7"/>
@@ -14847,7 +14835,7 @@
       <c r="C345" s="6"/>
       <c r="D345" s="3"/>
       <c r="E345" s="6"/>
-      <c r="F345" s="44"/>
+      <c r="F345" s="3"/>
       <c r="G345" s="3"/>
       <c r="H345" s="7"/>
       <c r="I345" s="7"/>
@@ -14875,7 +14863,7 @@
       <c r="C346" s="6"/>
       <c r="D346" s="3"/>
       <c r="E346" s="6"/>
-      <c r="F346" s="44"/>
+      <c r="F346" s="3"/>
       <c r="G346" s="3"/>
       <c r="H346" s="7"/>
       <c r="I346" s="7"/>
@@ -14903,7 +14891,7 @@
       <c r="C347" s="6"/>
       <c r="D347" s="3"/>
       <c r="E347" s="6"/>
-      <c r="F347" s="44"/>
+      <c r="F347" s="3"/>
       <c r="G347" s="3"/>
       <c r="H347" s="7"/>
       <c r="I347" s="7"/>
@@ -14931,7 +14919,7 @@
       <c r="C348" s="6"/>
       <c r="D348" s="3"/>
       <c r="E348" s="6"/>
-      <c r="F348" s="44"/>
+      <c r="F348" s="3"/>
       <c r="G348" s="3"/>
       <c r="H348" s="7"/>
       <c r="I348" s="7"/>
@@ -14959,7 +14947,7 @@
       <c r="C349" s="6"/>
       <c r="D349" s="3"/>
       <c r="E349" s="6"/>
-      <c r="F349" s="44"/>
+      <c r="F349" s="3"/>
       <c r="G349" s="3"/>
       <c r="H349" s="7"/>
       <c r="I349" s="7"/>
@@ -14987,7 +14975,7 @@
       <c r="C350" s="6"/>
       <c r="D350" s="3"/>
       <c r="E350" s="6"/>
-      <c r="F350" s="44"/>
+      <c r="F350" s="3"/>
       <c r="G350" s="3"/>
       <c r="H350" s="7"/>
       <c r="I350" s="7"/>
@@ -15015,7 +15003,7 @@
       <c r="C351" s="6"/>
       <c r="D351" s="3"/>
       <c r="E351" s="6"/>
-      <c r="F351" s="44"/>
+      <c r="F351" s="3"/>
       <c r="G351" s="3"/>
       <c r="H351" s="7"/>
       <c r="I351" s="7"/>
@@ -15043,7 +15031,7 @@
       <c r="C352" s="6"/>
       <c r="D352" s="3"/>
       <c r="E352" s="6"/>
-      <c r="F352" s="44"/>
+      <c r="F352" s="3"/>
       <c r="G352" s="3"/>
       <c r="H352" s="7"/>
       <c r="I352" s="7"/>
@@ -15071,7 +15059,7 @@
       <c r="C353" s="6"/>
       <c r="D353" s="3"/>
       <c r="E353" s="6"/>
-      <c r="F353" s="44"/>
+      <c r="F353" s="3"/>
       <c r="G353" s="3"/>
       <c r="H353" s="7"/>
       <c r="I353" s="7"/>
@@ -15099,7 +15087,7 @@
       <c r="C354" s="6"/>
       <c r="D354" s="3"/>
       <c r="E354" s="6"/>
-      <c r="F354" s="44"/>
+      <c r="F354" s="3"/>
       <c r="G354" s="3"/>
       <c r="H354" s="7"/>
       <c r="I354" s="7"/>
@@ -15127,7 +15115,7 @@
       <c r="C355" s="6"/>
       <c r="D355" s="3"/>
       <c r="E355" s="6"/>
-      <c r="F355" s="44"/>
+      <c r="F355" s="3"/>
       <c r="G355" s="3"/>
       <c r="H355" s="7"/>
       <c r="I355" s="7"/>
@@ -15155,7 +15143,7 @@
       <c r="C356" s="6"/>
       <c r="D356" s="3"/>
       <c r="E356" s="6"/>
-      <c r="F356" s="44"/>
+      <c r="F356" s="3"/>
       <c r="G356" s="3"/>
       <c r="H356" s="7"/>
       <c r="I356" s="7"/>
@@ -15183,7 +15171,7 @@
       <c r="C357" s="6"/>
       <c r="D357" s="3"/>
       <c r="E357" s="6"/>
-      <c r="F357" s="44"/>
+      <c r="F357" s="3"/>
       <c r="G357" s="3"/>
       <c r="H357" s="7"/>
       <c r="I357" s="7"/>
@@ -15211,7 +15199,7 @@
       <c r="C358" s="6"/>
       <c r="D358" s="3"/>
       <c r="E358" s="6"/>
-      <c r="F358" s="44"/>
+      <c r="F358" s="3"/>
       <c r="G358" s="3"/>
       <c r="H358" s="7"/>
       <c r="I358" s="7"/>
@@ -15239,7 +15227,7 @@
       <c r="C359" s="6"/>
       <c r="D359" s="3"/>
       <c r="E359" s="6"/>
-      <c r="F359" s="44"/>
+      <c r="F359" s="3"/>
       <c r="G359" s="3"/>
       <c r="H359" s="7"/>
       <c r="I359" s="7"/>
@@ -15267,7 +15255,7 @@
       <c r="C360" s="6"/>
       <c r="D360" s="3"/>
       <c r="E360" s="6"/>
-      <c r="F360" s="44"/>
+      <c r="F360" s="3"/>
       <c r="G360" s="3"/>
       <c r="H360" s="7"/>
       <c r="I360" s="7"/>
@@ -15295,7 +15283,7 @@
       <c r="C361" s="6"/>
       <c r="D361" s="3"/>
       <c r="E361" s="6"/>
-      <c r="F361" s="44"/>
+      <c r="F361" s="3"/>
       <c r="G361" s="3"/>
       <c r="H361" s="7"/>
       <c r="I361" s="7"/>
@@ -15323,7 +15311,7 @@
       <c r="C362" s="6"/>
       <c r="D362" s="3"/>
       <c r="E362" s="6"/>
-      <c r="F362" s="44"/>
+      <c r="F362" s="3"/>
       <c r="G362" s="3"/>
       <c r="H362" s="7"/>
       <c r="I362" s="7"/>
@@ -15351,7 +15339,7 @@
       <c r="C363" s="6"/>
       <c r="D363" s="3"/>
       <c r="E363" s="6"/>
-      <c r="F363" s="44"/>
+      <c r="F363" s="3"/>
       <c r="G363" s="3"/>
       <c r="H363" s="7"/>
       <c r="I363" s="7"/>
@@ -15379,7 +15367,7 @@
       <c r="C364" s="6"/>
       <c r="D364" s="3"/>
       <c r="E364" s="6"/>
-      <c r="F364" s="44"/>
+      <c r="F364" s="3"/>
       <c r="G364" s="3"/>
       <c r="H364" s="7"/>
       <c r="I364" s="7"/>
@@ -15407,7 +15395,7 @@
       <c r="C365" s="6"/>
       <c r="D365" s="3"/>
       <c r="E365" s="6"/>
-      <c r="F365" s="44"/>
+      <c r="F365" s="3"/>
       <c r="G365" s="3"/>
       <c r="H365" s="7"/>
       <c r="I365" s="7"/>
@@ -15435,7 +15423,7 @@
       <c r="C366" s="6"/>
       <c r="D366" s="3"/>
       <c r="E366" s="6"/>
-      <c r="F366" s="44"/>
+      <c r="F366" s="3"/>
       <c r="G366" s="3"/>
       <c r="H366" s="7"/>
       <c r="I366" s="7"/>
@@ -15463,7 +15451,7 @@
       <c r="C367" s="6"/>
       <c r="D367" s="3"/>
       <c r="E367" s="6"/>
-      <c r="F367" s="44"/>
+      <c r="F367" s="3"/>
       <c r="G367" s="3"/>
       <c r="H367" s="7"/>
       <c r="I367" s="7"/>
@@ -15491,7 +15479,7 @@
       <c r="C368" s="6"/>
       <c r="D368" s="3"/>
       <c r="E368" s="6"/>
-      <c r="F368" s="44"/>
+      <c r="F368" s="3"/>
       <c r="G368" s="3"/>
       <c r="H368" s="7"/>
       <c r="I368" s="7"/>
@@ -15519,7 +15507,7 @@
       <c r="C369" s="6"/>
       <c r="D369" s="3"/>
       <c r="E369" s="6"/>
-      <c r="F369" s="44"/>
+      <c r="F369" s="3"/>
       <c r="G369" s="3"/>
       <c r="H369" s="7"/>
       <c r="I369" s="7"/>
@@ -15547,7 +15535,7 @@
       <c r="C370" s="6"/>
       <c r="D370" s="3"/>
       <c r="E370" s="6"/>
-      <c r="F370" s="44"/>
+      <c r="F370" s="3"/>
       <c r="G370" s="3"/>
       <c r="H370" s="7"/>
       <c r="I370" s="7"/>
@@ -15575,7 +15563,7 @@
       <c r="C371" s="6"/>
       <c r="D371" s="3"/>
       <c r="E371" s="6"/>
-      <c r="F371" s="44"/>
+      <c r="F371" s="3"/>
       <c r="G371" s="3"/>
       <c r="H371" s="7"/>
       <c r="I371" s="7"/>
@@ -15603,7 +15591,7 @@
       <c r="C372" s="6"/>
       <c r="D372" s="3"/>
       <c r="E372" s="6"/>
-      <c r="F372" s="44"/>
+      <c r="F372" s="3"/>
       <c r="G372" s="3"/>
       <c r="H372" s="7"/>
       <c r="I372" s="7"/>
@@ -15631,7 +15619,7 @@
       <c r="C373" s="6"/>
       <c r="D373" s="3"/>
       <c r="E373" s="6"/>
-      <c r="F373" s="44"/>
+      <c r="F373" s="3"/>
       <c r="G373" s="3"/>
       <c r="H373" s="7"/>
       <c r="I373" s="7"/>
@@ -15659,7 +15647,7 @@
       <c r="C374" s="6"/>
       <c r="D374" s="3"/>
       <c r="E374" s="6"/>
-      <c r="F374" s="44"/>
+      <c r="F374" s="3"/>
       <c r="G374" s="3"/>
       <c r="H374" s="7"/>
       <c r="I374" s="7"/>
@@ -15687,7 +15675,7 @@
       <c r="C375" s="6"/>
       <c r="D375" s="3"/>
       <c r="E375" s="6"/>
-      <c r="F375" s="44"/>
+      <c r="F375" s="3"/>
       <c r="G375" s="3"/>
       <c r="H375" s="7"/>
       <c r="I375" s="7"/>
@@ -15715,7 +15703,7 @@
       <c r="C376" s="6"/>
       <c r="D376" s="3"/>
       <c r="E376" s="6"/>
-      <c r="F376" s="44"/>
+      <c r="F376" s="3"/>
       <c r="G376" s="3"/>
       <c r="H376" s="7"/>
       <c r="I376" s="7"/>
@@ -15743,7 +15731,7 @@
       <c r="C377" s="6"/>
       <c r="D377" s="3"/>
       <c r="E377" s="6"/>
-      <c r="F377" s="44"/>
+      <c r="F377" s="3"/>
       <c r="G377" s="3"/>
       <c r="H377" s="7"/>
       <c r="I377" s="7"/>
@@ -15771,7 +15759,7 @@
       <c r="C378" s="6"/>
       <c r="D378" s="3"/>
       <c r="E378" s="6"/>
-      <c r="F378" s="44"/>
+      <c r="F378" s="3"/>
       <c r="G378" s="3"/>
       <c r="H378" s="7"/>
       <c r="I378" s="7"/>
@@ -15799,7 +15787,7 @@
       <c r="C379" s="6"/>
       <c r="D379" s="3"/>
       <c r="E379" s="6"/>
-      <c r="F379" s="44"/>
+      <c r="F379" s="3"/>
       <c r="G379" s="3"/>
       <c r="H379" s="7"/>
       <c r="I379" s="7"/>
@@ -15827,7 +15815,7 @@
       <c r="C380" s="6"/>
       <c r="D380" s="3"/>
       <c r="E380" s="6"/>
-      <c r="F380" s="44"/>
+      <c r="F380" s="3"/>
       <c r="G380" s="3"/>
       <c r="H380" s="7"/>
       <c r="I380" s="7"/>
@@ -15855,7 +15843,7 @@
       <c r="C381" s="6"/>
       <c r="D381" s="3"/>
       <c r="E381" s="6"/>
-      <c r="F381" s="44"/>
+      <c r="F381" s="3"/>
       <c r="G381" s="3"/>
       <c r="H381" s="7"/>
       <c r="I381" s="7"/>
@@ -15883,7 +15871,7 @@
       <c r="C382" s="6"/>
       <c r="D382" s="3"/>
       <c r="E382" s="6"/>
-      <c r="F382" s="44"/>
+      <c r="F382" s="3"/>
       <c r="G382" s="3"/>
       <c r="H382" s="7"/>
       <c r="I382" s="7"/>
@@ -15911,7 +15899,7 @@
       <c r="C383" s="6"/>
       <c r="D383" s="3"/>
       <c r="E383" s="6"/>
-      <c r="F383" s="44"/>
+      <c r="F383" s="3"/>
       <c r="G383" s="3"/>
       <c r="H383" s="7"/>
       <c r="I383" s="7"/>
@@ -15939,7 +15927,7 @@
       <c r="C384" s="6"/>
       <c r="D384" s="3"/>
       <c r="E384" s="6"/>
-      <c r="F384" s="44"/>
+      <c r="F384" s="3"/>
       <c r="G384" s="3"/>
       <c r="H384" s="7"/>
       <c r="I384" s="7"/>
@@ -15967,7 +15955,7 @@
       <c r="C385" s="6"/>
       <c r="D385" s="3"/>
       <c r="E385" s="6"/>
-      <c r="F385" s="44"/>
+      <c r="F385" s="3"/>
       <c r="G385" s="3"/>
       <c r="H385" s="7"/>
       <c r="I385" s="7"/>
@@ -15995,7 +15983,7 @@
       <c r="C386" s="6"/>
       <c r="D386" s="3"/>
       <c r="E386" s="6"/>
-      <c r="F386" s="44"/>
+      <c r="F386" s="3"/>
       <c r="G386" s="3"/>
       <c r="H386" s="7"/>
       <c r="I386" s="7"/>
@@ -16023,7 +16011,7 @@
       <c r="C387" s="6"/>
       <c r="D387" s="3"/>
       <c r="E387" s="6"/>
-      <c r="F387" s="44"/>
+      <c r="F387" s="3"/>
       <c r="G387" s="3"/>
       <c r="H387" s="7"/>
       <c r="I387" s="7"/>
@@ -16051,7 +16039,7 @@
       <c r="C388" s="6"/>
       <c r="D388" s="3"/>
       <c r="E388" s="6"/>
-      <c r="F388" s="44"/>
+      <c r="F388" s="3"/>
       <c r="G388" s="3"/>
       <c r="H388" s="7"/>
       <c r="I388" s="7"/>
@@ -16079,7 +16067,7 @@
       <c r="C389" s="6"/>
       <c r="D389" s="3"/>
       <c r="E389" s="6"/>
-      <c r="F389" s="44"/>
+      <c r="F389" s="3"/>
       <c r="G389" s="3"/>
       <c r="H389" s="7"/>
       <c r="I389" s="7"/>
@@ -16107,7 +16095,7 @@
       <c r="C390" s="6"/>
       <c r="D390" s="3"/>
       <c r="E390" s="6"/>
-      <c r="F390" s="44"/>
+      <c r="F390" s="3"/>
       <c r="G390" s="3"/>
       <c r="H390" s="7"/>
       <c r="I390" s="7"/>
@@ -16135,7 +16123,7 @@
       <c r="C391" s="6"/>
       <c r="D391" s="3"/>
       <c r="E391" s="6"/>
-      <c r="F391" s="44"/>
+      <c r="F391" s="3"/>
       <c r="G391" s="3"/>
       <c r="H391" s="7"/>
       <c r="I391" s="7"/>
@@ -16163,7 +16151,7 @@
       <c r="C392" s="6"/>
       <c r="D392" s="3"/>
       <c r="E392" s="6"/>
-      <c r="F392" s="44"/>
+      <c r="F392" s="3"/>
       <c r="G392" s="3"/>
       <c r="H392" s="7"/>
       <c r="I392" s="7"/>
@@ -16191,7 +16179,7 @@
       <c r="C393" s="6"/>
       <c r="D393" s="3"/>
       <c r="E393" s="6"/>
-      <c r="F393" s="44"/>
+      <c r="F393" s="3"/>
       <c r="G393" s="3"/>
       <c r="H393" s="7"/>
       <c r="I393" s="7"/>
@@ -16219,7 +16207,7 @@
       <c r="C394" s="6"/>
       <c r="D394" s="3"/>
       <c r="E394" s="6"/>
-      <c r="F394" s="44"/>
+      <c r="F394" s="3"/>
       <c r="G394" s="3"/>
       <c r="H394" s="7"/>
       <c r="I394" s="7"/>
@@ -16247,7 +16235,7 @@
       <c r="C395" s="6"/>
       <c r="D395" s="3"/>
       <c r="E395" s="6"/>
-      <c r="F395" s="44"/>
+      <c r="F395" s="3"/>
       <c r="G395" s="3"/>
       <c r="H395" s="7"/>
       <c r="I395" s="7"/>
@@ -16275,7 +16263,7 @@
       <c r="C396" s="6"/>
       <c r="D396" s="3"/>
       <c r="E396" s="6"/>
-      <c r="F396" s="44"/>
+      <c r="F396" s="3"/>
       <c r="G396" s="3"/>
       <c r="H396" s="7"/>
       <c r="I396" s="7"/>
@@ -16303,7 +16291,7 @@
       <c r="C397" s="6"/>
       <c r="D397" s="3"/>
       <c r="E397" s="6"/>
-      <c r="F397" s="44"/>
+      <c r="F397" s="3"/>
       <c r="G397" s="3"/>
       <c r="H397" s="7"/>
       <c r="I397" s="7"/>
@@ -16331,7 +16319,7 @@
       <c r="C398" s="6"/>
       <c r="D398" s="3"/>
       <c r="E398" s="6"/>
-      <c r="F398" s="44"/>
+      <c r="F398" s="3"/>
       <c r="G398" s="3"/>
       <c r="H398" s="7"/>
       <c r="I398" s="7"/>
@@ -16359,7 +16347,7 @@
       <c r="C399" s="6"/>
       <c r="D399" s="3"/>
       <c r="E399" s="6"/>
-      <c r="F399" s="44"/>
+      <c r="F399" s="3"/>
       <c r="G399" s="3"/>
       <c r="H399" s="7"/>
       <c r="I399" s="7"/>
@@ -16387,7 +16375,7 @@
       <c r="C400" s="6"/>
       <c r="D400" s="3"/>
       <c r="E400" s="6"/>
-      <c r="F400" s="44"/>
+      <c r="F400" s="3"/>
       <c r="G400" s="3"/>
       <c r="H400" s="7"/>
       <c r="I400" s="7"/>
@@ -16415,7 +16403,7 @@
       <c r="C401" s="6"/>
       <c r="D401" s="3"/>
       <c r="E401" s="6"/>
-      <c r="F401" s="44"/>
+      <c r="F401" s="3"/>
       <c r="G401" s="3"/>
       <c r="H401" s="7"/>
       <c r="I401" s="7"/>
@@ -16443,7 +16431,7 @@
       <c r="C402" s="6"/>
       <c r="D402" s="3"/>
       <c r="E402" s="6"/>
-      <c r="F402" s="44"/>
+      <c r="F402" s="3"/>
       <c r="G402" s="3"/>
       <c r="H402" s="7"/>
       <c r="I402" s="7"/>
@@ -16471,7 +16459,7 @@
       <c r="C403" s="6"/>
       <c r="D403" s="3"/>
       <c r="E403" s="6"/>
-      <c r="F403" s="44"/>
+      <c r="F403" s="3"/>
       <c r="G403" s="3"/>
       <c r="H403" s="7"/>
       <c r="I403" s="7"/>
@@ -16499,7 +16487,7 @@
       <c r="C404" s="6"/>
       <c r="D404" s="3"/>
       <c r="E404" s="6"/>
-      <c r="F404" s="44"/>
+      <c r="F404" s="3"/>
       <c r="G404" s="3"/>
       <c r="H404" s="7"/>
       <c r="I404" s="7"/>
@@ -16527,7 +16515,7 @@
       <c r="C405" s="6"/>
       <c r="D405" s="3"/>
       <c r="E405" s="6"/>
-      <c r="F405" s="44"/>
+      <c r="F405" s="3"/>
       <c r="G405" s="3"/>
       <c r="H405" s="7"/>
       <c r="I405" s="7"/>
@@ -16555,7 +16543,7 @@
       <c r="C406" s="6"/>
       <c r="D406" s="3"/>
       <c r="E406" s="6"/>
-      <c r="F406" s="44"/>
+      <c r="F406" s="3"/>
       <c r="G406" s="3"/>
       <c r="H406" s="7"/>
       <c r="I406" s="7"/>
@@ -16583,7 +16571,7 @@
       <c r="C407" s="6"/>
       <c r="D407" s="3"/>
       <c r="E407" s="6"/>
-      <c r="F407" s="44"/>
+      <c r="F407" s="3"/>
       <c r="G407" s="3"/>
       <c r="H407" s="7"/>
       <c r="I407" s="7"/>
@@ -16611,7 +16599,7 @@
       <c r="C408" s="6"/>
       <c r="D408" s="3"/>
       <c r="E408" s="6"/>
-      <c r="F408" s="44"/>
+      <c r="F408" s="3"/>
       <c r="G408" s="3"/>
       <c r="H408" s="7"/>
       <c r="I408" s="7"/>
@@ -16639,7 +16627,7 @@
       <c r="C409" s="6"/>
       <c r="D409" s="3"/>
       <c r="E409" s="6"/>
-      <c r="F409" s="44"/>
+      <c r="F409" s="3"/>
       <c r="G409" s="3"/>
       <c r="H409" s="7"/>
       <c r="I409" s="7"/>
@@ -16667,7 +16655,7 @@
       <c r="C410" s="6"/>
       <c r="D410" s="3"/>
       <c r="E410" s="6"/>
-      <c r="F410" s="44"/>
+      <c r="F410" s="3"/>
       <c r="G410" s="3"/>
       <c r="H410" s="7"/>
       <c r="I410" s="7"/>
@@ -16695,7 +16683,7 @@
       <c r="C411" s="6"/>
       <c r="D411" s="3"/>
       <c r="E411" s="6"/>
-      <c r="F411" s="44"/>
+      <c r="F411" s="3"/>
       <c r="G411" s="3"/>
       <c r="H411" s="7"/>
       <c r="I411" s="7"/>
@@ -16723,7 +16711,7 @@
       <c r="C412" s="6"/>
       <c r="D412" s="3"/>
       <c r="E412" s="6"/>
-      <c r="F412" s="44"/>
+      <c r="F412" s="3"/>
       <c r="G412" s="3"/>
       <c r="H412" s="7"/>
       <c r="I412" s="7"/>
@@ -16751,7 +16739,7 @@
       <c r="C413" s="6"/>
       <c r="D413" s="3"/>
       <c r="E413" s="6"/>
-      <c r="F413" s="44"/>
+      <c r="F413" s="3"/>
       <c r="G413" s="3"/>
       <c r="H413" s="7"/>
       <c r="I413" s="7"/>
@@ -16779,7 +16767,7 @@
       <c r="C414" s="6"/>
       <c r="D414" s="3"/>
       <c r="E414" s="6"/>
-      <c r="F414" s="44"/>
+      <c r="F414" s="3"/>
       <c r="G414" s="3"/>
       <c r="H414" s="7"/>
       <c r="I414" s="7"/>
@@ -16807,7 +16795,7 @@
       <c r="C415" s="6"/>
       <c r="D415" s="3"/>
       <c r="E415" s="6"/>
-      <c r="F415" s="44"/>
+      <c r="F415" s="3"/>
       <c r="G415" s="3"/>
       <c r="H415" s="7"/>
       <c r="I415" s="7"/>
@@ -16835,7 +16823,7 @@
       <c r="C416" s="6"/>
       <c r="D416" s="3"/>
       <c r="E416" s="6"/>
-      <c r="F416" s="44"/>
+      <c r="F416" s="3"/>
       <c r="G416" s="3"/>
       <c r="H416" s="7"/>
       <c r="I416" s="7"/>
@@ -16863,7 +16851,7 @@
       <c r="C417" s="6"/>
       <c r="D417" s="3"/>
       <c r="E417" s="6"/>
-      <c r="F417" s="44"/>
+      <c r="F417" s="3"/>
       <c r="G417" s="3"/>
       <c r="H417" s="7"/>
       <c r="I417" s="7"/>
@@ -16891,7 +16879,7 @@
       <c r="C418" s="6"/>
       <c r="D418" s="3"/>
       <c r="E418" s="6"/>
-      <c r="F418" s="44"/>
+      <c r="F418" s="3"/>
       <c r="G418" s="3"/>
       <c r="H418" s="7"/>
       <c r="I418" s="7"/>
@@ -16919,7 +16907,7 @@
       <c r="C419" s="6"/>
       <c r="D419" s="3"/>
       <c r="E419" s="6"/>
-      <c r="F419" s="44"/>
+      <c r="F419" s="3"/>
       <c r="G419" s="3"/>
       <c r="H419" s="7"/>
       <c r="I419" s="7"/>
@@ -16947,7 +16935,7 @@
       <c r="C420" s="6"/>
       <c r="D420" s="3"/>
       <c r="E420" s="6"/>
-      <c r="F420" s="44"/>
+      <c r="F420" s="3"/>
       <c r="G420" s="3"/>
       <c r="H420" s="7"/>
       <c r="I420" s="7"/>
@@ -16975,7 +16963,7 @@
       <c r="C421" s="6"/>
       <c r="D421" s="3"/>
       <c r="E421" s="6"/>
-      <c r="F421" s="44"/>
+      <c r="F421" s="3"/>
       <c r="G421" s="3"/>
       <c r="H421" s="7"/>
       <c r="I421" s="7"/>
@@ -17003,7 +16991,7 @@
       <c r="C422" s="6"/>
       <c r="D422" s="3"/>
       <c r="E422" s="6"/>
-      <c r="F422" s="44"/>
+      <c r="F422" s="3"/>
       <c r="G422" s="3"/>
       <c r="H422" s="7"/>
       <c r="I422" s="7"/>
@@ -17031,7 +17019,7 @@
       <c r="C423" s="6"/>
       <c r="D423" s="3"/>
       <c r="E423" s="6"/>
-      <c r="F423" s="44"/>
+      <c r="F423" s="3"/>
       <c r="G423" s="3"/>
       <c r="H423" s="7"/>
       <c r="I423" s="7"/>
@@ -17059,7 +17047,7 @@
       <c r="C424" s="6"/>
       <c r="D424" s="3"/>
       <c r="E424" s="6"/>
-      <c r="F424" s="44"/>
+      <c r="F424" s="3"/>
       <c r="G424" s="3"/>
       <c r="H424" s="7"/>
       <c r="I424" s="7"/>
@@ -17087,7 +17075,7 @@
       <c r="C425" s="6"/>
       <c r="D425" s="3"/>
       <c r="E425" s="6"/>
-      <c r="F425" s="44"/>
+      <c r="F425" s="3"/>
       <c r="G425" s="3"/>
       <c r="H425" s="7"/>
       <c r="I425" s="7"/>
@@ -17115,7 +17103,7 @@
       <c r="C426" s="6"/>
       <c r="D426" s="3"/>
       <c r="E426" s="6"/>
-      <c r="F426" s="44"/>
+      <c r="F426" s="3"/>
       <c r="G426" s="3"/>
       <c r="H426" s="7"/>
       <c r="I426" s="7"/>
@@ -17143,7 +17131,7 @@
       <c r="C427" s="6"/>
       <c r="D427" s="3"/>
       <c r="E427" s="6"/>
-      <c r="F427" s="44"/>
+      <c r="F427" s="3"/>
       <c r="G427" s="3"/>
       <c r="H427" s="7"/>
       <c r="I427" s="7"/>
@@ -17171,7 +17159,7 @@
       <c r="C428" s="6"/>
       <c r="D428" s="3"/>
       <c r="E428" s="6"/>
-      <c r="F428" s="44"/>
+      <c r="F428" s="3"/>
       <c r="G428" s="3"/>
       <c r="H428" s="7"/>
       <c r="I428" s="7"/>
@@ -17199,7 +17187,7 @@
       <c r="C429" s="6"/>
       <c r="D429" s="3"/>
       <c r="E429" s="6"/>
-      <c r="F429" s="44"/>
+      <c r="F429" s="3"/>
       <c r="G429" s="3"/>
       <c r="H429" s="7"/>
       <c r="I429" s="7"/>
@@ -17227,7 +17215,7 @@
       <c r="C430" s="6"/>
       <c r="D430" s="3"/>
       <c r="E430" s="6"/>
-      <c r="F430" s="44"/>
+      <c r="F430" s="3"/>
       <c r="G430" s="3"/>
       <c r="H430" s="7"/>
       <c r="I430" s="7"/>
@@ -17255,7 +17243,7 @@
       <c r="C431" s="6"/>
       <c r="D431" s="3"/>
       <c r="E431" s="6"/>
-      <c r="F431" s="44"/>
+      <c r="F431" s="3"/>
       <c r="G431" s="3"/>
       <c r="H431" s="7"/>
       <c r="I431" s="7"/>
@@ -17283,7 +17271,7 @@
       <c r="C432" s="6"/>
       <c r="D432" s="3"/>
       <c r="E432" s="6"/>
-      <c r="F432" s="44"/>
+      <c r="F432" s="3"/>
       <c r="G432" s="3"/>
       <c r="H432" s="7"/>
       <c r="I432" s="7"/>
@@ -17311,7 +17299,7 @@
       <c r="C433" s="6"/>
       <c r="D433" s="3"/>
       <c r="E433" s="6"/>
-      <c r="F433" s="44"/>
+      <c r="F433" s="3"/>
       <c r="G433" s="3"/>
       <c r="H433" s="7"/>
       <c r="I433" s="7"/>
@@ -17339,7 +17327,7 @@
       <c r="C434" s="6"/>
       <c r="D434" s="3"/>
       <c r="E434" s="6"/>
-      <c r="F434" s="44"/>
+      <c r="F434" s="3"/>
       <c r="G434" s="3"/>
       <c r="H434" s="7"/>
       <c r="I434" s="7"/>
@@ -17367,7 +17355,7 @@
       <c r="C435" s="6"/>
       <c r="D435" s="3"/>
       <c r="E435" s="6"/>
-      <c r="F435" s="44"/>
+      <c r="F435" s="3"/>
       <c r="G435" s="3"/>
       <c r="H435" s="7"/>
       <c r="I435" s="7"/>
@@ -17395,7 +17383,7 @@
       <c r="C436" s="6"/>
       <c r="D436" s="3"/>
       <c r="E436" s="6"/>
-      <c r="F436" s="44"/>
+      <c r="F436" s="3"/>
       <c r="G436" s="3"/>
       <c r="H436" s="7"/>
       <c r="I436" s="7"/>
@@ -17423,7 +17411,7 @@
       <c r="C437" s="6"/>
       <c r="D437" s="3"/>
       <c r="E437" s="6"/>
-      <c r="F437" s="44"/>
+      <c r="F437" s="3"/>
       <c r="G437" s="3"/>
       <c r="H437" s="7"/>
       <c r="I437" s="7"/>
@@ -17451,7 +17439,7 @@
       <c r="C438" s="6"/>
       <c r="D438" s="3"/>
       <c r="E438" s="6"/>
-      <c r="F438" s="44"/>
+      <c r="F438" s="3"/>
       <c r="G438" s="3"/>
       <c r="H438" s="7"/>
       <c r="I438" s="7"/>
@@ -17479,7 +17467,7 @@
       <c r="C439" s="6"/>
       <c r="D439" s="3"/>
       <c r="E439" s="6"/>
-      <c r="F439" s="44"/>
+      <c r="F439" s="3"/>
       <c r="G439" s="3"/>
       <c r="H439" s="7"/>
       <c r="I439" s="7"/>
@@ -17507,7 +17495,7 @@
       <c r="C440" s="6"/>
       <c r="D440" s="3"/>
       <c r="E440" s="6"/>
-      <c r="F440" s="44"/>
+      <c r="F440" s="3"/>
       <c r="G440" s="3"/>
       <c r="H440" s="7"/>
       <c r="I440" s="7"/>
@@ -17535,7 +17523,7 @@
       <c r="C441" s="6"/>
       <c r="D441" s="3"/>
       <c r="E441" s="6"/>
-      <c r="F441" s="44"/>
+      <c r="F441" s="3"/>
       <c r="G441" s="3"/>
       <c r="H441" s="7"/>
       <c r="I441" s="7"/>
@@ -17563,7 +17551,7 @@
       <c r="C442" s="6"/>
       <c r="D442" s="3"/>
       <c r="E442" s="6"/>
-      <c r="F442" s="44"/>
+      <c r="F442" s="3"/>
       <c r="G442" s="3"/>
       <c r="H442" s="7"/>
       <c r="I442" s="7"/>
@@ -17591,7 +17579,7 @@
       <c r="C443" s="6"/>
       <c r="D443" s="3"/>
       <c r="E443" s="6"/>
-      <c r="F443" s="44"/>
+      <c r="F443" s="3"/>
       <c r="G443" s="3"/>
       <c r="H443" s="7"/>
       <c r="I443" s="7"/>
@@ -17619,7 +17607,7 @@
       <c r="C444" s="6"/>
       <c r="D444" s="3"/>
       <c r="E444" s="6"/>
-      <c r="F444" s="44"/>
+      <c r="F444" s="3"/>
       <c r="G444" s="3"/>
       <c r="H444" s="7"/>
       <c r="I444" s="7"/>
@@ -17647,7 +17635,7 @@
       <c r="C445" s="6"/>
       <c r="D445" s="3"/>
       <c r="E445" s="6"/>
-      <c r="F445" s="44"/>
+      <c r="F445" s="3"/>
       <c r="G445" s="3"/>
       <c r="H445" s="7"/>
       <c r="I445" s="7"/>
@@ -17675,7 +17663,7 @@
       <c r="C446" s="6"/>
       <c r="D446" s="3"/>
       <c r="E446" s="6"/>
-      <c r="F446" s="44"/>
+      <c r="F446" s="3"/>
       <c r="G446" s="3"/>
       <c r="H446" s="7"/>
       <c r="I446" s="7"/>
@@ -17703,7 +17691,7 @@
       <c r="C447" s="6"/>
       <c r="D447" s="3"/>
       <c r="E447" s="6"/>
-      <c r="F447" s="44"/>
+      <c r="F447" s="3"/>
       <c r="G447" s="3"/>
       <c r="H447" s="7"/>
       <c r="I447" s="7"/>
@@ -17731,7 +17719,7 @@
       <c r="C448" s="6"/>
       <c r="D448" s="3"/>
       <c r="E448" s="6"/>
-      <c r="F448" s="44"/>
+      <c r="F448" s="3"/>
       <c r="G448" s="3"/>
       <c r="H448" s="7"/>
       <c r="I448" s="7"/>
@@ -17759,7 +17747,7 @@
       <c r="C449" s="6"/>
       <c r="D449" s="3"/>
       <c r="E449" s="6"/>
-      <c r="F449" s="44"/>
+      <c r="F449" s="3"/>
       <c r="G449" s="3"/>
       <c r="H449" s="7"/>
       <c r="I449" s="7"/>
@@ -17787,7 +17775,7 @@
       <c r="C450" s="6"/>
       <c r="D450" s="3"/>
       <c r="E450" s="6"/>
-      <c r="F450" s="44"/>
+      <c r="F450" s="3"/>
       <c r="G450" s="3"/>
       <c r="H450" s="7"/>
       <c r="I450" s="7"/>
@@ -17815,7 +17803,7 @@
       <c r="C451" s="6"/>
       <c r="D451" s="3"/>
       <c r="E451" s="6"/>
-      <c r="F451" s="44"/>
+      <c r="F451" s="3"/>
       <c r="G451" s="3"/>
       <c r="H451" s="7"/>
       <c r="I451" s="7"/>
@@ -17843,7 +17831,7 @@
       <c r="C452" s="6"/>
       <c r="D452" s="3"/>
       <c r="E452" s="6"/>
-      <c r="F452" s="44"/>
+      <c r="F452" s="3"/>
       <c r="G452" s="3"/>
       <c r="H452" s="7"/>
       <c r="I452" s="7"/>
@@ -17871,7 +17859,7 @@
       <c r="C453" s="6"/>
       <c r="D453" s="3"/>
       <c r="E453" s="6"/>
-      <c r="F453" s="44"/>
+      <c r="F453" s="3"/>
       <c r="G453" s="3"/>
       <c r="H453" s="7"/>
       <c r="I453" s="7"/>
@@ -17899,7 +17887,7 @@
       <c r="C454" s="6"/>
       <c r="D454" s="3"/>
       <c r="E454" s="6"/>
-      <c r="F454" s="44"/>
+      <c r="F454" s="3"/>
       <c r="G454" s="3"/>
       <c r="H454" s="7"/>
       <c r="I454" s="7"/>
@@ -17927,7 +17915,7 @@
       <c r="C455" s="6"/>
       <c r="D455" s="3"/>
       <c r="E455" s="6"/>
-      <c r="F455" s="44"/>
+      <c r="F455" s="3"/>
       <c r="G455" s="3"/>
       <c r="H455" s="7"/>
       <c r="I455" s="7"/>
@@ -17955,7 +17943,7 @@
       <c r="C456" s="6"/>
       <c r="D456" s="3"/>
       <c r="E456" s="6"/>
-      <c r="F456" s="44"/>
+      <c r="F456" s="3"/>
       <c r="G456" s="3"/>
       <c r="H456" s="7"/>
       <c r="I456" s="7"/>
@@ -17983,7 +17971,7 @@
       <c r="C457" s="6"/>
       <c r="D457" s="3"/>
       <c r="E457" s="6"/>
-      <c r="F457" s="44"/>
+      <c r="F457" s="3"/>
       <c r="G457" s="3"/>
       <c r="H457" s="7"/>
       <c r="I457" s="7"/>
@@ -18011,7 +17999,7 @@
       <c r="C458" s="6"/>
       <c r="D458" s="3"/>
       <c r="E458" s="6"/>
-      <c r="F458" s="44"/>
+      <c r="F458" s="3"/>
       <c r="G458" s="3"/>
       <c r="H458" s="7"/>
       <c r="I458" s="7"/>
@@ -18039,7 +18027,7 @@
       <c r="C459" s="6"/>
       <c r="D459" s="3"/>
       <c r="E459" s="6"/>
-      <c r="F459" s="44"/>
+      <c r="F459" s="3"/>
       <c r="G459" s="3"/>
       <c r="H459" s="7"/>
       <c r="I459" s="7"/>
@@ -18067,7 +18055,7 @@
       <c r="C460" s="6"/>
       <c r="D460" s="3"/>
       <c r="E460" s="6"/>
-      <c r="F460" s="44"/>
+      <c r="F460" s="3"/>
       <c r="G460" s="3"/>
       <c r="H460" s="7"/>
       <c r="I460" s="7"/>
@@ -18095,7 +18083,7 @@
       <c r="C461" s="6"/>
       <c r="D461" s="3"/>
       <c r="E461" s="6"/>
-      <c r="F461" s="44"/>
+      <c r="F461" s="3"/>
       <c r="G461" s="3"/>
       <c r="H461" s="7"/>
       <c r="I461" s="7"/>
@@ -18123,7 +18111,7 @@
       <c r="C462" s="6"/>
       <c r="D462" s="3"/>
       <c r="E462" s="6"/>
-      <c r="F462" s="44"/>
+      <c r="F462" s="3"/>
       <c r="G462" s="3"/>
       <c r="H462" s="7"/>
       <c r="I462" s="7"/>
@@ -18151,7 +18139,7 @@
       <c r="C463" s="6"/>
       <c r="D463" s="3"/>
       <c r="E463" s="6"/>
-      <c r="F463" s="44"/>
+      <c r="F463" s="3"/>
       <c r="G463" s="3"/>
       <c r="H463" s="7"/>
       <c r="I463" s="7"/>
@@ -18179,7 +18167,7 @@
       <c r="C464" s="6"/>
       <c r="D464" s="3"/>
       <c r="E464" s="6"/>
-      <c r="F464" s="44"/>
+      <c r="F464" s="3"/>
       <c r="G464" s="3"/>
       <c r="H464" s="7"/>
       <c r="I464" s="7"/>
@@ -18207,7 +18195,7 @@
       <c r="C465" s="6"/>
       <c r="D465" s="3"/>
       <c r="E465" s="6"/>
-      <c r="F465" s="44"/>
+      <c r="F465" s="3"/>
       <c r="G465" s="3"/>
       <c r="H465" s="7"/>
       <c r="I465" s="7"/>
@@ -18235,7 +18223,7 @@
       <c r="C466" s="6"/>
       <c r="D466" s="3"/>
       <c r="E466" s="6"/>
-      <c r="F466" s="44"/>
+      <c r="F466" s="3"/>
       <c r="G466" s="3"/>
       <c r="H466" s="7"/>
       <c r="I466" s="7"/>
@@ -18263,7 +18251,7 @@
       <c r="C467" s="6"/>
       <c r="D467" s="3"/>
       <c r="E467" s="6"/>
-      <c r="F467" s="44"/>
+      <c r="F467" s="3"/>
       <c r="G467" s="3"/>
       <c r="H467" s="7"/>
       <c r="I467" s="7"/>
@@ -18291,7 +18279,7 @@
       <c r="C468" s="6"/>
       <c r="D468" s="3"/>
       <c r="E468" s="6"/>
-      <c r="F468" s="44"/>
+      <c r="F468" s="3"/>
       <c r="G468" s="3"/>
       <c r="H468" s="7"/>
       <c r="I468" s="7"/>
@@ -18319,7 +18307,7 @@
       <c r="C469" s="6"/>
       <c r="D469" s="3"/>
       <c r="E469" s="6"/>
-      <c r="F469" s="44"/>
+      <c r="F469" s="3"/>
       <c r="G469" s="3"/>
       <c r="H469" s="7"/>
       <c r="I469" s="7"/>
@@ -18347,7 +18335,7 @@
       <c r="C470" s="6"/>
       <c r="D470" s="3"/>
       <c r="E470" s="6"/>
-      <c r="F470" s="44"/>
+      <c r="F470" s="3"/>
       <c r="G470" s="3"/>
       <c r="H470" s="7"/>
       <c r="I470" s="7"/>
@@ -18375,7 +18363,7 @@
       <c r="C471" s="6"/>
       <c r="D471" s="3"/>
       <c r="E471" s="6"/>
-      <c r="F471" s="44"/>
+      <c r="F471" s="3"/>
       <c r="G471" s="3"/>
       <c r="H471" s="7"/>
       <c r="I471" s="7"/>
@@ -18403,7 +18391,7 @@
       <c r="C472" s="6"/>
       <c r="D472" s="3"/>
       <c r="E472" s="6"/>
-      <c r="F472" s="44"/>
+      <c r="F472" s="3"/>
       <c r="G472" s="3"/>
       <c r="H472" s="7"/>
       <c r="I472" s="7"/>
@@ -18431,7 +18419,7 @@
       <c r="C473" s="6"/>
       <c r="D473" s="3"/>
       <c r="E473" s="6"/>
-      <c r="F473" s="44"/>
+      <c r="F473" s="3"/>
       <c r="G473" s="3"/>
       <c r="H473" s="7"/>
       <c r="I473" s="7"/>
@@ -18459,7 +18447,7 @@
       <c r="C474" s="6"/>
       <c r="D474" s="3"/>
       <c r="E474" s="6"/>
-      <c r="F474" s="44"/>
+      <c r="F474" s="3"/>
       <c r="G474" s="3"/>
       <c r="H474" s="7"/>
       <c r="I474" s="7"/>
@@ -18487,7 +18475,7 @@
       <c r="C475" s="6"/>
       <c r="D475" s="3"/>
       <c r="E475" s="6"/>
-      <c r="F475" s="44"/>
+      <c r="F475" s="3"/>
       <c r="G475" s="3"/>
       <c r="H475" s="7"/>
       <c r="I475" s="7"/>
@@ -18515,7 +18503,7 @@
       <c r="C476" s="6"/>
       <c r="D476" s="3"/>
       <c r="E476" s="6"/>
-      <c r="F476" s="44"/>
+      <c r="F476" s="3"/>
       <c r="G476" s="3"/>
       <c r="H476" s="7"/>
       <c r="I476" s="7"/>
@@ -18543,7 +18531,7 @@
       <c r="C477" s="6"/>
       <c r="D477" s="3"/>
       <c r="E477" s="6"/>
-      <c r="F477" s="44"/>
+      <c r="F477" s="3"/>
       <c r="G477" s="3"/>
       <c r="H477" s="7"/>
       <c r="I477" s="7"/>
@@ -18571,7 +18559,7 @@
       <c r="C478" s="6"/>
       <c r="D478" s="3"/>
       <c r="E478" s="6"/>
-      <c r="F478" s="44"/>
+      <c r="F478" s="3"/>
       <c r="G478" s="3"/>
       <c r="H478" s="7"/>
       <c r="I478" s="7"/>
@@ -18599,7 +18587,7 @@
       <c r="C479" s="6"/>
       <c r="D479" s="3"/>
       <c r="E479" s="6"/>
-      <c r="F479" s="44"/>
+      <c r="F479" s="3"/>
       <c r="G479" s="3"/>
       <c r="H479" s="7"/>
       <c r="I479" s="7"/>
@@ -18627,7 +18615,7 @@
       <c r="C480" s="6"/>
       <c r="D480" s="3"/>
       <c r="E480" s="6"/>
-      <c r="F480" s="44"/>
+      <c r="F480" s="3"/>
       <c r="G480" s="3"/>
       <c r="H480" s="7"/>
       <c r="I480" s="7"/>
@@ -18655,7 +18643,7 @@
       <c r="C481" s="6"/>
       <c r="D481" s="3"/>
       <c r="E481" s="6"/>
-      <c r="F481" s="44"/>
+      <c r="F481" s="3"/>
       <c r="G481" s="3"/>
       <c r="H481" s="7"/>
       <c r="I481" s="7"/>
@@ -18683,7 +18671,7 @@
       <c r="C482" s="6"/>
       <c r="D482" s="3"/>
       <c r="E482" s="6"/>
-      <c r="F482" s="44"/>
+      <c r="F482" s="3"/>
       <c r="G482" s="3"/>
       <c r="H482" s="7"/>
       <c r="I482" s="7"/>
@@ -18711,7 +18699,7 @@
       <c r="C483" s="6"/>
       <c r="D483" s="3"/>
       <c r="E483" s="6"/>
-      <c r="F483" s="44"/>
+      <c r="F483" s="3"/>
       <c r="G483" s="3"/>
       <c r="H483" s="7"/>
       <c r="I483" s="7"/>
@@ -18739,7 +18727,7 @@
       <c r="C484" s="6"/>
       <c r="D484" s="3"/>
       <c r="E484" s="6"/>
-      <c r="F484" s="44"/>
+      <c r="F484" s="3"/>
       <c r="G484" s="3"/>
       <c r="H484" s="7"/>
       <c r="I484" s="7"/>
@@ -18767,7 +18755,7 @@
       <c r="C485" s="6"/>
       <c r="D485" s="3"/>
       <c r="E485" s="6"/>
-      <c r="F485" s="44"/>
+      <c r="F485" s="3"/>
       <c r="G485" s="3"/>
       <c r="H485" s="7"/>
       <c r="I485" s="7"/>
@@ -18795,7 +18783,7 @@
       <c r="C486" s="6"/>
       <c r="D486" s="3"/>
       <c r="E486" s="6"/>
-      <c r="F486" s="44"/>
+      <c r="F486" s="3"/>
       <c r="G486" s="3"/>
       <c r="H486" s="7"/>
       <c r="I486" s="7"/>
@@ -18823,7 +18811,7 @@
       <c r="C487" s="6"/>
       <c r="D487" s="3"/>
       <c r="E487" s="6"/>
-      <c r="F487" s="44"/>
+      <c r="F487" s="3"/>
       <c r="G487" s="3"/>
       <c r="H487" s="7"/>
       <c r="I487" s="7"/>
@@ -18851,7 +18839,7 @@
       <c r="C488" s="6"/>
       <c r="D488" s="3"/>
       <c r="E488" s="6"/>
-      <c r="F488" s="44"/>
+      <c r="F488" s="3"/>
       <c r="G488" s="3"/>
       <c r="H488" s="7"/>
       <c r="I488" s="7"/>
@@ -18879,7 +18867,7 @@
       <c r="C489" s="6"/>
       <c r="D489" s="3"/>
       <c r="E489" s="6"/>
-      <c r="F489" s="44"/>
+      <c r="F489" s="3"/>
       <c r="G489" s="3"/>
       <c r="H489" s="7"/>
       <c r="I489" s="7"/>
@@ -18907,7 +18895,7 @@
       <c r="C490" s="6"/>
       <c r="D490" s="3"/>
       <c r="E490" s="6"/>
-      <c r="F490" s="44"/>
+      <c r="F490" s="3"/>
       <c r="G490" s="3"/>
       <c r="H490" s="7"/>
       <c r="I490" s="7"/>
@@ -18935,7 +18923,7 @@
       <c r="C491" s="6"/>
       <c r="D491" s="3"/>
       <c r="E491" s="6"/>
-      <c r="F491" s="44"/>
+      <c r="F491" s="3"/>
       <c r="G491" s="3"/>
       <c r="H491" s="7"/>
       <c r="I491" s="7"/>
@@ -18963,7 +18951,7 @@
       <c r="C492" s="6"/>
       <c r="D492" s="3"/>
       <c r="E492" s="6"/>
-      <c r="F492" s="44"/>
+      <c r="F492" s="3"/>
       <c r="G492" s="3"/>
       <c r="H492" s="7"/>
       <c r="I492" s="7"/>
@@ -18991,7 +18979,7 @@
       <c r="C493" s="6"/>
       <c r="D493" s="3"/>
       <c r="E493" s="6"/>
-      <c r="F493" s="44"/>
+      <c r="F493" s="3"/>
       <c r="G493" s="3"/>
       <c r="H493" s="7"/>
       <c r="I493" s="7"/>
@@ -19019,7 +19007,7 @@
       <c r="C494" s="6"/>
       <c r="D494" s="3"/>
       <c r="E494" s="6"/>
-      <c r="F494" s="44"/>
+      <c r="F494" s="3"/>
       <c r="G494" s="3"/>
       <c r="H494" s="7"/>
       <c r="I494" s="7"/>
@@ -19047,7 +19035,7 @@
       <c r="C495" s="6"/>
       <c r="D495" s="3"/>
       <c r="E495" s="6"/>
-      <c r="F495" s="44"/>
+      <c r="F495" s="3"/>
       <c r="G495" s="3"/>
       <c r="H495" s="7"/>
       <c r="I495" s="7"/>
@@ -19075,7 +19063,7 @@
       <c r="C496" s="6"/>
       <c r="D496" s="3"/>
       <c r="E496" s="6"/>
-      <c r="F496" s="44"/>
+      <c r="F496" s="3"/>
       <c r="G496" s="3"/>
       <c r="H496" s="7"/>
       <c r="I496" s="7"/>
@@ -19103,7 +19091,7 @@
       <c r="C497" s="6"/>
       <c r="D497" s="3"/>
       <c r="E497" s="6"/>
-      <c r="F497" s="44"/>
+      <c r="F497" s="3"/>
       <c r="G497" s="3"/>
       <c r="H497" s="7"/>
       <c r="I497" s="7"/>
@@ -19131,7 +19119,7 @@
       <c r="C498" s="6"/>
       <c r="D498" s="3"/>
       <c r="E498" s="6"/>
-      <c r="F498" s="44"/>
+      <c r="F498" s="3"/>
       <c r="G498" s="3"/>
       <c r="H498" s="7"/>
       <c r="I498" s="7"/>
@@ -19159,7 +19147,7 @@
       <c r="C499" s="6"/>
       <c r="D499" s="3"/>
       <c r="E499" s="6"/>
-      <c r="F499" s="44"/>
+      <c r="F499" s="3"/>
       <c r="G499" s="3"/>
       <c r="H499" s="7"/>
       <c r="I499" s="7"/>
@@ -19187,7 +19175,7 @@
       <c r="C500" s="6"/>
       <c r="D500" s="3"/>
       <c r="E500" s="6"/>
-      <c r="F500" s="44"/>
+      <c r="F500" s="3"/>
       <c r="G500" s="3"/>
       <c r="H500" s="7"/>
       <c r="I500" s="7"/>
@@ -19215,7 +19203,7 @@
       <c r="C501" s="6"/>
       <c r="D501" s="3"/>
       <c r="E501" s="6"/>
-      <c r="F501" s="44"/>
+      <c r="F501" s="3"/>
       <c r="G501" s="3"/>
       <c r="H501" s="7"/>
       <c r="I501" s="7"/>
@@ -19243,7 +19231,7 @@
       <c r="C502" s="6"/>
       <c r="D502" s="3"/>
       <c r="E502" s="6"/>
-      <c r="F502" s="44"/>
+      <c r="F502" s="3"/>
       <c r="G502" s="3"/>
       <c r="H502" s="7"/>
       <c r="I502" s="7"/>
@@ -19271,7 +19259,7 @@
       <c r="C503" s="6"/>
       <c r="D503" s="3"/>
       <c r="E503" s="6"/>
-      <c r="F503" s="44"/>
+      <c r="F503" s="3"/>
       <c r="G503" s="3"/>
       <c r="H503" s="7"/>
       <c r="I503" s="7"/>
@@ -19299,7 +19287,7 @@
       <c r="C504" s="6"/>
       <c r="D504" s="3"/>
       <c r="E504" s="6"/>
-      <c r="F504" s="44"/>
+      <c r="F504" s="3"/>
       <c r="G504" s="3"/>
       <c r="H504" s="7"/>
       <c r="I504" s="7"/>
@@ -19327,7 +19315,7 @@
       <c r="C505" s="6"/>
       <c r="D505" s="3"/>
       <c r="E505" s="6"/>
-      <c r="F505" s="44"/>
+      <c r="F505" s="3"/>
       <c r="G505" s="3"/>
       <c r="H505" s="7"/>
       <c r="I505" s="7"/>
@@ -19355,7 +19343,7 @@
       <c r="C506" s="6"/>
       <c r="D506" s="3"/>
       <c r="E506" s="6"/>
-      <c r="F506" s="44"/>
+      <c r="F506" s="3"/>
       <c r="G506" s="3"/>
       <c r="H506" s="7"/>
       <c r="I506" s="7"/>
@@ -19383,7 +19371,7 @@
       <c r="C507" s="6"/>
       <c r="D507" s="3"/>
       <c r="E507" s="6"/>
-      <c r="F507" s="44"/>
+      <c r="F507" s="3"/>
       <c r="G507" s="3"/>
       <c r="H507" s="7"/>
       <c r="I507" s="7"/>
@@ -19411,7 +19399,7 @@
       <c r="C508" s="6"/>
       <c r="D508" s="3"/>
       <c r="E508" s="6"/>
-      <c r="F508" s="44"/>
+      <c r="F508" s="3"/>
       <c r="G508" s="3"/>
       <c r="H508" s="7"/>
       <c r="I508" s="7"/>
@@ -19439,7 +19427,7 @@
       <c r="C509" s="6"/>
       <c r="D509" s="3"/>
       <c r="E509" s="6"/>
-      <c r="F509" s="44"/>
+      <c r="F509" s="3"/>
       <c r="G509" s="3"/>
       <c r="H509" s="7"/>
       <c r="I509" s="7"/>
@@ -19467,7 +19455,7 @@
       <c r="C510" s="6"/>
       <c r="D510" s="3"/>
       <c r="E510" s="6"/>
-      <c r="F510" s="44"/>
+      <c r="F510" s="3"/>
       <c r="G510" s="3"/>
       <c r="H510" s="7"/>
       <c r="I510" s="7"/>
@@ -19495,7 +19483,7 @@
       <c r="C511" s="6"/>
       <c r="D511" s="3"/>
       <c r="E511" s="6"/>
-      <c r="F511" s="44"/>
+      <c r="F511" s="3"/>
       <c r="G511" s="3"/>
       <c r="H511" s="7"/>
       <c r="I511" s="7"/>
@@ -19523,7 +19511,7 @@
       <c r="C512" s="6"/>
       <c r="D512" s="3"/>
       <c r="E512" s="6"/>
-      <c r="F512" s="44"/>
+      <c r="F512" s="3"/>
       <c r="G512" s="3"/>
       <c r="H512" s="7"/>
       <c r="I512" s="7"/>
@@ -19551,7 +19539,7 @@
       <c r="C513" s="6"/>
       <c r="D513" s="3"/>
       <c r="E513" s="6"/>
-      <c r="F513" s="44"/>
+      <c r="F513" s="3"/>
       <c r="G513" s="3"/>
       <c r="H513" s="7"/>
       <c r="I513" s="7"/>
@@ -19579,7 +19567,7 @@
       <c r="C514" s="6"/>
       <c r="D514" s="3"/>
       <c r="E514" s="6"/>
-      <c r="F514" s="44"/>
+      <c r="F514" s="3"/>
       <c r="G514" s="3"/>
       <c r="H514" s="7"/>
       <c r="I514" s="7"/>
@@ -19607,7 +19595,7 @@
       <c r="C515" s="6"/>
       <c r="D515" s="3"/>
       <c r="E515" s="6"/>
-      <c r="F515" s="44"/>
+      <c r="F515" s="3"/>
       <c r="G515" s="3"/>
       <c r="H515" s="7"/>
       <c r="I515" s="7"/>
@@ -19635,7 +19623,7 @@
       <c r="C516" s="6"/>
       <c r="D516" s="3"/>
       <c r="E516" s="6"/>
-      <c r="F516" s="44"/>
+      <c r="F516" s="3"/>
       <c r="G516" s="3"/>
       <c r="H516" s="7"/>
       <c r="I516" s="7"/>
@@ -19663,7 +19651,7 @@
       <c r="C517" s="6"/>
       <c r="D517" s="3"/>
       <c r="E517" s="6"/>
-      <c r="F517" s="44"/>
+      <c r="F517" s="3"/>
       <c r="G517" s="3"/>
       <c r="H517" s="7"/>
       <c r="I517" s="7"/>
@@ -19691,7 +19679,7 @@
       <c r="C518" s="6"/>
       <c r="D518" s="3"/>
       <c r="E518" s="6"/>
-      <c r="F518" s="44"/>
+      <c r="F518" s="3"/>
       <c r="G518" s="3"/>
       <c r="H518" s="7"/>
       <c r="I518" s="7"/>
@@ -19719,7 +19707,7 @@
       <c r="C519" s="6"/>
       <c r="D519" s="3"/>
       <c r="E519" s="6"/>
-      <c r="F519" s="44"/>
+      <c r="F519" s="3"/>
       <c r="G519" s="3"/>
       <c r="H519" s="7"/>
       <c r="I519" s="7"/>
@@ -19747,7 +19735,7 @@
       <c r="C520" s="6"/>
       <c r="D520" s="3"/>
       <c r="E520" s="6"/>
-      <c r="F520" s="44"/>
+      <c r="F520" s="3"/>
       <c r="G520" s="3"/>
       <c r="H520" s="7"/>
       <c r="I520" s="7"/>
@@ -19775,7 +19763,7 @@
       <c r="C521" s="6"/>
       <c r="D521" s="3"/>
       <c r="E521" s="6"/>
-      <c r="F521" s="44"/>
+      <c r="F521" s="3"/>
       <c r="G521" s="3"/>
       <c r="H521" s="7"/>
       <c r="I521" s="7"/>
@@ -19803,7 +19791,7 @@
       <c r="C522" s="6"/>
       <c r="D522" s="3"/>
       <c r="E522" s="6"/>
-      <c r="F522" s="44"/>
+      <c r="F522" s="3"/>
       <c r="G522" s="3"/>
       <c r="H522" s="7"/>
       <c r="I522" s="7"/>
@@ -19831,7 +19819,7 @@
       <c r="C523" s="6"/>
       <c r="D523" s="3"/>
       <c r="E523" s="6"/>
-      <c r="F523" s="44"/>
+      <c r="F523" s="3"/>
       <c r="G523" s="3"/>
       <c r="H523" s="7"/>
       <c r="I523" s="7"/>
@@ -19859,7 +19847,7 @@
       <c r="C524" s="6"/>
       <c r="D524" s="3"/>
       <c r="E524" s="6"/>
-      <c r="F524" s="44"/>
+      <c r="F524" s="3"/>
       <c r="G524" s="3"/>
       <c r="H524" s="7"/>
       <c r="I524" s="7"/>
@@ -19887,7 +19875,7 @@
       <c r="C525" s="6"/>
       <c r="D525" s="3"/>
       <c r="E525" s="6"/>
-      <c r="F525" s="44"/>
+      <c r="F525" s="3"/>
       <c r="G525" s="3"/>
       <c r="H525" s="7"/>
       <c r="I525" s="7"/>
@@ -19915,7 +19903,7 @@
       <c r="C526" s="6"/>
       <c r="D526" s="3"/>
       <c r="E526" s="6"/>
-      <c r="F526" s="44"/>
+      <c r="F526" s="3"/>
       <c r="G526" s="3"/>
       <c r="H526" s="7"/>
       <c r="I526" s="7"/>
@@ -19943,7 +19931,7 @@
       <c r="C527" s="6"/>
       <c r="D527" s="3"/>
       <c r="E527" s="6"/>
-      <c r="F527" s="44"/>
+      <c r="F527" s="3"/>
       <c r="G527" s="3"/>
       <c r="H527" s="7"/>
       <c r="I527" s="7"/>
@@ -19971,7 +19959,7 @@
       <c r="C528" s="6"/>
       <c r="D528" s="3"/>
       <c r="E528" s="6"/>
-      <c r="F528" s="44"/>
+      <c r="F528" s="3"/>
       <c r="G528" s="3"/>
       <c r="H528" s="7"/>
       <c r="I528" s="7"/>
@@ -19999,7 +19987,7 @@
       <c r="C529" s="6"/>
       <c r="D529" s="3"/>
       <c r="E529" s="6"/>
-      <c r="F529" s="44"/>
+      <c r="F529" s="3"/>
       <c r="G529" s="3"/>
       <c r="H529" s="7"/>
       <c r="I529" s="7"/>
@@ -20027,7 +20015,7 @@
       <c r="C530" s="6"/>
       <c r="D530" s="3"/>
       <c r="E530" s="6"/>
-      <c r="F530" s="44"/>
+      <c r="F530" s="3"/>
       <c r="G530" s="3"/>
       <c r="H530" s="7"/>
       <c r="I530" s="7"/>
@@ -20055,7 +20043,7 @@
       <c r="C531" s="6"/>
       <c r="D531" s="3"/>
       <c r="E531" s="6"/>
-      <c r="F531" s="44"/>
+      <c r="F531" s="3"/>
       <c r="G531" s="3"/>
       <c r="H531" s="7"/>
       <c r="I531" s="7"/>
@@ -20083,7 +20071,7 @@
       <c r="C532" s="6"/>
       <c r="D532" s="3"/>
       <c r="E532" s="6"/>
-      <c r="F532" s="44"/>
+      <c r="F532" s="3"/>
       <c r="G532" s="3"/>
       <c r="H532" s="7"/>
       <c r="I532" s="7"/>
@@ -20111,7 +20099,7 @@
       <c r="C533" s="6"/>
       <c r="D533" s="3"/>
       <c r="E533" s="6"/>
-      <c r="F533" s="44"/>
+      <c r="F533" s="3"/>
       <c r="G533" s="3"/>
       <c r="H533" s="7"/>
       <c r="I533" s="7"/>
@@ -20139,7 +20127,7 @@
       <c r="C534" s="6"/>
       <c r="D534" s="3"/>
       <c r="E534" s="6"/>
-      <c r="F534" s="44"/>
+      <c r="F534" s="3"/>
       <c r="G534" s="3"/>
       <c r="H534" s="7"/>
       <c r="I534" s="7"/>
@@ -20167,7 +20155,7 @@
       <c r="C535" s="6"/>
       <c r="D535" s="3"/>
       <c r="E535" s="6"/>
-      <c r="F535" s="44"/>
+      <c r="F535" s="3"/>
       <c r="G535" s="3"/>
       <c r="H535" s="7"/>
       <c r="I535" s="7"/>
@@ -20195,7 +20183,7 @@
       <c r="C536" s="6"/>
       <c r="D536" s="3"/>
       <c r="E536" s="6"/>
-      <c r="F536" s="44"/>
+      <c r="F536" s="3"/>
       <c r="G536" s="3"/>
       <c r="H536" s="7"/>
       <c r="I536" s="7"/>
@@ -20223,7 +20211,7 @@
       <c r="C537" s="6"/>
       <c r="D537" s="3"/>
       <c r="E537" s="6"/>
-      <c r="F537" s="44"/>
+      <c r="F537" s="3"/>
       <c r="G537" s="3"/>
       <c r="H537" s="7"/>
       <c r="I537" s="7"/>
@@ -20251,7 +20239,7 @@
       <c r="C538" s="6"/>
       <c r="D538" s="3"/>
       <c r="E538" s="6"/>
-      <c r="F538" s="44"/>
+      <c r="F538" s="3"/>
       <c r="G538" s="3"/>
       <c r="H538" s="7"/>
       <c r="I538" s="7"/>
@@ -20279,7 +20267,7 @@
       <c r="C539" s="6"/>
       <c r="D539" s="3"/>
       <c r="E539" s="6"/>
-      <c r="F539" s="44"/>
+      <c r="F539" s="3"/>
       <c r="G539" s="3"/>
       <c r="H539" s="7"/>
       <c r="I539" s="7"/>
@@ -20307,7 +20295,7 @@
       <c r="C540" s="6"/>
       <c r="D540" s="3"/>
       <c r="E540" s="6"/>
-      <c r="F540" s="44"/>
+      <c r="F540" s="3"/>
       <c r="G540" s="3"/>
       <c r="H540" s="7"/>
       <c r="I540" s="7"/>
@@ -20335,7 +20323,7 @@
       <c r="C541" s="6"/>
       <c r="D541" s="3"/>
       <c r="E541" s="6"/>
-      <c r="F541" s="44"/>
+      <c r="F541" s="3"/>
       <c r="G541" s="3"/>
       <c r="H541" s="7"/>
       <c r="I541" s="7"/>
@@ -20363,7 +20351,7 @@
       <c r="C542" s="6"/>
       <c r="D542" s="3"/>
       <c r="E542" s="6"/>
-      <c r="F542" s="44"/>
+      <c r="F542" s="3"/>
       <c r="G542" s="3"/>
       <c r="H542" s="7"/>
       <c r="I542" s="7"/>
@@ -20391,7 +20379,7 @@
       <c r="C543" s="6"/>
       <c r="D543" s="3"/>
       <c r="E543" s="6"/>
-      <c r="F543" s="44"/>
+      <c r="F543" s="3"/>
       <c r="G543" s="3"/>
       <c r="H543" s="7"/>
       <c r="I543" s="7"/>
@@ -20419,7 +20407,7 @@
       <c r="C544" s="6"/>
       <c r="D544" s="3"/>
       <c r="E544" s="6"/>
-      <c r="F544" s="44"/>
+      <c r="F544" s="3"/>
       <c r="G544" s="3"/>
       <c r="H544" s="7"/>
       <c r="I544" s="7"/>
@@ -20447,7 +20435,7 @@
       <c r="C545" s="6"/>
       <c r="D545" s="3"/>
       <c r="E545" s="6"/>
-      <c r="F545" s="44"/>
+      <c r="F545" s="3"/>
       <c r="G545" s="3"/>
       <c r="H545" s="7"/>
       <c r="I545" s="7"/>
@@ -20475,7 +20463,7 @@
       <c r="C546" s="6"/>
       <c r="D546" s="3"/>
       <c r="E546" s="6"/>
-      <c r="F546" s="44"/>
+      <c r="F546" s="3"/>
       <c r="G546" s="3"/>
       <c r="H546" s="7"/>
       <c r="I546" s="7"/>
@@ -20503,7 +20491,7 @@
       <c r="C547" s="6"/>
       <c r="D547" s="3"/>
       <c r="E547" s="6"/>
-      <c r="F547" s="44"/>
+      <c r="F547" s="3"/>
       <c r="G547" s="3"/>
       <c r="H547" s="7"/>
       <c r="I547" s="7"/>
@@ -20531,7 +20519,7 @@
       <c r="C548" s="6"/>
       <c r="D548" s="3"/>
       <c r="E548" s="6"/>
-      <c r="F548" s="44"/>
+      <c r="F548" s="3"/>
       <c r="G548" s="3"/>
       <c r="H548" s="7"/>
       <c r="I548" s="7"/>
@@ -20559,7 +20547,7 @@
       <c r="C549" s="6"/>
       <c r="D549" s="3"/>
       <c r="E549" s="6"/>
-      <c r="F549" s="44"/>
+      <c r="F549" s="3"/>
       <c r="G549" s="3"/>
       <c r="H549" s="7"/>
       <c r="I549" s="7"/>
@@ -20587,7 +20575,7 @@
       <c r="C550" s="6"/>
       <c r="D550" s="3"/>
       <c r="E550" s="6"/>
-      <c r="F550" s="44"/>
+      <c r="F550" s="3"/>
       <c r="G550" s="3"/>
       <c r="H550" s="7"/>
       <c r="I550" s="7"/>
@@ -20615,7 +20603,7 @@
       <c r="C551" s="6"/>
       <c r="D551" s="3"/>
       <c r="E551" s="6"/>
-      <c r="F551" s="44"/>
+      <c r="F551" s="3"/>
       <c r="G551" s="3"/>
       <c r="H551" s="7"/>
       <c r="I551" s="7"/>
@@ -20643,7 +20631,7 @@
       <c r="C552" s="6"/>
       <c r="D552" s="3"/>
       <c r="E552" s="6"/>
-      <c r="F552" s="44"/>
+      <c r="F552" s="3"/>
       <c r="G552" s="3"/>
       <c r="H552" s="7"/>
       <c r="I552" s="7"/>
@@ -20671,7 +20659,7 @@
       <c r="C553" s="6"/>
       <c r="D553" s="3"/>
       <c r="E553" s="6"/>
-      <c r="F553" s="44"/>
+      <c r="F553" s="3"/>
       <c r="G553" s="3"/>
       <c r="H553" s="7"/>
       <c r="I553" s="7"/>
@@ -20699,7 +20687,7 @@
       <c r="C554" s="6"/>
       <c r="D554" s="3"/>
       <c r="E554" s="6"/>
-      <c r="F554" s="44"/>
+      <c r="F554" s="3"/>
       <c r="G554" s="3"/>
       <c r="H554" s="7"/>
       <c r="I554" s="7"/>
@@ -20727,7 +20715,7 @@
       <c r="C555" s="6"/>
       <c r="D555" s="3"/>
       <c r="E555" s="6"/>
-      <c r="F555" s="44"/>
+      <c r="F555" s="3"/>
       <c r="G555" s="3"/>
       <c r="H555" s="7"/>
       <c r="I555" s="7"/>
@@ -20755,7 +20743,7 @@
       <c r="C556" s="6"/>
       <c r="D556" s="3"/>
       <c r="E556" s="6"/>
-      <c r="F556" s="44"/>
+      <c r="F556" s="3"/>
       <c r="G556" s="3"/>
       <c r="H556" s="7"/>
       <c r="I556" s="7"/>
@@ -20783,7 +20771,7 @@
       <c r="C557" s="6"/>
       <c r="D557" s="3"/>
       <c r="E557" s="6"/>
-      <c r="F557" s="44"/>
+      <c r="F557" s="3"/>
       <c r="G557" s="3"/>
       <c r="H557" s="7"/>
       <c r="I557" s="7"/>
@@ -20811,7 +20799,7 @@
       <c r="C558" s="6"/>
       <c r="D558" s="3"/>
       <c r="E558" s="6"/>
-      <c r="F558" s="44"/>
+      <c r="F558" s="3"/>
       <c r="G558" s="3"/>
       <c r="H558" s="7"/>
       <c r="I558" s="7"/>
@@ -20839,7 +20827,7 @@
       <c r="C559" s="6"/>
       <c r="D559" s="3"/>
       <c r="E559" s="6"/>
-      <c r="F559" s="44"/>
+      <c r="F559" s="3"/>
       <c r="G559" s="3"/>
       <c r="H559" s="7"/>
       <c r="I559" s="7"/>
@@ -20867,7 +20855,7 @@
       <c r="C560" s="6"/>
       <c r="D560" s="3"/>
       <c r="E560" s="6"/>
-      <c r="F560" s="44"/>
+      <c r="F560" s="3"/>
       <c r="G560" s="3"/>
       <c r="H560" s="7"/>
       <c r="I560" s="7"/>
@@ -20895,7 +20883,7 @@
       <c r="C561" s="6"/>
       <c r="D561" s="3"/>
       <c r="E561" s="6"/>
-      <c r="F561" s="44"/>
+      <c r="F561" s="3"/>
       <c r="G561" s="3"/>
       <c r="H561" s="7"/>
       <c r="I561" s="7"/>
@@ -20923,7 +20911,7 @@
       <c r="C562" s="6"/>
       <c r="D562" s="3"/>
       <c r="E562" s="6"/>
-      <c r="F562" s="44"/>
+      <c r="F562" s="3"/>
       <c r="G562" s="3"/>
       <c r="H562" s="7"/>
       <c r="I562" s="7"/>
@@ -20951,7 +20939,7 @@
       <c r="C563" s="6"/>
       <c r="D563" s="3"/>
       <c r="E563" s="6"/>
-      <c r="F563" s="44"/>
+      <c r="F563" s="3"/>
       <c r="G563" s="3"/>
       <c r="H563" s="7"/>
       <c r="I563" s="7"/>
@@ -20979,7 +20967,7 @@
       <c r="C564" s="6"/>
       <c r="D564" s="3"/>
       <c r="E564" s="6"/>
-      <c r="F564" s="44"/>
+      <c r="F564" s="3"/>
       <c r="G564" s="3"/>
       <c r="H564" s="7"/>
       <c r="I564" s="7"/>
@@ -21007,7 +20995,7 @@
       <c r="C565" s="6"/>
       <c r="D565" s="3"/>
       <c r="E565" s="6"/>
-      <c r="F565" s="44"/>
+      <c r="F565" s="3"/>
       <c r="G565" s="3"/>
       <c r="H565" s="7"/>
       <c r="I565" s="7"/>
@@ -21035,7 +21023,7 @@
       <c r="C566" s="6"/>
       <c r="D566" s="3"/>
       <c r="E566" s="6"/>
-      <c r="F566" s="44"/>
+      <c r="F566" s="3"/>
       <c r="G566" s="3"/>
       <c r="H566" s="7"/>
       <c r="I566" s="7"/>
@@ -21063,7 +21051,7 @@
       <c r="C567" s="6"/>
       <c r="D567" s="3"/>
       <c r="E567" s="6"/>
-      <c r="F567" s="44"/>
+      <c r="F567" s="3"/>
       <c r="G567" s="3"/>
       <c r="H567" s="7"/>
       <c r="I567" s="7"/>
@@ -21091,7 +21079,7 @@
       <c r="C568" s="6"/>
       <c r="D568" s="3"/>
       <c r="E568" s="6"/>
-      <c r="F568" s="44"/>
+      <c r="F568" s="3"/>
       <c r="G568" s="3"/>
       <c r="H568" s="7"/>
       <c r="I568" s="7"/>
@@ -21119,7 +21107,7 @@
       <c r="C569" s="6"/>
       <c r="D569" s="3"/>
       <c r="E569" s="6"/>
-      <c r="F569" s="44"/>
+      <c r="F569" s="3"/>
       <c r="G569" s="3"/>
       <c r="H569" s="7"/>
       <c r="I569" s="7"/>
@@ -21147,7 +21135,7 @@
       <c r="C570" s="6"/>
       <c r="D570" s="3"/>
       <c r="E570" s="6"/>
-      <c r="F570" s="44"/>
+      <c r="F570" s="3"/>
       <c r="G570" s="3"/>
       <c r="H570" s="7"/>
       <c r="I570" s="7"/>
@@ -21175,7 +21163,7 @@
       <c r="C571" s="6"/>
       <c r="D571" s="3"/>
       <c r="E571" s="6"/>
-      <c r="F571" s="44"/>
+      <c r="F571" s="3"/>
       <c r="G571" s="3"/>
       <c r="H571" s="7"/>
       <c r="I571" s="7"/>
@@ -21203,7 +21191,7 @@
       <c r="C572" s="6"/>
       <c r="D572" s="3"/>
       <c r="E572" s="6"/>
-      <c r="F572" s="44"/>
+      <c r="F572" s="3"/>
       <c r="G572" s="3"/>
       <c r="H572" s="7"/>
       <c r="I572" s="7"/>
@@ -21231,7 +21219,7 @@
       <c r="C573" s="6"/>
       <c r="D573" s="3"/>
       <c r="E573" s="6"/>
-      <c r="F573" s="44"/>
+      <c r="F573" s="3"/>
       <c r="G573" s="3"/>
       <c r="H573" s="7"/>
       <c r="I573" s="7"/>
@@ -21259,7 +21247,7 @@
       <c r="C574" s="6"/>
       <c r="D574" s="3"/>
       <c r="E574" s="6"/>
-      <c r="F574" s="44"/>
+      <c r="F574" s="3"/>
       <c r="G574" s="3"/>
       <c r="H574" s="7"/>
       <c r="I574" s="7"/>
@@ -21287,7 +21275,7 @@
       <c r="C575" s="6"/>
       <c r="D575" s="3"/>
       <c r="E575" s="6"/>
-      <c r="F575" s="44"/>
+      <c r="F575" s="3"/>
       <c r="G575" s="3"/>
       <c r="H575" s="7"/>
       <c r="I575" s="7"/>
@@ -21315,7 +21303,7 @@
       <c r="C576" s="6"/>
       <c r="D576" s="3"/>
       <c r="E576" s="6"/>
-      <c r="F576" s="44"/>
+      <c r="F576" s="3"/>
       <c r="G576" s="3"/>
       <c r="H576" s="7"/>
       <c r="I576" s="7"/>
@@ -21343,7 +21331,7 @@
       <c r="C577" s="6"/>
       <c r="D577" s="3"/>
       <c r="E577" s="6"/>
-      <c r="F577" s="44"/>
+      <c r="F577" s="3"/>
       <c r="G577" s="3"/>
       <c r="H577" s="7"/>
       <c r="I577" s="7"/>
@@ -21371,7 +21359,7 @@
       <c r="C578" s="6"/>
       <c r="D578" s="3"/>
       <c r="E578" s="6"/>
-      <c r="F578" s="44"/>
+      <c r="F578" s="3"/>
       <c r="G578" s="3"/>
       <c r="H578" s="7"/>
       <c r="I578" s="7"/>
@@ -21399,7 +21387,7 @@
       <c r="C579" s="6"/>
       <c r="D579" s="3"/>
       <c r="E579" s="6"/>
-      <c r="F579" s="44"/>
+      <c r="F579" s="3"/>
       <c r="G579" s="3"/>
       <c r="H579" s="7"/>
       <c r="I579" s="7"/>
@@ -21427,7 +21415,7 @@
       <c r="C580" s="6"/>
       <c r="D580" s="3"/>
       <c r="E580" s="6"/>
-      <c r="F580" s="44"/>
+      <c r="F580" s="3"/>
       <c r="G580" s="3"/>
       <c r="H580" s="7"/>
       <c r="I580" s="7"/>
@@ -21455,7 +21443,7 @@
       <c r="C581" s="6"/>
       <c r="D581" s="3"/>
       <c r="E581" s="6"/>
-      <c r="F581" s="44"/>
+      <c r="F581" s="3"/>
       <c r="G581" s="3"/>
       <c r="H581" s="7"/>
       <c r="I581" s="7"/>
@@ -21483,7 +21471,7 @@
       <c r="C582" s="6"/>
       <c r="D582" s="3"/>
       <c r="E582" s="6"/>
-      <c r="F582" s="44"/>
+      <c r="F582" s="3"/>
       <c r="G582" s="3"/>
       <c r="H582" s="7"/>
       <c r="I582" s="7"/>
@@ -21511,7 +21499,7 @@
       <c r="C583" s="6"/>
       <c r="D583" s="3"/>
       <c r="E583" s="6"/>
-      <c r="F583" s="44"/>
+      <c r="F583" s="3"/>
       <c r="G583" s="3"/>
       <c r="H583" s="7"/>
       <c r="I583" s="7"/>
@@ -21539,7 +21527,7 @@
       <c r="C584" s="6"/>
       <c r="D584" s="3"/>
       <c r="E584" s="6"/>
-      <c r="F584" s="44"/>
+      <c r="F584" s="3"/>
       <c r="G584" s="3"/>
       <c r="H584" s="7"/>
       <c r="I584" s="7"/>
@@ -21567,7 +21555,7 @@
       <c r="C585" s="6"/>
       <c r="D585" s="3"/>
       <c r="E585" s="6"/>
-      <c r="F585" s="44"/>
+      <c r="F585" s="3"/>
       <c r="G585" s="3"/>
       <c r="H585" s="7"/>
       <c r="I585" s="7"/>
@@ -21595,7 +21583,7 @@
       <c r="C586" s="6"/>
       <c r="D586" s="3"/>
       <c r="E586" s="6"/>
-      <c r="F586" s="44"/>
+      <c r="F586" s="3"/>
       <c r="G586" s="3"/>
       <c r="H586" s="7"/>
       <c r="I586" s="7"/>
@@ -21623,7 +21611,7 @@
       <c r="C587" s="6"/>
       <c r="D587" s="3"/>
       <c r="E587" s="6"/>
-      <c r="F587" s="44"/>
+      <c r="F587" s="3"/>
       <c r="G587" s="3"/>
       <c r="H587" s="7"/>
       <c r="I587" s="7"/>
@@ -21651,7 +21639,7 @@
       <c r="C588" s="6"/>
       <c r="D588" s="3"/>
       <c r="E588" s="6"/>
-      <c r="F588" s="44"/>
+      <c r="F588" s="3"/>
       <c r="G588" s="3"/>
       <c r="H588" s="7"/>
       <c r="I588" s="7"/>
@@ -21679,7 +21667,7 @@
       <c r="C589" s="6"/>
       <c r="D589" s="3"/>
       <c r="E589" s="6"/>
-      <c r="F589" s="44"/>
+      <c r="F589" s="3"/>
       <c r="G589" s="3"/>
       <c r="H589" s="7"/>
       <c r="I589" s="7"/>
@@ -21707,7 +21695,7 @@
       <c r="C590" s="6"/>
       <c r="D590" s="3"/>
       <c r="E590" s="6"/>
-      <c r="F590" s="44"/>
+      <c r="F590" s="3"/>
       <c r="G590" s="3"/>
       <c r="H590" s="7"/>
       <c r="I590" s="7"/>
@@ -21735,7 +21723,7 @@
       <c r="C591" s="6"/>
       <c r="D591" s="3"/>
       <c r="E591" s="6"/>
-      <c r="F591" s="44"/>
+      <c r="F591" s="3"/>
       <c r="G591" s="3"/>
       <c r="H591" s="7"/>
       <c r="I591" s="7"/>
@@ -21763,7 +21751,7 @@
       <c r="C592" s="6"/>
       <c r="D592" s="3"/>
       <c r="E592" s="6"/>
-      <c r="F592" s="44"/>
+      <c r="F592" s="3"/>
       <c r="G592" s="3"/>
       <c r="H592" s="7"/>
       <c r="I592" s="7"/>
@@ -21791,7 +21779,7 @@
       <c r="C593" s="6"/>
       <c r="D593" s="3"/>
       <c r="E593" s="6"/>
-      <c r="F593" s="44"/>
+      <c r="F593" s="3"/>
       <c r="G593" s="3"/>
       <c r="H593" s="7"/>
       <c r="I593" s="7"/>
@@ -21819,7 +21807,7 @@
       <c r="C594" s="6"/>
       <c r="D594" s="3"/>
       <c r="E594" s="6"/>
-      <c r="F594" s="44"/>
+      <c r="F594" s="3"/>
       <c r="G594" s="3"/>
       <c r="H594" s="7"/>
       <c r="I594" s="7"/>
@@ -21847,7 +21835,7 @@
       <c r="C595" s="6"/>
       <c r="D595" s="3"/>
       <c r="E595" s="6"/>
-      <c r="F595" s="44"/>
+      <c r="F595" s="3"/>
       <c r="G595" s="3"/>
       <c r="H595" s="7"/>
       <c r="I595" s="7"/>
@@ -21875,7 +21863,7 @@
       <c r="C596" s="6"/>
       <c r="D596" s="3"/>
       <c r="E596" s="6"/>
-      <c r="F596" s="44"/>
+      <c r="F596" s="3"/>
       <c r="G596" s="3"/>
       <c r="H596" s="7"/>
       <c r="I596" s="7"/>
@@ -21903,7 +21891,7 @@
       <c r="C597" s="6"/>
       <c r="D597" s="3"/>
       <c r="E597" s="6"/>
-      <c r="F597" s="44"/>
+      <c r="F597" s="3"/>
       <c r="G597" s="3"/>
       <c r="H597" s="7"/>
       <c r="I597" s="7"/>
@@ -21931,7 +21919,7 @@
       <c r="C598" s="6"/>
       <c r="D598" s="3"/>
       <c r="E598" s="6"/>
-      <c r="F598" s="44"/>
+      <c r="F598" s="3"/>
       <c r="G598" s="3"/>
       <c r="H598" s="7"/>
       <c r="I598" s="7"/>
@@ -21959,7 +21947,7 @@
       <c r="C599" s="6"/>
       <c r="D599" s="3"/>
       <c r="E599" s="6"/>
-      <c r="F599" s="44"/>
+      <c r="F599" s="3"/>
       <c r="G599" s="3"/>
       <c r="H599" s="7"/>
       <c r="I599" s="7"/>
@@ -21987,7 +21975,7 @@
       <c r="C600" s="6"/>
       <c r="D600" s="3"/>
       <c r="E600" s="6"/>
-      <c r="F600" s="44"/>
+      <c r="F600" s="3"/>
       <c r="G600" s="3"/>
       <c r="H600" s="7"/>
       <c r="I600" s="7"/>
@@ -22015,7 +22003,7 @@
       <c r="C601" s="6"/>
       <c r="D601" s="3"/>
       <c r="E601" s="6"/>
-      <c r="F601" s="44"/>
+      <c r="F601" s="3"/>
       <c r="G601" s="3"/>
       <c r="H601" s="7"/>
       <c r="I601" s="7"/>
@@ -22043,7 +22031,7 @@
       <c r="C602" s="6"/>
       <c r="D602" s="3"/>
       <c r="E602" s="6"/>
-      <c r="F602" s="44"/>
+      <c r="F602" s="3"/>
       <c r="G602" s="3"/>
       <c r="H602" s="7"/>
       <c r="I602" s="7"/>
@@ -22071,7 +22059,7 @@
       <c r="C603" s="6"/>
       <c r="D603" s="3"/>
       <c r="E603" s="6"/>
-      <c r="F603" s="44"/>
+      <c r="F603" s="3"/>
       <c r="G603" s="3"/>
       <c r="H603" s="7"/>
       <c r="I603" s="7"/>
@@ -22099,7 +22087,7 @@
       <c r="C604" s="6"/>
       <c r="D604" s="3"/>
       <c r="E604" s="6"/>
-      <c r="F604" s="44"/>
+      <c r="F604" s="3"/>
       <c r="G604" s="3"/>
       <c r="H604" s="7"/>
       <c r="I604" s="7"/>
@@ -22127,7 +22115,7 @@
       <c r="C605" s="6"/>
       <c r="D605" s="3"/>
       <c r="E605" s="6"/>
-      <c r="F605" s="44"/>
+      <c r="F605" s="3"/>
       <c r="G605" s="3"/>
       <c r="H605" s="7"/>
       <c r="I605" s="7"/>
@@ -22155,7 +22143,7 @@
       <c r="C606" s="6"/>
       <c r="D606" s="3"/>
       <c r="E606" s="6"/>
-      <c r="F606" s="44"/>
+      <c r="F606" s="3"/>
       <c r="G606" s="3"/>
       <c r="H606" s="7"/>
       <c r="I606" s="7"/>
@@ -22183,7 +22171,7 @@
       <c r="C607" s="6"/>
       <c r="D607" s="3"/>
       <c r="E607" s="6"/>
-      <c r="F607" s="44"/>
+      <c r="F607" s="3"/>
       <c r="G607" s="3"/>
       <c r="H607" s="7"/>
       <c r="I607" s="7"/>
@@ -22211,7 +22199,7 @@
       <c r="C608" s="6"/>
       <c r="D608" s="3"/>
       <c r="E608" s="6"/>
-      <c r="F608" s="44"/>
+      <c r="F608" s="3"/>
       <c r="G608" s="3"/>
       <c r="H608" s="7"/>
       <c r="I608" s="7"/>
@@ -22239,7 +22227,7 @@
       <c r="C609" s="6"/>
       <c r="D609" s="3"/>
       <c r="E609" s="6"/>
-      <c r="F609" s="44"/>
+      <c r="F609" s="3"/>
       <c r="G609" s="3"/>
       <c r="H609" s="7"/>
       <c r="I609" s="7"/>
@@ -22267,7 +22255,7 @@
       <c r="C610" s="6"/>
       <c r="D610" s="3"/>
       <c r="E610" s="6"/>
-      <c r="F610" s="44"/>
+      <c r="F610" s="3"/>
       <c r="G610" s="3"/>
       <c r="H610" s="7"/>
       <c r="I610" s="7"/>
@@ -22295,7 +22283,7 @@
       <c r="C611" s="6"/>
       <c r="D611" s="3"/>
       <c r="E611" s="6"/>
-      <c r="F611" s="44"/>
+      <c r="F611" s="3"/>
       <c r="G611" s="3"/>
       <c r="H611" s="7"/>
       <c r="I611" s="7"/>
@@ -22323,7 +22311,7 @@
       <c r="C612" s="6"/>
       <c r="D612" s="3"/>
       <c r="E612" s="6"/>
-      <c r="F612" s="44"/>
+      <c r="F612" s="3"/>
       <c r="G612" s="3"/>
       <c r="H612" s="7"/>
       <c r="I612" s="7"/>
@@ -22351,7 +22339,7 @@
       <c r="C613" s="6"/>
       <c r="D613" s="3"/>
       <c r="E613" s="6"/>
-      <c r="F613" s="44"/>
+      <c r="F613" s="3"/>
       <c r="G613" s="3"/>
       <c r="H613" s="7"/>
       <c r="I613" s="7"/>
@@ -22379,7 +22367,7 @@
       <c r="C614" s="6"/>
       <c r="D614" s="3"/>
       <c r="E614" s="6"/>
-      <c r="F614" s="44"/>
+      <c r="F614" s="3"/>
       <c r="G614" s="3"/>
       <c r="H614" s="7"/>
       <c r="I614" s="7"/>
@@ -22407,7 +22395,7 @@
       <c r="C615" s="6"/>
       <c r="D615" s="3"/>
       <c r="E615" s="6"/>
-      <c r="F615" s="44"/>
+      <c r="F615" s="3"/>
       <c r="G615" s="3"/>
       <c r="H615" s="7"/>
       <c r="I615" s="7"/>
@@ -22435,7 +22423,7 @@
       <c r="C616" s="6"/>
       <c r="D616" s="3"/>
       <c r="E616" s="6"/>
-      <c r="F616" s="44"/>
+      <c r="F616" s="3"/>
       <c r="G616" s="3"/>
       <c r="H616" s="7"/>
       <c r="I616" s="7"/>
@@ -22463,7 +22451,7 @@
       <c r="C617" s="6"/>
       <c r="D617" s="3"/>
       <c r="E617" s="6"/>
-      <c r="F617" s="44"/>
+      <c r="F617" s="3"/>
       <c r="G617" s="3"/>
       <c r="H617" s="7"/>
       <c r="I617" s="7"/>
@@ -22491,7 +22479,7 @@
       <c r="C618" s="6"/>
       <c r="D618" s="3"/>
       <c r="E618" s="6"/>
-      <c r="F618" s="44"/>
+      <c r="F618" s="3"/>
       <c r="G618" s="3"/>
       <c r="H618" s="7"/>
       <c r="I618" s="7"/>
@@ -22519,7 +22507,7 @@
       <c r="C619" s="6"/>
       <c r="D619" s="3"/>
       <c r="E619" s="6"/>
-      <c r="F619" s="44"/>
+      <c r="F619" s="3"/>
       <c r="G619" s="3"/>
       <c r="H619" s="7"/>
       <c r="I619" s="7"/>
@@ -22547,7 +22535,7 @@
       <c r="C620" s="6"/>
       <c r="D620" s="3"/>
       <c r="E620" s="6"/>
-      <c r="F620" s="44"/>
+      <c r="F620" s="3"/>
       <c r="G620" s="3"/>
       <c r="H620" s="7"/>
       <c r="I620" s="7"/>
@@ -22575,7 +22563,7 @@
       <c r="C621" s="6"/>
       <c r="D621" s="3"/>
       <c r="E621" s="6"/>
-      <c r="F621" s="44"/>
+      <c r="F621" s="3"/>
       <c r="G621" s="3"/>
       <c r="H621" s="7"/>
       <c r="I621" s="7"/>
@@ -22603,7 +22591,7 @@
       <c r="C622" s="6"/>
       <c r="D622" s="3"/>
       <c r="E622" s="6"/>
-      <c r="F622" s="44"/>
+      <c r="F622" s="3"/>
       <c r="G622" s="3"/>
       <c r="H622" s="7"/>
       <c r="I622" s="7"/>
@@ -22631,7 +22619,7 @@
       <c r="C623" s="6"/>
       <c r="D623" s="3"/>
       <c r="E623" s="6"/>
-      <c r="F623" s="44"/>
+      <c r="F623" s="3"/>
       <c r="G623" s="3"/>
       <c r="H623" s="7"/>
       <c r="I623" s="7"/>
@@ -22659,7 +22647,7 @@
       <c r="C624" s="6"/>
       <c r="D624" s="3"/>
       <c r="E624" s="6"/>
-      <c r="F624" s="44"/>
+      <c r="F624" s="3"/>
       <c r="G624" s="3"/>
       <c r="H624" s="7"/>
       <c r="I624" s="7"/>
@@ -22687,7 +22675,7 @@
       <c r="C625" s="6"/>
       <c r="D625" s="3"/>
       <c r="E625" s="6"/>
-      <c r="F625" s="44"/>
+      <c r="F625" s="3"/>
       <c r="G625" s="3"/>
       <c r="H625" s="7"/>
       <c r="I625" s="7"/>
@@ -22715,7 +22703,7 @@
       <c r="C626" s="6"/>
       <c r="D626" s="3"/>
       <c r="E626" s="6"/>
-      <c r="F626" s="44"/>
+      <c r="F626" s="3"/>
       <c r="G626" s="3"/>
       <c r="H626" s="7"/>
       <c r="I626" s="7"/>
@@ -22743,7 +22731,7 @@
       <c r="C627" s="6"/>
       <c r="D627" s="3"/>
       <c r="E627" s="6"/>
-      <c r="F627" s="44"/>
+      <c r="F627" s="3"/>
       <c r="G627" s="3"/>
       <c r="H627" s="7"/>
       <c r="I627" s="7"/>
@@ -22771,7 +22759,7 @@
       <c r="C628" s="6"/>
       <c r="D628" s="3"/>
       <c r="E628" s="6"/>
-      <c r="F628" s="44"/>
+      <c r="F628" s="3"/>
       <c r="G628" s="3"/>
       <c r="H628" s="7"/>
       <c r="I628" s="7"/>
@@ -22799,7 +22787,7 @@
       <c r="C629" s="6"/>
       <c r="D629" s="3"/>
       <c r="E629" s="6"/>
-      <c r="F629" s="44"/>
+      <c r="F629" s="3"/>
       <c r="G629" s="3"/>
       <c r="H629" s="7"/>
       <c r="I629" s="7"/>
@@ -22827,7 +22815,7 @@
       <c r="C630" s="6"/>
       <c r="D630" s="3"/>
       <c r="E630" s="6"/>
-      <c r="F630" s="44"/>
+      <c r="F630" s="3"/>
       <c r="G630" s="3"/>
       <c r="H630" s="7"/>
       <c r="I630" s="7"/>
@@ -22855,7 +22843,7 @@
       <c r="C631" s="6"/>
       <c r="D631" s="3"/>
       <c r="E631" s="6"/>
-      <c r="F631" s="44"/>
+      <c r="F631" s="3"/>
       <c r="G631" s="3"/>
       <c r="H631" s="7"/>
       <c r="I631" s="7"/>
@@ -22883,7 +22871,7 @@
       <c r="C632" s="6"/>
       <c r="D632" s="3"/>
       <c r="E632" s="6"/>
-      <c r="F632" s="44"/>
+      <c r="F632" s="3"/>
       <c r="G632" s="3"/>
       <c r="H632" s="7"/>
       <c r="I632" s="7"/>
@@ -22911,7 +22899,7 @@
       <c r="C633" s="6"/>
       <c r="D633" s="3"/>
       <c r="E633" s="6"/>
-      <c r="F633" s="44"/>
+      <c r="F633" s="3"/>
       <c r="G633" s="3"/>
       <c r="H633" s="7"/>
       <c r="I633" s="7"/>
@@ -22939,7 +22927,7 @@
       <c r="C634" s="6"/>
       <c r="D634" s="3"/>
       <c r="E634" s="6"/>
-      <c r="F634" s="44"/>
+      <c r="F634" s="3"/>
       <c r="G634" s="3"/>
       <c r="H634" s="7"/>
       <c r="I634" s="7"/>
@@ -22967,7 +22955,7 @@
       <c r="C635" s="6"/>
       <c r="D635" s="3"/>
       <c r="E635" s="6"/>
-      <c r="F635" s="44"/>
+      <c r="F635" s="3"/>
       <c r="G635" s="3"/>
       <c r="H635" s="7"/>
       <c r="I635" s="7"/>
@@ -22995,7 +22983,7 @@
       <c r="C636" s="6"/>
       <c r="D636" s="3"/>
       <c r="E636" s="6"/>
-      <c r="F636" s="44"/>
+      <c r="F636" s="3"/>
       <c r="G636" s="3"/>
       <c r="H636" s="7"/>
       <c r="I636" s="7"/>
@@ -23023,7 +23011,7 @@
       <c r="C637" s="6"/>
       <c r="D637" s="3"/>
       <c r="E637" s="6"/>
-      <c r="F637" s="44"/>
+      <c r="F637" s="3"/>
       <c r="G637" s="3"/>
       <c r="H637" s="7"/>
       <c r="I637" s="7"/>
@@ -23051,7 +23039,7 @@
       <c r="C638" s="6"/>
       <c r="D638" s="3"/>
       <c r="E638" s="6"/>
-      <c r="F638" s="44"/>
+      <c r="F638" s="3"/>
       <c r="G638" s="3"/>
       <c r="H638" s="7"/>
       <c r="I638" s="7"/>
@@ -23079,7 +23067,7 @@
       <c r="C639" s="6"/>
       <c r="D639" s="3"/>
       <c r="E639" s="6"/>
-      <c r="F639" s="44"/>
+      <c r="F639" s="3"/>
       <c r="G639" s="3"/>
       <c r="H639" s="7"/>
       <c r="I639" s="7"/>
@@ -23107,7 +23095,7 @@
       <c r="C640" s="6"/>
       <c r="D640" s="3"/>
       <c r="E640" s="6"/>
-      <c r="F640" s="44"/>
+      <c r="F640" s="3"/>
       <c r="G640" s="3"/>
       <c r="H640" s="7"/>
       <c r="I640" s="7"/>
@@ -23135,7 +23123,7 @@
       <c r="C641" s="6"/>
       <c r="D641" s="3"/>
       <c r="E641" s="6"/>
-      <c r="F641" s="44"/>
+      <c r="F641" s="3"/>
       <c r="G641" s="3"/>
       <c r="H641" s="7"/>
       <c r="I641" s="7"/>
@@ -23163,7 +23151,7 @@
       <c r="C642" s="6"/>
       <c r="D642" s="3"/>
       <c r="E642" s="6"/>
-      <c r="F642" s="44"/>
+      <c r="F642" s="3"/>
       <c r="G642" s="3"/>
       <c r="H642" s="7"/>
       <c r="I642" s="7"/>
@@ -23191,7 +23179,7 @@
       <c r="C643" s="6"/>
       <c r="D643" s="3"/>
       <c r="E643" s="6"/>
-      <c r="F643" s="44"/>
+      <c r="F643" s="3"/>
       <c r="G643" s="3"/>
       <c r="H643" s="7"/>
       <c r="I643" s="7"/>
@@ -23219,7 +23207,7 @@
       <c r="C644" s="6"/>
       <c r="D644" s="3"/>
       <c r="E644" s="6"/>
-      <c r="F644" s="44"/>
+      <c r="F644" s="3"/>
       <c r="G644" s="3"/>
       <c r="H644" s="7"/>
       <c r="I644" s="7"/>
@@ -23247,7 +23235,7 @@
       <c r="C645" s="6"/>
       <c r="D645" s="3"/>
       <c r="E645" s="6"/>
-      <c r="F645" s="44"/>
+      <c r="F645" s="3"/>
       <c r="G645" s="3"/>
       <c r="H645" s="7"/>
       <c r="I645" s="7"/>
@@ -23275,7 +23263,7 @@
       <c r="C646" s="6"/>
       <c r="D646" s="3"/>
       <c r="E646" s="6"/>
-      <c r="F646" s="44"/>
+      <c r="F646" s="3"/>
       <c r="G646" s="3"/>
       <c r="H646" s="7"/>
       <c r="I646" s="7"/>
@@ -23303,7 +23291,7 @@
       <c r="C647" s="6"/>
       <c r="D647" s="3"/>
       <c r="E647" s="6"/>
-      <c r="F647" s="44"/>
+      <c r="F647" s="3"/>
       <c r="G647" s="3"/>
       <c r="H647" s="7"/>
       <c r="I647" s="7"/>
@@ -23331,7 +23319,7 @@
       <c r="C648" s="6"/>
       <c r="D648" s="3"/>
       <c r="E648" s="6"/>
-      <c r="F648" s="44"/>
+      <c r="F648" s="3"/>
       <c r="G648" s="3"/>
       <c r="H648" s="7"/>
       <c r="I648" s="7"/>
@@ -23359,7 +23347,7 @@
       <c r="C649" s="6"/>
       <c r="D649" s="3"/>
       <c r="E649" s="6"/>
-      <c r="F649" s="44"/>
+      <c r="F649" s="3"/>
       <c r="G649" s="3"/>
       <c r="H649" s="7"/>
       <c r="I649" s="7"/>
@@ -23387,7 +23375,7 @@
       <c r="C650" s="6"/>
       <c r="D650" s="3"/>
       <c r="E650" s="6"/>
-      <c r="F650" s="44"/>
+      <c r="F650" s="3"/>
       <c r="G650" s="3"/>
       <c r="H650" s="7"/>
       <c r="I650" s="7"/>
@@ -23415,7 +23403,7 @@
       <c r="C651" s="6"/>
       <c r="D651" s="3"/>
       <c r="E651" s="6"/>
-      <c r="F651" s="44"/>
+      <c r="F651" s="3"/>
       <c r="G651" s="3"/>
       <c r="H651" s="7"/>
       <c r="I651" s="7"/>
@@ -23443,7 +23431,7 @@
       <c r="C652" s="6"/>
       <c r="D652" s="3"/>
       <c r="E652" s="6"/>
-      <c r="F652" s="44"/>
+      <c r="F652" s="3"/>
       <c r="G652" s="3"/>
       <c r="H652" s="7"/>
       <c r="I652" s="7"/>
@@ -23471,7 +23459,7 @@
       <c r="C653" s="6"/>
       <c r="D653" s="3"/>
       <c r="E653" s="6"/>
-      <c r="F653" s="44"/>
+      <c r="F653" s="3"/>
       <c r="G653" s="3"/>
       <c r="H653" s="7"/>
       <c r="I653" s="7"/>
@@ -23499,7 +23487,7 @@
       <c r="C654" s="6"/>
       <c r="D654" s="3"/>
       <c r="E654" s="6"/>
-      <c r="F654" s="44"/>
+      <c r="F654" s="3"/>
       <c r="G654" s="3"/>
       <c r="H654" s="7"/>
       <c r="I654" s="7"/>
@@ -23527,7 +23515,7 @@
       <c r="C655" s="6"/>
       <c r="D655" s="3"/>
       <c r="E655" s="6"/>
-      <c r="F655" s="44"/>
+      <c r="F655" s="3"/>
       <c r="G655" s="3"/>
       <c r="H655" s="7"/>
       <c r="I655" s="7"/>
@@ -23555,7 +23543,7 @@
       <c r="C656" s="6"/>
       <c r="D656" s="3"/>
       <c r="E656" s="6"/>
-      <c r="F656" s="44"/>
+      <c r="F656" s="3"/>
       <c r="G656" s="3"/>
       <c r="H656" s="7"/>
       <c r="I656" s="7"/>
@@ -23583,7 +23571,7 @@
       <c r="C657" s="6"/>
       <c r="D657" s="3"/>
       <c r="E657" s="6"/>
-      <c r="F657" s="44"/>
+      <c r="F657" s="3"/>
       <c r="G657" s="3"/>
       <c r="H657" s="7"/>
       <c r="I657" s="7"/>
@@ -23611,7 +23599,7 @@
       <c r="C658" s="6"/>
       <c r="D658" s="3"/>
       <c r="E658" s="6"/>
-      <c r="F658" s="44"/>
+      <c r="F658" s="3"/>
       <c r="G658" s="3"/>
       <c r="H658" s="7"/>
       <c r="I658" s="7"/>
@@ -23639,7 +23627,7 @@
       <c r="C659" s="6"/>
       <c r="D659" s="3"/>
       <c r="E659" s="6"/>
-      <c r="F659" s="44"/>
+      <c r="F659" s="3"/>
       <c r="G659" s="3"/>
       <c r="H659" s="7"/>
       <c r="I659" s="7"/>
@@ -23667,7 +23655,7 @@
       <c r="C660" s="6"/>
       <c r="D660" s="3"/>
       <c r="E660" s="6"/>
-      <c r="F660" s="44"/>
+      <c r="F660" s="3"/>
       <c r="G660" s="3"/>
       <c r="H660" s="7"/>
       <c r="I660" s="7"/>
@@ -23695,7 +23683,7 @@
       <c r="C661" s="6"/>
       <c r="D661" s="3"/>
       <c r="E661" s="6"/>
-      <c r="F661" s="44"/>
+      <c r="F661" s="3"/>
       <c r="G661" s="3"/>
       <c r="H661" s="7"/>
       <c r="I661" s="7"/>
@@ -23723,7 +23711,7 @@
       <c r="C662" s="6"/>
       <c r="D662" s="3"/>
       <c r="E662" s="6"/>
-      <c r="F662" s="44"/>
+      <c r="F662" s="3"/>
       <c r="G662" s="3"/>
       <c r="H662" s="7"/>
       <c r="I662" s="7"/>
@@ -23751,7 +23739,7 @@
       <c r="C663" s="6"/>
       <c r="D663" s="3"/>
       <c r="E663" s="6"/>
-      <c r="F663" s="44"/>
+      <c r="F663" s="3"/>
       <c r="G663" s="3"/>
       <c r="H663" s="7"/>
       <c r="I663" s="7"/>
@@ -23779,7 +23767,7 @@
       <c r="C664" s="6"/>
       <c r="D664" s="3"/>
       <c r="E664" s="6"/>
-      <c r="F664" s="44"/>
+      <c r="F664" s="3"/>
       <c r="G664" s="3"/>
       <c r="H664" s="7"/>
       <c r="I664" s="7"/>
@@ -23807,7 +23795,7 @@
       <c r="C665" s="6"/>
       <c r="D665" s="3"/>
       <c r="E665" s="6"/>
-      <c r="F665" s="44"/>
+      <c r="F665" s="3"/>
       <c r="G665" s="3"/>
       <c r="H665" s="7"/>
       <c r="I665" s="7"/>
@@ -23835,7 +23823,7 @@
       <c r="C666" s="6"/>
       <c r="D666" s="3"/>
       <c r="E666" s="6"/>
-      <c r="F666" s="44"/>
+      <c r="F666" s="3"/>
       <c r="G666" s="3"/>
       <c r="H666" s="7"/>
       <c r="I666" s="7"/>
@@ -23863,7 +23851,7 @@
       <c r="C667" s="6"/>
       <c r="D667" s="3"/>
       <c r="E667" s="6"/>
-      <c r="F667" s="44"/>
+      <c r="F667" s="3"/>
       <c r="G667" s="3"/>
       <c r="H667" s="7"/>
       <c r="I667" s="7"/>
@@ -23891,7 +23879,7 @@
       <c r="C668" s="6"/>
       <c r="D668" s="3"/>
       <c r="E668" s="6"/>
-      <c r="F668" s="44"/>
+      <c r="F668" s="3"/>
       <c r="G668" s="3"/>
       <c r="H668" s="7"/>
       <c r="I668" s="7"/>
@@ -23919,7 +23907,7 @@
       <c r="C669" s="6"/>
       <c r="D669" s="3"/>
       <c r="E669" s="6"/>
-      <c r="F669" s="44"/>
+      <c r="F669" s="3"/>
       <c r="G669" s="3"/>
       <c r="H669" s="7"/>
       <c r="I669" s="7"/>
@@ -23947,7 +23935,7 @@
       <c r="C670" s="6"/>
       <c r="D670" s="3"/>
       <c r="E670" s="6"/>
-      <c r="F670" s="44"/>
+      <c r="F670" s="3"/>
       <c r="G670" s="3"/>
       <c r="H670" s="7"/>
       <c r="I670" s="7"/>
@@ -23975,7 +23963,7 @@
       <c r="C671" s="6"/>
       <c r="D671" s="3"/>
       <c r="E671" s="6"/>
-      <c r="F671" s="44"/>
+      <c r="F671" s="3"/>
       <c r="G671" s="3"/>
       <c r="H671" s="7"/>
       <c r="I671" s="7"/>
@@ -24003,7 +23991,7 @@
       <c r="C672" s="6"/>
       <c r="D672" s="3"/>
       <c r="E672" s="6"/>
-      <c r="F672" s="44"/>
+      <c r="F672" s="3"/>
       <c r="G672" s="3"/>
       <c r="H672" s="7"/>
       <c r="I672" s="7"/>
@@ -24031,7 +24019,7 @@
       <c r="C673" s="6"/>
       <c r="D673" s="3"/>
       <c r="E673" s="6"/>
-      <c r="F673" s="44"/>
+      <c r="F673" s="3"/>
       <c r="G673" s="3"/>
       <c r="H673" s="7"/>
       <c r="I673" s="7"/>
@@ -24059,7 +24047,7 @@
       <c r="C674" s="6"/>
       <c r="D674" s="3"/>
       <c r="E674" s="6"/>
-      <c r="F674" s="44"/>
+      <c r="F674" s="3"/>
       <c r="G674" s="3"/>
       <c r="H674" s="7"/>
       <c r="I674" s="7"/>
@@ -24087,7 +24075,7 @@
       <c r="C675" s="6"/>
       <c r="D675" s="3"/>
       <c r="E675" s="6"/>
-      <c r="F675" s="44"/>
+      <c r="F675" s="3"/>
       <c r="G675" s="3"/>
       <c r="H675" s="7"/>
       <c r="I675" s="7"/>
@@ -24115,7 +24103,7 @@
       <c r="C676" s="6"/>
       <c r="D676" s="3"/>
       <c r="E676" s="6"/>
-      <c r="F676" s="44"/>
+      <c r="F676" s="3"/>
       <c r="G676" s="3"/>
       <c r="H676" s="7"/>
       <c r="I676" s="7"/>
@@ -24143,7 +24131,7 @@
       <c r="C677" s="6"/>
       <c r="D677" s="3"/>
       <c r="E677" s="6"/>
-      <c r="F677" s="44"/>
+      <c r="F677" s="3"/>
       <c r="G677" s="3"/>
       <c r="H677" s="7"/>
       <c r="I677" s="7"/>
@@ -24171,7 +24159,7 @@
       <c r="C678" s="6"/>
       <c r="D678" s="3"/>
       <c r="E678" s="6"/>
-      <c r="F678" s="44"/>
+      <c r="F678" s="3"/>
       <c r="G678" s="3"/>
       <c r="H678" s="7"/>
       <c r="I678" s="7"/>
@@ -24199,7 +24187,7 @@
       <c r="C679" s="6"/>
       <c r="D679" s="3"/>
       <c r="E679" s="6"/>
-      <c r="F679" s="44"/>
+      <c r="F679" s="3"/>
       <c r="G679" s="3"/>
       <c r="H679" s="7"/>
       <c r="I679" s="7"/>
@@ -24227,7 +24215,7 @@
       <c r="C680" s="6"/>
       <c r="D680" s="3"/>
       <c r="E680" s="6"/>
-      <c r="F680" s="44"/>
+      <c r="F680" s="3"/>
       <c r="G680" s="3"/>
       <c r="H680" s="7"/>
       <c r="I680" s="7"/>
@@ -24255,7 +24243,7 @@
       <c r="C681" s="6"/>
       <c r="D681" s="3"/>
       <c r="E681" s="6"/>
-      <c r="F681" s="44"/>
+      <c r="F681" s="3"/>
       <c r="G681" s="3"/>
       <c r="H681" s="7"/>
       <c r="I681" s="7"/>
@@ -24283,7 +24271,7 @@
       <c r="C682" s="6"/>
       <c r="D682" s="3"/>
       <c r="E682" s="6"/>
-      <c r="F682" s="44"/>
+      <c r="F682" s="3"/>
       <c r="G682" s="3"/>
       <c r="H682" s="7"/>
       <c r="I682" s="7"/>
@@ -24311,7 +24299,7 @@
       <c r="C683" s="6"/>
       <c r="D683" s="3"/>
       <c r="E683" s="6"/>
-      <c r="F683" s="44"/>
+      <c r="F683" s="3"/>
       <c r="G683" s="3"/>
       <c r="H683" s="7"/>
       <c r="I683" s="7"/>
@@ -24339,7 +24327,7 @@
       <c r="C684" s="6"/>
       <c r="D684" s="3"/>
       <c r="E684" s="6"/>
-      <c r="F684" s="44"/>
+      <c r="F684" s="3"/>
       <c r="G684" s="3"/>
       <c r="H684" s="7"/>
       <c r="I684" s="7"/>
@@ -24367,7 +24355,7 @@
       <c r="C685" s="6"/>
       <c r="D685" s="3"/>
       <c r="E685" s="6"/>
-      <c r="F685" s="44"/>
+      <c r="F685" s="3"/>
       <c r="G685" s="3"/>
       <c r="H685" s="7"/>
       <c r="I685" s="7"/>
@@ -24395,7 +24383,7 @@
       <c r="C686" s="6"/>
       <c r="D686" s="3"/>
       <c r="E686" s="6"/>
-      <c r="F686" s="44"/>
+      <c r="F686" s="3"/>
       <c r="G686" s="3"/>
       <c r="H686" s="7"/>
       <c r="I686" s="7"/>
@@ -24423,7 +24411,7 @@
       <c r="C687" s="6"/>
       <c r="D687" s="3"/>
       <c r="E687" s="6"/>
-      <c r="F687" s="44"/>
+      <c r="F687" s="3"/>
       <c r="G687" s="3"/>
       <c r="H687" s="7"/>
       <c r="I687" s="7"/>
@@ -24451,7 +24439,7 @@
       <c r="C688" s="6"/>
       <c r="D688" s="3"/>
       <c r="E688" s="6"/>
-      <c r="F688" s="44"/>
+      <c r="F688" s="3"/>
       <c r="G688" s="3"/>
       <c r="H688" s="7"/>
       <c r="I688" s="7"/>
@@ -24479,7 +24467,7 @@
       <c r="C689" s="6"/>
       <c r="D689" s="3"/>
       <c r="E689" s="6"/>
-      <c r="F689" s="44"/>
+      <c r="F689" s="3"/>
       <c r="G689" s="3"/>
       <c r="H689" s="7"/>
       <c r="I689" s="7"/>
@@ -24507,7 +24495,7 @@
       <c r="C690" s="6"/>
       <c r="D690" s="3"/>
       <c r="E690" s="6"/>
-      <c r="F690" s="44"/>
+      <c r="F690" s="3"/>
       <c r="G690" s="3"/>
       <c r="H690" s="7"/>
       <c r="I690" s="7"/>
@@ -24535,7 +24523,7 @@
       <c r="C691" s="6"/>
       <c r="D691" s="3"/>
       <c r="E691" s="6"/>
-      <c r="F691" s="44"/>
+      <c r="F691" s="3"/>
       <c r="G691" s="3"/>
       <c r="H691" s="7"/>
       <c r="I691" s="7"/>
@@ -24563,7 +24551,7 @@
       <c r="C692" s="6"/>
       <c r="D692" s="3"/>
       <c r="E692" s="6"/>
-      <c r="F692" s="44"/>
+      <c r="F692" s="3"/>
       <c r="G692" s="3"/>
       <c r="H692" s="7"/>
       <c r="I692" s="7"/>
@@ -24591,7 +24579,7 @@
       <c r="C693" s="6"/>
       <c r="D693" s="3"/>
       <c r="E693" s="6"/>
-      <c r="F693" s="44"/>
+      <c r="F693" s="3"/>
       <c r="G693" s="3"/>
       <c r="H693" s="7"/>
       <c r="I693" s="7"/>
@@ -24619,7 +24607,7 @@
       <c r="C694" s="6"/>
       <c r="D694" s="3"/>
       <c r="E694" s="6"/>
-      <c r="F694" s="44"/>
+      <c r="F694" s="3"/>
       <c r="G694" s="3"/>
       <c r="H694" s="7"/>
       <c r="I694" s="7"/>
@@ -24647,7 +24635,7 @@
       <c r="C695" s="6"/>
       <c r="D695" s="3"/>
       <c r="E695" s="6"/>
-      <c r="F695" s="44"/>
+      <c r="F695" s="3"/>
       <c r="G695" s="3"/>
       <c r="H695" s="7"/>
       <c r="I695" s="7"/>
@@ -24675,7 +24663,7 @@
       <c r="C696" s="6"/>
       <c r="D696" s="3"/>
       <c r="E696" s="6"/>
-      <c r="F696" s="44"/>
+      <c r="F696" s="3"/>
       <c r="G696" s="3"/>
       <c r="H696" s="7"/>
       <c r="I696" s="7"/>
@@ -24703,7 +24691,7 @@
       <c r="C697" s="6"/>
       <c r="D697" s="3"/>
       <c r="E697" s="6"/>
-      <c r="F697" s="44"/>
+      <c r="F697" s="3"/>
       <c r="G697" s="3"/>
       <c r="H697" s="7"/>
       <c r="I697" s="7"/>
@@ -24731,7 +24719,7 @@
       <c r="C698" s="6"/>
       <c r="D698" s="3"/>
       <c r="E698" s="6"/>
-      <c r="F698" s="44"/>
+      <c r="F698" s="3"/>
       <c r="G698" s="3"/>
       <c r="H698" s="7"/>
       <c r="I698" s="7"/>
@@ -24759,7 +24747,7 @@
       <c r="C699" s="6"/>
       <c r="D699" s="3"/>
       <c r="E699" s="6"/>
-      <c r="F699" s="44"/>
+      <c r="F699" s="3"/>
       <c r="G699" s="3"/>
       <c r="H699" s="7"/>
       <c r="I699" s="7"/>
@@ -24787,7 +24775,7 @@
       <c r="C700" s="6"/>
       <c r="D700" s="3"/>
       <c r="E700" s="6"/>
-      <c r="F700" s="44"/>
+      <c r="F700" s="3"/>
       <c r="G700" s="3"/>
       <c r="H700" s="7"/>
       <c r="I700" s="7"/>
@@ -24815,7 +24803,7 @@
       <c r="C701" s="6"/>
       <c r="D701" s="3"/>
       <c r="E701" s="6"/>
-      <c r="F701" s="44"/>
+      <c r="F701" s="3"/>
       <c r="G701" s="3"/>
       <c r="H701" s="7"/>
       <c r="I701" s="7"/>
@@ -24843,7 +24831,7 @@
       <c r="C702" s="6"/>
       <c r="D702" s="3"/>
       <c r="E702" s="6"/>
-      <c r="F702" s="44"/>
+      <c r="F702" s="3"/>
       <c r="G702" s="3"/>
       <c r="H702" s="7"/>
       <c r="I702" s="7"/>
@@ -24871,7 +24859,7 @@
       <c r="C703" s="6"/>
       <c r="D703" s="3"/>
       <c r="E703" s="6"/>
-      <c r="F703" s="44"/>
+      <c r="F703" s="3"/>
       <c r="G703" s="3"/>
       <c r="H703" s="7"/>
       <c r="I703" s="7"/>
@@ -24899,7 +24887,7 @@
       <c r="C704" s="6"/>
       <c r="D704" s="3"/>
       <c r="E704" s="6"/>
-      <c r="F704" s="44"/>
+      <c r="F704" s="3"/>
       <c r="G704" s="3"/>
       <c r="H704" s="7"/>
       <c r="I704" s="7"/>
@@ -24927,7 +24915,7 @@
       <c r="C705" s="6"/>
       <c r="D705" s="3"/>
       <c r="E705" s="6"/>
-      <c r="F705" s="44"/>
+      <c r="F705" s="3"/>
       <c r="G705" s="3"/>
       <c r="H705" s="7"/>
       <c r="I705" s="7"/>
@@ -24955,7 +24943,7 @@
       <c r="C706" s="6"/>
       <c r="D706" s="3"/>
       <c r="E706" s="6"/>
-      <c r="F706" s="44"/>
+      <c r="F706" s="3"/>
       <c r="G706" s="3"/>
       <c r="H706" s="7"/>
       <c r="I706" s="7"/>
@@ -24983,7 +24971,7 @@
       <c r="C707" s="6"/>
       <c r="D707" s="3"/>
       <c r="E707" s="6"/>
-      <c r="F707" s="44"/>
+      <c r="F707" s="3"/>
       <c r="G707" s="3"/>
       <c r="H707" s="7"/>
       <c r="I707" s="7"/>
@@ -25011,7 +24999,7 @@
       <c r="C708" s="6"/>
       <c r="D708" s="3"/>
       <c r="E708" s="6"/>
-      <c r="F708" s="44"/>
+      <c r="F708" s="3"/>
       <c r="G708" s="3"/>
       <c r="H708" s="7"/>
       <c r="I708" s="7"/>
@@ -25039,7 +25027,7 @@
       <c r="C709" s="6"/>
       <c r="D709" s="3"/>
       <c r="E709" s="6"/>
-      <c r="F709" s="44"/>
+      <c r="F709" s="3"/>
       <c r="G709" s="3"/>
       <c r="H709" s="7"/>
       <c r="I709" s="7"/>
@@ -25067,7 +25055,7 @@
       <c r="C710" s="6"/>
       <c r="D710" s="3"/>
       <c r="E710" s="6"/>
-      <c r="F710" s="44"/>
+      <c r="F710" s="3"/>
       <c r="G710" s="3"/>
       <c r="H710" s="7"/>
       <c r="I710" s="7"/>
@@ -25095,7 +25083,7 @@
       <c r="C711" s="6"/>
       <c r="D711" s="3"/>
       <c r="E711" s="6"/>
-      <c r="F711" s="44"/>
+      <c r="F711" s="3"/>
       <c r="G711" s="3"/>
       <c r="H711" s="7"/>
       <c r="I711" s="7"/>
@@ -25123,7 +25111,7 @@
       <c r="C712" s="6"/>
       <c r="D712" s="3"/>
       <c r="E712" s="6"/>
-      <c r="F712" s="44"/>
+      <c r="F712" s="3"/>
       <c r="G712" s="3"/>
       <c r="H712" s="7"/>
       <c r="I712" s="7"/>
@@ -25151,7 +25139,7 @@
       <c r="C713" s="6"/>
       <c r="D713" s="3"/>
       <c r="E713" s="6"/>
-      <c r="F713" s="44"/>
+      <c r="F713" s="3"/>
       <c r="G713" s="3"/>
       <c r="H713" s="7"/>
       <c r="I713" s="7"/>
@@ -25179,7 +25167,7 @@
       <c r="C714" s="6"/>
       <c r="D714" s="3"/>
       <c r="E714" s="6"/>
-      <c r="F714" s="44"/>
+      <c r="F714" s="3"/>
       <c r="G714" s="3"/>
       <c r="H714" s="7"/>
       <c r="I714" s="7"/>
@@ -25207,7 +25195,7 @@
       <c r="C715" s="6"/>
       <c r="D715" s="3"/>
       <c r="E715" s="6"/>
-      <c r="F715" s="44"/>
+      <c r="F715" s="3"/>
       <c r="G715" s="3"/>
       <c r="H715" s="7"/>
       <c r="I715" s="7"/>
@@ -25235,7 +25223,7 @@
       <c r="C716" s="6"/>
       <c r="D716" s="3"/>
       <c r="E716" s="6"/>
-      <c r="F716" s="44"/>
+      <c r="F716" s="3"/>
       <c r="G716" s="3"/>
       <c r="H716" s="7"/>
       <c r="I716" s="7"/>
@@ -25263,7 +25251,7 @@
       <c r="C717" s="6"/>
       <c r="D717" s="3"/>
       <c r="E717" s="6"/>
-      <c r="F717" s="44"/>
+      <c r="F717" s="3"/>
       <c r="G717" s="3"/>
       <c r="H717" s="7"/>
       <c r="I717" s="7"/>
@@ -25291,7 +25279,7 @@
       <c r="C718" s="6"/>
       <c r="D718" s="3"/>
       <c r="E718" s="6"/>
-      <c r="F718" s="44"/>
+      <c r="F718" s="3"/>
       <c r="G718" s="3"/>
       <c r="H718" s="7"/>
       <c r="I718" s="7"/>
@@ -25319,7 +25307,7 @@
       <c r="C719" s="6"/>
       <c r="D719" s="3"/>
       <c r="E719" s="6"/>
-      <c r="F719" s="44"/>
+      <c r="F719" s="3"/>
       <c r="G719" s="3"/>
       <c r="H719" s="7"/>
       <c r="I719" s="7"/>
@@ -25347,7 +25335,7 @@
       <c r="C720" s="6"/>
       <c r="D720" s="3"/>
       <c r="E720" s="6"/>
-      <c r="F720" s="44"/>
+      <c r="F720" s="3"/>
       <c r="G720" s="3"/>
       <c r="H720" s="7"/>
       <c r="I720" s="7"/>
@@ -25375,7 +25363,7 @@
       <c r="C721" s="6"/>
       <c r="D721" s="3"/>
       <c r="E721" s="6"/>
-      <c r="F721" s="44"/>
+      <c r="F721" s="3"/>
       <c r="G721" s="3"/>
       <c r="H721" s="7"/>
       <c r="I721" s="7"/>
@@ -25403,7 +25391,7 @@
       <c r="C722" s="6"/>
       <c r="D722" s="3"/>
       <c r="E722" s="6"/>
-      <c r="F722" s="44"/>
+      <c r="F722" s="3"/>
       <c r="G722" s="3"/>
       <c r="H722" s="7"/>
       <c r="I722" s="7"/>
@@ -25431,7 +25419,7 @@
       <c r="C723" s="6"/>
       <c r="D723" s="3"/>
       <c r="E723" s="6"/>
-      <c r="F723" s="44"/>
+      <c r="F723" s="3"/>
       <c r="G723" s="3"/>
       <c r="H723" s="7"/>
       <c r="I723" s="7"/>
@@ -25459,7 +25447,7 @@
       <c r="C724" s="6"/>
       <c r="D724" s="3"/>
       <c r="E724" s="6"/>
-      <c r="F724" s="44"/>
+      <c r="F724" s="3"/>
       <c r="G724" s="3"/>
       <c r="H724" s="7"/>
       <c r="I724" s="7"/>
@@ -25487,7 +25475,7 @@
       <c r="C725" s="6"/>
       <c r="D725" s="3"/>
       <c r="E725" s="6"/>
-      <c r="F725" s="44"/>
+      <c r="F725" s="3"/>
       <c r="G725" s="3"/>
       <c r="H725" s="7"/>
       <c r="I725" s="7"/>
@@ -25515,7 +25503,7 @@
       <c r="C726" s="6"/>
       <c r="D726" s="3"/>
       <c r="E726" s="6"/>
-      <c r="F726" s="44"/>
+      <c r="F726" s="3"/>
       <c r="G726" s="3"/>
       <c r="H726" s="7"/>
       <c r="I726" s="7"/>
@@ -25543,7 +25531,7 @@
       <c r="C727" s="6"/>
       <c r="D727" s="3"/>
       <c r="E727" s="6"/>
-      <c r="F727" s="44"/>
+      <c r="F727" s="3"/>
       <c r="G727" s="3"/>
       <c r="H727" s="7"/>
       <c r="I727" s="7"/>
@@ -25571,7 +25559,7 @@
       <c r="C728" s="6"/>
       <c r="D728" s="3"/>
       <c r="E728" s="6"/>
-      <c r="F728" s="44"/>
+      <c r="F728" s="3"/>
       <c r="G728" s="3"/>
       <c r="H728" s="7"/>
       <c r="I728" s="7"/>
@@ -25599,7 +25587,7 @@
       <c r="C729" s="6"/>
       <c r="D729" s="3"/>
       <c r="E729" s="6"/>
-      <c r="F729" s="44"/>
+      <c r="F729" s="3"/>
       <c r="G729" s="3"/>
       <c r="H729" s="7"/>
       <c r="I729" s="7"/>
@@ -25627,7 +25615,7 @@
       <c r="C730" s="6"/>
       <c r="D730" s="3"/>
       <c r="E730" s="6"/>
-      <c r="F730" s="44"/>
+      <c r="F730" s="3"/>
       <c r="G730" s="3"/>
       <c r="H730" s="7"/>
       <c r="I730" s="7"/>
@@ -25655,7 +25643,7 @@
       <c r="C731" s="6"/>
       <c r="D731" s="3"/>
       <c r="E731" s="6"/>
-      <c r="F731" s="44"/>
+      <c r="F731" s="3"/>
       <c r="G731" s="3"/>
       <c r="H731" s="7"/>
       <c r="I731" s="7"/>
@@ -25683,7 +25671,7 @@
       <c r="C732" s="6"/>
       <c r="D732" s="3"/>
       <c r="E732" s="6"/>
-      <c r="F732" s="44"/>
+      <c r="F732" s="3"/>
       <c r="G732" s="3"/>
       <c r="H732" s="7"/>
       <c r="I732" s="7"/>
@@ -25711,7 +25699,7 @@
       <c r="C733" s="6"/>
       <c r="D733" s="3"/>
       <c r="E733" s="6"/>
-      <c r="F733" s="44"/>
+      <c r="F733" s="3"/>
       <c r="G733" s="3"/>
       <c r="H733" s="7"/>
       <c r="I733" s="7"/>
@@ -25739,7 +25727,7 @@
       <c r="C734" s="6"/>
       <c r="D734" s="3"/>
       <c r="E734" s="6"/>
-      <c r="F734" s="44"/>
+      <c r="F734" s="3"/>
       <c r="G734" s="3"/>
       <c r="H734" s="7"/>
       <c r="I734" s="7"/>
@@ -25767,7 +25755,7 @@
       <c r="C735" s="6"/>
       <c r="D735" s="3"/>
       <c r="E735" s="6"/>
-      <c r="F735" s="44"/>
+      <c r="F735" s="3"/>
       <c r="G735" s="3"/>
       <c r="H735" s="7"/>
       <c r="I735" s="7"/>
@@ -25795,7 +25783,7 @@
       <c r="C736" s="6"/>
       <c r="D736" s="3"/>
       <c r="E736" s="6"/>
-      <c r="F736" s="44"/>
+      <c r="F736" s="3"/>
       <c r="G736" s="3"/>
       <c r="H736" s="7"/>
       <c r="I736" s="7"/>
@@ -25823,7 +25811,7 @@
       <c r="C737" s="6"/>
       <c r="D737" s="3"/>
       <c r="E737" s="6"/>
-      <c r="F737" s="44"/>
+      <c r="F737" s="3"/>
       <c r="G737" s="3"/>
       <c r="H737" s="7"/>
       <c r="I737" s="7"/>
@@ -25851,7 +25839,7 @@
       <c r="C738" s="6"/>
       <c r="D738" s="3"/>
       <c r="E738" s="6"/>
-      <c r="F738" s="44"/>
+      <c r="F738" s="3"/>
       <c r="G738" s="3"/>
       <c r="H738" s="7"/>
       <c r="I738" s="7"/>
@@ -25879,7 +25867,7 @@
       <c r="C739" s="6"/>
       <c r="D739" s="3"/>
       <c r="E739" s="6"/>
-      <c r="F739" s="44"/>
+      <c r="F739" s="3"/>
       <c r="G739" s="3"/>
       <c r="H739" s="7"/>
       <c r="I739" s="7"/>
@@ -25907,7 +25895,7 @@
       <c r="C740" s="6"/>
       <c r="D740" s="3"/>
       <c r="E740" s="6"/>
-      <c r="F740" s="44"/>
+      <c r="F740" s="3"/>
       <c r="G740" s="3"/>
       <c r="H740" s="7"/>
       <c r="I740" s="7"/>
@@ -25935,7 +25923,7 @@
       <c r="C741" s="6"/>
       <c r="D741" s="3"/>
       <c r="E741" s="6"/>
-      <c r="F741" s="44"/>
+      <c r="F741" s="3"/>
       <c r="G741" s="3"/>
       <c r="H741" s="7"/>
       <c r="I741" s="7"/>
@@ -25963,7 +25951,7 @@
       <c r="C742" s="6"/>
       <c r="D742" s="3"/>
       <c r="E742" s="6"/>
-      <c r="F742" s="44"/>
+      <c r="F742" s="3"/>
       <c r="G742" s="3"/>
       <c r="H742" s="7"/>
       <c r="I742" s="7"/>
@@ -25991,7 +25979,7 @@
       <c r="C743" s="6"/>
       <c r="D743" s="3"/>
       <c r="E743" s="6"/>
-      <c r="F743" s="44"/>
+      <c r="F743" s="3"/>
       <c r="G743" s="3"/>
       <c r="H743" s="7"/>
       <c r="I743" s="7"/>
@@ -26019,7 +26007,7 @@
       <c r="C744" s="6"/>
       <c r="D744" s="3"/>
       <c r="E744" s="6"/>
-      <c r="F744" s="44"/>
+      <c r="F744" s="3"/>
       <c r="G744" s="3"/>
       <c r="H744" s="7"/>
       <c r="I744" s="7"/>
@@ -26047,7 +26035,7 @@
       <c r="C745" s="6"/>
       <c r="D745" s="3"/>
       <c r="E745" s="6"/>
-      <c r="F745" s="44"/>
+      <c r="F745" s="3"/>
       <c r="G745" s="3"/>
       <c r="H745" s="7"/>
       <c r="I745" s="7"/>
@@ -26075,7 +26063,7 @@
       <c r="C746" s="6"/>
       <c r="D746" s="3"/>
       <c r="E746" s="6"/>
-      <c r="F746" s="44"/>
+      <c r="F746" s="3"/>
       <c r="G746" s="3"/>
       <c r="H746" s="7"/>
       <c r="I746" s="7"/>
@@ -26103,7 +26091,7 @@
       <c r="C747" s="6"/>
       <c r="D747" s="3"/>
       <c r="E747" s="6"/>
-      <c r="F747" s="44"/>
+      <c r="F747" s="3"/>
       <c r="G747" s="3"/>
       <c r="H747" s="7"/>
       <c r="I747" s="7"/>
@@ -26131,7 +26119,7 @@
       <c r="C748" s="6"/>
       <c r="D748" s="3"/>
       <c r="E748" s="6"/>
-      <c r="F748" s="44"/>
+      <c r="F748" s="3"/>
       <c r="G748" s="3"/>
       <c r="H748" s="7"/>
       <c r="I748" s="7"/>
@@ -26159,7 +26147,7 @@
       <c r="C749" s="6"/>
       <c r="D749" s="3"/>
       <c r="E749" s="6"/>
-      <c r="F749" s="44"/>
+      <c r="F749" s="3"/>
       <c r="G749" s="3"/>
       <c r="H749" s="7"/>
       <c r="I749" s="7"/>
@@ -26187,7 +26175,7 @@
       <c r="C750" s="6"/>
       <c r="D750" s="3"/>
       <c r="E750" s="6"/>
-      <c r="F750" s="44"/>
+      <c r="F750" s="3"/>
       <c r="G750" s="3"/>
       <c r="H750" s="7"/>
       <c r="I750" s="7"/>
@@ -26215,7 +26203,7 @@
       <c r="C751" s="6"/>
       <c r="D751" s="3"/>
       <c r="E751" s="6"/>
-      <c r="F751" s="44"/>
+      <c r="F751" s="3"/>
       <c r="G751" s="3"/>
       <c r="H751" s="7"/>
       <c r="I751" s="7"/>
@@ -26243,7 +26231,7 @@
       <c r="C752" s="6"/>
       <c r="D752" s="3"/>
       <c r="E752" s="6"/>
-      <c r="F752" s="44"/>
+      <c r="F752" s="3"/>
       <c r="G752" s="3"/>
       <c r="H752" s="7"/>
       <c r="I752" s="7"/>
@@ -26271,7 +26259,7 @@
       <c r="C753" s="6"/>
       <c r="D753" s="3"/>
       <c r="E753" s="6"/>
-      <c r="F753" s="44"/>
+      <c r="F753" s="3"/>
       <c r="G753" s="3"/>
       <c r="H753" s="7"/>
       <c r="I753" s="7"/>
@@ -26299,7 +26287,7 @@
       <c r="C754" s="6"/>
       <c r="D754" s="3"/>
       <c r="E754" s="6"/>
-      <c r="F754" s="44"/>
+      <c r="F754" s="3"/>
       <c r="G754" s="3"/>
       <c r="H754" s="7"/>
       <c r="I754" s="7"/>
@@ -26327,7 +26315,7 @@
       <c r="C755" s="6"/>
       <c r="D755" s="3"/>
       <c r="E755" s="6"/>
-      <c r="F755" s="44"/>
+      <c r="F755" s="3"/>
       <c r="G755" s="3"/>
       <c r="H755" s="7"/>
       <c r="I755" s="7"/>
@@ -26355,7 +26343,7 @@
       <c r="C756" s="6"/>
       <c r="D756" s="3"/>
       <c r="E756" s="6"/>
-      <c r="F756" s="44"/>
+      <c r="F756" s="3"/>
       <c r="G756" s="3"/>
       <c r="H756" s="7"/>
       <c r="I756" s="7"/>
@@ -26383,7 +26371,7 @@
       <c r="C757" s="6"/>
       <c r="D757" s="3"/>
       <c r="E757" s="6"/>
-      <c r="F757" s="44"/>
+      <c r="F757" s="3"/>
       <c r="G757" s="3"/>
       <c r="H757" s="7"/>
       <c r="I757" s="7"/>
@@ -26411,7 +26399,7 @@
       <c r="C758" s="6"/>
       <c r="D758" s="3"/>
       <c r="E758" s="6"/>
-      <c r="F758" s="44"/>
+      <c r="F758" s="3"/>
       <c r="G758" s="3"/>
       <c r="H758" s="7"/>
       <c r="I758" s="7"/>
@@ -26439,7 +26427,7 @@
       <c r="C759" s="6"/>
       <c r="D759" s="3"/>
       <c r="E759" s="6"/>
-      <c r="F759" s="44"/>
+      <c r="F759" s="3"/>
       <c r="G759" s="3"/>
       <c r="H759" s="7"/>
       <c r="I759" s="7"/>
@@ -26467,7 +26455,7 @@
       <c r="C760" s="6"/>
       <c r="D760" s="3"/>
       <c r="E760" s="6"/>
-      <c r="F760" s="44"/>
+      <c r="F760" s="3"/>
       <c r="G760" s="3"/>
       <c r="H760" s="7"/>
       <c r="I760" s="7"/>
@@ -26495,7 +26483,7 @@
       <c r="C761" s="6"/>
       <c r="D761" s="3"/>
       <c r="E761" s="6"/>
-      <c r="F761" s="44"/>
+      <c r="F761" s="3"/>
       <c r="G761" s="3"/>
       <c r="H761" s="7"/>
       <c r="I761" s="7"/>
@@ -26523,7 +26511,7 @@
       <c r="C762" s="6"/>
       <c r="D762" s="3"/>
       <c r="E762" s="6"/>
-      <c r="F762" s="44"/>
+      <c r="F762" s="3"/>
       <c r="G762" s="3"/>
       <c r="H762" s="7"/>
       <c r="I762" s="7"/>
@@ -26551,7 +26539,7 @@
       <c r="C763" s="6"/>
       <c r="D763" s="3"/>
       <c r="E763" s="6"/>
-      <c r="F763" s="44"/>
+      <c r="F763" s="3"/>
       <c r="G763" s="3"/>
       <c r="H763" s="7"/>
       <c r="I763" s="7"/>
@@ -26579,7 +26567,7 @@
       <c r="C764" s="6"/>
       <c r="D764" s="3"/>
       <c r="E764" s="6"/>
-      <c r="F764" s="44"/>
+      <c r="F764" s="3"/>
       <c r="G764" s="3"/>
       <c r="H764" s="7"/>
       <c r="I764" s="7"/>
@@ -26607,7 +26595,7 @@
       <c r="C765" s="6"/>
       <c r="D765" s="3"/>
       <c r="E765" s="6"/>
-      <c r="F765" s="44"/>
+      <c r="F765" s="3"/>
       <c r="G765" s="3"/>
       <c r="H765" s="7"/>
       <c r="I765" s="7"/>
@@ -26635,7 +26623,7 @@
       <c r="C766" s="6"/>
       <c r="D766" s="3"/>
       <c r="E766" s="6"/>
-      <c r="F766" s="44"/>
+      <c r="F766" s="3"/>
       <c r="G766" s="3"/>
       <c r="H766" s="7"/>
       <c r="I766" s="7"/>
@@ -26663,7 +26651,7 @@
       <c r="C767" s="6"/>
       <c r="D767" s="3"/>
       <c r="E767" s="6"/>
-      <c r="F767" s="44"/>
+      <c r="F767" s="3"/>
       <c r="G767" s="3"/>
       <c r="H767" s="7"/>
       <c r="I767" s="7"/>
@@ -26691,7 +26679,7 @@
       <c r="C768" s="6"/>
       <c r="D768" s="3"/>
       <c r="E768" s="6"/>
-      <c r="F768" s="44"/>
+      <c r="F768" s="3"/>
       <c r="G768" s="3"/>
       <c r="H768" s="7"/>
       <c r="I768" s="7"/>
@@ -26719,7 +26707,7 @@
       <c r="C769" s="6"/>
       <c r="D769" s="3"/>
       <c r="E769" s="6"/>
-      <c r="F769" s="44"/>
+      <c r="F769" s="3"/>
       <c r="G769" s="3"/>
       <c r="H769" s="7"/>
       <c r="I769" s="7"/>
@@ -26747,7 +26735,7 @@
       <c r="C770" s="6"/>
       <c r="D770" s="3"/>
       <c r="E770" s="6"/>
-      <c r="F770" s="44"/>
+      <c r="F770" s="3"/>
       <c r="G770" s="3"/>
       <c r="H770" s="7"/>
       <c r="I770" s="7"/>
@@ -26775,7 +26763,7 @@
       <c r="C771" s="6"/>
       <c r="D771" s="3"/>
       <c r="E771" s="6"/>
-      <c r="F771" s="44"/>
+      <c r="F771" s="3"/>
       <c r="G771" s="3"/>
       <c r="H771" s="7"/>
       <c r="I771" s="7"/>
@@ -26803,7 +26791,7 @@
       <c r="C772" s="6"/>
       <c r="D772" s="3"/>
       <c r="E772" s="6"/>
-      <c r="F772" s="44"/>
+      <c r="F772" s="3"/>
       <c r="G772" s="3"/>
       <c r="H772" s="7"/>
       <c r="I772" s="7"/>
@@ -26831,7 +26819,7 @@
       <c r="C773" s="6"/>
       <c r="D773" s="3"/>
       <c r="E773" s="6"/>
-      <c r="F773" s="44"/>
+      <c r="F773" s="3"/>
       <c r="G773" s="3"/>
       <c r="H773" s="7"/>
       <c r="I773" s="7"/>
@@ -26859,7 +26847,7 @@
       <c r="C774" s="6"/>
       <c r="D774" s="3"/>
       <c r="E774" s="6"/>
-      <c r="F774" s="44"/>
+      <c r="F774" s="3"/>
       <c r="G774" s="3"/>
       <c r="H774" s="7"/>
       <c r="I774" s="7"/>
@@ -26887,7 +26875,7 @@
       <c r="C775" s="6"/>
       <c r="D775" s="3"/>
       <c r="E775" s="6"/>
-      <c r="F775" s="44"/>
+      <c r="F775" s="3"/>
       <c r="G775" s="3"/>
       <c r="H775" s="7"/>
       <c r="I775" s="7"/>
@@ -26915,7 +26903,7 @@
       <c r="C776" s="6"/>
       <c r="D776" s="3"/>
       <c r="E776" s="6"/>
-      <c r="F776" s="44"/>
+      <c r="F776" s="3"/>
       <c r="G776" s="3"/>
       <c r="H776" s="7"/>
       <c r="I776" s="7"/>
@@ -26943,7 +26931,7 @@
       <c r="C777" s="6"/>
       <c r="D777" s="3"/>
       <c r="E777" s="6"/>
-      <c r="F777" s="44"/>
+      <c r="F777" s="3"/>
       <c r="G777" s="3"/>
       <c r="H777" s="7"/>
       <c r="I777" s="7"/>
@@ -26971,7 +26959,7 @@
       <c r="C778" s="6"/>
       <c r="D778" s="3"/>
       <c r="E778" s="6"/>
-      <c r="F778" s="44"/>
+      <c r="F778" s="3"/>
       <c r="G778" s="3"/>
       <c r="H778" s="7"/>
       <c r="I778" s="7"/>
@@ -26999,7 +26987,7 @@
       <c r="C779" s="6"/>
       <c r="D779" s="3"/>
       <c r="E779" s="6"/>
-      <c r="F779" s="44"/>
+      <c r="F779" s="3"/>
       <c r="G779" s="3"/>
       <c r="H779" s="7"/>
       <c r="I779" s="7"/>
@@ -27027,7 +27015,7 @@
       <c r="C780" s="6"/>
       <c r="D780" s="3"/>
       <c r="E780" s="6"/>
-      <c r="F780" s="44"/>
+      <c r="F780" s="3"/>
       <c r="G780" s="3"/>
       <c r="H780" s="7"/>
       <c r="I780" s="7"/>
@@ -27055,7 +27043,7 @@
       <c r="C781" s="6"/>
       <c r="D781" s="3"/>
       <c r="E781" s="6"/>
-      <c r="F781" s="44"/>
+      <c r="F781" s="3"/>
       <c r="G781" s="3"/>
       <c r="H781" s="7"/>
       <c r="I781" s="7"/>
@@ -27083,7 +27071,7 @@
       <c r="C782" s="6"/>
       <c r="D782" s="3"/>
       <c r="E782" s="6"/>
-      <c r="F782" s="44"/>
+      <c r="F782" s="3"/>
       <c r="G782" s="3"/>
       <c r="H782" s="7"/>
       <c r="I782" s="7"/>
@@ -27111,7 +27099,7 @@
       <c r="C783" s="6"/>
       <c r="D783" s="3"/>
       <c r="E783" s="6"/>
-      <c r="F783" s="44"/>
+      <c r="F783" s="3"/>
       <c r="G783" s="3"/>
       <c r="H783" s="7"/>
       <c r="I783" s="7"/>
@@ -27139,7 +27127,7 @@
       <c r="C784" s="6"/>
       <c r="D784" s="3"/>
       <c r="E784" s="6"/>
-      <c r="F784" s="44"/>
+      <c r="F784" s="3"/>
       <c r="G784" s="3"/>
       <c r="H784" s="7"/>
       <c r="I784" s="7"/>
@@ -27167,7 +27155,7 @@
       <c r="C785" s="6"/>
       <c r="D785" s="3"/>
       <c r="E785" s="6"/>
-      <c r="F785" s="44"/>
+      <c r="F785" s="3"/>
       <c r="G785" s="3"/>
       <c r="H785" s="7"/>
       <c r="I785" s="7"/>
@@ -27195,7 +27183,7 @@
       <c r="C786" s="6"/>
       <c r="D786" s="3"/>
       <c r="E786" s="6"/>
-      <c r="F786" s="44"/>
+      <c r="F786" s="3"/>
       <c r="G786" s="3"/>
       <c r="H786" s="7"/>
       <c r="I786" s="7"/>
@@ -27223,7 +27211,7 @@
       <c r="C787" s="6"/>
       <c r="D787" s="3"/>
       <c r="E787" s="6"/>
-      <c r="F787" s="44"/>
+      <c r="F787" s="3"/>
       <c r="G787" s="3"/>
       <c r="H787" s="7"/>
       <c r="I787" s="7"/>
@@ -27251,7 +27239,7 @@
       <c r="C788" s="6"/>
       <c r="D788" s="3"/>
       <c r="E788" s="6"/>
-      <c r="F788" s="44"/>
+      <c r="F788" s="3"/>
       <c r="G788" s="3"/>
       <c r="H788" s="7"/>
       <c r="I788" s="7"/>
@@ -27279,7 +27267,7 @@
       <c r="C789" s="6"/>
       <c r="D789" s="3"/>
       <c r="E789" s="6"/>
-      <c r="F789" s="44"/>
+      <c r="F789" s="3"/>
       <c r="G789" s="3"/>
       <c r="H789" s="7"/>
       <c r="I789" s="7"/>
@@ -27307,7 +27295,7 @@
       <c r="C790" s="6"/>
       <c r="D790" s="3"/>
       <c r="E790" s="6"/>
-      <c r="F790" s="44"/>
+      <c r="F790" s="3"/>
       <c r="G790" s="3"/>
       <c r="H790" s="7"/>
       <c r="I790" s="7"/>
@@ -27335,7 +27323,7 @@
       <c r="C791" s="6"/>
       <c r="D791" s="3"/>
       <c r="E791" s="6"/>
-      <c r="F791" s="44"/>
+      <c r="F791" s="3"/>
       <c r="G791" s="3"/>
       <c r="H791" s="7"/>
       <c r="I791" s="7"/>
@@ -27363,7 +27351,7 @@
       <c r="C792" s="6"/>
       <c r="D792" s="3"/>
       <c r="E792" s="6"/>
-      <c r="F792" s="44"/>
+      <c r="F792" s="3"/>
       <c r="G792" s="3"/>
       <c r="H792" s="7"/>
       <c r="I792" s="7"/>
@@ -27391,7 +27379,7 @@
       <c r="C793" s="6"/>
       <c r="D793" s="3"/>
       <c r="E793" s="6"/>
-      <c r="F793" s="44"/>
+      <c r="F793" s="3"/>
       <c r="G793" s="3"/>
       <c r="H793" s="7"/>
       <c r="I793" s="7"/>
@@ -27419,7 +27407,7 @@
       <c r="C794" s="6"/>
       <c r="D794" s="3"/>
       <c r="E794" s="6"/>
-      <c r="F794" s="44"/>
+      <c r="F794" s="3"/>
       <c r="G794" s="3"/>
       <c r="H794" s="7"/>
       <c r="I794" s="7"/>
@@ -27447,7 +27435,7 @@
       <c r="C795" s="6"/>
       <c r="D795" s="3"/>
       <c r="E795" s="6"/>
-      <c r="F795" s="44"/>
+      <c r="F795" s="3"/>
       <c r="G795" s="3"/>
       <c r="H795" s="7"/>
       <c r="I795" s="7"/>
@@ -27475,7 +27463,7 @@
       <c r="C796" s="6"/>
       <c r="D796" s="3"/>
       <c r="E796" s="6"/>
-      <c r="F796" s="44"/>
+      <c r="F796" s="3"/>
       <c r="G796" s="3"/>
       <c r="H796" s="7"/>
       <c r="I796" s="7"/>
@@ -27503,7 +27491,7 @@
       <c r="C797" s="6"/>
       <c r="D797" s="3"/>
       <c r="E797" s="6"/>
-      <c r="F797" s="44"/>
+      <c r="F797" s="3"/>
       <c r="G797" s="3"/>
       <c r="H797" s="7"/>
       <c r="I797" s="7"/>
@@ -27531,7 +27519,7 @@
       <c r="C798" s="6"/>
       <c r="D798" s="3"/>
       <c r="E798" s="6"/>
-      <c r="F798" s="44"/>
+      <c r="F798" s="3"/>
       <c r="G798" s="3"/>
       <c r="H798" s="7"/>
       <c r="I798" s="7"/>
@@ -27559,7 +27547,7 @@
       <c r="C799" s="6"/>
       <c r="D799" s="3"/>
       <c r="E799" s="6"/>
-      <c r="F799" s="44"/>
+      <c r="F799" s="3"/>
       <c r="G799" s="3"/>
       <c r="H799" s="7"/>
       <c r="I799" s="7"/>
@@ -27587,7 +27575,7 @@
       <c r="C800" s="6"/>
       <c r="D800" s="3"/>
       <c r="E800" s="6"/>
-      <c r="F800" s="44"/>
+      <c r="F800" s="3"/>
       <c r="G800" s="3"/>
       <c r="H800" s="7"/>
       <c r="I800" s="7"/>
@@ -27615,7 +27603,7 @@
       <c r="C801" s="6"/>
       <c r="D801" s="3"/>
       <c r="E801" s="6"/>
-      <c r="F801" s="44"/>
+      <c r="F801" s="3"/>
       <c r="G801" s="3"/>
       <c r="H801" s="7"/>
       <c r="I801" s="7"/>
@@ -27643,7 +27631,7 @@
       <c r="C802" s="6"/>
       <c r="D802" s="3"/>
       <c r="E802" s="6"/>
-      <c r="F802" s="44"/>
+      <c r="F802" s="3"/>
       <c r="G802" s="3"/>
       <c r="H802" s="7"/>
       <c r="I802" s="7"/>
@@ -27671,7 +27659,7 @@
       <c r="C803" s="6"/>
       <c r="D803" s="3"/>
       <c r="E803" s="6"/>
-      <c r="F803" s="44"/>
+      <c r="F803" s="3"/>
       <c r="G803" s="3"/>
       <c r="H803" s="7"/>
       <c r="I803" s="7"/>
@@ -27699,7 +27687,7 @@
       <c r="C804" s="6"/>
       <c r="D804" s="3"/>
       <c r="E804" s="6"/>
-      <c r="F804" s="44"/>
+      <c r="F804" s="3"/>
       <c r="G804" s="3"/>
       <c r="H804" s="7"/>
       <c r="I804" s="7"/>
@@ -27727,7 +27715,7 @@
       <c r="C805" s="6"/>
       <c r="D805" s="3"/>
       <c r="E805" s="6"/>
-      <c r="F805" s="44"/>
+      <c r="F805" s="3"/>
       <c r="G805" s="3"/>
       <c r="H805" s="7"/>
       <c r="I805" s="7"/>
@@ -27755,7 +27743,7 @@
       <c r="C806" s="6"/>
       <c r="D806" s="3"/>
       <c r="E806" s="6"/>
-      <c r="F806" s="44"/>
+      <c r="F806" s="3"/>
       <c r="G806" s="3"/>
       <c r="H806" s="7"/>
       <c r="I806" s="7"/>
@@ -27783,7 +27771,7 @@
       <c r="C807" s="6"/>
       <c r="D807" s="3"/>
       <c r="E807" s="6"/>
-      <c r="F807" s="44"/>
+      <c r="F807" s="3"/>
       <c r="G807" s="3"/>
       <c r="H807" s="7"/>
       <c r="I807" s="7"/>
@@ -27811,7 +27799,7 @@
       <c r="C808" s="6"/>
       <c r="D808" s="3"/>
       <c r="E808" s="6"/>
-      <c r="F808" s="44"/>
+      <c r="F808" s="3"/>
       <c r="G808" s="3"/>
       <c r="H808" s="7"/>
       <c r="I808" s="7"/>
@@ -27839,7 +27827,7 @@
       <c r="C809" s="6"/>
       <c r="D809" s="3"/>
       <c r="E809" s="6"/>
-      <c r="F809" s="44"/>
+      <c r="F809" s="3"/>
       <c r="G809" s="3"/>
       <c r="H809" s="7"/>
       <c r="I809" s="7"/>
@@ -27867,7 +27855,7 @@
       <c r="C810" s="6"/>
       <c r="D810" s="3"/>
       <c r="E810" s="6"/>
-      <c r="F810" s="44"/>
+      <c r="F810" s="3"/>
       <c r="G810" s="3"/>
       <c r="H810" s="7"/>
       <c r="I810" s="7"/>
@@ -27895,7 +27883,7 @@
       <c r="C811" s="6"/>
       <c r="D811" s="3"/>
       <c r="E811" s="6"/>
-      <c r="F811" s="44"/>
+      <c r="F811" s="3"/>
       <c r="G811" s="3"/>
       <c r="H811" s="7"/>
       <c r="I811" s="7"/>
@@ -27923,7 +27911,7 @@
       <c r="C812" s="6"/>
       <c r="D812" s="3"/>
       <c r="E812" s="6"/>
-      <c r="F812" s="44"/>
+      <c r="F812" s="3"/>
       <c r="G812" s="3"/>
       <c r="H812" s="7"/>
       <c r="I812" s="7"/>
@@ -27951,7 +27939,7 @@
       <c r="C813" s="6"/>
       <c r="D813" s="3"/>
       <c r="E813" s="6"/>
-      <c r="F813" s="44"/>
+      <c r="F813" s="3"/>
       <c r="G813" s="3"/>
       <c r="H813" s="7"/>
       <c r="I813" s="7"/>
@@ -27979,7 +27967,7 @@
       <c r="C814" s="6"/>
       <c r="D814" s="3"/>
       <c r="E814" s="6"/>
-      <c r="F814" s="44"/>
+      <c r="F814" s="3"/>
       <c r="G814" s="3"/>
       <c r="H814" s="7"/>
       <c r="I814" s="7"/>
@@ -28007,7 +27995,7 @@
       <c r="C815" s="6"/>
       <c r="D815" s="3"/>
       <c r="E815" s="6"/>
-      <c r="F815" s="44"/>
+      <c r="F815" s="3"/>
       <c r="G815" s="3"/>
       <c r="H815" s="7"/>
       <c r="I815" s="7"/>
@@ -28035,7 +28023,7 @@
       <c r="C816" s="6"/>
       <c r="D816" s="3"/>
       <c r="E816" s="6"/>
-      <c r="F816" s="44"/>
+      <c r="F816" s="3"/>
       <c r="G816" s="3"/>
       <c r="H816" s="7"/>
       <c r="I816" s="7"/>
@@ -28063,7 +28051,7 @@
       <c r="C817" s="6"/>
       <c r="D817" s="3"/>
       <c r="E817" s="6"/>
-      <c r="F817" s="44"/>
+      <c r="F817" s="3"/>
       <c r="G817" s="3"/>
       <c r="H817" s="7"/>
       <c r="I817" s="7"/>
@@ -28091,7 +28079,7 @@
       <c r="C818" s="6"/>
       <c r="D818" s="3"/>
       <c r="E818" s="6"/>
-      <c r="F818" s="44"/>
+      <c r="F818" s="3"/>
       <c r="G818" s="3"/>
       <c r="H818" s="7"/>
       <c r="I818" s="7"/>
@@ -28119,7 +28107,7 @@
       <c r="C819" s="6"/>
       <c r="D819" s="3"/>
       <c r="E819" s="6"/>
-      <c r="F819" s="44"/>
+      <c r="F819" s="3"/>
       <c r="G819" s="3"/>
       <c r="H819" s="7"/>
       <c r="I819" s="7"/>
@@ -28147,7 +28135,7 @@
       <c r="C820" s="6"/>
       <c r="D820" s="3"/>
       <c r="E820" s="6"/>
-      <c r="F820" s="44"/>
+      <c r="F820" s="3"/>
       <c r="G820" s="3"/>
       <c r="H820" s="7"/>
       <c r="I820" s="7"/>
@@ -28175,7 +28163,7 @@
       <c r="C821" s="6"/>
       <c r="D821" s="3"/>
       <c r="E821" s="6"/>
-      <c r="F821" s="44"/>
+      <c r="F821" s="3"/>
       <c r="G821" s="3"/>
       <c r="H821" s="7"/>
       <c r="I821" s="7"/>
@@ -28203,7 +28191,7 @@
       <c r="C822" s="6"/>
       <c r="D822" s="3"/>
       <c r="E822" s="6"/>
-      <c r="F822" s="44"/>
+      <c r="F822" s="3"/>
       <c r="G822" s="3"/>
       <c r="H822" s="7"/>
       <c r="I822" s="7"/>
@@ -28231,7 +28219,7 @@
       <c r="C823" s="6"/>
       <c r="D823" s="3"/>
       <c r="E823" s="6"/>
-      <c r="F823" s="44"/>
+      <c r="F823" s="3"/>
       <c r="G823" s="3"/>
       <c r="H823" s="7"/>
       <c r="I823" s="7"/>
@@ -28259,7 +28247,7 @@
       <c r="C824" s="6"/>
       <c r="D824" s="3"/>
       <c r="E824" s="6"/>
-      <c r="F824" s="44"/>
+      <c r="F824" s="3"/>
       <c r="G824" s="3"/>
       <c r="H824" s="7"/>
       <c r="I824" s="7"/>
@@ -28287,7 +28275,7 @@
       <c r="C825" s="6"/>
       <c r="D825" s="3"/>
       <c r="E825" s="6"/>
-      <c r="F825" s="44"/>
+      <c r="F825" s="3"/>
       <c r="G825" s="3"/>
       <c r="H825" s="7"/>
       <c r="I825" s="7"/>
@@ -28315,7 +28303,7 @@
       <c r="C826" s="6"/>
       <c r="D826" s="3"/>
       <c r="E826" s="6"/>
-      <c r="F826" s="44"/>
+      <c r="F826" s="3"/>
       <c r="G826" s="3"/>
       <c r="H826" s="7"/>
       <c r="I826" s="7"/>
@@ -28343,7 +28331,7 @@
       <c r="C827" s="6"/>
       <c r="D827" s="3"/>
       <c r="E827" s="6"/>
-      <c r="F827" s="44"/>
+      <c r="F827" s="3"/>
       <c r="G827" s="3"/>
       <c r="H827" s="7"/>
       <c r="I827" s="7"/>
@@ -28371,7 +28359,7 @@
       <c r="C828" s="6"/>
       <c r="D828" s="3"/>
       <c r="E828" s="6"/>
-      <c r="F828" s="44"/>
+      <c r="F828" s="3"/>
       <c r="G828" s="3"/>
       <c r="H828" s="7"/>
       <c r="I828" s="7"/>
@@ -28399,7 +28387,7 @@
       <c r="C829" s="6"/>
       <c r="D829" s="3"/>
       <c r="E829" s="6"/>
-      <c r="F829" s="44"/>
+      <c r="F829" s="3"/>
       <c r="G829" s="3"/>
       <c r="H829" s="7"/>
       <c r="I829" s="7"/>
@@ -28427,7 +28415,7 @@
       <c r="C830" s="6"/>
       <c r="D830" s="3"/>
       <c r="E830" s="6"/>
-      <c r="F830" s="44"/>
+      <c r="F830" s="3"/>
       <c r="G830" s="3"/>
       <c r="H830" s="7"/>
       <c r="I830" s="7"/>
@@ -28455,7 +28443,7 @@
       <c r="C831" s="6"/>
       <c r="D831" s="3"/>
       <c r="E831" s="6"/>
-      <c r="F831" s="44"/>
+      <c r="F831" s="3"/>
       <c r="G831" s="3"/>
       <c r="H831" s="7"/>
       <c r="I831" s="7"/>
@@ -28483,7 +28471,7 @@
       <c r="C832" s="6"/>
       <c r="D832" s="3"/>
       <c r="E832" s="6"/>
-      <c r="F832" s="44"/>
+      <c r="F832" s="3"/>
       <c r="G832" s="3"/>
       <c r="H832" s="7"/>
       <c r="I832" s="7"/>
@@ -28511,7 +28499,7 @@
       <c r="C833" s="6"/>
       <c r="D833" s="3"/>
       <c r="E833" s="6"/>
-      <c r="F833" s="44"/>
+      <c r="F833" s="3"/>
       <c r="G833" s="3"/>
       <c r="H833" s="7"/>
       <c r="I833" s="7"/>
@@ -28539,7 +28527,7 @@
       <c r="C834" s="6"/>
       <c r="D834" s="3"/>
       <c r="E834" s="6"/>
-      <c r="F834" s="44"/>
+      <c r="F834" s="3"/>
       <c r="G834" s="3"/>
       <c r="H834" s="7"/>
       <c r="I834" s="7"/>
@@ -28567,7 +28555,7 @@
       <c r="C835" s="6"/>
       <c r="D835" s="3"/>
       <c r="E835" s="6"/>
-      <c r="F835" s="44"/>
+      <c r="F835" s="3"/>
       <c r="G835" s="3"/>
       <c r="H835" s="7"/>
       <c r="I835" s="7"/>
@@ -28595,7 +28583,7 @@
       <c r="C836" s="6"/>
       <c r="D836" s="3"/>
       <c r="E836" s="6"/>
-      <c r="F836" s="44"/>
+      <c r="F836" s="3"/>
       <c r="G836" s="3"/>
       <c r="H836" s="7"/>
       <c r="I836" s="7"/>
@@ -28623,7 +28611,7 @@
       <c r="C837" s="6"/>
       <c r="D837" s="3"/>
       <c r="E837" s="6"/>
-      <c r="F837" s="44"/>
+      <c r="F837" s="3"/>
       <c r="G837" s="3"/>
       <c r="H837" s="7"/>
       <c r="I837" s="7"/>
@@ -28651,7 +28639,7 @@
       <c r="C838" s="6"/>
       <c r="D838" s="3"/>
       <c r="E838" s="6"/>
-      <c r="F838" s="44"/>
+      <c r="F838" s="3"/>
       <c r="G838" s="3"/>
       <c r="H838" s="7"/>
       <c r="I838" s="7"/>
@@ -28679,7 +28667,7 @@
       <c r="C839" s="6"/>
       <c r="D839" s="3"/>
       <c r="E839" s="6"/>
-      <c r="F839" s="44"/>
+      <c r="F839" s="3"/>
       <c r="G839" s="3"/>
       <c r="H839" s="7"/>
       <c r="I839" s="7"/>
@@ -28707,7 +28695,7 @@
       <c r="C840" s="6"/>
       <c r="D840" s="3"/>
       <c r="E840" s="6"/>
-      <c r="F840" s="44"/>
+      <c r="F840" s="3"/>
       <c r="G840" s="3"/>
       <c r="H840" s="7"/>
       <c r="I840" s="7"/>
@@ -28735,7 +28723,7 @@
       <c r="C841" s="6"/>
       <c r="D841" s="3"/>
       <c r="E841" s="6"/>
-      <c r="F841" s="44"/>
+      <c r="F841" s="3"/>
       <c r="G841" s="3"/>
       <c r="H841" s="7"/>
       <c r="I841" s="7"/>
@@ -28763,7 +28751,7 @@
       <c r="C842" s="6"/>
       <c r="D842" s="3"/>
       <c r="E842" s="6"/>
-      <c r="F842" s="44"/>
+      <c r="F842" s="3"/>
       <c r="G842" s="3"/>
       <c r="H842" s="7"/>
       <c r="I842" s="7"/>
@@ -28791,7 +28779,7 @@
       <c r="C843" s="6"/>
       <c r="D843" s="3"/>
       <c r="E843" s="6"/>
-      <c r="F843" s="44"/>
+      <c r="F843" s="3"/>
       <c r="G843" s="3"/>
       <c r="H843" s="7"/>
       <c r="I843" s="7"/>
@@ -28819,7 +28807,7 @@
       <c r="C844" s="6"/>
       <c r="D844" s="3"/>
       <c r="E844" s="6"/>
-      <c r="F844" s="44"/>
+      <c r="F844" s="3"/>
       <c r="G844" s="3"/>
       <c r="H844" s="7"/>
       <c r="I844" s="7"/>
@@ -28847,7 +28835,7 @@
       <c r="C845" s="6"/>
       <c r="D845" s="3"/>
       <c r="E845" s="6"/>
-      <c r="F845" s="44"/>
+      <c r="F845" s="3"/>
       <c r="G845" s="3"/>
       <c r="H845" s="7"/>
       <c r="I845" s="7"/>
@@ -28875,7 +28863,7 @@
       <c r="C846" s="6"/>
       <c r="D846" s="3"/>
       <c r="E846" s="6"/>
-      <c r="F846" s="44"/>
+      <c r="F846" s="3"/>
       <c r="G846" s="3"/>
       <c r="H846" s="7"/>
       <c r="I846" s="7"/>
@@ -28903,7 +28891,7 @@
       <c r="C847" s="6"/>
       <c r="D847" s="3"/>
       <c r="E847" s="6"/>
-      <c r="F847" s="44"/>
+      <c r="F847" s="3"/>
       <c r="G847" s="3"/>
       <c r="H847" s="7"/>
       <c r="I847" s="7"/>
@@ -28931,7 +28919,7 @@
       <c r="C848" s="6"/>
       <c r="D848" s="3"/>
       <c r="E848" s="6"/>
-      <c r="F848" s="44"/>
+      <c r="F848" s="3"/>
       <c r="G848" s="3"/>
       <c r="H848" s="7"/>
       <c r="I848" s="7"/>
@@ -28959,7 +28947,7 @@
       <c r="C849" s="6"/>
       <c r="D849" s="3"/>
       <c r="E849" s="6"/>
-      <c r="F849" s="44"/>
+      <c r="F849" s="3"/>
       <c r="G849" s="3"/>
       <c r="H849" s="7"/>
       <c r="I849" s="7"/>
@@ -28987,7 +28975,7 @@
       <c r="C850" s="6"/>
       <c r="D850" s="3"/>
       <c r="E850" s="6"/>
-      <c r="F850" s="44"/>
+      <c r="F850" s="3"/>
       <c r="G850" s="3"/>
       <c r="H850" s="7"/>
       <c r="I850" s="7"/>
@@ -29015,7 +29003,7 @@
       <c r="C851" s="6"/>
       <c r="D851" s="3"/>
       <c r="E851" s="6"/>
-      <c r="F851" s="44"/>
+      <c r="F851" s="3"/>
       <c r="G851" s="3"/>
       <c r="H851" s="7"/>
       <c r="I851" s="7"/>
@@ -29043,7 +29031,7 @@
       <c r="C852" s="6"/>
       <c r="D852" s="3"/>
       <c r="E852" s="6"/>
-      <c r="F852" s="44"/>
+      <c r="F852" s="3"/>
       <c r="G852" s="3"/>
       <c r="H852" s="7"/>
       <c r="I852" s="7"/>
@@ -29071,7 +29059,7 @@
       <c r="C853" s="6"/>
       <c r="D853" s="3"/>
       <c r="E853" s="6"/>
-      <c r="F853" s="44"/>
+      <c r="F853" s="3"/>
       <c r="G853" s="3"/>
       <c r="H853" s="7"/>
       <c r="I853" s="7"/>
@@ -29099,7 +29087,7 @@
       <c r="C854" s="6"/>
       <c r="D854" s="3"/>
       <c r="E854" s="6"/>
-      <c r="F854" s="44"/>
+      <c r="F854" s="3"/>
       <c r="G854" s="3"/>
       <c r="H854" s="7"/>
       <c r="I854" s="7"/>
@@ -29127,7 +29115,7 @@
       <c r="C855" s="6"/>
       <c r="D855" s="3"/>
       <c r="E855" s="6"/>
-      <c r="F855" s="44"/>
+      <c r="F855" s="3"/>
       <c r="G855" s="3"/>
       <c r="H855" s="7"/>
       <c r="I855" s="7"/>
@@ -29155,7 +29143,7 @@
       <c r="C856" s="6"/>
       <c r="D856" s="3"/>
       <c r="E856" s="6"/>
-      <c r="F856" s="44"/>
+      <c r="F856" s="3"/>
       <c r="G856" s="3"/>
       <c r="H856" s="7"/>
       <c r="I856" s="7"/>
@@ -29183,7 +29171,7 @@
       <c r="C857" s="6"/>
       <c r="D857" s="3"/>
       <c r="E857" s="6"/>
-      <c r="F857" s="44"/>
+      <c r="F857" s="3"/>
       <c r="G857" s="3"/>
       <c r="H857" s="7"/>
       <c r="I857" s="7"/>
@@ -29211,7 +29199,7 @@
       <c r="C858" s="6"/>
       <c r="D858" s="3"/>
       <c r="E858" s="6"/>
-      <c r="F858" s="44"/>
+      <c r="F858" s="3"/>
       <c r="G858" s="3"/>
       <c r="H858" s="7"/>
       <c r="I858" s="7"/>
@@ -29239,7 +29227,7 @@
       <c r="C859" s="6"/>
       <c r="D859" s="3"/>
       <c r="E859" s="6"/>
-      <c r="F859" s="44"/>
+      <c r="F859" s="3"/>
       <c r="G859" s="3"/>
       <c r="H859" s="7"/>
       <c r="I859" s="7"/>
@@ -29267,7 +29255,7 @@
       <c r="C860" s="6"/>
       <c r="D860" s="3"/>
       <c r="E860" s="6"/>
-      <c r="F860" s="44"/>
+      <c r="F860" s="3"/>
       <c r="G860" s="3"/>
       <c r="H860" s="7"/>
       <c r="I860" s="7"/>
@@ -29295,7 +29283,7 @@
       <c r="C861" s="6"/>
       <c r="D861" s="3"/>
       <c r="E861" s="6"/>
-      <c r="F861" s="44"/>
+      <c r="F861" s="3"/>
       <c r="G861" s="3"/>
       <c r="H861" s="7"/>
       <c r="I861" s="7"/>
@@ -29323,7 +29311,7 @@
       <c r="C862" s="6"/>
       <c r="D862" s="3"/>
       <c r="E862" s="6"/>
-      <c r="F862" s="44"/>
+      <c r="F862" s="3"/>
       <c r="G862" s="3"/>
       <c r="H862" s="7"/>
       <c r="I862" s="7"/>
@@ -29351,7 +29339,7 @@
       <c r="C863" s="6"/>
       <c r="D863" s="3"/>
       <c r="E863" s="6"/>
-      <c r="F863" s="44"/>
+      <c r="F863" s="3"/>
       <c r="G863" s="3"/>
       <c r="H863" s="7"/>
       <c r="I863" s="7"/>
@@ -29379,7 +29367,7 @@
       <c r="C864" s="6"/>
       <c r="D864" s="3"/>
       <c r="E864" s="6"/>
-      <c r="F864" s="44"/>
+      <c r="F864" s="3"/>
       <c r="G864" s="3"/>
       <c r="H864" s="7"/>
       <c r="I864" s="7"/>
@@ -29407,7 +29395,7 @@
       <c r="C865" s="6"/>
       <c r="D865" s="3"/>
       <c r="E865" s="6"/>
-      <c r="F865" s="44"/>
+      <c r="F865" s="3"/>
       <c r="G865" s="3"/>
       <c r="H865" s="7"/>
       <c r="I865" s="7"/>
@@ -29435,7 +29423,7 @@
       <c r="C866" s="6"/>
       <c r="D866" s="3"/>
       <c r="E866" s="6"/>
-      <c r="F866" s="44"/>
+      <c r="F866" s="3"/>
       <c r="G866" s="3"/>
       <c r="H866" s="7"/>
       <c r="I866" s="7"/>
@@ -29463,7 +29451,7 @@
       <c r="C867" s="6"/>
       <c r="D867" s="3"/>
       <c r="E867" s="6"/>
-      <c r="F867" s="44"/>
+      <c r="F867" s="3"/>
       <c r="G867" s="3"/>
       <c r="H867" s="7"/>
       <c r="I867" s="7"/>
@@ -29491,7 +29479,7 @@
       <c r="C868" s="6"/>
       <c r="D868" s="3"/>
       <c r="E868" s="6"/>
-      <c r="F868" s="44"/>
+      <c r="F868" s="3"/>
       <c r="G868" s="3"/>
       <c r="H868" s="7"/>
       <c r="I868" s="7"/>
@@ -29519,7 +29507,7 @@
       <c r="C869" s="6"/>
       <c r="D869" s="3"/>
       <c r="E869" s="6"/>
-      <c r="F869" s="44"/>
+      <c r="F869" s="3"/>
       <c r="G869" s="3"/>
       <c r="H869" s="7"/>
       <c r="I869" s="7"/>
@@ -29547,7 +29535,7 @@
       <c r="C870" s="6"/>
       <c r="D870" s="3"/>
       <c r="E870" s="6"/>
-      <c r="F870" s="44"/>
+      <c r="F870" s="3"/>
       <c r="G870" s="3"/>
       <c r="H870" s="7"/>
       <c r="I870" s="7"/>
@@ -29575,7 +29563,7 @@
       <c r="C871" s="6"/>
       <c r="D871" s="3"/>
       <c r="E871" s="6"/>
-      <c r="F871" s="44"/>
+      <c r="F871" s="3"/>
       <c r="G871" s="3"/>
       <c r="H871" s="7"/>
       <c r="I871" s="7"/>
@@ -29603,7 +29591,7 @@
       <c r="C872" s="6"/>
       <c r="D872" s="3"/>
       <c r="E872" s="6"/>
-      <c r="F872" s="44"/>
+      <c r="F872" s="3"/>
       <c r="G872" s="3"/>
       <c r="H872" s="7"/>
       <c r="I872" s="7"/>
@@ -29631,7 +29619,7 @@
       <c r="C873" s="6"/>
       <c r="D873" s="3"/>
       <c r="E873" s="6"/>
-      <c r="F873" s="44"/>
+      <c r="F873" s="3"/>
       <c r="G873" s="3"/>
       <c r="H873" s="7"/>
       <c r="I873" s="7"/>
@@ -29659,7 +29647,7 @@
       <c r="C874" s="6"/>
       <c r="D874" s="3"/>
       <c r="E874" s="6"/>
-      <c r="F874" s="44"/>
+      <c r="F874" s="3"/>
       <c r="G874" s="3"/>
       <c r="H874" s="7"/>
       <c r="I874" s="7"/>
@@ -29687,7 +29675,7 @@
       <c r="C875" s="6"/>
       <c r="D875" s="3"/>
       <c r="E875" s="6"/>
-      <c r="F875" s="44"/>
+      <c r="F875" s="3"/>
       <c r="G875" s="3"/>
       <c r="H875" s="7"/>
       <c r="I875" s="7"/>
@@ -29715,7 +29703,7 @@
       <c r="C876" s="6"/>
       <c r="D876" s="3"/>
       <c r="E876" s="6"/>
-      <c r="F876" s="44"/>
+      <c r="F876" s="3"/>
       <c r="G876" s="3"/>
       <c r="H876" s="7"/>
       <c r="I876" s="7"/>
@@ -29743,7 +29731,7 @@
       <c r="C877" s="6"/>
       <c r="D877" s="3"/>
       <c r="E877" s="6"/>
-      <c r="F877" s="44"/>
+      <c r="F877" s="3"/>
       <c r="G877" s="3"/>
       <c r="H877" s="7"/>
       <c r="I877" s="7"/>
@@ -29771,7 +29759,7 @@
       <c r="C878" s="6"/>
       <c r="D878" s="3"/>
       <c r="E878" s="6"/>
-      <c r="F878" s="44"/>
+      <c r="F878" s="3"/>
       <c r="G878" s="3"/>
       <c r="H878" s="7"/>
       <c r="I878" s="7"/>
@@ -29799,7 +29787,7 @@
       <c r="C879" s="6"/>
       <c r="D879" s="3"/>
       <c r="E879" s="6"/>
-      <c r="F879" s="44"/>
+      <c r="F879" s="3"/>
       <c r="G879" s="3"/>
       <c r="H879" s="7"/>
       <c r="I879" s="7"/>
@@ -29827,7 +29815,7 @@
       <c r="C880" s="6"/>
       <c r="D880" s="3"/>
       <c r="E880" s="6"/>
-      <c r="F880" s="44"/>
+      <c r="F880" s="3"/>
       <c r="G880" s="3"/>
       <c r="H880" s="7"/>
       <c r="I880" s="7"/>
@@ -29855,7 +29843,7 @@
       <c r="C881" s="6"/>
       <c r="D881" s="3"/>
       <c r="E881" s="6"/>
-      <c r="F881" s="44"/>
+      <c r="F881" s="3"/>
       <c r="G881" s="3"/>
       <c r="H881" s="7"/>
       <c r="I881" s="7"/>
@@ -29883,7 +29871,7 @@
       <c r="C882" s="6"/>
       <c r="D882" s="3"/>
       <c r="E882" s="6"/>
-      <c r="F882" s="44"/>
+      <c r="F882" s="3"/>
       <c r="G882" s="3"/>
       <c r="H882" s="7"/>
       <c r="I882" s="7"/>
@@ -29911,7 +29899,7 @@
       <c r="C883" s="6"/>
       <c r="D883" s="3"/>
       <c r="E883" s="6"/>
-      <c r="F883" s="44"/>
+      <c r="F883" s="3"/>
       <c r="G883" s="3"/>
       <c r="H883" s="7"/>
       <c r="I883" s="7"/>
@@ -29939,7 +29927,7 @@
       <c r="C884" s="6"/>
       <c r="D884" s="3"/>
       <c r="E884" s="6"/>
-      <c r="F884" s="44"/>
+      <c r="F884" s="3"/>
       <c r="G884" s="3"/>
       <c r="H884" s="7"/>
       <c r="I884" s="7"/>
@@ -29967,7 +29955,7 @@
       <c r="C885" s="6"/>
       <c r="D885" s="3"/>
       <c r="E885" s="6"/>
-      <c r="F885" s="44"/>
+      <c r="F885" s="3"/>
       <c r="G885" s="3"/>
       <c r="H885" s="7"/>
       <c r="I885" s="7"/>
@@ -29995,7 +29983,7 @@
       <c r="C886" s="6"/>
       <c r="D886" s="3"/>
       <c r="E886" s="6"/>
-      <c r="F886" s="44"/>
+      <c r="F886" s="3"/>
       <c r="G886" s="3"/>
       <c r="H886" s="7"/>
       <c r="I886" s="7"/>
@@ -30023,7 +30011,7 @@
       <c r="C887" s="6"/>
       <c r="D887" s="3"/>
       <c r="E887" s="6"/>
-      <c r="F887" s="44"/>
+      <c r="F887" s="3"/>
       <c r="G887" s="3"/>
       <c r="H887" s="7"/>
       <c r="I887" s="7"/>
@@ -30051,7 +30039,7 @@
       <c r="C888" s="6"/>
       <c r="D888" s="3"/>
       <c r="E888" s="6"/>
-      <c r="F888" s="44"/>
+      <c r="F888" s="3"/>
       <c r="G888" s="3"/>
       <c r="H888" s="7"/>
       <c r="I888" s="7"/>
@@ -30079,7 +30067,7 @@
       <c r="C889" s="6"/>
       <c r="D889" s="3"/>
       <c r="E889" s="6"/>
-      <c r="F889" s="44"/>
+      <c r="F889" s="3"/>
       <c r="G889" s="3"/>
       <c r="H889" s="7"/>
       <c r="I889" s="7"/>
@@ -30107,7 +30095,7 @@
       <c r="C890" s="6"/>
       <c r="D890" s="3"/>
       <c r="E890" s="6"/>
-      <c r="F890" s="44"/>
+      <c r="F890" s="3"/>
       <c r="G890" s="3"/>
       <c r="H890" s="7"/>
       <c r="I890" s="7"/>
@@ -30135,7 +30123,7 @@
       <c r="C891" s="6"/>
       <c r="D891" s="3"/>
       <c r="E891" s="6"/>
-      <c r="F891" s="44"/>
+      <c r="F891" s="3"/>
       <c r="G891" s="3"/>
       <c r="H891" s="7"/>
       <c r="I891" s="7"/>
@@ -30163,7 +30151,7 @@
       <c r="C892" s="6"/>
       <c r="D892" s="3"/>
       <c r="E892" s="6"/>
-      <c r="F892" s="44"/>
+      <c r="F892" s="3"/>
       <c r="G892" s="3"/>
       <c r="H892" s="7"/>
       <c r="I892" s="7"/>
@@ -30191,7 +30179,7 @@
       <c r="C893" s="6"/>
       <c r="D893" s="3"/>
       <c r="E893" s="6"/>
-      <c r="F893" s="44"/>
+      <c r="F893" s="3"/>
       <c r="G893" s="3"/>
       <c r="H893" s="7"/>
       <c r="I893" s="7"/>
@@ -30219,7 +30207,7 @@
       <c r="C894" s="6"/>
       <c r="D894" s="3"/>
       <c r="E894" s="6"/>
-      <c r="F894" s="44"/>
+      <c r="F894" s="3"/>
       <c r="G894" s="3"/>
       <c r="H894" s="7"/>
       <c r="I894" s="7"/>
@@ -30247,7 +30235,7 @@
       <c r="C895" s="6"/>
       <c r="D895" s="3"/>
       <c r="E895" s="6"/>
-      <c r="F895" s="44"/>
+      <c r="F895" s="3"/>
       <c r="G895" s="3"/>
       <c r="H895" s="7"/>
       <c r="I895" s="7"/>
@@ -30275,7 +30263,7 @@
       <c r="C896" s="6"/>
       <c r="D896" s="3"/>
       <c r="E896" s="6"/>
-      <c r="F896" s="44"/>
+      <c r="F896" s="3"/>
       <c r="G896" s="3"/>
       <c r="H896" s="7"/>
       <c r="I896" s="7"/>
@@ -30303,7 +30291,7 @@
       <c r="C897" s="6"/>
       <c r="D897" s="3"/>
       <c r="E897" s="6"/>
-      <c r="F897" s="44"/>
+      <c r="F897" s="3"/>
       <c r="G897" s="3"/>
       <c r="H897" s="7"/>
       <c r="I897" s="7"/>
@@ -30331,7 +30319,7 @@
       <c r="C898" s="6"/>
       <c r="D898" s="3"/>
       <c r="E898" s="6"/>
-      <c r="F898" s="44"/>
+      <c r="F898" s="3"/>
       <c r="G898" s="3"/>
       <c r="H898" s="7"/>
       <c r="I898" s="7"/>
@@ -30359,7 +30347,7 @@
       <c r="C899" s="6"/>
       <c r="D899" s="3"/>
       <c r="E899" s="6"/>
-      <c r="F899" s="44"/>
+      <c r="F899" s="3"/>
       <c r="G899" s="3"/>
       <c r="H899" s="7"/>
       <c r="I899" s="7"/>
@@ -30387,7 +30375,7 @@
       <c r="C900" s="6"/>
       <c r="D900" s="3"/>
       <c r="E900" s="6"/>
-      <c r="F900" s="44"/>
+      <c r="F900" s="3"/>
       <c r="G900" s="3"/>
       <c r="H900" s="7"/>
       <c r="I900" s="7"/>
@@ -30415,7 +30403,7 @@
       <c r="C901" s="6"/>
       <c r="D901" s="3"/>
       <c r="E901" s="6"/>
-      <c r="F901" s="44"/>
+      <c r="F901" s="3"/>
       <c r="G901" s="3"/>
       <c r="H901" s="7"/>
       <c r="I901" s="7"/>
@@ -30443,7 +30431,7 @@
       <c r="C902" s="6"/>
       <c r="D902" s="3"/>
       <c r="E902" s="6"/>
-      <c r="F902" s="44"/>
+      <c r="F902" s="3"/>
       <c r="G902" s="3"/>
       <c r="H902" s="7"/>
       <c r="I902" s="7"/>
@@ -30471,7 +30459,7 @@
       <c r="C903" s="6"/>
       <c r="D903" s="3"/>
       <c r="E903" s="6"/>
-      <c r="F903" s="44"/>
+      <c r="F903" s="3"/>
       <c r="G903" s="3"/>
       <c r="H903" s="7"/>
       <c r="I903" s="7"/>
@@ -30499,7 +30487,7 @@
       <c r="C904" s="6"/>
       <c r="D904" s="3"/>
       <c r="E904" s="6"/>
-      <c r="F904" s="44"/>
+      <c r="F904" s="3"/>
       <c r="G904" s="3"/>
       <c r="H904" s="7"/>
       <c r="I904" s="7"/>
@@ -30527,7 +30515,7 @@
       <c r="C905" s="6"/>
       <c r="D905" s="3"/>
       <c r="E905" s="6"/>
-      <c r="F905" s="44"/>
+      <c r="F905" s="3"/>
       <c r="G905" s="3"/>
       <c r="H905" s="7"/>
       <c r="I905" s="7"/>
@@ -30555,7 +30543,7 @@
       <c r="C906" s="6"/>
       <c r="D906" s="3"/>
       <c r="E906" s="6"/>
-      <c r="F906" s="44"/>
+      <c r="F906" s="3"/>
       <c r="G906" s="3"/>
       <c r="H906" s="7"/>
       <c r="I906" s="7"/>
@@ -30583,7 +30571,7 @@
       <c r="C907" s="6"/>
       <c r="D907" s="3"/>
       <c r="E907" s="6"/>
-      <c r="F907" s="44"/>
+      <c r="F907" s="3"/>
       <c r="G907" s="3"/>
       <c r="H907" s="7"/>
       <c r="I907" s="7"/>
@@ -30611,7 +30599,7 @@
       <c r="C908" s="6"/>
       <c r="D908" s="3"/>
       <c r="E908" s="6"/>
-      <c r="F908" s="44"/>
+      <c r="F908" s="3"/>
       <c r="G908" s="3"/>
       <c r="H908" s="7"/>
       <c r="I908" s="7"/>
@@ -30639,7 +30627,7 @@
       <c r="C909" s="6"/>
       <c r="D909" s="3"/>
       <c r="E909" s="6"/>
-      <c r="F909" s="44"/>
+      <c r="F909" s="3"/>
       <c r="G909" s="3"/>
       <c r="H909" s="7"/>
       <c r="I909" s="7"/>
@@ -30667,7 +30655,7 @@
       <c r="C910" s="6"/>
       <c r="D910" s="3"/>
       <c r="E910" s="6"/>
-      <c r="F910" s="44"/>
+      <c r="F910" s="3"/>
       <c r="G910" s="3"/>
       <c r="H910" s="7"/>
       <c r="I910" s="7"/>
@@ -30695,7 +30683,7 @@
       <c r="C911" s="6"/>
       <c r="D911" s="3"/>
       <c r="E911" s="6"/>
-      <c r="F911" s="44"/>
+      <c r="F911" s="3"/>
       <c r="G911" s="3"/>
       <c r="H911" s="7"/>
       <c r="I911" s="7"/>
@@ -30723,7 +30711,7 @@
       <c r="C912" s="6"/>
       <c r="D912" s="3"/>
       <c r="E912" s="6"/>
-      <c r="F912" s="44"/>
+      <c r="F912" s="3"/>
       <c r="G912" s="3"/>
       <c r="H912" s="7"/>
       <c r="I912" s="7"/>
@@ -30751,7 +30739,7 @@
       <c r="C913" s="6"/>
       <c r="D913" s="3"/>
       <c r="E913" s="6"/>
-      <c r="F913" s="44"/>
+      <c r="F913" s="3"/>
       <c r="G913" s="3"/>
       <c r="H913" s="7"/>
       <c r="I913" s="7"/>
@@ -30779,7 +30767,7 @@
       <c r="C914" s="6"/>
       <c r="D914" s="3"/>
       <c r="E914" s="6"/>
-      <c r="F914" s="44"/>
+      <c r="F914" s="3"/>
       <c r="G914" s="3"/>
       <c r="H914" s="7"/>
       <c r="I914" s="7"/>
@@ -30807,7 +30795,7 @@
       <c r="C915" s="6"/>
       <c r="D915" s="3"/>
       <c r="E915" s="6"/>
-      <c r="F915" s="44"/>
+      <c r="F915" s="3"/>
       <c r="G915" s="3"/>
       <c r="H915" s="7"/>
       <c r="I915" s="7"/>
@@ -30835,7 +30823,7 @@
       <c r="C916" s="6"/>
       <c r="D916" s="3"/>
       <c r="E916" s="6"/>
-      <c r="F916" s="44"/>
+      <c r="F916" s="3"/>
       <c r="G916" s="3"/>
       <c r="H916" s="7"/>
       <c r="I916" s="7"/>
@@ -30863,7 +30851,7 @@
       <c r="C917" s="6"/>
       <c r="D917" s="3"/>
       <c r="E917" s="6"/>
-      <c r="F917" s="44"/>
+      <c r="F917" s="3"/>
       <c r="G917" s="3"/>
       <c r="H917" s="7"/>
       <c r="I917" s="7"/>
@@ -30891,7 +30879,7 @@
       <c r="C918" s="6"/>
       <c r="D918" s="3"/>
       <c r="E918" s="6"/>
-      <c r="F918" s="44"/>
+      <c r="F918" s="3"/>
       <c r="G918" s="3"/>
       <c r="H918" s="7"/>
       <c r="I918" s="7"/>
@@ -30919,7 +30907,7 @@
       <c r="C919" s="6"/>
       <c r="D919" s="3"/>
       <c r="E919" s="6"/>
-      <c r="F919" s="44"/>
+      <c r="F919" s="3"/>
       <c r="G919" s="3"/>
       <c r="H919" s="7"/>
       <c r="I919" s="7"/>
@@ -30947,7 +30935,7 @@
       <c r="C920" s="6"/>
       <c r="D920" s="3"/>
       <c r="E920" s="6"/>
-      <c r="F920" s="44"/>
+      <c r="F920" s="3"/>
       <c r="G920" s="3"/>
       <c r="H920" s="7"/>
       <c r="I920" s="7"/>
@@ -30975,7 +30963,7 @@
       <c r="C921" s="6"/>
       <c r="D921" s="3"/>
       <c r="E921" s="6"/>
-      <c r="F921" s="44"/>
+      <c r="F921" s="3"/>
       <c r="G921" s="3"/>
       <c r="H921" s="7"/>
       <c r="I921" s="7"/>
@@ -31003,7 +30991,7 @@
       <c r="C922" s="6"/>
       <c r="D922" s="3"/>
       <c r="E922" s="6"/>
-      <c r="F922" s="44"/>
+      <c r="F922" s="3"/>
       <c r="G922" s="3"/>
       <c r="H922" s="7"/>
       <c r="I922" s="7"/>
@@ -31031,7 +31019,7 @@
       <c r="C923" s="6"/>
       <c r="D923" s="3"/>
       <c r="E923" s="6"/>
-      <c r="F923" s="44"/>
+      <c r="F923" s="3"/>
       <c r="G923" s="3"/>
       <c r="H923" s="7"/>
       <c r="I923" s="7"/>
@@ -31059,7 +31047,7 @@
       <c r="C924" s="6"/>
       <c r="D924" s="3"/>
       <c r="E924" s="6"/>
-      <c r="F924" s="44"/>
+      <c r="F924" s="3"/>
       <c r="G924" s="3"/>
       <c r="H924" s="7"/>
       <c r="I924" s="7"/>
@@ -31087,7 +31075,7 @@
       <c r="C925" s="6"/>
       <c r="D925" s="3"/>
       <c r="E925" s="6"/>
-      <c r="F925" s="44"/>
+      <c r="F925" s="3"/>
       <c r="G925" s="3"/>
       <c r="H925" s="7"/>
       <c r="I925" s="7"/>
@@ -31115,7 +31103,7 @@
       <c r="C926" s="6"/>
       <c r="D926" s="3"/>
       <c r="E926" s="6"/>
-      <c r="F926" s="44"/>
+      <c r="F926" s="3"/>
       <c r="G926" s="3"/>
       <c r="H926" s="7"/>
       <c r="I926" s="7"/>
@@ -31143,7 +31131,7 @@
       <c r="C927" s="6"/>
       <c r="D927" s="3"/>
       <c r="E927" s="6"/>
-      <c r="F927" s="44"/>
+      <c r="F927" s="3"/>
       <c r="G927" s="3"/>
       <c r="H927" s="7"/>
       <c r="I927" s="7"/>
@@ -31171,7 +31159,7 @@
       <c r="C928" s="6"/>
       <c r="D928" s="3"/>
       <c r="E928" s="6"/>
-      <c r="F928" s="44"/>
+      <c r="F928" s="3"/>
       <c r="G928" s="3"/>
       <c r="H928" s="7"/>
       <c r="I928" s="7"/>
@@ -31199,7 +31187,7 @@
       <c r="C929" s="6"/>
       <c r="D929" s="3"/>
       <c r="E929" s="6"/>
-      <c r="F929" s="44"/>
+      <c r="F929" s="3"/>
       <c r="G929" s="3"/>
       <c r="H929" s="7"/>
       <c r="I929" s="7"/>
@@ -31227,7 +31215,7 @@
       <c r="C930" s="6"/>
       <c r="D930" s="3"/>
       <c r="E930" s="6"/>
-      <c r="F930" s="44"/>
+      <c r="F930" s="3"/>
       <c r="G930" s="3"/>
       <c r="H930" s="7"/>
       <c r="I930" s="7"/>
@@ -31255,7 +31243,7 @@
       <c r="C931" s="6"/>
       <c r="D931" s="3"/>
       <c r="E931" s="6"/>
-      <c r="F931" s="44"/>
+      <c r="F931" s="3"/>
       <c r="G931" s="3"/>
       <c r="H931" s="7"/>
       <c r="I931" s="7"/>
@@ -31283,7 +31271,7 @@
       <c r="C932" s="6"/>
       <c r="D932" s="3"/>
       <c r="E932" s="6"/>
-      <c r="F932" s="44"/>
+      <c r="F932" s="3"/>
       <c r="G932" s="3"/>
       <c r="H932" s="7"/>
       <c r="I932" s="7"/>
@@ -31311,7 +31299,7 @@
       <c r="C933" s="6"/>
       <c r="D933" s="3"/>
       <c r="E933" s="6"/>
-      <c r="F933" s="44"/>
+      <c r="F933" s="3"/>
       <c r="G933" s="3"/>
       <c r="H933" s="7"/>
       <c r="I933" s="7"/>
@@ -31339,7 +31327,7 @@
       <c r="C934" s="6"/>
       <c r="D934" s="3"/>
       <c r="E934" s="6"/>
-      <c r="F934" s="44"/>
+      <c r="F934" s="3"/>
       <c r="G934" s="3"/>
       <c r="H934" s="7"/>
       <c r="I934" s="7"/>
@@ -31367,7 +31355,7 @@
       <c r="C935" s="6"/>
       <c r="D935" s="3"/>
       <c r="E935" s="6"/>
-      <c r="F935" s="44"/>
+      <c r="F935" s="3"/>
       <c r="G935" s="3"/>
       <c r="H935" s="7"/>
       <c r="I935" s="7"/>
@@ -31395,7 +31383,7 @@
       <c r="C936" s="6"/>
       <c r="D936" s="3"/>
       <c r="E936" s="6"/>
-      <c r="F936" s="44"/>
+      <c r="F936" s="3"/>
       <c r="G936" s="3"/>
       <c r="H936" s="7"/>
       <c r="I936" s="7"/>
@@ -31423,7 +31411,7 @@
       <c r="C937" s="6"/>
       <c r="D937" s="3"/>
       <c r="E937" s="6"/>
-      <c r="F937" s="44"/>
+      <c r="F937" s="3"/>
       <c r="G937" s="3"/>
       <c r="H937" s="7"/>
       <c r="I937" s="7"/>
@@ -31451,7 +31439,7 @@
       <c r="C938" s="6"/>
       <c r="D938" s="3"/>
       <c r="E938" s="6"/>
-      <c r="F938" s="44"/>
+      <c r="F938" s="3"/>
       <c r="G938" s="3"/>
       <c r="H938" s="7"/>
       <c r="I938" s="7"/>
@@ -31479,7 +31467,7 @@
       <c r="C939" s="6"/>
       <c r="D939" s="3"/>
       <c r="E939" s="6"/>
-      <c r="F939" s="44"/>
+      <c r="F939" s="3"/>
       <c r="G939" s="3"/>
       <c r="H939" s="7"/>
       <c r="I939" s="7"/>
@@ -31507,7 +31495,7 @@
       <c r="C940" s="6"/>
       <c r="D940" s="3"/>
       <c r="E940" s="6"/>
-      <c r="F940" s="44"/>
+      <c r="F940" s="3"/>
       <c r="G940" s="3"/>
       <c r="H940" s="7"/>
       <c r="I940" s="7"/>
@@ -31535,7 +31523,7 @@
       <c r="C941" s="6"/>
       <c r="D941" s="3"/>
       <c r="E941" s="6"/>
-      <c r="F941" s="44"/>
+      <c r="F941" s="3"/>
       <c r="G941" s="3"/>
       <c r="H941" s="7"/>
       <c r="I941" s="7"/>
@@ -31563,7 +31551,7 @@
       <c r="C942" s="6"/>
       <c r="D942" s="3"/>
       <c r="E942" s="6"/>
-      <c r="F942" s="44"/>
+      <c r="F942" s="3"/>
       <c r="G942" s="3"/>
       <c r="H942" s="7"/>
       <c r="I942" s="7"/>
@@ -31591,7 +31579,7 @@
       <c r="C943" s="6"/>
       <c r="D943" s="3"/>
       <c r="E943" s="6"/>
-      <c r="F943" s="44"/>
+      <c r="F943" s="3"/>
       <c r="G943" s="3"/>
       <c r="H943" s="7"/>
       <c r="I943" s="7"/>
@@ -31619,7 +31607,7 @@
       <c r="C944" s="6"/>
       <c r="D944" s="3"/>
       <c r="E944" s="6"/>
-      <c r="F944" s="44"/>
+      <c r="F944" s="3"/>
       <c r="G944" s="3"/>
       <c r="H944" s="7"/>
       <c r="I944" s="7"/>
@@ -31647,7 +31635,7 @@
       <c r="C945" s="6"/>
       <c r="D945" s="3"/>
       <c r="E945" s="6"/>
-      <c r="F945" s="44"/>
+      <c r="F945" s="3"/>
       <c r="G945" s="3"/>
       <c r="H945" s="7"/>
       <c r="I945" s="7"/>
@@ -31675,7 +31663,7 @@
       <c r="C946" s="6"/>
       <c r="D946" s="3"/>
       <c r="E946" s="6"/>
-      <c r="F946" s="44"/>
+      <c r="F946" s="3"/>
       <c r="G946" s="3"/>
       <c r="H946" s="7"/>
       <c r="I946" s="7"/>
@@ -31703,7 +31691,7 @@
       <c r="C947" s="6"/>
       <c r="D947" s="3"/>
       <c r="E947" s="6"/>
-      <c r="F947" s="44"/>
+      <c r="F947" s="3"/>
       <c r="G947" s="3"/>
       <c r="H947" s="7"/>
       <c r="I947" s="7"/>
@@ -31731,7 +31719,7 @@
       <c r="C948" s="6"/>
       <c r="D948" s="3"/>
       <c r="E948" s="6"/>
-      <c r="F948" s="44"/>
+      <c r="F948" s="3"/>
       <c r="G948" s="3"/>
       <c r="H948" s="7"/>
       <c r="I948" s="7"/>
@@ -31759,7 +31747,7 @@
       <c r="C949" s="6"/>
       <c r="D949" s="3"/>
       <c r="E949" s="6"/>
-      <c r="F949" s="44"/>
+      <c r="F949" s="3"/>
       <c r="G949" s="3"/>
       <c r="H949" s="7"/>
       <c r="I949" s="7"/>
@@ -31787,7 +31775,7 @@
       <c r="C950" s="6"/>
       <c r="D950" s="3"/>
       <c r="E950" s="6"/>
-      <c r="F950" s="44"/>
+      <c r="F950" s="3"/>
       <c r="G950" s="3"/>
       <c r="H950" s="7"/>
       <c r="I950" s="7"/>
@@ -31815,7 +31803,7 @@
       <c r="C951" s="6"/>
       <c r="D951" s="3"/>
       <c r="E951" s="6"/>
-      <c r="F951" s="44"/>
+      <c r="F951" s="3"/>
       <c r="G951" s="3"/>
       <c r="H951" s="7"/>
       <c r="I951" s="7"/>
@@ -31843,7 +31831,7 @@
       <c r="C952" s="6"/>
       <c r="D952" s="3"/>
       <c r="E952" s="6"/>
-      <c r="F952" s="44"/>
+      <c r="F952" s="3"/>
       <c r="G952" s="3"/>
       <c r="H952" s="7"/>
       <c r="I952" s="7"/>
@@ -31871,7 +31859,7 @@
       <c r="C953" s="6"/>
       <c r="D953" s="3"/>
       <c r="E953" s="6"/>
-      <c r="F953" s="44"/>
+      <c r="F953" s="3"/>
       <c r="G953" s="3"/>
       <c r="H953" s="7"/>
       <c r="I953" s="7"/>
@@ -31899,7 +31887,7 @@
       <c r="C954" s="6"/>
       <c r="D954" s="3"/>
       <c r="E954" s="6"/>
-      <c r="F954" s="44"/>
+      <c r="F954" s="3"/>
       <c r="G954" s="3"/>
       <c r="H954" s="7"/>
       <c r="I954" s="7"/>
@@ -31927,7 +31915,7 @@
       <c r="C955" s="6"/>
       <c r="D955" s="3"/>
       <c r="E955" s="6"/>
-      <c r="F955" s="44"/>
+      <c r="F955" s="3"/>
       <c r="G955" s="3"/>
       <c r="H955" s="7"/>
       <c r="I955" s="7"/>
@@ -31955,7 +31943,7 @@
       <c r="C956" s="6"/>
       <c r="D956" s="3"/>
       <c r="E956" s="6"/>
-      <c r="F956" s="44"/>
+      <c r="F956" s="3"/>
       <c r="G956" s="3"/>
       <c r="H956" s="7"/>
       <c r="I956" s="7"/>
@@ -31983,7 +31971,7 @@
       <c r="C957" s="6"/>
       <c r="D957" s="3"/>
       <c r="E957" s="6"/>
-      <c r="F957" s="44"/>
+      <c r="F957" s="3"/>
       <c r="G957" s="3"/>
       <c r="H957" s="7"/>
       <c r="I957" s="7"/>
@@ -32011,7 +31999,7 @@
       <c r="C958" s="6"/>
       <c r="D958" s="3"/>
       <c r="E958" s="6"/>
-      <c r="F958" s="44"/>
+      <c r="F958" s="3"/>
       <c r="G958" s="3"/>
       <c r="H958" s="7"/>
       <c r="I958" s="7"/>
@@ -32039,7 +32027,7 @@
       <c r="C959" s="6"/>
       <c r="D959" s="3"/>
       <c r="E959" s="6"/>
-      <c r="F959" s="44"/>
+      <c r="F959" s="3"/>
       <c r="G959" s="3"/>
       <c r="H959" s="7"/>
       <c r="I959" s="7"/>
@@ -32067,7 +32055,7 @@
       <c r="C960" s="6"/>
       <c r="D960" s="3"/>
       <c r="E960" s="6"/>
-      <c r="F960" s="44"/>
+      <c r="F960" s="3"/>
       <c r="G960" s="3"/>
       <c r="H960" s="7"/>
       <c r="I960" s="7"/>
@@ -32095,7 +32083,7 @@
       <c r="C961" s="6"/>
       <c r="D961" s="3"/>
       <c r="E961" s="6"/>
-      <c r="F961" s="44"/>
+      <c r="F961" s="3"/>
       <c r="G961" s="3"/>
       <c r="H961" s="7"/>
       <c r="I961" s="7"/>
@@ -32123,7 +32111,7 @@
       <c r="C962" s="6"/>
       <c r="D962" s="3"/>
       <c r="E962" s="6"/>
-      <c r="F962" s="44"/>
+      <c r="F962" s="3"/>
       <c r="G962" s="3"/>
       <c r="H962" s="7"/>
       <c r="I962" s="7"/>
@@ -32151,7 +32139,7 @@
       <c r="C963" s="6"/>
       <c r="D963" s="3"/>
       <c r="E963" s="6"/>
-      <c r="F963" s="44"/>
+      <c r="F963" s="3"/>
       <c r="G963" s="3"/>
       <c r="H963" s="7"/>
       <c r="I963" s="7"/>
@@ -32179,7 +32167,7 @@
       <c r="C964" s="6"/>
       <c r="D964" s="3"/>
       <c r="E964" s="6"/>
-      <c r="F964" s="44"/>
+      <c r="F964" s="3"/>
       <c r="G964" s="3"/>
       <c r="H964" s="7"/>
       <c r="I964" s="7"/>
@@ -32207,7 +32195,7 @@
       <c r="C965" s="6"/>
       <c r="D965" s="3"/>
       <c r="E965" s="6"/>
-      <c r="F965" s="44"/>
+      <c r="F965" s="3"/>
       <c r="G965" s="3"/>
       <c r="H965" s="7"/>
       <c r="I965" s="7"/>
@@ -32235,7 +32223,7 @@
       <c r="C966" s="6"/>
       <c r="D966" s="3"/>
       <c r="E966" s="6"/>
-      <c r="F966" s="44"/>
+      <c r="F966" s="3"/>
       <c r="G966" s="3"/>
       <c r="H966" s="7"/>
       <c r="I966" s="7"/>
@@ -32263,7 +32251,7 @@
       <c r="C967" s="6"/>
       <c r="D967" s="3"/>
       <c r="E967" s="6"/>
-      <c r="F967" s="44"/>
+      <c r="F967" s="3"/>
       <c r="G967" s="3"/>
       <c r="H967" s="7"/>
       <c r="I967" s="7"/>
@@ -32291,7 +32279,7 @@
       <c r="C968" s="6"/>
       <c r="D968" s="3"/>
       <c r="E968" s="6"/>
-      <c r="F968" s="44"/>
+      <c r="F968" s="3"/>
       <c r="G968" s="3"/>
       <c r="H968" s="7"/>
       <c r="I968" s="7"/>
@@ -32319,7 +32307,7 @@
       <c r="C969" s="6"/>
       <c r="D969" s="3"/>
       <c r="E969" s="6"/>
-      <c r="F969" s="44"/>
+      <c r="F969" s="3"/>
       <c r="G969" s="3"/>
       <c r="H969" s="7"/>
       <c r="I969" s="7"/>
@@ -32347,7 +32335,7 @@
       <c r="C970" s="6"/>
       <c r="D970" s="3"/>
       <c r="E970" s="6"/>
-      <c r="F970" s="44"/>
+      <c r="F970" s="3"/>
       <c r="G970" s="3"/>
       <c r="H970" s="7"/>
       <c r="I970" s="7"/>
@@ -32375,7 +32363,7 @@
       <c r="C971" s="6"/>
       <c r="D971" s="3"/>
       <c r="E971" s="6"/>
-      <c r="F971" s="44"/>
+      <c r="F971" s="3"/>
       <c r="G971" s="3"/>
       <c r="H971" s="7"/>
       <c r="I971" s="7"/>
@@ -32403,7 +32391,7 @@
       <c r="C972" s="6"/>
       <c r="D972" s="3"/>
       <c r="E972" s="6"/>
-      <c r="F972" s="44"/>
+      <c r="F972" s="3"/>
       <c r="G972" s="3"/>
       <c r="H972" s="7"/>
       <c r="I972" s="7"/>
@@ -32431,7 +32419,7 @@
       <c r="C973" s="6"/>
       <c r="D973" s="3"/>
       <c r="E973" s="6"/>
-      <c r="F973" s="44"/>
+      <c r="F973" s="3"/>
       <c r="G973" s="3"/>
       <c r="H973" s="7"/>
       <c r="I973" s="7"/>
@@ -32459,7 +32447,7 @@
       <c r="C974" s="6"/>
       <c r="D974" s="3"/>
       <c r="E974" s="6"/>
-      <c r="F974" s="44"/>
+      <c r="F974" s="3"/>
       <c r="G974" s="3"/>
       <c r="H974" s="7"/>
       <c r="I974" s="7"/>
@@ -32487,7 +32475,7 @@
       <c r="C975" s="6"/>
       <c r="D975" s="3"/>
       <c r="E975" s="6"/>
-      <c r="F975" s="44"/>
+      <c r="F975" s="3"/>
       <c r="G975" s="3"/>
       <c r="H975" s="7"/>
       <c r="I975" s="7"/>
@@ -32515,7 +32503,7 @@
       <c r="C976" s="6"/>
       <c r="D976" s="3"/>
       <c r="E976" s="6"/>
-      <c r="F976" s="44"/>
+      <c r="F976" s="3"/>
       <c r="G976" s="3"/>
       <c r="H976" s="7"/>
       <c r="I976" s="7"/>
@@ -32543,7 +32531,7 @@
       <c r="C977" s="6"/>
       <c r="D977" s="3"/>
       <c r="E977" s="6"/>
-      <c r="F977" s="44"/>
+      <c r="F977" s="3"/>
       <c r="G977" s="3"/>
       <c r="H977" s="7"/>
       <c r="I977" s="7"/>
@@ -32571,7 +32559,7 @@
       <c r="C978" s="6"/>
       <c r="D978" s="3"/>
       <c r="E978" s="6"/>
-      <c r="F978" s="44"/>
+      <c r="F978" s="3"/>
       <c r="G978" s="3"/>
       <c r="H978" s="7"/>
       <c r="I978" s="7"/>
@@ -32599,7 +32587,7 @@
       <c r="C979" s="6"/>
       <c r="D979" s="3"/>
       <c r="E979" s="6"/>
-      <c r="F979" s="44"/>
+      <c r="F979" s="3"/>
       <c r="G979" s="3"/>
       <c r="H979" s="7"/>
       <c r="I979" s="7"/>
@@ -32627,7 +32615,7 @@
       <c r="C980" s="6"/>
       <c r="D980" s="3"/>
       <c r="E980" s="6"/>
-      <c r="F980" s="44"/>
+      <c r="F980" s="3"/>
       <c r="G980" s="3"/>
       <c r="H980" s="7"/>
       <c r="I980" s="7"/>
@@ -32655,7 +32643,7 @@
       <c r="C981" s="6"/>
       <c r="D981" s="3"/>
       <c r="E981" s="6"/>
-      <c r="F981" s="44"/>
+      <c r="F981" s="3"/>
       <c r="G981" s="3"/>
       <c r="H981" s="7"/>
       <c r="I981" s="7"/>
@@ -32683,7 +32671,7 @@
       <c r="C982" s="6"/>
       <c r="D982" s="3"/>
       <c r="E982" s="6"/>
-      <c r="F982" s="44"/>
+      <c r="F982" s="3"/>
       <c r="G982" s="3"/>
       <c r="H982" s="7"/>
       <c r="I982" s="7"/>
@@ -32711,7 +32699,7 @@
       <c r="C983" s="6"/>
       <c r="D983" s="3"/>
       <c r="E983" s="6"/>
-      <c r="F983" s="44"/>
+      <c r="F983" s="3"/>
       <c r="G983" s="3"/>
       <c r="H983" s="7"/>
       <c r="I983" s="7"/>
@@ -32739,7 +32727,7 @@
       <c r="C984" s="6"/>
       <c r="D984" s="3"/>
       <c r="E984" s="6"/>
-      <c r="F984" s="44"/>
+      <c r="F984" s="3"/>
       <c r="G984" s="3"/>
       <c r="H984" s="7"/>
       <c r="I984" s="7"/>
@@ -32767,7 +32755,7 @@
       <c r="C985" s="6"/>
       <c r="D985" s="3"/>
       <c r="E985" s="6"/>
-      <c r="F985" s="44"/>
+      <c r="F985" s="3"/>
       <c r="G985" s="3"/>
       <c r="H985" s="7"/>
       <c r="I985" s="7"/>
@@ -32795,7 +32783,7 @@
       <c r="C986" s="6"/>
       <c r="D986" s="3"/>
       <c r="E986" s="6"/>
-      <c r="F986" s="44"/>
+      <c r="F986" s="3"/>
       <c r="G986" s="3"/>
       <c r="H986" s="7"/>
       <c r="I986" s="7"/>
@@ -32823,7 +32811,7 @@
       <c r="C987" s="6"/>
       <c r="D987" s="3"/>
       <c r="E987" s="6"/>
-      <c r="F987" s="44"/>
+      <c r="F987" s="3"/>
       <c r="G987" s="3"/>
       <c r="H987" s="7"/>
       <c r="I987" s="7"/>
@@ -32851,7 +32839,7 @@
       <c r="C988" s="6"/>
       <c r="D988" s="3"/>
       <c r="E988" s="6"/>
-      <c r="F988" s="44"/>
+      <c r="F988" s="3"/>
       <c r="G988" s="3"/>
       <c r="H988" s="7"/>
       <c r="I988" s="7"/>
@@ -32879,7 +32867,7 @@
       <c r="C989" s="6"/>
       <c r="D989" s="3"/>
       <c r="E989" s="6"/>
-      <c r="F989" s="44"/>
+      <c r="F989" s="3"/>
       <c r="G989" s="3"/>
       <c r="H989" s="7"/>
       <c r="I989" s="7"/>
@@ -32907,7 +32895,7 @@
       <c r="C990" s="6"/>
       <c r="D990" s="3"/>
       <c r="E990" s="6"/>
-      <c r="F990" s="44"/>
+      <c r="F990" s="3"/>
       <c r="G990" s="3"/>
       <c r="H990" s="7"/>
       <c r="I990" s="7"/>
@@ -32935,7 +32923,7 @@
       <c r="C991" s="6"/>
       <c r="D991" s="3"/>
       <c r="E991" s="6"/>
-      <c r="F991" s="44"/>
+      <c r="F991" s="3"/>
       <c r="G991" s="3"/>
       <c r="H991" s="7"/>
       <c r="I991" s="7"/>
@@ -32963,7 +32951,7 @@
       <c r="C992" s="6"/>
       <c r="D992" s="3"/>
       <c r="E992" s="6"/>
-      <c r="F992" s="44"/>
+      <c r="F992" s="3"/>
       <c r="G992" s="3"/>
       <c r="H992" s="7"/>
       <c r="I992" s="7"/>
@@ -32991,7 +32979,7 @@
       <c r="C993" s="6"/>
       <c r="D993" s="3"/>
       <c r="E993" s="6"/>
-      <c r="F993" s="44"/>
+      <c r="F993" s="3"/>
       <c r="G993" s="3"/>
       <c r="H993" s="7"/>
       <c r="I993" s="7"/>
@@ -33019,7 +33007,7 @@
       <c r="C994" s="6"/>
       <c r="D994" s="3"/>
       <c r="E994" s="6"/>
-      <c r="F994" s="44"/>
+      <c r="F994" s="3"/>
       <c r="G994" s="3"/>
       <c r="H994" s="7"/>
       <c r="I994" s="7"/>
@@ -33047,7 +33035,7 @@
       <c r="C995" s="6"/>
       <c r="D995" s="3"/>
       <c r="E995" s="6"/>
-      <c r="F995" s="44"/>
+      <c r="F995" s="3"/>
       <c r="G995" s="3"/>
       <c r="H995" s="7"/>
       <c r="I995" s="7"/>
@@ -33075,7 +33063,7 @@
       <c r="C996" s="6"/>
       <c r="D996" s="3"/>
       <c r="E996" s="6"/>
-      <c r="F996" s="44"/>
+      <c r="F996" s="3"/>
       <c r="G996" s="3"/>
       <c r="H996" s="7"/>
       <c r="I996" s="7"/>
@@ -33103,7 +33091,7 @@
       <c r="C997" s="6"/>
       <c r="D997" s="3"/>
       <c r="E997" s="6"/>
-      <c r="F997" s="44"/>
+      <c r="F997" s="3"/>
       <c r="G997" s="3"/>
       <c r="H997" s="7"/>
       <c r="I997" s="7"/>
@@ -33131,7 +33119,7 @@
       <c r="C998" s="6"/>
       <c r="D998" s="3"/>
       <c r="E998" s="6"/>
-      <c r="F998" s="44"/>
+      <c r="F998" s="3"/>
       <c r="G998" s="3"/>
       <c r="H998" s="7"/>
       <c r="I998" s="7"/>
@@ -33177,7 +33165,7 @@
   </sheetPr>
   <dimension ref="A1:AF965"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -33195,58 +33183,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="34" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="34" t="s">
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
       <c r="AF1" s="5"/>
     </row>
     <row r="2" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="41"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="9" t="s">
         <v>9</v>
       </c>

--- a/src/5.1_GLGC-Meta-Data-TEMPLATE.xlsx
+++ b/src/5.1_GLGC-Meta-Data-TEMPLATE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdron/Documents/GitHub/glgc_internal/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD447573-F2EB-0343-B847-C929E89C66F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C230FBF-EE8A-9A42-B887-AC26280F488E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35440" windowHeight="22540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5032,10 +5032,10 @@
   <dimension ref="A1:AB998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X4" sqref="X4"/>
+      <selection pane="bottomRight" activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -35142,6 +35142,7 @@
     <mergeCell ref="E1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>

--- a/src/5.1_GLGC-Meta-Data-TEMPLATE.xlsx
+++ b/src/5.1_GLGC-Meta-Data-TEMPLATE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdron/Documents/GitHub/glgc_internal/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C230FBF-EE8A-9A42-B887-AC26280F488E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3C9E65-7DE1-404F-877F-109E86323E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35440" windowHeight="22540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35440" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cohort_summaries" sheetId="1" r:id="rId1"/>
@@ -939,7 +939,8 @@
     <t>Phenotype outlier removal</t>
   </si>
   <si>
-    <t>Outliers were considered for each analysis group.
+    <t>Example: 
+Outliers were considered for each analysis group.
 For LDL-C and HDL-C, outliers were removed if they exceeded 6 SD of the mean.
 For TG and BMI, outliers were removed if they exceeded the IQR.
 For AGE, individuals above 100 years old were excluded.</t>
@@ -1112,7 +1113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1209,16 +1210,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5032,7 +5023,7 @@
   <dimension ref="A1:AB998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="X3" sqref="X3"/>
@@ -5063,7 +5054,7 @@
     <col min="21" max="21" width="23.1640625" style="15" customWidth="1"/>
     <col min="22" max="22" width="14.6640625" style="15" customWidth="1"/>
     <col min="23" max="23" width="29.6640625" style="19" customWidth="1"/>
-    <col min="24" max="24" width="29.6640625" style="49" customWidth="1"/>
+    <col min="24" max="24" width="29.6640625" style="15" customWidth="1"/>
     <col min="25" max="25" width="13.33203125" style="15" customWidth="1"/>
     <col min="26" max="26" width="65.5" style="15" customWidth="1"/>
     <col min="27" max="27" width="18" style="15" customWidth="1"/>
@@ -5113,7 +5104,7 @@
       <c r="W1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="46"/>
+      <c r="X1" s="35"/>
       <c r="Y1" s="35"/>
       <c r="Z1" s="35"/>
       <c r="AA1" s="36"/>
@@ -5265,7 +5256,7 @@
       <c r="W3" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="X3" s="47" t="s">
+      <c r="X3" s="17" t="s">
         <v>89</v>
       </c>
       <c r="Y3" s="17" t="s">
@@ -5303,7 +5294,7 @@
       <c r="U4" s="13"/>
       <c r="V4" s="13"/>
       <c r="W4" s="18"/>
-      <c r="X4" s="48"/>
+      <c r="X4" s="13"/>
       <c r="Y4" s="13"/>
       <c r="Z4" s="13"/>
       <c r="AA4" s="13"/>
@@ -5333,7 +5324,7 @@
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
       <c r="W5" s="18"/>
-      <c r="X5" s="48"/>
+      <c r="X5" s="13"/>
       <c r="Y5" s="13"/>
       <c r="Z5" s="13"/>
       <c r="AA5" s="13"/>
@@ -5363,7 +5354,7 @@
       <c r="U6" s="13"/>
       <c r="V6" s="13"/>
       <c r="W6" s="18"/>
-      <c r="X6" s="48"/>
+      <c r="X6" s="13"/>
       <c r="Y6" s="13"/>
       <c r="Z6" s="13"/>
       <c r="AA6" s="13"/>
@@ -5393,7 +5384,7 @@
       <c r="U7" s="13"/>
       <c r="V7" s="13"/>
       <c r="W7" s="18"/>
-      <c r="X7" s="48"/>
+      <c r="X7" s="13"/>
       <c r="Y7" s="13"/>
       <c r="Z7" s="13"/>
       <c r="AA7" s="13"/>
@@ -5423,7 +5414,7 @@
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
       <c r="W8" s="18"/>
-      <c r="X8" s="48"/>
+      <c r="X8" s="13"/>
       <c r="Y8" s="13"/>
       <c r="Z8" s="13"/>
       <c r="AA8" s="13"/>
@@ -5453,7 +5444,7 @@
       <c r="U9" s="13"/>
       <c r="V9" s="13"/>
       <c r="W9" s="18"/>
-      <c r="X9" s="48"/>
+      <c r="X9" s="13"/>
       <c r="Y9" s="13"/>
       <c r="Z9" s="13"/>
       <c r="AA9" s="13"/>
@@ -5483,7 +5474,7 @@
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
       <c r="W10" s="18"/>
-      <c r="X10" s="48"/>
+      <c r="X10" s="13"/>
       <c r="Y10" s="13"/>
       <c r="Z10" s="13"/>
       <c r="AA10" s="13"/>
@@ -5513,7 +5504,7 @@
       <c r="U11" s="13"/>
       <c r="V11" s="13"/>
       <c r="W11" s="18"/>
-      <c r="X11" s="48"/>
+      <c r="X11" s="13"/>
       <c r="Y11" s="13"/>
       <c r="Z11" s="13"/>
       <c r="AA11" s="13"/>
@@ -5543,7 +5534,7 @@
       <c r="U12" s="13"/>
       <c r="V12" s="13"/>
       <c r="W12" s="18"/>
-      <c r="X12" s="48"/>
+      <c r="X12" s="13"/>
       <c r="Y12" s="13"/>
       <c r="Z12" s="13"/>
       <c r="AA12" s="13"/>
@@ -5573,7 +5564,7 @@
       <c r="U13" s="13"/>
       <c r="V13" s="13"/>
       <c r="W13" s="18"/>
-      <c r="X13" s="48"/>
+      <c r="X13" s="13"/>
       <c r="Y13" s="13"/>
       <c r="Z13" s="13"/>
       <c r="AA13" s="13"/>
@@ -5603,7 +5594,7 @@
       <c r="U14" s="13"/>
       <c r="V14" s="13"/>
       <c r="W14" s="18"/>
-      <c r="X14" s="48"/>
+      <c r="X14" s="13"/>
       <c r="Y14" s="13"/>
       <c r="Z14" s="13"/>
       <c r="AA14" s="13"/>
@@ -5633,7 +5624,7 @@
       <c r="U15" s="13"/>
       <c r="V15" s="13"/>
       <c r="W15" s="18"/>
-      <c r="X15" s="48"/>
+      <c r="X15" s="13"/>
       <c r="Y15" s="13"/>
       <c r="Z15" s="13"/>
       <c r="AA15" s="13"/>
@@ -5663,7 +5654,7 @@
       <c r="U16" s="13"/>
       <c r="V16" s="13"/>
       <c r="W16" s="18"/>
-      <c r="X16" s="48"/>
+      <c r="X16" s="13"/>
       <c r="Y16" s="13"/>
       <c r="Z16" s="13"/>
       <c r="AA16" s="13"/>
@@ -5693,7 +5684,7 @@
       <c r="U17" s="13"/>
       <c r="V17" s="13"/>
       <c r="W17" s="18"/>
-      <c r="X17" s="48"/>
+      <c r="X17" s="13"/>
       <c r="Y17" s="13"/>
       <c r="Z17" s="13"/>
       <c r="AA17" s="13"/>
@@ -5723,7 +5714,7 @@
       <c r="U18" s="13"/>
       <c r="V18" s="13"/>
       <c r="W18" s="18"/>
-      <c r="X18" s="48"/>
+      <c r="X18" s="13"/>
       <c r="Y18" s="13"/>
       <c r="Z18" s="13"/>
       <c r="AA18" s="13"/>
@@ -5753,7 +5744,7 @@
       <c r="U19" s="13"/>
       <c r="V19" s="13"/>
       <c r="W19" s="18"/>
-      <c r="X19" s="48"/>
+      <c r="X19" s="13"/>
       <c r="Y19" s="13"/>
       <c r="Z19" s="13"/>
       <c r="AA19" s="13"/>
@@ -5783,7 +5774,7 @@
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
       <c r="W20" s="18"/>
-      <c r="X20" s="48"/>
+      <c r="X20" s="13"/>
       <c r="Y20" s="13"/>
       <c r="Z20" s="13"/>
       <c r="AA20" s="13"/>
@@ -5813,7 +5804,7 @@
       <c r="U21" s="13"/>
       <c r="V21" s="13"/>
       <c r="W21" s="18"/>
-      <c r="X21" s="48"/>
+      <c r="X21" s="13"/>
       <c r="Y21" s="13"/>
       <c r="Z21" s="13"/>
       <c r="AA21" s="13"/>
@@ -5843,7 +5834,7 @@
       <c r="U22" s="13"/>
       <c r="V22" s="13"/>
       <c r="W22" s="18"/>
-      <c r="X22" s="48"/>
+      <c r="X22" s="13"/>
       <c r="Y22" s="13"/>
       <c r="Z22" s="13"/>
       <c r="AA22" s="13"/>
@@ -5873,7 +5864,7 @@
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
       <c r="W23" s="18"/>
-      <c r="X23" s="48"/>
+      <c r="X23" s="13"/>
       <c r="Y23" s="13"/>
       <c r="Z23" s="13"/>
       <c r="AA23" s="13"/>
@@ -5903,7 +5894,7 @@
       <c r="U24" s="13"/>
       <c r="V24" s="13"/>
       <c r="W24" s="18"/>
-      <c r="X24" s="48"/>
+      <c r="X24" s="13"/>
       <c r="Y24" s="13"/>
       <c r="Z24" s="13"/>
       <c r="AA24" s="13"/>
@@ -5933,7 +5924,7 @@
       <c r="U25" s="13"/>
       <c r="V25" s="13"/>
       <c r="W25" s="18"/>
-      <c r="X25" s="48"/>
+      <c r="X25" s="13"/>
       <c r="Y25" s="13"/>
       <c r="Z25" s="13"/>
       <c r="AA25" s="13"/>
@@ -5963,7 +5954,7 @@
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
       <c r="W26" s="18"/>
-      <c r="X26" s="48"/>
+      <c r="X26" s="13"/>
       <c r="Y26" s="13"/>
       <c r="Z26" s="13"/>
       <c r="AA26" s="13"/>
@@ -5993,7 +5984,7 @@
       <c r="U27" s="13"/>
       <c r="V27" s="13"/>
       <c r="W27" s="18"/>
-      <c r="X27" s="48"/>
+      <c r="X27" s="13"/>
       <c r="Y27" s="13"/>
       <c r="Z27" s="13"/>
       <c r="AA27" s="13"/>
@@ -6023,7 +6014,7 @@
       <c r="U28" s="13"/>
       <c r="V28" s="13"/>
       <c r="W28" s="18"/>
-      <c r="X28" s="48"/>
+      <c r="X28" s="13"/>
       <c r="Y28" s="13"/>
       <c r="Z28" s="13"/>
       <c r="AA28" s="13"/>
@@ -6053,7 +6044,7 @@
       <c r="U29" s="13"/>
       <c r="V29" s="13"/>
       <c r="W29" s="18"/>
-      <c r="X29" s="48"/>
+      <c r="X29" s="13"/>
       <c r="Y29" s="13"/>
       <c r="Z29" s="13"/>
       <c r="AA29" s="13"/>
@@ -6083,7 +6074,7 @@
       <c r="U30" s="13"/>
       <c r="V30" s="13"/>
       <c r="W30" s="18"/>
-      <c r="X30" s="48"/>
+      <c r="X30" s="13"/>
       <c r="Y30" s="13"/>
       <c r="Z30" s="13"/>
       <c r="AA30" s="13"/>
@@ -6113,7 +6104,7 @@
       <c r="U31" s="13"/>
       <c r="V31" s="13"/>
       <c r="W31" s="18"/>
-      <c r="X31" s="48"/>
+      <c r="X31" s="13"/>
       <c r="Y31" s="13"/>
       <c r="Z31" s="13"/>
       <c r="AA31" s="13"/>
@@ -6143,7 +6134,7 @@
       <c r="U32" s="13"/>
       <c r="V32" s="13"/>
       <c r="W32" s="18"/>
-      <c r="X32" s="48"/>
+      <c r="X32" s="13"/>
       <c r="Y32" s="13"/>
       <c r="Z32" s="13"/>
       <c r="AA32" s="13"/>
@@ -6173,7 +6164,7 @@
       <c r="U33" s="13"/>
       <c r="V33" s="13"/>
       <c r="W33" s="18"/>
-      <c r="X33" s="48"/>
+      <c r="X33" s="13"/>
       <c r="Y33" s="13"/>
       <c r="Z33" s="13"/>
       <c r="AA33" s="13"/>
@@ -6203,7 +6194,7 @@
       <c r="U34" s="13"/>
       <c r="V34" s="13"/>
       <c r="W34" s="18"/>
-      <c r="X34" s="48"/>
+      <c r="X34" s="13"/>
       <c r="Y34" s="13"/>
       <c r="Z34" s="13"/>
       <c r="AA34" s="13"/>
@@ -6233,7 +6224,7 @@
       <c r="U35" s="13"/>
       <c r="V35" s="13"/>
       <c r="W35" s="18"/>
-      <c r="X35" s="48"/>
+      <c r="X35" s="13"/>
       <c r="Y35" s="13"/>
       <c r="Z35" s="13"/>
       <c r="AA35" s="13"/>
@@ -6263,7 +6254,7 @@
       <c r="U36" s="13"/>
       <c r="V36" s="13"/>
       <c r="W36" s="18"/>
-      <c r="X36" s="48"/>
+      <c r="X36" s="13"/>
       <c r="Y36" s="13"/>
       <c r="Z36" s="13"/>
       <c r="AA36" s="13"/>
@@ -6293,7 +6284,7 @@
       <c r="U37" s="13"/>
       <c r="V37" s="13"/>
       <c r="W37" s="18"/>
-      <c r="X37" s="48"/>
+      <c r="X37" s="13"/>
       <c r="Y37" s="13"/>
       <c r="Z37" s="13"/>
       <c r="AA37" s="13"/>
@@ -6323,7 +6314,7 @@
       <c r="U38" s="13"/>
       <c r="V38" s="13"/>
       <c r="W38" s="18"/>
-      <c r="X38" s="48"/>
+      <c r="X38" s="13"/>
       <c r="Y38" s="13"/>
       <c r="Z38" s="13"/>
       <c r="AA38" s="13"/>
@@ -6353,7 +6344,7 @@
       <c r="U39" s="13"/>
       <c r="V39" s="13"/>
       <c r="W39" s="18"/>
-      <c r="X39" s="48"/>
+      <c r="X39" s="13"/>
       <c r="Y39" s="13"/>
       <c r="Z39" s="13"/>
       <c r="AA39" s="13"/>
@@ -6383,7 +6374,7 @@
       <c r="U40" s="13"/>
       <c r="V40" s="13"/>
       <c r="W40" s="18"/>
-      <c r="X40" s="48"/>
+      <c r="X40" s="13"/>
       <c r="Y40" s="13"/>
       <c r="Z40" s="13"/>
       <c r="AA40" s="13"/>
@@ -6413,7 +6404,7 @@
       <c r="U41" s="13"/>
       <c r="V41" s="13"/>
       <c r="W41" s="18"/>
-      <c r="X41" s="48"/>
+      <c r="X41" s="13"/>
       <c r="Y41" s="13"/>
       <c r="Z41" s="13"/>
       <c r="AA41" s="13"/>
@@ -6443,7 +6434,7 @@
       <c r="U42" s="13"/>
       <c r="V42" s="13"/>
       <c r="W42" s="18"/>
-      <c r="X42" s="48"/>
+      <c r="X42" s="13"/>
       <c r="Y42" s="13"/>
       <c r="Z42" s="13"/>
       <c r="AA42" s="13"/>
@@ -6473,7 +6464,7 @@
       <c r="U43" s="13"/>
       <c r="V43" s="13"/>
       <c r="W43" s="18"/>
-      <c r="X43" s="48"/>
+      <c r="X43" s="13"/>
       <c r="Y43" s="13"/>
       <c r="Z43" s="13"/>
       <c r="AA43" s="13"/>
@@ -6503,7 +6494,7 @@
       <c r="U44" s="13"/>
       <c r="V44" s="13"/>
       <c r="W44" s="18"/>
-      <c r="X44" s="48"/>
+      <c r="X44" s="13"/>
       <c r="Y44" s="13"/>
       <c r="Z44" s="13"/>
       <c r="AA44" s="13"/>
@@ -6533,7 +6524,7 @@
       <c r="U45" s="13"/>
       <c r="V45" s="13"/>
       <c r="W45" s="18"/>
-      <c r="X45" s="48"/>
+      <c r="X45" s="13"/>
       <c r="Y45" s="13"/>
       <c r="Z45" s="13"/>
       <c r="AA45" s="13"/>
@@ -6563,7 +6554,7 @@
       <c r="U46" s="13"/>
       <c r="V46" s="13"/>
       <c r="W46" s="18"/>
-      <c r="X46" s="48"/>
+      <c r="X46" s="13"/>
       <c r="Y46" s="13"/>
       <c r="Z46" s="13"/>
       <c r="AA46" s="13"/>
@@ -6593,7 +6584,7 @@
       <c r="U47" s="13"/>
       <c r="V47" s="13"/>
       <c r="W47" s="18"/>
-      <c r="X47" s="48"/>
+      <c r="X47" s="13"/>
       <c r="Y47" s="13"/>
       <c r="Z47" s="13"/>
       <c r="AA47" s="13"/>
@@ -6623,7 +6614,7 @@
       <c r="U48" s="13"/>
       <c r="V48" s="13"/>
       <c r="W48" s="18"/>
-      <c r="X48" s="48"/>
+      <c r="X48" s="13"/>
       <c r="Y48" s="13"/>
       <c r="Z48" s="13"/>
       <c r="AA48" s="13"/>
@@ -6653,7 +6644,7 @@
       <c r="U49" s="13"/>
       <c r="V49" s="13"/>
       <c r="W49" s="18"/>
-      <c r="X49" s="48"/>
+      <c r="X49" s="13"/>
       <c r="Y49" s="13"/>
       <c r="Z49" s="13"/>
       <c r="AA49" s="13"/>
@@ -6683,7 +6674,7 @@
       <c r="U50" s="13"/>
       <c r="V50" s="13"/>
       <c r="W50" s="18"/>
-      <c r="X50" s="48"/>
+      <c r="X50" s="13"/>
       <c r="Y50" s="13"/>
       <c r="Z50" s="13"/>
       <c r="AA50" s="13"/>
@@ -6713,7 +6704,7 @@
       <c r="U51" s="13"/>
       <c r="V51" s="13"/>
       <c r="W51" s="18"/>
-      <c r="X51" s="48"/>
+      <c r="X51" s="13"/>
       <c r="Y51" s="13"/>
       <c r="Z51" s="13"/>
       <c r="AA51" s="13"/>
@@ -6743,7 +6734,7 @@
       <c r="U52" s="13"/>
       <c r="V52" s="13"/>
       <c r="W52" s="18"/>
-      <c r="X52" s="48"/>
+      <c r="X52" s="13"/>
       <c r="Y52" s="13"/>
       <c r="Z52" s="13"/>
       <c r="AA52" s="13"/>
@@ -6773,7 +6764,7 @@
       <c r="U53" s="13"/>
       <c r="V53" s="13"/>
       <c r="W53" s="18"/>
-      <c r="X53" s="48"/>
+      <c r="X53" s="13"/>
       <c r="Y53" s="13"/>
       <c r="Z53" s="13"/>
       <c r="AA53" s="13"/>
@@ -6803,7 +6794,7 @@
       <c r="U54" s="13"/>
       <c r="V54" s="13"/>
       <c r="W54" s="18"/>
-      <c r="X54" s="48"/>
+      <c r="X54" s="13"/>
       <c r="Y54" s="13"/>
       <c r="Z54" s="13"/>
       <c r="AA54" s="13"/>
@@ -6833,7 +6824,7 @@
       <c r="U55" s="13"/>
       <c r="V55" s="13"/>
       <c r="W55" s="18"/>
-      <c r="X55" s="48"/>
+      <c r="X55" s="13"/>
       <c r="Y55" s="13"/>
       <c r="Z55" s="13"/>
       <c r="AA55" s="13"/>
@@ -6863,7 +6854,7 @@
       <c r="U56" s="13"/>
       <c r="V56" s="13"/>
       <c r="W56" s="18"/>
-      <c r="X56" s="48"/>
+      <c r="X56" s="13"/>
       <c r="Y56" s="13"/>
       <c r="Z56" s="13"/>
       <c r="AA56" s="13"/>
@@ -6893,7 +6884,7 @@
       <c r="U57" s="13"/>
       <c r="V57" s="13"/>
       <c r="W57" s="18"/>
-      <c r="X57" s="48"/>
+      <c r="X57" s="13"/>
       <c r="Y57" s="13"/>
       <c r="Z57" s="13"/>
       <c r="AA57" s="13"/>
@@ -6923,7 +6914,7 @@
       <c r="U58" s="13"/>
       <c r="V58" s="13"/>
       <c r="W58" s="18"/>
-      <c r="X58" s="48"/>
+      <c r="X58" s="13"/>
       <c r="Y58" s="13"/>
       <c r="Z58" s="13"/>
       <c r="AA58" s="13"/>
@@ -6953,7 +6944,7 @@
       <c r="U59" s="13"/>
       <c r="V59" s="13"/>
       <c r="W59" s="18"/>
-      <c r="X59" s="48"/>
+      <c r="X59" s="13"/>
       <c r="Y59" s="13"/>
       <c r="Z59" s="13"/>
       <c r="AA59" s="13"/>
@@ -6983,7 +6974,7 @@
       <c r="U60" s="13"/>
       <c r="V60" s="13"/>
       <c r="W60" s="18"/>
-      <c r="X60" s="48"/>
+      <c r="X60" s="13"/>
       <c r="Y60" s="13"/>
       <c r="Z60" s="13"/>
       <c r="AA60" s="13"/>
@@ -7013,7 +7004,7 @@
       <c r="U61" s="13"/>
       <c r="V61" s="13"/>
       <c r="W61" s="18"/>
-      <c r="X61" s="48"/>
+      <c r="X61" s="13"/>
       <c r="Y61" s="13"/>
       <c r="Z61" s="13"/>
       <c r="AA61" s="13"/>
@@ -7043,7 +7034,7 @@
       <c r="U62" s="13"/>
       <c r="V62" s="13"/>
       <c r="W62" s="18"/>
-      <c r="X62" s="48"/>
+      <c r="X62" s="13"/>
       <c r="Y62" s="13"/>
       <c r="Z62" s="13"/>
       <c r="AA62" s="13"/>
@@ -7073,7 +7064,7 @@
       <c r="U63" s="13"/>
       <c r="V63" s="13"/>
       <c r="W63" s="18"/>
-      <c r="X63" s="48"/>
+      <c r="X63" s="13"/>
       <c r="Y63" s="13"/>
       <c r="Z63" s="13"/>
       <c r="AA63" s="13"/>
@@ -7103,7 +7094,7 @@
       <c r="U64" s="13"/>
       <c r="V64" s="13"/>
       <c r="W64" s="18"/>
-      <c r="X64" s="48"/>
+      <c r="X64" s="13"/>
       <c r="Y64" s="13"/>
       <c r="Z64" s="13"/>
       <c r="AA64" s="13"/>
@@ -7133,7 +7124,7 @@
       <c r="U65" s="13"/>
       <c r="V65" s="13"/>
       <c r="W65" s="18"/>
-      <c r="X65" s="48"/>
+      <c r="X65" s="13"/>
       <c r="Y65" s="13"/>
       <c r="Z65" s="13"/>
       <c r="AA65" s="13"/>
@@ -7163,7 +7154,7 @@
       <c r="U66" s="13"/>
       <c r="V66" s="13"/>
       <c r="W66" s="18"/>
-      <c r="X66" s="48"/>
+      <c r="X66" s="13"/>
       <c r="Y66" s="13"/>
       <c r="Z66" s="13"/>
       <c r="AA66" s="13"/>
@@ -7193,7 +7184,7 @@
       <c r="U67" s="13"/>
       <c r="V67" s="13"/>
       <c r="W67" s="18"/>
-      <c r="X67" s="48"/>
+      <c r="X67" s="13"/>
       <c r="Y67" s="13"/>
       <c r="Z67" s="13"/>
       <c r="AA67" s="13"/>
@@ -7223,7 +7214,7 @@
       <c r="U68" s="13"/>
       <c r="V68" s="13"/>
       <c r="W68" s="18"/>
-      <c r="X68" s="48"/>
+      <c r="X68" s="13"/>
       <c r="Y68" s="13"/>
       <c r="Z68" s="13"/>
       <c r="AA68" s="13"/>
@@ -7253,7 +7244,7 @@
       <c r="U69" s="13"/>
       <c r="V69" s="13"/>
       <c r="W69" s="18"/>
-      <c r="X69" s="48"/>
+      <c r="X69" s="13"/>
       <c r="Y69" s="13"/>
       <c r="Z69" s="13"/>
       <c r="AA69" s="13"/>
@@ -7283,7 +7274,7 @@
       <c r="U70" s="13"/>
       <c r="V70" s="13"/>
       <c r="W70" s="18"/>
-      <c r="X70" s="48"/>
+      <c r="X70" s="13"/>
       <c r="Y70" s="13"/>
       <c r="Z70" s="13"/>
       <c r="AA70" s="13"/>
@@ -7313,7 +7304,7 @@
       <c r="U71" s="13"/>
       <c r="V71" s="13"/>
       <c r="W71" s="18"/>
-      <c r="X71" s="48"/>
+      <c r="X71" s="13"/>
       <c r="Y71" s="13"/>
       <c r="Z71" s="13"/>
       <c r="AA71" s="13"/>
@@ -7343,7 +7334,7 @@
       <c r="U72" s="13"/>
       <c r="V72" s="13"/>
       <c r="W72" s="18"/>
-      <c r="X72" s="48"/>
+      <c r="X72" s="13"/>
       <c r="Y72" s="13"/>
       <c r="Z72" s="13"/>
       <c r="AA72" s="13"/>
@@ -7373,7 +7364,7 @@
       <c r="U73" s="13"/>
       <c r="V73" s="13"/>
       <c r="W73" s="18"/>
-      <c r="X73" s="48"/>
+      <c r="X73" s="13"/>
       <c r="Y73" s="13"/>
       <c r="Z73" s="13"/>
       <c r="AA73" s="13"/>
@@ -7403,7 +7394,7 @@
       <c r="U74" s="13"/>
       <c r="V74" s="13"/>
       <c r="W74" s="18"/>
-      <c r="X74" s="48"/>
+      <c r="X74" s="13"/>
       <c r="Y74" s="13"/>
       <c r="Z74" s="13"/>
       <c r="AA74" s="13"/>
@@ -7433,7 +7424,7 @@
       <c r="U75" s="13"/>
       <c r="V75" s="13"/>
       <c r="W75" s="18"/>
-      <c r="X75" s="48"/>
+      <c r="X75" s="13"/>
       <c r="Y75" s="13"/>
       <c r="Z75" s="13"/>
       <c r="AA75" s="13"/>
@@ -7463,7 +7454,7 @@
       <c r="U76" s="13"/>
       <c r="V76" s="13"/>
       <c r="W76" s="18"/>
-      <c r="X76" s="48"/>
+      <c r="X76" s="13"/>
       <c r="Y76" s="13"/>
       <c r="Z76" s="13"/>
       <c r="AA76" s="13"/>
@@ -7493,7 +7484,7 @@
       <c r="U77" s="13"/>
       <c r="V77" s="13"/>
       <c r="W77" s="18"/>
-      <c r="X77" s="48"/>
+      <c r="X77" s="13"/>
       <c r="Y77" s="13"/>
       <c r="Z77" s="13"/>
       <c r="AA77" s="13"/>
@@ -7523,7 +7514,7 @@
       <c r="U78" s="13"/>
       <c r="V78" s="13"/>
       <c r="W78" s="18"/>
-      <c r="X78" s="48"/>
+      <c r="X78" s="13"/>
       <c r="Y78" s="13"/>
       <c r="Z78" s="13"/>
       <c r="AA78" s="13"/>
@@ -7553,7 +7544,7 @@
       <c r="U79" s="13"/>
       <c r="V79" s="13"/>
       <c r="W79" s="18"/>
-      <c r="X79" s="48"/>
+      <c r="X79" s="13"/>
       <c r="Y79" s="13"/>
       <c r="Z79" s="13"/>
       <c r="AA79" s="13"/>
@@ -7583,7 +7574,7 @@
       <c r="U80" s="13"/>
       <c r="V80" s="13"/>
       <c r="W80" s="18"/>
-      <c r="X80" s="48"/>
+      <c r="X80" s="13"/>
       <c r="Y80" s="13"/>
       <c r="Z80" s="13"/>
       <c r="AA80" s="13"/>
@@ -7613,7 +7604,7 @@
       <c r="U81" s="13"/>
       <c r="V81" s="13"/>
       <c r="W81" s="18"/>
-      <c r="X81" s="48"/>
+      <c r="X81" s="13"/>
       <c r="Y81" s="13"/>
       <c r="Z81" s="13"/>
       <c r="AA81" s="13"/>
@@ -7643,7 +7634,7 @@
       <c r="U82" s="13"/>
       <c r="V82" s="13"/>
       <c r="W82" s="18"/>
-      <c r="X82" s="48"/>
+      <c r="X82" s="13"/>
       <c r="Y82" s="13"/>
       <c r="Z82" s="13"/>
       <c r="AA82" s="13"/>
@@ -7673,7 +7664,7 @@
       <c r="U83" s="13"/>
       <c r="V83" s="13"/>
       <c r="W83" s="18"/>
-      <c r="X83" s="48"/>
+      <c r="X83" s="13"/>
       <c r="Y83" s="13"/>
       <c r="Z83" s="13"/>
       <c r="AA83" s="13"/>
@@ -7703,7 +7694,7 @@
       <c r="U84" s="13"/>
       <c r="V84" s="13"/>
       <c r="W84" s="18"/>
-      <c r="X84" s="48"/>
+      <c r="X84" s="13"/>
       <c r="Y84" s="13"/>
       <c r="Z84" s="13"/>
       <c r="AA84" s="13"/>
@@ -7733,7 +7724,7 @@
       <c r="U85" s="13"/>
       <c r="V85" s="13"/>
       <c r="W85" s="18"/>
-      <c r="X85" s="48"/>
+      <c r="X85" s="13"/>
       <c r="Y85" s="13"/>
       <c r="Z85" s="13"/>
       <c r="AA85" s="13"/>
@@ -7763,7 +7754,7 @@
       <c r="U86" s="13"/>
       <c r="V86" s="13"/>
       <c r="W86" s="18"/>
-      <c r="X86" s="48"/>
+      <c r="X86" s="13"/>
       <c r="Y86" s="13"/>
       <c r="Z86" s="13"/>
       <c r="AA86" s="13"/>
@@ -7793,7 +7784,7 @@
       <c r="U87" s="13"/>
       <c r="V87" s="13"/>
       <c r="W87" s="18"/>
-      <c r="X87" s="48"/>
+      <c r="X87" s="13"/>
       <c r="Y87" s="13"/>
       <c r="Z87" s="13"/>
       <c r="AA87" s="13"/>
@@ -7823,7 +7814,7 @@
       <c r="U88" s="13"/>
       <c r="V88" s="13"/>
       <c r="W88" s="18"/>
-      <c r="X88" s="48"/>
+      <c r="X88" s="13"/>
       <c r="Y88" s="13"/>
       <c r="Z88" s="13"/>
       <c r="AA88" s="13"/>
@@ -7853,7 +7844,7 @@
       <c r="U89" s="13"/>
       <c r="V89" s="13"/>
       <c r="W89" s="18"/>
-      <c r="X89" s="48"/>
+      <c r="X89" s="13"/>
       <c r="Y89" s="13"/>
       <c r="Z89" s="13"/>
       <c r="AA89" s="13"/>
@@ -7883,7 +7874,7 @@
       <c r="U90" s="13"/>
       <c r="V90" s="13"/>
       <c r="W90" s="18"/>
-      <c r="X90" s="48"/>
+      <c r="X90" s="13"/>
       <c r="Y90" s="13"/>
       <c r="Z90" s="13"/>
       <c r="AA90" s="13"/>
@@ -7913,7 +7904,7 @@
       <c r="U91" s="13"/>
       <c r="V91" s="13"/>
       <c r="W91" s="18"/>
-      <c r="X91" s="48"/>
+      <c r="X91" s="13"/>
       <c r="Y91" s="13"/>
       <c r="Z91" s="13"/>
       <c r="AA91" s="13"/>
@@ -7943,7 +7934,7 @@
       <c r="U92" s="13"/>
       <c r="V92" s="13"/>
       <c r="W92" s="18"/>
-      <c r="X92" s="48"/>
+      <c r="X92" s="13"/>
       <c r="Y92" s="13"/>
       <c r="Z92" s="13"/>
       <c r="AA92" s="13"/>
@@ -7973,7 +7964,7 @@
       <c r="U93" s="13"/>
       <c r="V93" s="13"/>
       <c r="W93" s="18"/>
-      <c r="X93" s="48"/>
+      <c r="X93" s="13"/>
       <c r="Y93" s="13"/>
       <c r="Z93" s="13"/>
       <c r="AA93" s="13"/>
@@ -8003,7 +7994,7 @@
       <c r="U94" s="13"/>
       <c r="V94" s="13"/>
       <c r="W94" s="18"/>
-      <c r="X94" s="48"/>
+      <c r="X94" s="13"/>
       <c r="Y94" s="13"/>
       <c r="Z94" s="13"/>
       <c r="AA94" s="13"/>
@@ -8033,7 +8024,7 @@
       <c r="U95" s="13"/>
       <c r="V95" s="13"/>
       <c r="W95" s="18"/>
-      <c r="X95" s="48"/>
+      <c r="X95" s="13"/>
       <c r="Y95" s="13"/>
       <c r="Z95" s="13"/>
       <c r="AA95" s="13"/>
@@ -8063,7 +8054,7 @@
       <c r="U96" s="13"/>
       <c r="V96" s="13"/>
       <c r="W96" s="18"/>
-      <c r="X96" s="48"/>
+      <c r="X96" s="13"/>
       <c r="Y96" s="13"/>
       <c r="Z96" s="13"/>
       <c r="AA96" s="13"/>
@@ -8093,7 +8084,7 @@
       <c r="U97" s="13"/>
       <c r="V97" s="13"/>
       <c r="W97" s="18"/>
-      <c r="X97" s="48"/>
+      <c r="X97" s="13"/>
       <c r="Y97" s="13"/>
       <c r="Z97" s="13"/>
       <c r="AA97" s="13"/>
@@ -8123,7 +8114,7 @@
       <c r="U98" s="13"/>
       <c r="V98" s="13"/>
       <c r="W98" s="18"/>
-      <c r="X98" s="48"/>
+      <c r="X98" s="13"/>
       <c r="Y98" s="13"/>
       <c r="Z98" s="13"/>
       <c r="AA98" s="13"/>
@@ -8153,7 +8144,7 @@
       <c r="U99" s="13"/>
       <c r="V99" s="13"/>
       <c r="W99" s="18"/>
-      <c r="X99" s="48"/>
+      <c r="X99" s="13"/>
       <c r="Y99" s="13"/>
       <c r="Z99" s="13"/>
       <c r="AA99" s="13"/>
@@ -8183,7 +8174,7 @@
       <c r="U100" s="13"/>
       <c r="V100" s="13"/>
       <c r="W100" s="18"/>
-      <c r="X100" s="48"/>
+      <c r="X100" s="13"/>
       <c r="Y100" s="13"/>
       <c r="Z100" s="13"/>
       <c r="AA100" s="13"/>
@@ -8213,7 +8204,7 @@
       <c r="U101" s="13"/>
       <c r="V101" s="13"/>
       <c r="W101" s="18"/>
-      <c r="X101" s="48"/>
+      <c r="X101" s="13"/>
       <c r="Y101" s="13"/>
       <c r="Z101" s="13"/>
       <c r="AA101" s="13"/>
@@ -8243,7 +8234,7 @@
       <c r="U102" s="13"/>
       <c r="V102" s="13"/>
       <c r="W102" s="18"/>
-      <c r="X102" s="48"/>
+      <c r="X102" s="13"/>
       <c r="Y102" s="13"/>
       <c r="Z102" s="13"/>
       <c r="AA102" s="13"/>
@@ -8273,7 +8264,7 @@
       <c r="U103" s="13"/>
       <c r="V103" s="13"/>
       <c r="W103" s="18"/>
-      <c r="X103" s="48"/>
+      <c r="X103" s="13"/>
       <c r="Y103" s="13"/>
       <c r="Z103" s="13"/>
       <c r="AA103" s="13"/>
@@ -8303,7 +8294,7 @@
       <c r="U104" s="13"/>
       <c r="V104" s="13"/>
       <c r="W104" s="18"/>
-      <c r="X104" s="48"/>
+      <c r="X104" s="13"/>
       <c r="Y104" s="13"/>
       <c r="Z104" s="13"/>
       <c r="AA104" s="13"/>
@@ -8333,7 +8324,7 @@
       <c r="U105" s="13"/>
       <c r="V105" s="13"/>
       <c r="W105" s="18"/>
-      <c r="X105" s="48"/>
+      <c r="X105" s="13"/>
       <c r="Y105" s="13"/>
       <c r="Z105" s="13"/>
       <c r="AA105" s="13"/>
@@ -8363,7 +8354,7 @@
       <c r="U106" s="13"/>
       <c r="V106" s="13"/>
       <c r="W106" s="18"/>
-      <c r="X106" s="48"/>
+      <c r="X106" s="13"/>
       <c r="Y106" s="13"/>
       <c r="Z106" s="13"/>
       <c r="AA106" s="13"/>
@@ -8393,7 +8384,7 @@
       <c r="U107" s="13"/>
       <c r="V107" s="13"/>
       <c r="W107" s="18"/>
-      <c r="X107" s="48"/>
+      <c r="X107" s="13"/>
       <c r="Y107" s="13"/>
       <c r="Z107" s="13"/>
       <c r="AA107" s="13"/>
@@ -8423,7 +8414,7 @@
       <c r="U108" s="13"/>
       <c r="V108" s="13"/>
       <c r="W108" s="18"/>
-      <c r="X108" s="48"/>
+      <c r="X108" s="13"/>
       <c r="Y108" s="13"/>
       <c r="Z108" s="13"/>
       <c r="AA108" s="13"/>
@@ -8453,7 +8444,7 @@
       <c r="U109" s="13"/>
       <c r="V109" s="13"/>
       <c r="W109" s="18"/>
-      <c r="X109" s="48"/>
+      <c r="X109" s="13"/>
       <c r="Y109" s="13"/>
       <c r="Z109" s="13"/>
       <c r="AA109" s="13"/>
@@ -8483,7 +8474,7 @@
       <c r="U110" s="13"/>
       <c r="V110" s="13"/>
       <c r="W110" s="18"/>
-      <c r="X110" s="48"/>
+      <c r="X110" s="13"/>
       <c r="Y110" s="13"/>
       <c r="Z110" s="13"/>
       <c r="AA110" s="13"/>
@@ -8513,7 +8504,7 @@
       <c r="U111" s="13"/>
       <c r="V111" s="13"/>
       <c r="W111" s="18"/>
-      <c r="X111" s="48"/>
+      <c r="X111" s="13"/>
       <c r="Y111" s="13"/>
       <c r="Z111" s="13"/>
       <c r="AA111" s="13"/>
@@ -8543,7 +8534,7 @@
       <c r="U112" s="13"/>
       <c r="V112" s="13"/>
       <c r="W112" s="18"/>
-      <c r="X112" s="48"/>
+      <c r="X112" s="13"/>
       <c r="Y112" s="13"/>
       <c r="Z112" s="13"/>
       <c r="AA112" s="13"/>
@@ -8573,7 +8564,7 @@
       <c r="U113" s="13"/>
       <c r="V113" s="13"/>
       <c r="W113" s="18"/>
-      <c r="X113" s="48"/>
+      <c r="X113" s="13"/>
       <c r="Y113" s="13"/>
       <c r="Z113" s="13"/>
       <c r="AA113" s="13"/>
@@ -8603,7 +8594,7 @@
       <c r="U114" s="13"/>
       <c r="V114" s="13"/>
       <c r="W114" s="18"/>
-      <c r="X114" s="48"/>
+      <c r="X114" s="13"/>
       <c r="Y114" s="13"/>
       <c r="Z114" s="13"/>
       <c r="AA114" s="13"/>
@@ -8633,7 +8624,7 @@
       <c r="U115" s="13"/>
       <c r="V115" s="13"/>
       <c r="W115" s="18"/>
-      <c r="X115" s="48"/>
+      <c r="X115" s="13"/>
       <c r="Y115" s="13"/>
       <c r="Z115" s="13"/>
       <c r="AA115" s="13"/>
@@ -8663,7 +8654,7 @@
       <c r="U116" s="13"/>
       <c r="V116" s="13"/>
       <c r="W116" s="18"/>
-      <c r="X116" s="48"/>
+      <c r="X116" s="13"/>
       <c r="Y116" s="13"/>
       <c r="Z116" s="13"/>
       <c r="AA116" s="13"/>
@@ -8693,7 +8684,7 @@
       <c r="U117" s="13"/>
       <c r="V117" s="13"/>
       <c r="W117" s="18"/>
-      <c r="X117" s="48"/>
+      <c r="X117" s="13"/>
       <c r="Y117" s="13"/>
       <c r="Z117" s="13"/>
       <c r="AA117" s="13"/>
@@ -8723,7 +8714,7 @@
       <c r="U118" s="13"/>
       <c r="V118" s="13"/>
       <c r="W118" s="18"/>
-      <c r="X118" s="48"/>
+      <c r="X118" s="13"/>
       <c r="Y118" s="13"/>
       <c r="Z118" s="13"/>
       <c r="AA118" s="13"/>
@@ -8753,7 +8744,7 @@
       <c r="U119" s="13"/>
       <c r="V119" s="13"/>
       <c r="W119" s="18"/>
-      <c r="X119" s="48"/>
+      <c r="X119" s="13"/>
       <c r="Y119" s="13"/>
       <c r="Z119" s="13"/>
       <c r="AA119" s="13"/>
@@ -8783,7 +8774,7 @@
       <c r="U120" s="13"/>
       <c r="V120" s="13"/>
       <c r="W120" s="18"/>
-      <c r="X120" s="48"/>
+      <c r="X120" s="13"/>
       <c r="Y120" s="13"/>
       <c r="Z120" s="13"/>
       <c r="AA120" s="13"/>
@@ -8813,7 +8804,7 @@
       <c r="U121" s="13"/>
       <c r="V121" s="13"/>
       <c r="W121" s="18"/>
-      <c r="X121" s="48"/>
+      <c r="X121" s="13"/>
       <c r="Y121" s="13"/>
       <c r="Z121" s="13"/>
       <c r="AA121" s="13"/>
@@ -8843,7 +8834,7 @@
       <c r="U122" s="13"/>
       <c r="V122" s="13"/>
       <c r="W122" s="18"/>
-      <c r="X122" s="48"/>
+      <c r="X122" s="13"/>
       <c r="Y122" s="13"/>
       <c r="Z122" s="13"/>
       <c r="AA122" s="13"/>
@@ -8873,7 +8864,7 @@
       <c r="U123" s="13"/>
       <c r="V123" s="13"/>
       <c r="W123" s="18"/>
-      <c r="X123" s="48"/>
+      <c r="X123" s="13"/>
       <c r="Y123" s="13"/>
       <c r="Z123" s="13"/>
       <c r="AA123" s="13"/>
@@ -8903,7 +8894,7 @@
       <c r="U124" s="13"/>
       <c r="V124" s="13"/>
       <c r="W124" s="18"/>
-      <c r="X124" s="48"/>
+      <c r="X124" s="13"/>
       <c r="Y124" s="13"/>
       <c r="Z124" s="13"/>
       <c r="AA124" s="13"/>
@@ -8933,7 +8924,7 @@
       <c r="U125" s="13"/>
       <c r="V125" s="13"/>
       <c r="W125" s="18"/>
-      <c r="X125" s="48"/>
+      <c r="X125" s="13"/>
       <c r="Y125" s="13"/>
       <c r="Z125" s="13"/>
       <c r="AA125" s="13"/>
@@ -8963,7 +8954,7 @@
       <c r="U126" s="13"/>
       <c r="V126" s="13"/>
       <c r="W126" s="18"/>
-      <c r="X126" s="48"/>
+      <c r="X126" s="13"/>
       <c r="Y126" s="13"/>
       <c r="Z126" s="13"/>
       <c r="AA126" s="13"/>
@@ -8993,7 +8984,7 @@
       <c r="U127" s="13"/>
       <c r="V127" s="13"/>
       <c r="W127" s="18"/>
-      <c r="X127" s="48"/>
+      <c r="X127" s="13"/>
       <c r="Y127" s="13"/>
       <c r="Z127" s="13"/>
       <c r="AA127" s="13"/>
@@ -9023,7 +9014,7 @@
       <c r="U128" s="13"/>
       <c r="V128" s="13"/>
       <c r="W128" s="18"/>
-      <c r="X128" s="48"/>
+      <c r="X128" s="13"/>
       <c r="Y128" s="13"/>
       <c r="Z128" s="13"/>
       <c r="AA128" s="13"/>
@@ -9053,7 +9044,7 @@
       <c r="U129" s="13"/>
       <c r="V129" s="13"/>
       <c r="W129" s="18"/>
-      <c r="X129" s="48"/>
+      <c r="X129" s="13"/>
       <c r="Y129" s="13"/>
       <c r="Z129" s="13"/>
       <c r="AA129" s="13"/>
@@ -9083,7 +9074,7 @@
       <c r="U130" s="13"/>
       <c r="V130" s="13"/>
       <c r="W130" s="18"/>
-      <c r="X130" s="48"/>
+      <c r="X130" s="13"/>
       <c r="Y130" s="13"/>
       <c r="Z130" s="13"/>
       <c r="AA130" s="13"/>
@@ -9113,7 +9104,7 @@
       <c r="U131" s="13"/>
       <c r="V131" s="13"/>
       <c r="W131" s="18"/>
-      <c r="X131" s="48"/>
+      <c r="X131" s="13"/>
       <c r="Y131" s="13"/>
       <c r="Z131" s="13"/>
       <c r="AA131" s="13"/>
@@ -9143,7 +9134,7 @@
       <c r="U132" s="13"/>
       <c r="V132" s="13"/>
       <c r="W132" s="18"/>
-      <c r="X132" s="48"/>
+      <c r="X132" s="13"/>
       <c r="Y132" s="13"/>
       <c r="Z132" s="13"/>
       <c r="AA132" s="13"/>
@@ -9173,7 +9164,7 @@
       <c r="U133" s="13"/>
       <c r="V133" s="13"/>
       <c r="W133" s="18"/>
-      <c r="X133" s="48"/>
+      <c r="X133" s="13"/>
       <c r="Y133" s="13"/>
       <c r="Z133" s="13"/>
       <c r="AA133" s="13"/>
@@ -9203,7 +9194,7 @@
       <c r="U134" s="13"/>
       <c r="V134" s="13"/>
       <c r="W134" s="18"/>
-      <c r="X134" s="48"/>
+      <c r="X134" s="13"/>
       <c r="Y134" s="13"/>
       <c r="Z134" s="13"/>
       <c r="AA134" s="13"/>
@@ -9233,7 +9224,7 @@
       <c r="U135" s="13"/>
       <c r="V135" s="13"/>
       <c r="W135" s="18"/>
-      <c r="X135" s="48"/>
+      <c r="X135" s="13"/>
       <c r="Y135" s="13"/>
       <c r="Z135" s="13"/>
       <c r="AA135" s="13"/>
@@ -9263,7 +9254,7 @@
       <c r="U136" s="13"/>
       <c r="V136" s="13"/>
       <c r="W136" s="18"/>
-      <c r="X136" s="48"/>
+      <c r="X136" s="13"/>
       <c r="Y136" s="13"/>
       <c r="Z136" s="13"/>
       <c r="AA136" s="13"/>
@@ -9293,7 +9284,7 @@
       <c r="U137" s="13"/>
       <c r="V137" s="13"/>
       <c r="W137" s="18"/>
-      <c r="X137" s="48"/>
+      <c r="X137" s="13"/>
       <c r="Y137" s="13"/>
       <c r="Z137" s="13"/>
       <c r="AA137" s="13"/>
@@ -9323,7 +9314,7 @@
       <c r="U138" s="13"/>
       <c r="V138" s="13"/>
       <c r="W138" s="18"/>
-      <c r="X138" s="48"/>
+      <c r="X138" s="13"/>
       <c r="Y138" s="13"/>
       <c r="Z138" s="13"/>
       <c r="AA138" s="13"/>
@@ -9353,7 +9344,7 @@
       <c r="U139" s="13"/>
       <c r="V139" s="13"/>
       <c r="W139" s="18"/>
-      <c r="X139" s="48"/>
+      <c r="X139" s="13"/>
       <c r="Y139" s="13"/>
       <c r="Z139" s="13"/>
       <c r="AA139" s="13"/>
@@ -9383,7 +9374,7 @@
       <c r="U140" s="13"/>
       <c r="V140" s="13"/>
       <c r="W140" s="18"/>
-      <c r="X140" s="48"/>
+      <c r="X140" s="13"/>
       <c r="Y140" s="13"/>
       <c r="Z140" s="13"/>
       <c r="AA140" s="13"/>
@@ -9413,7 +9404,7 @@
       <c r="U141" s="13"/>
       <c r="V141" s="13"/>
       <c r="W141" s="18"/>
-      <c r="X141" s="48"/>
+      <c r="X141" s="13"/>
       <c r="Y141" s="13"/>
       <c r="Z141" s="13"/>
       <c r="AA141" s="13"/>
@@ -9443,7 +9434,7 @@
       <c r="U142" s="13"/>
       <c r="V142" s="13"/>
       <c r="W142" s="18"/>
-      <c r="X142" s="48"/>
+      <c r="X142" s="13"/>
       <c r="Y142" s="13"/>
       <c r="Z142" s="13"/>
       <c r="AA142" s="13"/>
@@ -9473,7 +9464,7 @@
       <c r="U143" s="13"/>
       <c r="V143" s="13"/>
       <c r="W143" s="18"/>
-      <c r="X143" s="48"/>
+      <c r="X143" s="13"/>
       <c r="Y143" s="13"/>
       <c r="Z143" s="13"/>
       <c r="AA143" s="13"/>
@@ -9503,7 +9494,7 @@
       <c r="U144" s="13"/>
       <c r="V144" s="13"/>
       <c r="W144" s="18"/>
-      <c r="X144" s="48"/>
+      <c r="X144" s="13"/>
       <c r="Y144" s="13"/>
       <c r="Z144" s="13"/>
       <c r="AA144" s="13"/>
@@ -9533,7 +9524,7 @@
       <c r="U145" s="13"/>
       <c r="V145" s="13"/>
       <c r="W145" s="18"/>
-      <c r="X145" s="48"/>
+      <c r="X145" s="13"/>
       <c r="Y145" s="13"/>
       <c r="Z145" s="13"/>
       <c r="AA145" s="13"/>
@@ -9563,7 +9554,7 @@
       <c r="U146" s="13"/>
       <c r="V146" s="13"/>
       <c r="W146" s="18"/>
-      <c r="X146" s="48"/>
+      <c r="X146" s="13"/>
       <c r="Y146" s="13"/>
       <c r="Z146" s="13"/>
       <c r="AA146" s="13"/>
@@ -9593,7 +9584,7 @@
       <c r="U147" s="13"/>
       <c r="V147" s="13"/>
       <c r="W147" s="18"/>
-      <c r="X147" s="48"/>
+      <c r="X147" s="13"/>
       <c r="Y147" s="13"/>
       <c r="Z147" s="13"/>
       <c r="AA147" s="13"/>
@@ -9623,7 +9614,7 @@
       <c r="U148" s="13"/>
       <c r="V148" s="13"/>
       <c r="W148" s="18"/>
-      <c r="X148" s="48"/>
+      <c r="X148" s="13"/>
       <c r="Y148" s="13"/>
       <c r="Z148" s="13"/>
       <c r="AA148" s="13"/>
@@ -9653,7 +9644,7 @@
       <c r="U149" s="13"/>
       <c r="V149" s="13"/>
       <c r="W149" s="18"/>
-      <c r="X149" s="48"/>
+      <c r="X149" s="13"/>
       <c r="Y149" s="13"/>
       <c r="Z149" s="13"/>
       <c r="AA149" s="13"/>
@@ -9683,7 +9674,7 @@
       <c r="U150" s="13"/>
       <c r="V150" s="13"/>
       <c r="W150" s="18"/>
-      <c r="X150" s="48"/>
+      <c r="X150" s="13"/>
       <c r="Y150" s="13"/>
       <c r="Z150" s="13"/>
       <c r="AA150" s="13"/>
@@ -9713,7 +9704,7 @@
       <c r="U151" s="13"/>
       <c r="V151" s="13"/>
       <c r="W151" s="18"/>
-      <c r="X151" s="48"/>
+      <c r="X151" s="13"/>
       <c r="Y151" s="13"/>
       <c r="Z151" s="13"/>
       <c r="AA151" s="13"/>
@@ -9743,7 +9734,7 @@
       <c r="U152" s="13"/>
       <c r="V152" s="13"/>
       <c r="W152" s="18"/>
-      <c r="X152" s="48"/>
+      <c r="X152" s="13"/>
       <c r="Y152" s="13"/>
       <c r="Z152" s="13"/>
       <c r="AA152" s="13"/>
@@ -9773,7 +9764,7 @@
       <c r="U153" s="13"/>
       <c r="V153" s="13"/>
       <c r="W153" s="18"/>
-      <c r="X153" s="48"/>
+      <c r="X153" s="13"/>
       <c r="Y153" s="13"/>
       <c r="Z153" s="13"/>
       <c r="AA153" s="13"/>
@@ -9803,7 +9794,7 @@
       <c r="U154" s="13"/>
       <c r="V154" s="13"/>
       <c r="W154" s="18"/>
-      <c r="X154" s="48"/>
+      <c r="X154" s="13"/>
       <c r="Y154" s="13"/>
       <c r="Z154" s="13"/>
       <c r="AA154" s="13"/>
@@ -9833,7 +9824,7 @@
       <c r="U155" s="13"/>
       <c r="V155" s="13"/>
       <c r="W155" s="18"/>
-      <c r="X155" s="48"/>
+      <c r="X155" s="13"/>
       <c r="Y155" s="13"/>
       <c r="Z155" s="13"/>
       <c r="AA155" s="13"/>
@@ -9863,7 +9854,7 @@
       <c r="U156" s="13"/>
       <c r="V156" s="13"/>
       <c r="W156" s="18"/>
-      <c r="X156" s="48"/>
+      <c r="X156" s="13"/>
       <c r="Y156" s="13"/>
       <c r="Z156" s="13"/>
       <c r="AA156" s="13"/>
@@ -9893,7 +9884,7 @@
       <c r="U157" s="13"/>
       <c r="V157" s="13"/>
       <c r="W157" s="18"/>
-      <c r="X157" s="48"/>
+      <c r="X157" s="13"/>
       <c r="Y157" s="13"/>
       <c r="Z157" s="13"/>
       <c r="AA157" s="13"/>
@@ -9923,7 +9914,7 @@
       <c r="U158" s="13"/>
       <c r="V158" s="13"/>
       <c r="W158" s="18"/>
-      <c r="X158" s="48"/>
+      <c r="X158" s="13"/>
       <c r="Y158" s="13"/>
       <c r="Z158" s="13"/>
       <c r="AA158" s="13"/>
@@ -9953,7 +9944,7 @@
       <c r="U159" s="13"/>
       <c r="V159" s="13"/>
       <c r="W159" s="18"/>
-      <c r="X159" s="48"/>
+      <c r="X159" s="13"/>
       <c r="Y159" s="13"/>
       <c r="Z159" s="13"/>
       <c r="AA159" s="13"/>
@@ -9983,7 +9974,7 @@
       <c r="U160" s="13"/>
       <c r="V160" s="13"/>
       <c r="W160" s="18"/>
-      <c r="X160" s="48"/>
+      <c r="X160" s="13"/>
       <c r="Y160" s="13"/>
       <c r="Z160" s="13"/>
       <c r="AA160" s="13"/>
@@ -10013,7 +10004,7 @@
       <c r="U161" s="13"/>
       <c r="V161" s="13"/>
       <c r="W161" s="18"/>
-      <c r="X161" s="48"/>
+      <c r="X161" s="13"/>
       <c r="Y161" s="13"/>
       <c r="Z161" s="13"/>
       <c r="AA161" s="13"/>
@@ -10043,7 +10034,7 @@
       <c r="U162" s="13"/>
       <c r="V162" s="13"/>
       <c r="W162" s="18"/>
-      <c r="X162" s="48"/>
+      <c r="X162" s="13"/>
       <c r="Y162" s="13"/>
       <c r="Z162" s="13"/>
       <c r="AA162" s="13"/>
@@ -10073,7 +10064,7 @@
       <c r="U163" s="13"/>
       <c r="V163" s="13"/>
       <c r="W163" s="18"/>
-      <c r="X163" s="48"/>
+      <c r="X163" s="13"/>
       <c r="Y163" s="13"/>
       <c r="Z163" s="13"/>
       <c r="AA163" s="13"/>
@@ -10103,7 +10094,7 @@
       <c r="U164" s="13"/>
       <c r="V164" s="13"/>
       <c r="W164" s="18"/>
-      <c r="X164" s="48"/>
+      <c r="X164" s="13"/>
       <c r="Y164" s="13"/>
       <c r="Z164" s="13"/>
       <c r="AA164" s="13"/>
@@ -10133,7 +10124,7 @@
       <c r="U165" s="13"/>
       <c r="V165" s="13"/>
       <c r="W165" s="18"/>
-      <c r="X165" s="48"/>
+      <c r="X165" s="13"/>
       <c r="Y165" s="13"/>
       <c r="Z165" s="13"/>
       <c r="AA165" s="13"/>
@@ -10163,7 +10154,7 @@
       <c r="U166" s="13"/>
       <c r="V166" s="13"/>
       <c r="W166" s="18"/>
-      <c r="X166" s="48"/>
+      <c r="X166" s="13"/>
       <c r="Y166" s="13"/>
       <c r="Z166" s="13"/>
       <c r="AA166" s="13"/>
@@ -10193,7 +10184,7 @@
       <c r="U167" s="13"/>
       <c r="V167" s="13"/>
       <c r="W167" s="18"/>
-      <c r="X167" s="48"/>
+      <c r="X167" s="13"/>
       <c r="Y167" s="13"/>
       <c r="Z167" s="13"/>
       <c r="AA167" s="13"/>
@@ -10223,7 +10214,7 @@
       <c r="U168" s="13"/>
       <c r="V168" s="13"/>
       <c r="W168" s="18"/>
-      <c r="X168" s="48"/>
+      <c r="X168" s="13"/>
       <c r="Y168" s="13"/>
       <c r="Z168" s="13"/>
       <c r="AA168" s="13"/>
@@ -10253,7 +10244,7 @@
       <c r="U169" s="13"/>
       <c r="V169" s="13"/>
       <c r="W169" s="18"/>
-      <c r="X169" s="48"/>
+      <c r="X169" s="13"/>
       <c r="Y169" s="13"/>
       <c r="Z169" s="13"/>
       <c r="AA169" s="13"/>
@@ -10283,7 +10274,7 @@
       <c r="U170" s="13"/>
       <c r="V170" s="13"/>
       <c r="W170" s="18"/>
-      <c r="X170" s="48"/>
+      <c r="X170" s="13"/>
       <c r="Y170" s="13"/>
       <c r="Z170" s="13"/>
       <c r="AA170" s="13"/>
@@ -10313,7 +10304,7 @@
       <c r="U171" s="13"/>
       <c r="V171" s="13"/>
       <c r="W171" s="18"/>
-      <c r="X171" s="48"/>
+      <c r="X171" s="13"/>
       <c r="Y171" s="13"/>
       <c r="Z171" s="13"/>
       <c r="AA171" s="13"/>
@@ -10343,7 +10334,7 @@
       <c r="U172" s="13"/>
       <c r="V172" s="13"/>
       <c r="W172" s="18"/>
-      <c r="X172" s="48"/>
+      <c r="X172" s="13"/>
       <c r="Y172" s="13"/>
       <c r="Z172" s="13"/>
       <c r="AA172" s="13"/>
@@ -10373,7 +10364,7 @@
       <c r="U173" s="13"/>
       <c r="V173" s="13"/>
       <c r="W173" s="18"/>
-      <c r="X173" s="48"/>
+      <c r="X173" s="13"/>
       <c r="Y173" s="13"/>
       <c r="Z173" s="13"/>
       <c r="AA173" s="13"/>
@@ -10403,7 +10394,7 @@
       <c r="U174" s="13"/>
       <c r="V174" s="13"/>
       <c r="W174" s="18"/>
-      <c r="X174" s="48"/>
+      <c r="X174" s="13"/>
       <c r="Y174" s="13"/>
       <c r="Z174" s="13"/>
       <c r="AA174" s="13"/>
@@ -10433,7 +10424,7 @@
       <c r="U175" s="13"/>
       <c r="V175" s="13"/>
       <c r="W175" s="18"/>
-      <c r="X175" s="48"/>
+      <c r="X175" s="13"/>
       <c r="Y175" s="13"/>
       <c r="Z175" s="13"/>
       <c r="AA175" s="13"/>
@@ -10463,7 +10454,7 @@
       <c r="U176" s="13"/>
       <c r="V176" s="13"/>
       <c r="W176" s="18"/>
-      <c r="X176" s="48"/>
+      <c r="X176" s="13"/>
       <c r="Y176" s="13"/>
       <c r="Z176" s="13"/>
       <c r="AA176" s="13"/>
@@ -10493,7 +10484,7 @@
       <c r="U177" s="13"/>
       <c r="V177" s="13"/>
       <c r="W177" s="18"/>
-      <c r="X177" s="48"/>
+      <c r="X177" s="13"/>
       <c r="Y177" s="13"/>
       <c r="Z177" s="13"/>
       <c r="AA177" s="13"/>
@@ -10523,7 +10514,7 @@
       <c r="U178" s="13"/>
       <c r="V178" s="13"/>
       <c r="W178" s="18"/>
-      <c r="X178" s="48"/>
+      <c r="X178" s="13"/>
       <c r="Y178" s="13"/>
       <c r="Z178" s="13"/>
       <c r="AA178" s="13"/>
@@ -10553,7 +10544,7 @@
       <c r="U179" s="13"/>
       <c r="V179" s="13"/>
       <c r="W179" s="18"/>
-      <c r="X179" s="48"/>
+      <c r="X179" s="13"/>
       <c r="Y179" s="13"/>
       <c r="Z179" s="13"/>
       <c r="AA179" s="13"/>
@@ -10583,7 +10574,7 @@
       <c r="U180" s="13"/>
       <c r="V180" s="13"/>
       <c r="W180" s="18"/>
-      <c r="X180" s="48"/>
+      <c r="X180" s="13"/>
       <c r="Y180" s="13"/>
       <c r="Z180" s="13"/>
       <c r="AA180" s="13"/>
@@ -10613,7 +10604,7 @@
       <c r="U181" s="13"/>
       <c r="V181" s="13"/>
       <c r="W181" s="18"/>
-      <c r="X181" s="48"/>
+      <c r="X181" s="13"/>
       <c r="Y181" s="13"/>
       <c r="Z181" s="13"/>
       <c r="AA181" s="13"/>
@@ -10643,7 +10634,7 @@
       <c r="U182" s="13"/>
       <c r="V182" s="13"/>
       <c r="W182" s="18"/>
-      <c r="X182" s="48"/>
+      <c r="X182" s="13"/>
       <c r="Y182" s="13"/>
       <c r="Z182" s="13"/>
       <c r="AA182" s="13"/>
@@ -10673,7 +10664,7 @@
       <c r="U183" s="13"/>
       <c r="V183" s="13"/>
       <c r="W183" s="18"/>
-      <c r="X183" s="48"/>
+      <c r="X183" s="13"/>
       <c r="Y183" s="13"/>
       <c r="Z183" s="13"/>
       <c r="AA183" s="13"/>
@@ -10703,7 +10694,7 @@
       <c r="U184" s="13"/>
       <c r="V184" s="13"/>
       <c r="W184" s="18"/>
-      <c r="X184" s="48"/>
+      <c r="X184" s="13"/>
       <c r="Y184" s="13"/>
       <c r="Z184" s="13"/>
       <c r="AA184" s="13"/>
@@ -10733,7 +10724,7 @@
       <c r="U185" s="13"/>
       <c r="V185" s="13"/>
       <c r="W185" s="18"/>
-      <c r="X185" s="48"/>
+      <c r="X185" s="13"/>
       <c r="Y185" s="13"/>
       <c r="Z185" s="13"/>
       <c r="AA185" s="13"/>
@@ -10763,7 +10754,7 @@
       <c r="U186" s="13"/>
       <c r="V186" s="13"/>
       <c r="W186" s="18"/>
-      <c r="X186" s="48"/>
+      <c r="X186" s="13"/>
       <c r="Y186" s="13"/>
       <c r="Z186" s="13"/>
       <c r="AA186" s="13"/>
@@ -10793,7 +10784,7 @@
       <c r="U187" s="13"/>
       <c r="V187" s="13"/>
       <c r="W187" s="18"/>
-      <c r="X187" s="48"/>
+      <c r="X187" s="13"/>
       <c r="Y187" s="13"/>
       <c r="Z187" s="13"/>
       <c r="AA187" s="13"/>
@@ -10823,7 +10814,7 @@
       <c r="U188" s="13"/>
       <c r="V188" s="13"/>
       <c r="W188" s="18"/>
-      <c r="X188" s="48"/>
+      <c r="X188" s="13"/>
       <c r="Y188" s="13"/>
       <c r="Z188" s="13"/>
       <c r="AA188" s="13"/>
@@ -10853,7 +10844,7 @@
       <c r="U189" s="13"/>
       <c r="V189" s="13"/>
       <c r="W189" s="18"/>
-      <c r="X189" s="48"/>
+      <c r="X189" s="13"/>
       <c r="Y189" s="13"/>
       <c r="Z189" s="13"/>
       <c r="AA189" s="13"/>
@@ -10883,7 +10874,7 @@
       <c r="U190" s="13"/>
       <c r="V190" s="13"/>
       <c r="W190" s="18"/>
-      <c r="X190" s="48"/>
+      <c r="X190" s="13"/>
       <c r="Y190" s="13"/>
       <c r="Z190" s="13"/>
       <c r="AA190" s="13"/>
@@ -10913,7 +10904,7 @@
       <c r="U191" s="13"/>
       <c r="V191" s="13"/>
       <c r="W191" s="18"/>
-      <c r="X191" s="48"/>
+      <c r="X191" s="13"/>
       <c r="Y191" s="13"/>
       <c r="Z191" s="13"/>
       <c r="AA191" s="13"/>
@@ -10943,7 +10934,7 @@
       <c r="U192" s="13"/>
       <c r="V192" s="13"/>
       <c r="W192" s="18"/>
-      <c r="X192" s="48"/>
+      <c r="X192" s="13"/>
       <c r="Y192" s="13"/>
       <c r="Z192" s="13"/>
       <c r="AA192" s="13"/>
@@ -10973,7 +10964,7 @@
       <c r="U193" s="13"/>
       <c r="V193" s="13"/>
       <c r="W193" s="18"/>
-      <c r="X193" s="48"/>
+      <c r="X193" s="13"/>
       <c r="Y193" s="13"/>
       <c r="Z193" s="13"/>
       <c r="AA193" s="13"/>
@@ -11003,7 +10994,7 @@
       <c r="U194" s="13"/>
       <c r="V194" s="13"/>
       <c r="W194" s="18"/>
-      <c r="X194" s="48"/>
+      <c r="X194" s="13"/>
       <c r="Y194" s="13"/>
       <c r="Z194" s="13"/>
       <c r="AA194" s="13"/>
@@ -11033,7 +11024,7 @@
       <c r="U195" s="13"/>
       <c r="V195" s="13"/>
       <c r="W195" s="18"/>
-      <c r="X195" s="48"/>
+      <c r="X195" s="13"/>
       <c r="Y195" s="13"/>
       <c r="Z195" s="13"/>
       <c r="AA195" s="13"/>
@@ -11063,7 +11054,7 @@
       <c r="U196" s="13"/>
       <c r="V196" s="13"/>
       <c r="W196" s="18"/>
-      <c r="X196" s="48"/>
+      <c r="X196" s="13"/>
       <c r="Y196" s="13"/>
       <c r="Z196" s="13"/>
       <c r="AA196" s="13"/>
@@ -11093,7 +11084,7 @@
       <c r="U197" s="13"/>
       <c r="V197" s="13"/>
       <c r="W197" s="18"/>
-      <c r="X197" s="48"/>
+      <c r="X197" s="13"/>
       <c r="Y197" s="13"/>
       <c r="Z197" s="13"/>
       <c r="AA197" s="13"/>
@@ -11123,7 +11114,7 @@
       <c r="U198" s="13"/>
       <c r="V198" s="13"/>
       <c r="W198" s="18"/>
-      <c r="X198" s="48"/>
+      <c r="X198" s="13"/>
       <c r="Y198" s="13"/>
       <c r="Z198" s="13"/>
       <c r="AA198" s="13"/>
@@ -11153,7 +11144,7 @@
       <c r="U199" s="13"/>
       <c r="V199" s="13"/>
       <c r="W199" s="18"/>
-      <c r="X199" s="48"/>
+      <c r="X199" s="13"/>
       <c r="Y199" s="13"/>
       <c r="Z199" s="13"/>
       <c r="AA199" s="13"/>
@@ -11183,7 +11174,7 @@
       <c r="U200" s="13"/>
       <c r="V200" s="13"/>
       <c r="W200" s="18"/>
-      <c r="X200" s="48"/>
+      <c r="X200" s="13"/>
       <c r="Y200" s="13"/>
       <c r="Z200" s="13"/>
       <c r="AA200" s="13"/>
@@ -11213,7 +11204,7 @@
       <c r="U201" s="13"/>
       <c r="V201" s="13"/>
       <c r="W201" s="18"/>
-      <c r="X201" s="48"/>
+      <c r="X201" s="13"/>
       <c r="Y201" s="13"/>
       <c r="Z201" s="13"/>
       <c r="AA201" s="13"/>
@@ -11243,7 +11234,7 @@
       <c r="U202" s="13"/>
       <c r="V202" s="13"/>
       <c r="W202" s="18"/>
-      <c r="X202" s="48"/>
+      <c r="X202" s="13"/>
       <c r="Y202" s="13"/>
       <c r="Z202" s="13"/>
       <c r="AA202" s="13"/>
@@ -11273,7 +11264,7 @@
       <c r="U203" s="13"/>
       <c r="V203" s="13"/>
       <c r="W203" s="18"/>
-      <c r="X203" s="48"/>
+      <c r="X203" s="13"/>
       <c r="Y203" s="13"/>
       <c r="Z203" s="13"/>
       <c r="AA203" s="13"/>
@@ -11303,7 +11294,7 @@
       <c r="U204" s="13"/>
       <c r="V204" s="13"/>
       <c r="W204" s="18"/>
-      <c r="X204" s="48"/>
+      <c r="X204" s="13"/>
       <c r="Y204" s="13"/>
       <c r="Z204" s="13"/>
       <c r="AA204" s="13"/>
@@ -11333,7 +11324,7 @@
       <c r="U205" s="13"/>
       <c r="V205" s="13"/>
       <c r="W205" s="18"/>
-      <c r="X205" s="48"/>
+      <c r="X205" s="13"/>
       <c r="Y205" s="13"/>
       <c r="Z205" s="13"/>
       <c r="AA205" s="13"/>
@@ -11363,7 +11354,7 @@
       <c r="U206" s="13"/>
       <c r="V206" s="13"/>
       <c r="W206" s="18"/>
-      <c r="X206" s="48"/>
+      <c r="X206" s="13"/>
       <c r="Y206" s="13"/>
       <c r="Z206" s="13"/>
       <c r="AA206" s="13"/>
@@ -11393,7 +11384,7 @@
       <c r="U207" s="13"/>
       <c r="V207" s="13"/>
       <c r="W207" s="18"/>
-      <c r="X207" s="48"/>
+      <c r="X207" s="13"/>
       <c r="Y207" s="13"/>
       <c r="Z207" s="13"/>
       <c r="AA207" s="13"/>
@@ -11423,7 +11414,7 @@
       <c r="U208" s="13"/>
       <c r="V208" s="13"/>
       <c r="W208" s="18"/>
-      <c r="X208" s="48"/>
+      <c r="X208" s="13"/>
       <c r="Y208" s="13"/>
       <c r="Z208" s="13"/>
       <c r="AA208" s="13"/>
@@ -11453,7 +11444,7 @@
       <c r="U209" s="13"/>
       <c r="V209" s="13"/>
       <c r="W209" s="18"/>
-      <c r="X209" s="48"/>
+      <c r="X209" s="13"/>
       <c r="Y209" s="13"/>
       <c r="Z209" s="13"/>
       <c r="AA209" s="13"/>
@@ -11483,7 +11474,7 @@
       <c r="U210" s="13"/>
       <c r="V210" s="13"/>
       <c r="W210" s="18"/>
-      <c r="X210" s="48"/>
+      <c r="X210" s="13"/>
       <c r="Y210" s="13"/>
       <c r="Z210" s="13"/>
       <c r="AA210" s="13"/>
@@ -11513,7 +11504,7 @@
       <c r="U211" s="13"/>
       <c r="V211" s="13"/>
       <c r="W211" s="18"/>
-      <c r="X211" s="48"/>
+      <c r="X211" s="13"/>
       <c r="Y211" s="13"/>
       <c r="Z211" s="13"/>
       <c r="AA211" s="13"/>
@@ -11543,7 +11534,7 @@
       <c r="U212" s="13"/>
       <c r="V212" s="13"/>
       <c r="W212" s="18"/>
-      <c r="X212" s="48"/>
+      <c r="X212" s="13"/>
       <c r="Y212" s="13"/>
       <c r="Z212" s="13"/>
       <c r="AA212" s="13"/>
@@ -11573,7 +11564,7 @@
       <c r="U213" s="13"/>
       <c r="V213" s="13"/>
       <c r="W213" s="18"/>
-      <c r="X213" s="48"/>
+      <c r="X213" s="13"/>
       <c r="Y213" s="13"/>
       <c r="Z213" s="13"/>
       <c r="AA213" s="13"/>
@@ -11603,7 +11594,7 @@
       <c r="U214" s="13"/>
       <c r="V214" s="13"/>
       <c r="W214" s="18"/>
-      <c r="X214" s="48"/>
+      <c r="X214" s="13"/>
       <c r="Y214" s="13"/>
       <c r="Z214" s="13"/>
       <c r="AA214" s="13"/>
@@ -11633,7 +11624,7 @@
       <c r="U215" s="13"/>
       <c r="V215" s="13"/>
       <c r="W215" s="18"/>
-      <c r="X215" s="48"/>
+      <c r="X215" s="13"/>
       <c r="Y215" s="13"/>
       <c r="Z215" s="13"/>
       <c r="AA215" s="13"/>
@@ -11663,7 +11654,7 @@
       <c r="U216" s="13"/>
       <c r="V216" s="13"/>
       <c r="W216" s="18"/>
-      <c r="X216" s="48"/>
+      <c r="X216" s="13"/>
       <c r="Y216" s="13"/>
       <c r="Z216" s="13"/>
       <c r="AA216" s="13"/>
@@ -11693,7 +11684,7 @@
       <c r="U217" s="13"/>
       <c r="V217" s="13"/>
       <c r="W217" s="18"/>
-      <c r="X217" s="48"/>
+      <c r="X217" s="13"/>
       <c r="Y217" s="13"/>
       <c r="Z217" s="13"/>
       <c r="AA217" s="13"/>
@@ -11723,7 +11714,7 @@
       <c r="U218" s="13"/>
       <c r="V218" s="13"/>
       <c r="W218" s="18"/>
-      <c r="X218" s="48"/>
+      <c r="X218" s="13"/>
       <c r="Y218" s="13"/>
       <c r="Z218" s="13"/>
       <c r="AA218" s="13"/>
@@ -11753,7 +11744,7 @@
       <c r="U219" s="13"/>
       <c r="V219" s="13"/>
       <c r="W219" s="18"/>
-      <c r="X219" s="48"/>
+      <c r="X219" s="13"/>
       <c r="Y219" s="13"/>
       <c r="Z219" s="13"/>
       <c r="AA219" s="13"/>
@@ -11783,7 +11774,7 @@
       <c r="U220" s="13"/>
       <c r="V220" s="13"/>
       <c r="W220" s="18"/>
-      <c r="X220" s="48"/>
+      <c r="X220" s="13"/>
       <c r="Y220" s="13"/>
       <c r="Z220" s="13"/>
       <c r="AA220" s="13"/>
@@ -11813,7 +11804,7 @@
       <c r="U221" s="13"/>
       <c r="V221" s="13"/>
       <c r="W221" s="18"/>
-      <c r="X221" s="48"/>
+      <c r="X221" s="13"/>
       <c r="Y221" s="13"/>
       <c r="Z221" s="13"/>
       <c r="AA221" s="13"/>
@@ -11843,7 +11834,7 @@
       <c r="U222" s="13"/>
       <c r="V222" s="13"/>
       <c r="W222" s="18"/>
-      <c r="X222" s="48"/>
+      <c r="X222" s="13"/>
       <c r="Y222" s="13"/>
       <c r="Z222" s="13"/>
       <c r="AA222" s="13"/>
@@ -11873,7 +11864,7 @@
       <c r="U223" s="13"/>
       <c r="V223" s="13"/>
       <c r="W223" s="18"/>
-      <c r="X223" s="48"/>
+      <c r="X223" s="13"/>
       <c r="Y223" s="13"/>
       <c r="Z223" s="13"/>
       <c r="AA223" s="13"/>
@@ -11903,7 +11894,7 @@
       <c r="U224" s="13"/>
       <c r="V224" s="13"/>
       <c r="W224" s="18"/>
-      <c r="X224" s="48"/>
+      <c r="X224" s="13"/>
       <c r="Y224" s="13"/>
       <c r="Z224" s="13"/>
       <c r="AA224" s="13"/>
@@ -11933,7 +11924,7 @@
       <c r="U225" s="13"/>
       <c r="V225" s="13"/>
       <c r="W225" s="18"/>
-      <c r="X225" s="48"/>
+      <c r="X225" s="13"/>
       <c r="Y225" s="13"/>
       <c r="Z225" s="13"/>
       <c r="AA225" s="13"/>
@@ -11963,7 +11954,7 @@
       <c r="U226" s="13"/>
       <c r="V226" s="13"/>
       <c r="W226" s="18"/>
-      <c r="X226" s="48"/>
+      <c r="X226" s="13"/>
       <c r="Y226" s="13"/>
       <c r="Z226" s="13"/>
       <c r="AA226" s="13"/>
@@ -11993,7 +11984,7 @@
       <c r="U227" s="13"/>
       <c r="V227" s="13"/>
       <c r="W227" s="18"/>
-      <c r="X227" s="48"/>
+      <c r="X227" s="13"/>
       <c r="Y227" s="13"/>
       <c r="Z227" s="13"/>
       <c r="AA227" s="13"/>
@@ -12023,7 +12014,7 @@
       <c r="U228" s="13"/>
       <c r="V228" s="13"/>
       <c r="W228" s="18"/>
-      <c r="X228" s="48"/>
+      <c r="X228" s="13"/>
       <c r="Y228" s="13"/>
       <c r="Z228" s="13"/>
       <c r="AA228" s="13"/>
@@ -12053,7 +12044,7 @@
       <c r="U229" s="13"/>
       <c r="V229" s="13"/>
       <c r="W229" s="18"/>
-      <c r="X229" s="48"/>
+      <c r="X229" s="13"/>
       <c r="Y229" s="13"/>
       <c r="Z229" s="13"/>
       <c r="AA229" s="13"/>
@@ -12083,7 +12074,7 @@
       <c r="U230" s="13"/>
       <c r="V230" s="13"/>
       <c r="W230" s="18"/>
-      <c r="X230" s="48"/>
+      <c r="X230" s="13"/>
       <c r="Y230" s="13"/>
       <c r="Z230" s="13"/>
       <c r="AA230" s="13"/>
@@ -12113,7 +12104,7 @@
       <c r="U231" s="13"/>
       <c r="V231" s="13"/>
       <c r="W231" s="18"/>
-      <c r="X231" s="48"/>
+      <c r="X231" s="13"/>
       <c r="Y231" s="13"/>
       <c r="Z231" s="13"/>
       <c r="AA231" s="13"/>
@@ -12143,7 +12134,7 @@
       <c r="U232" s="13"/>
       <c r="V232" s="13"/>
       <c r="W232" s="18"/>
-      <c r="X232" s="48"/>
+      <c r="X232" s="13"/>
       <c r="Y232" s="13"/>
       <c r="Z232" s="13"/>
       <c r="AA232" s="13"/>
@@ -12173,7 +12164,7 @@
       <c r="U233" s="13"/>
       <c r="V233" s="13"/>
       <c r="W233" s="18"/>
-      <c r="X233" s="48"/>
+      <c r="X233" s="13"/>
       <c r="Y233" s="13"/>
       <c r="Z233" s="13"/>
       <c r="AA233" s="13"/>
@@ -12203,7 +12194,7 @@
       <c r="U234" s="13"/>
       <c r="V234" s="13"/>
       <c r="W234" s="18"/>
-      <c r="X234" s="48"/>
+      <c r="X234" s="13"/>
       <c r="Y234" s="13"/>
       <c r="Z234" s="13"/>
       <c r="AA234" s="13"/>
@@ -12233,7 +12224,7 @@
       <c r="U235" s="13"/>
       <c r="V235" s="13"/>
       <c r="W235" s="18"/>
-      <c r="X235" s="48"/>
+      <c r="X235" s="13"/>
       <c r="Y235" s="13"/>
       <c r="Z235" s="13"/>
       <c r="AA235" s="13"/>
@@ -12263,7 +12254,7 @@
       <c r="U236" s="13"/>
       <c r="V236" s="13"/>
       <c r="W236" s="18"/>
-      <c r="X236" s="48"/>
+      <c r="X236" s="13"/>
       <c r="Y236" s="13"/>
       <c r="Z236" s="13"/>
       <c r="AA236" s="13"/>
@@ -12293,7 +12284,7 @@
       <c r="U237" s="13"/>
       <c r="V237" s="13"/>
       <c r="W237" s="18"/>
-      <c r="X237" s="48"/>
+      <c r="X237" s="13"/>
       <c r="Y237" s="13"/>
       <c r="Z237" s="13"/>
       <c r="AA237" s="13"/>
@@ -12323,7 +12314,7 @@
       <c r="U238" s="13"/>
       <c r="V238" s="13"/>
       <c r="W238" s="18"/>
-      <c r="X238" s="48"/>
+      <c r="X238" s="13"/>
       <c r="Y238" s="13"/>
       <c r="Z238" s="13"/>
       <c r="AA238" s="13"/>
@@ -12353,7 +12344,7 @@
       <c r="U239" s="13"/>
       <c r="V239" s="13"/>
       <c r="W239" s="18"/>
-      <c r="X239" s="48"/>
+      <c r="X239" s="13"/>
       <c r="Y239" s="13"/>
       <c r="Z239" s="13"/>
       <c r="AA239" s="13"/>
@@ -12383,7 +12374,7 @@
       <c r="U240" s="13"/>
       <c r="V240" s="13"/>
       <c r="W240" s="18"/>
-      <c r="X240" s="48"/>
+      <c r="X240" s="13"/>
       <c r="Y240" s="13"/>
       <c r="Z240" s="13"/>
       <c r="AA240" s="13"/>
@@ -12413,7 +12404,7 @@
       <c r="U241" s="13"/>
       <c r="V241" s="13"/>
       <c r="W241" s="18"/>
-      <c r="X241" s="48"/>
+      <c r="X241" s="13"/>
       <c r="Y241" s="13"/>
       <c r="Z241" s="13"/>
       <c r="AA241" s="13"/>
@@ -12443,7 +12434,7 @@
       <c r="U242" s="13"/>
       <c r="V242" s="13"/>
       <c r="W242" s="18"/>
-      <c r="X242" s="48"/>
+      <c r="X242" s="13"/>
       <c r="Y242" s="13"/>
       <c r="Z242" s="13"/>
       <c r="AA242" s="13"/>
@@ -12473,7 +12464,7 @@
       <c r="U243" s="13"/>
       <c r="V243" s="13"/>
       <c r="W243" s="18"/>
-      <c r="X243" s="48"/>
+      <c r="X243" s="13"/>
       <c r="Y243" s="13"/>
       <c r="Z243" s="13"/>
       <c r="AA243" s="13"/>
@@ -12503,7 +12494,7 @@
       <c r="U244" s="13"/>
       <c r="V244" s="13"/>
       <c r="W244" s="18"/>
-      <c r="X244" s="48"/>
+      <c r="X244" s="13"/>
       <c r="Y244" s="13"/>
       <c r="Z244" s="13"/>
       <c r="AA244" s="13"/>
@@ -12533,7 +12524,7 @@
       <c r="U245" s="13"/>
       <c r="V245" s="13"/>
       <c r="W245" s="18"/>
-      <c r="X245" s="48"/>
+      <c r="X245" s="13"/>
       <c r="Y245" s="13"/>
       <c r="Z245" s="13"/>
       <c r="AA245" s="13"/>
@@ -12563,7 +12554,7 @@
       <c r="U246" s="13"/>
       <c r="V246" s="13"/>
       <c r="W246" s="18"/>
-      <c r="X246" s="48"/>
+      <c r="X246" s="13"/>
       <c r="Y246" s="13"/>
       <c r="Z246" s="13"/>
       <c r="AA246" s="13"/>
@@ -12593,7 +12584,7 @@
       <c r="U247" s="13"/>
       <c r="V247" s="13"/>
       <c r="W247" s="18"/>
-      <c r="X247" s="48"/>
+      <c r="X247" s="13"/>
       <c r="Y247" s="13"/>
       <c r="Z247" s="13"/>
       <c r="AA247" s="13"/>
@@ -12623,7 +12614,7 @@
       <c r="U248" s="13"/>
       <c r="V248" s="13"/>
       <c r="W248" s="18"/>
-      <c r="X248" s="48"/>
+      <c r="X248" s="13"/>
       <c r="Y248" s="13"/>
       <c r="Z248" s="13"/>
       <c r="AA248" s="13"/>
@@ -12653,7 +12644,7 @@
       <c r="U249" s="13"/>
       <c r="V249" s="13"/>
       <c r="W249" s="18"/>
-      <c r="X249" s="48"/>
+      <c r="X249" s="13"/>
       <c r="Y249" s="13"/>
       <c r="Z249" s="13"/>
       <c r="AA249" s="13"/>
@@ -12683,7 +12674,7 @@
       <c r="U250" s="13"/>
       <c r="V250" s="13"/>
       <c r="W250" s="18"/>
-      <c r="X250" s="48"/>
+      <c r="X250" s="13"/>
       <c r="Y250" s="13"/>
       <c r="Z250" s="13"/>
       <c r="AA250" s="13"/>
@@ -12713,7 +12704,7 @@
       <c r="U251" s="13"/>
       <c r="V251" s="13"/>
       <c r="W251" s="18"/>
-      <c r="X251" s="48"/>
+      <c r="X251" s="13"/>
       <c r="Y251" s="13"/>
       <c r="Z251" s="13"/>
       <c r="AA251" s="13"/>
@@ -12743,7 +12734,7 @@
       <c r="U252" s="13"/>
       <c r="V252" s="13"/>
       <c r="W252" s="18"/>
-      <c r="X252" s="48"/>
+      <c r="X252" s="13"/>
       <c r="Y252" s="13"/>
       <c r="Z252" s="13"/>
       <c r="AA252" s="13"/>
@@ -12773,7 +12764,7 @@
       <c r="U253" s="13"/>
       <c r="V253" s="13"/>
       <c r="W253" s="18"/>
-      <c r="X253" s="48"/>
+      <c r="X253" s="13"/>
       <c r="Y253" s="13"/>
       <c r="Z253" s="13"/>
       <c r="AA253" s="13"/>
@@ -12803,7 +12794,7 @@
       <c r="U254" s="13"/>
       <c r="V254" s="13"/>
       <c r="W254" s="18"/>
-      <c r="X254" s="48"/>
+      <c r="X254" s="13"/>
       <c r="Y254" s="13"/>
       <c r="Z254" s="13"/>
       <c r="AA254" s="13"/>
@@ -12833,7 +12824,7 @@
       <c r="U255" s="13"/>
       <c r="V255" s="13"/>
       <c r="W255" s="18"/>
-      <c r="X255" s="48"/>
+      <c r="X255" s="13"/>
       <c r="Y255" s="13"/>
       <c r="Z255" s="13"/>
       <c r="AA255" s="13"/>
@@ -12863,7 +12854,7 @@
       <c r="U256" s="13"/>
       <c r="V256" s="13"/>
       <c r="W256" s="18"/>
-      <c r="X256" s="48"/>
+      <c r="X256" s="13"/>
       <c r="Y256" s="13"/>
       <c r="Z256" s="13"/>
       <c r="AA256" s="13"/>
@@ -12893,7 +12884,7 @@
       <c r="U257" s="13"/>
       <c r="V257" s="13"/>
       <c r="W257" s="18"/>
-      <c r="X257" s="48"/>
+      <c r="X257" s="13"/>
       <c r="Y257" s="13"/>
       <c r="Z257" s="13"/>
       <c r="AA257" s="13"/>
@@ -12923,7 +12914,7 @@
       <c r="U258" s="13"/>
       <c r="V258" s="13"/>
       <c r="W258" s="18"/>
-      <c r="X258" s="48"/>
+      <c r="X258" s="13"/>
       <c r="Y258" s="13"/>
       <c r="Z258" s="13"/>
       <c r="AA258" s="13"/>
@@ -12953,7 +12944,7 @@
       <c r="U259" s="13"/>
       <c r="V259" s="13"/>
       <c r="W259" s="18"/>
-      <c r="X259" s="48"/>
+      <c r="X259" s="13"/>
       <c r="Y259" s="13"/>
       <c r="Z259" s="13"/>
       <c r="AA259" s="13"/>
@@ -12983,7 +12974,7 @@
       <c r="U260" s="13"/>
       <c r="V260" s="13"/>
       <c r="W260" s="18"/>
-      <c r="X260" s="48"/>
+      <c r="X260" s="13"/>
       <c r="Y260" s="13"/>
       <c r="Z260" s="13"/>
       <c r="AA260" s="13"/>
@@ -13013,7 +13004,7 @@
       <c r="U261" s="13"/>
       <c r="V261" s="13"/>
       <c r="W261" s="18"/>
-      <c r="X261" s="48"/>
+      <c r="X261" s="13"/>
       <c r="Y261" s="13"/>
       <c r="Z261" s="13"/>
       <c r="AA261" s="13"/>
@@ -13043,7 +13034,7 @@
       <c r="U262" s="13"/>
       <c r="V262" s="13"/>
       <c r="W262" s="18"/>
-      <c r="X262" s="48"/>
+      <c r="X262" s="13"/>
       <c r="Y262" s="13"/>
       <c r="Z262" s="13"/>
       <c r="AA262" s="13"/>
@@ -13073,7 +13064,7 @@
       <c r="U263" s="13"/>
       <c r="V263" s="13"/>
       <c r="W263" s="18"/>
-      <c r="X263" s="48"/>
+      <c r="X263" s="13"/>
       <c r="Y263" s="13"/>
       <c r="Z263" s="13"/>
       <c r="AA263" s="13"/>
@@ -13103,7 +13094,7 @@
       <c r="U264" s="13"/>
       <c r="V264" s="13"/>
       <c r="W264" s="18"/>
-      <c r="X264" s="48"/>
+      <c r="X264" s="13"/>
       <c r="Y264" s="13"/>
       <c r="Z264" s="13"/>
       <c r="AA264" s="13"/>
@@ -13133,7 +13124,7 @@
       <c r="U265" s="13"/>
       <c r="V265" s="13"/>
       <c r="W265" s="18"/>
-      <c r="X265" s="48"/>
+      <c r="X265" s="13"/>
       <c r="Y265" s="13"/>
       <c r="Z265" s="13"/>
       <c r="AA265" s="13"/>
@@ -13163,7 +13154,7 @@
       <c r="U266" s="13"/>
       <c r="V266" s="13"/>
       <c r="W266" s="18"/>
-      <c r="X266" s="48"/>
+      <c r="X266" s="13"/>
       <c r="Y266" s="13"/>
       <c r="Z266" s="13"/>
       <c r="AA266" s="13"/>
@@ -13193,7 +13184,7 @@
       <c r="U267" s="13"/>
       <c r="V267" s="13"/>
       <c r="W267" s="18"/>
-      <c r="X267" s="48"/>
+      <c r="X267" s="13"/>
       <c r="Y267" s="13"/>
       <c r="Z267" s="13"/>
       <c r="AA267" s="13"/>
@@ -13223,7 +13214,7 @@
       <c r="U268" s="13"/>
       <c r="V268" s="13"/>
       <c r="W268" s="18"/>
-      <c r="X268" s="48"/>
+      <c r="X268" s="13"/>
       <c r="Y268" s="13"/>
       <c r="Z268" s="13"/>
       <c r="AA268" s="13"/>
@@ -13253,7 +13244,7 @@
       <c r="U269" s="13"/>
       <c r="V269" s="13"/>
       <c r="W269" s="18"/>
-      <c r="X269" s="48"/>
+      <c r="X269" s="13"/>
       <c r="Y269" s="13"/>
       <c r="Z269" s="13"/>
       <c r="AA269" s="13"/>
@@ -13283,7 +13274,7 @@
       <c r="U270" s="13"/>
       <c r="V270" s="13"/>
       <c r="W270" s="18"/>
-      <c r="X270" s="48"/>
+      <c r="X270" s="13"/>
       <c r="Y270" s="13"/>
       <c r="Z270" s="13"/>
       <c r="AA270" s="13"/>
@@ -13313,7 +13304,7 @@
       <c r="U271" s="13"/>
       <c r="V271" s="13"/>
       <c r="W271" s="18"/>
-      <c r="X271" s="48"/>
+      <c r="X271" s="13"/>
       <c r="Y271" s="13"/>
       <c r="Z271" s="13"/>
       <c r="AA271" s="13"/>
@@ -13343,7 +13334,7 @@
       <c r="U272" s="13"/>
       <c r="V272" s="13"/>
       <c r="W272" s="18"/>
-      <c r="X272" s="48"/>
+      <c r="X272" s="13"/>
       <c r="Y272" s="13"/>
       <c r="Z272" s="13"/>
       <c r="AA272" s="13"/>
@@ -13373,7 +13364,7 @@
       <c r="U273" s="13"/>
       <c r="V273" s="13"/>
       <c r="W273" s="18"/>
-      <c r="X273" s="48"/>
+      <c r="X273" s="13"/>
       <c r="Y273" s="13"/>
       <c r="Z273" s="13"/>
       <c r="AA273" s="13"/>
@@ -13403,7 +13394,7 @@
       <c r="U274" s="13"/>
       <c r="V274" s="13"/>
       <c r="W274" s="18"/>
-      <c r="X274" s="48"/>
+      <c r="X274" s="13"/>
       <c r="Y274" s="13"/>
       <c r="Z274" s="13"/>
       <c r="AA274" s="13"/>
@@ -13433,7 +13424,7 @@
       <c r="U275" s="13"/>
       <c r="V275" s="13"/>
       <c r="W275" s="18"/>
-      <c r="X275" s="48"/>
+      <c r="X275" s="13"/>
       <c r="Y275" s="13"/>
       <c r="Z275" s="13"/>
       <c r="AA275" s="13"/>
@@ -13463,7 +13454,7 @@
       <c r="U276" s="13"/>
       <c r="V276" s="13"/>
       <c r="W276" s="18"/>
-      <c r="X276" s="48"/>
+      <c r="X276" s="13"/>
       <c r="Y276" s="13"/>
       <c r="Z276" s="13"/>
       <c r="AA276" s="13"/>
@@ -13493,7 +13484,7 @@
       <c r="U277" s="13"/>
       <c r="V277" s="13"/>
       <c r="W277" s="18"/>
-      <c r="X277" s="48"/>
+      <c r="X277" s="13"/>
       <c r="Y277" s="13"/>
       <c r="Z277" s="13"/>
       <c r="AA277" s="13"/>
@@ -13523,7 +13514,7 @@
       <c r="U278" s="13"/>
       <c r="V278" s="13"/>
       <c r="W278" s="18"/>
-      <c r="X278" s="48"/>
+      <c r="X278" s="13"/>
       <c r="Y278" s="13"/>
       <c r="Z278" s="13"/>
       <c r="AA278" s="13"/>
@@ -13553,7 +13544,7 @@
       <c r="U279" s="13"/>
       <c r="V279" s="13"/>
       <c r="W279" s="18"/>
-      <c r="X279" s="48"/>
+      <c r="X279" s="13"/>
       <c r="Y279" s="13"/>
       <c r="Z279" s="13"/>
       <c r="AA279" s="13"/>
@@ -13583,7 +13574,7 @@
       <c r="U280" s="13"/>
       <c r="V280" s="13"/>
       <c r="W280" s="18"/>
-      <c r="X280" s="48"/>
+      <c r="X280" s="13"/>
       <c r="Y280" s="13"/>
       <c r="Z280" s="13"/>
       <c r="AA280" s="13"/>
@@ -13613,7 +13604,7 @@
       <c r="U281" s="13"/>
       <c r="V281" s="13"/>
       <c r="W281" s="18"/>
-      <c r="X281" s="48"/>
+      <c r="X281" s="13"/>
       <c r="Y281" s="13"/>
       <c r="Z281" s="13"/>
       <c r="AA281" s="13"/>
@@ -13643,7 +13634,7 @@
       <c r="U282" s="13"/>
       <c r="V282" s="13"/>
       <c r="W282" s="18"/>
-      <c r="X282" s="48"/>
+      <c r="X282" s="13"/>
       <c r="Y282" s="13"/>
       <c r="Z282" s="13"/>
       <c r="AA282" s="13"/>
@@ -13673,7 +13664,7 @@
       <c r="U283" s="13"/>
       <c r="V283" s="13"/>
       <c r="W283" s="18"/>
-      <c r="X283" s="48"/>
+      <c r="X283" s="13"/>
       <c r="Y283" s="13"/>
       <c r="Z283" s="13"/>
       <c r="AA283" s="13"/>
@@ -13703,7 +13694,7 @@
       <c r="U284" s="13"/>
       <c r="V284" s="13"/>
       <c r="W284" s="18"/>
-      <c r="X284" s="48"/>
+      <c r="X284" s="13"/>
       <c r="Y284" s="13"/>
       <c r="Z284" s="13"/>
       <c r="AA284" s="13"/>
@@ -13733,7 +13724,7 @@
       <c r="U285" s="13"/>
       <c r="V285" s="13"/>
       <c r="W285" s="18"/>
-      <c r="X285" s="48"/>
+      <c r="X285" s="13"/>
       <c r="Y285" s="13"/>
       <c r="Z285" s="13"/>
       <c r="AA285" s="13"/>
@@ -13763,7 +13754,7 @@
       <c r="U286" s="13"/>
       <c r="V286" s="13"/>
       <c r="W286" s="18"/>
-      <c r="X286" s="48"/>
+      <c r="X286" s="13"/>
       <c r="Y286" s="13"/>
       <c r="Z286" s="13"/>
       <c r="AA286" s="13"/>
@@ -13793,7 +13784,7 @@
       <c r="U287" s="13"/>
       <c r="V287" s="13"/>
       <c r="W287" s="18"/>
-      <c r="X287" s="48"/>
+      <c r="X287" s="13"/>
       <c r="Y287" s="13"/>
       <c r="Z287" s="13"/>
       <c r="AA287" s="13"/>
@@ -13823,7 +13814,7 @@
       <c r="U288" s="13"/>
       <c r="V288" s="13"/>
       <c r="W288" s="18"/>
-      <c r="X288" s="48"/>
+      <c r="X288" s="13"/>
       <c r="Y288" s="13"/>
       <c r="Z288" s="13"/>
       <c r="AA288" s="13"/>
@@ -13853,7 +13844,7 @@
       <c r="U289" s="13"/>
       <c r="V289" s="13"/>
       <c r="W289" s="18"/>
-      <c r="X289" s="48"/>
+      <c r="X289" s="13"/>
       <c r="Y289" s="13"/>
       <c r="Z289" s="13"/>
       <c r="AA289" s="13"/>
@@ -13883,7 +13874,7 @@
       <c r="U290" s="13"/>
       <c r="V290" s="13"/>
       <c r="W290" s="18"/>
-      <c r="X290" s="48"/>
+      <c r="X290" s="13"/>
       <c r="Y290" s="13"/>
       <c r="Z290" s="13"/>
       <c r="AA290" s="13"/>
@@ -13913,7 +13904,7 @@
       <c r="U291" s="13"/>
       <c r="V291" s="13"/>
       <c r="W291" s="18"/>
-      <c r="X291" s="48"/>
+      <c r="X291" s="13"/>
       <c r="Y291" s="13"/>
       <c r="Z291" s="13"/>
       <c r="AA291" s="13"/>
@@ -13943,7 +13934,7 @@
       <c r="U292" s="13"/>
       <c r="V292" s="13"/>
       <c r="W292" s="18"/>
-      <c r="X292" s="48"/>
+      <c r="X292" s="13"/>
       <c r="Y292" s="13"/>
       <c r="Z292" s="13"/>
       <c r="AA292" s="13"/>
@@ -13973,7 +13964,7 @@
       <c r="U293" s="13"/>
       <c r="V293" s="13"/>
       <c r="W293" s="18"/>
-      <c r="X293" s="48"/>
+      <c r="X293" s="13"/>
       <c r="Y293" s="13"/>
       <c r="Z293" s="13"/>
       <c r="AA293" s="13"/>
@@ -14003,7 +13994,7 @@
       <c r="U294" s="13"/>
       <c r="V294" s="13"/>
       <c r="W294" s="18"/>
-      <c r="X294" s="48"/>
+      <c r="X294" s="13"/>
       <c r="Y294" s="13"/>
       <c r="Z294" s="13"/>
       <c r="AA294" s="13"/>
@@ -14033,7 +14024,7 @@
       <c r="U295" s="13"/>
       <c r="V295" s="13"/>
       <c r="W295" s="18"/>
-      <c r="X295" s="48"/>
+      <c r="X295" s="13"/>
       <c r="Y295" s="13"/>
       <c r="Z295" s="13"/>
       <c r="AA295" s="13"/>
@@ -14063,7 +14054,7 @@
       <c r="U296" s="13"/>
       <c r="V296" s="13"/>
       <c r="W296" s="18"/>
-      <c r="X296" s="48"/>
+      <c r="X296" s="13"/>
       <c r="Y296" s="13"/>
       <c r="Z296" s="13"/>
       <c r="AA296" s="13"/>
@@ -14093,7 +14084,7 @@
       <c r="U297" s="13"/>
       <c r="V297" s="13"/>
       <c r="W297" s="18"/>
-      <c r="X297" s="48"/>
+      <c r="X297" s="13"/>
       <c r="Y297" s="13"/>
       <c r="Z297" s="13"/>
       <c r="AA297" s="13"/>
@@ -14123,7 +14114,7 @@
       <c r="U298" s="13"/>
       <c r="V298" s="13"/>
       <c r="W298" s="18"/>
-      <c r="X298" s="48"/>
+      <c r="X298" s="13"/>
       <c r="Y298" s="13"/>
       <c r="Z298" s="13"/>
       <c r="AA298" s="13"/>
@@ -14153,7 +14144,7 @@
       <c r="U299" s="13"/>
       <c r="V299" s="13"/>
       <c r="W299" s="18"/>
-      <c r="X299" s="48"/>
+      <c r="X299" s="13"/>
       <c r="Y299" s="13"/>
       <c r="Z299" s="13"/>
       <c r="AA299" s="13"/>
@@ -14183,7 +14174,7 @@
       <c r="U300" s="13"/>
       <c r="V300" s="13"/>
       <c r="W300" s="18"/>
-      <c r="X300" s="48"/>
+      <c r="X300" s="13"/>
       <c r="Y300" s="13"/>
       <c r="Z300" s="13"/>
       <c r="AA300" s="13"/>
@@ -14213,7 +14204,7 @@
       <c r="U301" s="13"/>
       <c r="V301" s="13"/>
       <c r="W301" s="18"/>
-      <c r="X301" s="48"/>
+      <c r="X301" s="13"/>
       <c r="Y301" s="13"/>
       <c r="Z301" s="13"/>
       <c r="AA301" s="13"/>
@@ -14243,7 +14234,7 @@
       <c r="U302" s="13"/>
       <c r="V302" s="13"/>
       <c r="W302" s="18"/>
-      <c r="X302" s="48"/>
+      <c r="X302" s="13"/>
       <c r="Y302" s="13"/>
       <c r="Z302" s="13"/>
       <c r="AA302" s="13"/>
@@ -14273,7 +14264,7 @@
       <c r="U303" s="13"/>
       <c r="V303" s="13"/>
       <c r="W303" s="18"/>
-      <c r="X303" s="48"/>
+      <c r="X303" s="13"/>
       <c r="Y303" s="13"/>
       <c r="Z303" s="13"/>
       <c r="AA303" s="13"/>
@@ -14303,7 +14294,7 @@
       <c r="U304" s="13"/>
       <c r="V304" s="13"/>
       <c r="W304" s="18"/>
-      <c r="X304" s="48"/>
+      <c r="X304" s="13"/>
       <c r="Y304" s="13"/>
       <c r="Z304" s="13"/>
       <c r="AA304" s="13"/>
@@ -14333,7 +14324,7 @@
       <c r="U305" s="13"/>
       <c r="V305" s="13"/>
       <c r="W305" s="18"/>
-      <c r="X305" s="48"/>
+      <c r="X305" s="13"/>
       <c r="Y305" s="13"/>
       <c r="Z305" s="13"/>
       <c r="AA305" s="13"/>
@@ -14363,7 +14354,7 @@
       <c r="U306" s="13"/>
       <c r="V306" s="13"/>
       <c r="W306" s="18"/>
-      <c r="X306" s="48"/>
+      <c r="X306" s="13"/>
       <c r="Y306" s="13"/>
       <c r="Z306" s="13"/>
       <c r="AA306" s="13"/>
@@ -14393,7 +14384,7 @@
       <c r="U307" s="13"/>
       <c r="V307" s="13"/>
       <c r="W307" s="18"/>
-      <c r="X307" s="48"/>
+      <c r="X307" s="13"/>
       <c r="Y307" s="13"/>
       <c r="Z307" s="13"/>
       <c r="AA307" s="13"/>
@@ -14423,7 +14414,7 @@
       <c r="U308" s="13"/>
       <c r="V308" s="13"/>
       <c r="W308" s="18"/>
-      <c r="X308" s="48"/>
+      <c r="X308" s="13"/>
       <c r="Y308" s="13"/>
       <c r="Z308" s="13"/>
       <c r="AA308" s="13"/>
@@ -14453,7 +14444,7 @@
       <c r="U309" s="13"/>
       <c r="V309" s="13"/>
       <c r="W309" s="18"/>
-      <c r="X309" s="48"/>
+      <c r="X309" s="13"/>
       <c r="Y309" s="13"/>
       <c r="Z309" s="13"/>
       <c r="AA309" s="13"/>
@@ -14483,7 +14474,7 @@
       <c r="U310" s="13"/>
       <c r="V310" s="13"/>
       <c r="W310" s="18"/>
-      <c r="X310" s="48"/>
+      <c r="X310" s="13"/>
       <c r="Y310" s="13"/>
       <c r="Z310" s="13"/>
       <c r="AA310" s="13"/>
@@ -14513,7 +14504,7 @@
       <c r="U311" s="13"/>
       <c r="V311" s="13"/>
       <c r="W311" s="18"/>
-      <c r="X311" s="48"/>
+      <c r="X311" s="13"/>
       <c r="Y311" s="13"/>
       <c r="Z311" s="13"/>
       <c r="AA311" s="13"/>
@@ -14543,7 +14534,7 @@
       <c r="U312" s="13"/>
       <c r="V312" s="13"/>
       <c r="W312" s="18"/>
-      <c r="X312" s="48"/>
+      <c r="X312" s="13"/>
       <c r="Y312" s="13"/>
       <c r="Z312" s="13"/>
       <c r="AA312" s="13"/>
@@ -14573,7 +14564,7 @@
       <c r="U313" s="13"/>
       <c r="V313" s="13"/>
       <c r="W313" s="18"/>
-      <c r="X313" s="48"/>
+      <c r="X313" s="13"/>
       <c r="Y313" s="13"/>
       <c r="Z313" s="13"/>
       <c r="AA313" s="13"/>
@@ -14603,7 +14594,7 @@
       <c r="U314" s="13"/>
       <c r="V314" s="13"/>
       <c r="W314" s="18"/>
-      <c r="X314" s="48"/>
+      <c r="X314" s="13"/>
       <c r="Y314" s="13"/>
       <c r="Z314" s="13"/>
       <c r="AA314" s="13"/>
@@ -14633,7 +14624,7 @@
       <c r="U315" s="13"/>
       <c r="V315" s="13"/>
       <c r="W315" s="18"/>
-      <c r="X315" s="48"/>
+      <c r="X315" s="13"/>
       <c r="Y315" s="13"/>
       <c r="Z315" s="13"/>
       <c r="AA315" s="13"/>
@@ -14663,7 +14654,7 @@
       <c r="U316" s="13"/>
       <c r="V316" s="13"/>
       <c r="W316" s="18"/>
-      <c r="X316" s="48"/>
+      <c r="X316" s="13"/>
       <c r="Y316" s="13"/>
       <c r="Z316" s="13"/>
       <c r="AA316" s="13"/>
@@ -14693,7 +14684,7 @@
       <c r="U317" s="13"/>
       <c r="V317" s="13"/>
       <c r="W317" s="18"/>
-      <c r="X317" s="48"/>
+      <c r="X317" s="13"/>
       <c r="Y317" s="13"/>
       <c r="Z317" s="13"/>
       <c r="AA317" s="13"/>
@@ -14723,7 +14714,7 @@
       <c r="U318" s="13"/>
       <c r="V318" s="13"/>
       <c r="W318" s="18"/>
-      <c r="X318" s="48"/>
+      <c r="X318" s="13"/>
       <c r="Y318" s="13"/>
       <c r="Z318" s="13"/>
       <c r="AA318" s="13"/>
@@ -14753,7 +14744,7 @@
       <c r="U319" s="13"/>
       <c r="V319" s="13"/>
       <c r="W319" s="18"/>
-      <c r="X319" s="48"/>
+      <c r="X319" s="13"/>
       <c r="Y319" s="13"/>
       <c r="Z319" s="13"/>
       <c r="AA319" s="13"/>
@@ -14783,7 +14774,7 @@
       <c r="U320" s="13"/>
       <c r="V320" s="13"/>
       <c r="W320" s="18"/>
-      <c r="X320" s="48"/>
+      <c r="X320" s="13"/>
       <c r="Y320" s="13"/>
       <c r="Z320" s="13"/>
       <c r="AA320" s="13"/>
@@ -14813,7 +14804,7 @@
       <c r="U321" s="13"/>
       <c r="V321" s="13"/>
       <c r="W321" s="18"/>
-      <c r="X321" s="48"/>
+      <c r="X321" s="13"/>
       <c r="Y321" s="13"/>
       <c r="Z321" s="13"/>
       <c r="AA321" s="13"/>
@@ -14843,7 +14834,7 @@
       <c r="U322" s="13"/>
       <c r="V322" s="13"/>
       <c r="W322" s="18"/>
-      <c r="X322" s="48"/>
+      <c r="X322" s="13"/>
       <c r="Y322" s="13"/>
       <c r="Z322" s="13"/>
       <c r="AA322" s="13"/>
@@ -14873,7 +14864,7 @@
       <c r="U323" s="13"/>
       <c r="V323" s="13"/>
       <c r="W323" s="18"/>
-      <c r="X323" s="48"/>
+      <c r="X323" s="13"/>
       <c r="Y323" s="13"/>
       <c r="Z323" s="13"/>
       <c r="AA323" s="13"/>
@@ -14903,7 +14894,7 @@
       <c r="U324" s="13"/>
       <c r="V324" s="13"/>
       <c r="W324" s="18"/>
-      <c r="X324" s="48"/>
+      <c r="X324" s="13"/>
       <c r="Y324" s="13"/>
       <c r="Z324" s="13"/>
       <c r="AA324" s="13"/>
@@ -14933,7 +14924,7 @@
       <c r="U325" s="13"/>
       <c r="V325" s="13"/>
       <c r="W325" s="18"/>
-      <c r="X325" s="48"/>
+      <c r="X325" s="13"/>
       <c r="Y325" s="13"/>
       <c r="Z325" s="13"/>
       <c r="AA325" s="13"/>
@@ -14963,7 +14954,7 @@
       <c r="U326" s="13"/>
       <c r="V326" s="13"/>
       <c r="W326" s="18"/>
-      <c r="X326" s="48"/>
+      <c r="X326" s="13"/>
       <c r="Y326" s="13"/>
       <c r="Z326" s="13"/>
       <c r="AA326" s="13"/>
@@ -14993,7 +14984,7 @@
       <c r="U327" s="13"/>
       <c r="V327" s="13"/>
       <c r="W327" s="18"/>
-      <c r="X327" s="48"/>
+      <c r="X327" s="13"/>
       <c r="Y327" s="13"/>
       <c r="Z327" s="13"/>
       <c r="AA327" s="13"/>
@@ -15023,7 +15014,7 @@
       <c r="U328" s="13"/>
       <c r="V328" s="13"/>
       <c r="W328" s="18"/>
-      <c r="X328" s="48"/>
+      <c r="X328" s="13"/>
       <c r="Y328" s="13"/>
       <c r="Z328" s="13"/>
       <c r="AA328" s="13"/>
@@ -15053,7 +15044,7 @@
       <c r="U329" s="13"/>
       <c r="V329" s="13"/>
       <c r="W329" s="18"/>
-      <c r="X329" s="48"/>
+      <c r="X329" s="13"/>
       <c r="Y329" s="13"/>
       <c r="Z329" s="13"/>
       <c r="AA329" s="13"/>
@@ -15083,7 +15074,7 @@
       <c r="U330" s="13"/>
       <c r="V330" s="13"/>
       <c r="W330" s="18"/>
-      <c r="X330" s="48"/>
+      <c r="X330" s="13"/>
       <c r="Y330" s="13"/>
       <c r="Z330" s="13"/>
       <c r="AA330" s="13"/>
@@ -15113,7 +15104,7 @@
       <c r="U331" s="13"/>
       <c r="V331" s="13"/>
       <c r="W331" s="18"/>
-      <c r="X331" s="48"/>
+      <c r="X331" s="13"/>
       <c r="Y331" s="13"/>
       <c r="Z331" s="13"/>
       <c r="AA331" s="13"/>
@@ -15143,7 +15134,7 @@
       <c r="U332" s="13"/>
       <c r="V332" s="13"/>
       <c r="W332" s="18"/>
-      <c r="X332" s="48"/>
+      <c r="X332" s="13"/>
       <c r="Y332" s="13"/>
       <c r="Z332" s="13"/>
       <c r="AA332" s="13"/>
@@ -15173,7 +15164,7 @@
       <c r="U333" s="13"/>
       <c r="V333" s="13"/>
       <c r="W333" s="18"/>
-      <c r="X333" s="48"/>
+      <c r="X333" s="13"/>
       <c r="Y333" s="13"/>
       <c r="Z333" s="13"/>
       <c r="AA333" s="13"/>
@@ -15203,7 +15194,7 @@
       <c r="U334" s="13"/>
       <c r="V334" s="13"/>
       <c r="W334" s="18"/>
-      <c r="X334" s="48"/>
+      <c r="X334" s="13"/>
       <c r="Y334" s="13"/>
       <c r="Z334" s="13"/>
       <c r="AA334" s="13"/>
@@ -15233,7 +15224,7 @@
       <c r="U335" s="13"/>
       <c r="V335" s="13"/>
       <c r="W335" s="18"/>
-      <c r="X335" s="48"/>
+      <c r="X335" s="13"/>
       <c r="Y335" s="13"/>
       <c r="Z335" s="13"/>
       <c r="AA335" s="13"/>
@@ -15263,7 +15254,7 @@
       <c r="U336" s="13"/>
       <c r="V336" s="13"/>
       <c r="W336" s="18"/>
-      <c r="X336" s="48"/>
+      <c r="X336" s="13"/>
       <c r="Y336" s="13"/>
       <c r="Z336" s="13"/>
       <c r="AA336" s="13"/>
@@ -15293,7 +15284,7 @@
       <c r="U337" s="13"/>
       <c r="V337" s="13"/>
       <c r="W337" s="18"/>
-      <c r="X337" s="48"/>
+      <c r="X337" s="13"/>
       <c r="Y337" s="13"/>
       <c r="Z337" s="13"/>
       <c r="AA337" s="13"/>
@@ -15323,7 +15314,7 @@
       <c r="U338" s="13"/>
       <c r="V338" s="13"/>
       <c r="W338" s="18"/>
-      <c r="X338" s="48"/>
+      <c r="X338" s="13"/>
       <c r="Y338" s="13"/>
       <c r="Z338" s="13"/>
       <c r="AA338" s="13"/>
@@ -15353,7 +15344,7 @@
       <c r="U339" s="13"/>
       <c r="V339" s="13"/>
       <c r="W339" s="18"/>
-      <c r="X339" s="48"/>
+      <c r="X339" s="13"/>
       <c r="Y339" s="13"/>
       <c r="Z339" s="13"/>
       <c r="AA339" s="13"/>
@@ -15383,7 +15374,7 @@
       <c r="U340" s="13"/>
       <c r="V340" s="13"/>
       <c r="W340" s="18"/>
-      <c r="X340" s="48"/>
+      <c r="X340" s="13"/>
       <c r="Y340" s="13"/>
       <c r="Z340" s="13"/>
       <c r="AA340" s="13"/>
@@ -15413,7 +15404,7 @@
       <c r="U341" s="13"/>
       <c r="V341" s="13"/>
       <c r="W341" s="18"/>
-      <c r="X341" s="48"/>
+      <c r="X341" s="13"/>
       <c r="Y341" s="13"/>
       <c r="Z341" s="13"/>
       <c r="AA341" s="13"/>
@@ -15443,7 +15434,7 @@
       <c r="U342" s="13"/>
       <c r="V342" s="13"/>
       <c r="W342" s="18"/>
-      <c r="X342" s="48"/>
+      <c r="X342" s="13"/>
       <c r="Y342" s="13"/>
       <c r="Z342" s="13"/>
       <c r="AA342" s="13"/>
@@ -15473,7 +15464,7 @@
       <c r="U343" s="13"/>
       <c r="V343" s="13"/>
       <c r="W343" s="18"/>
-      <c r="X343" s="48"/>
+      <c r="X343" s="13"/>
       <c r="Y343" s="13"/>
       <c r="Z343" s="13"/>
       <c r="AA343" s="13"/>
@@ -15503,7 +15494,7 @@
       <c r="U344" s="13"/>
       <c r="V344" s="13"/>
       <c r="W344" s="18"/>
-      <c r="X344" s="48"/>
+      <c r="X344" s="13"/>
       <c r="Y344" s="13"/>
       <c r="Z344" s="13"/>
       <c r="AA344" s="13"/>
@@ -15533,7 +15524,7 @@
       <c r="U345" s="13"/>
       <c r="V345" s="13"/>
       <c r="W345" s="18"/>
-      <c r="X345" s="48"/>
+      <c r="X345" s="13"/>
       <c r="Y345" s="13"/>
       <c r="Z345" s="13"/>
       <c r="AA345" s="13"/>
@@ -15563,7 +15554,7 @@
       <c r="U346" s="13"/>
       <c r="V346" s="13"/>
       <c r="W346" s="18"/>
-      <c r="X346" s="48"/>
+      <c r="X346" s="13"/>
       <c r="Y346" s="13"/>
       <c r="Z346" s="13"/>
       <c r="AA346" s="13"/>
@@ -15593,7 +15584,7 @@
       <c r="U347" s="13"/>
       <c r="V347" s="13"/>
       <c r="W347" s="18"/>
-      <c r="X347" s="48"/>
+      <c r="X347" s="13"/>
       <c r="Y347" s="13"/>
       <c r="Z347" s="13"/>
       <c r="AA347" s="13"/>
@@ -15623,7 +15614,7 @@
       <c r="U348" s="13"/>
       <c r="V348" s="13"/>
       <c r="W348" s="18"/>
-      <c r="X348" s="48"/>
+      <c r="X348" s="13"/>
       <c r="Y348" s="13"/>
       <c r="Z348" s="13"/>
       <c r="AA348" s="13"/>
@@ -15653,7 +15644,7 @@
       <c r="U349" s="13"/>
       <c r="V349" s="13"/>
       <c r="W349" s="18"/>
-      <c r="X349" s="48"/>
+      <c r="X349" s="13"/>
       <c r="Y349" s="13"/>
       <c r="Z349" s="13"/>
       <c r="AA349" s="13"/>
@@ -15683,7 +15674,7 @@
       <c r="U350" s="13"/>
       <c r="V350" s="13"/>
       <c r="W350" s="18"/>
-      <c r="X350" s="48"/>
+      <c r="X350" s="13"/>
       <c r="Y350" s="13"/>
       <c r="Z350" s="13"/>
       <c r="AA350" s="13"/>
@@ -15713,7 +15704,7 @@
       <c r="U351" s="13"/>
       <c r="V351" s="13"/>
       <c r="W351" s="18"/>
-      <c r="X351" s="48"/>
+      <c r="X351" s="13"/>
       <c r="Y351" s="13"/>
       <c r="Z351" s="13"/>
       <c r="AA351" s="13"/>
@@ -15743,7 +15734,7 @@
       <c r="U352" s="13"/>
       <c r="V352" s="13"/>
       <c r="W352" s="18"/>
-      <c r="X352" s="48"/>
+      <c r="X352" s="13"/>
       <c r="Y352" s="13"/>
       <c r="Z352" s="13"/>
       <c r="AA352" s="13"/>
@@ -15773,7 +15764,7 @@
       <c r="U353" s="13"/>
       <c r="V353" s="13"/>
       <c r="W353" s="18"/>
-      <c r="X353" s="48"/>
+      <c r="X353" s="13"/>
       <c r="Y353" s="13"/>
       <c r="Z353" s="13"/>
       <c r="AA353" s="13"/>
@@ -15803,7 +15794,7 @@
       <c r="U354" s="13"/>
       <c r="V354" s="13"/>
       <c r="W354" s="18"/>
-      <c r="X354" s="48"/>
+      <c r="X354" s="13"/>
       <c r="Y354" s="13"/>
       <c r="Z354" s="13"/>
       <c r="AA354" s="13"/>
@@ -15833,7 +15824,7 @@
       <c r="U355" s="13"/>
       <c r="V355" s="13"/>
       <c r="W355" s="18"/>
-      <c r="X355" s="48"/>
+      <c r="X355" s="13"/>
       <c r="Y355" s="13"/>
       <c r="Z355" s="13"/>
       <c r="AA355" s="13"/>
@@ -15863,7 +15854,7 @@
       <c r="U356" s="13"/>
       <c r="V356" s="13"/>
       <c r="W356" s="18"/>
-      <c r="X356" s="48"/>
+      <c r="X356" s="13"/>
       <c r="Y356" s="13"/>
       <c r="Z356" s="13"/>
       <c r="AA356" s="13"/>
@@ -15893,7 +15884,7 @@
       <c r="U357" s="13"/>
       <c r="V357" s="13"/>
       <c r="W357" s="18"/>
-      <c r="X357" s="48"/>
+      <c r="X357" s="13"/>
       <c r="Y357" s="13"/>
       <c r="Z357" s="13"/>
       <c r="AA357" s="13"/>
@@ -15923,7 +15914,7 @@
       <c r="U358" s="13"/>
       <c r="V358" s="13"/>
       <c r="W358" s="18"/>
-      <c r="X358" s="48"/>
+      <c r="X358" s="13"/>
       <c r="Y358" s="13"/>
       <c r="Z358" s="13"/>
       <c r="AA358" s="13"/>
@@ -15953,7 +15944,7 @@
       <c r="U359" s="13"/>
       <c r="V359" s="13"/>
       <c r="W359" s="18"/>
-      <c r="X359" s="48"/>
+      <c r="X359" s="13"/>
       <c r="Y359" s="13"/>
       <c r="Z359" s="13"/>
       <c r="AA359" s="13"/>
@@ -15983,7 +15974,7 @@
       <c r="U360" s="13"/>
       <c r="V360" s="13"/>
       <c r="W360" s="18"/>
-      <c r="X360" s="48"/>
+      <c r="X360" s="13"/>
       <c r="Y360" s="13"/>
       <c r="Z360" s="13"/>
       <c r="AA360" s="13"/>
@@ -16013,7 +16004,7 @@
       <c r="U361" s="13"/>
       <c r="V361" s="13"/>
       <c r="W361" s="18"/>
-      <c r="X361" s="48"/>
+      <c r="X361" s="13"/>
       <c r="Y361" s="13"/>
       <c r="Z361" s="13"/>
       <c r="AA361" s="13"/>
@@ -16043,7 +16034,7 @@
       <c r="U362" s="13"/>
       <c r="V362" s="13"/>
       <c r="W362" s="18"/>
-      <c r="X362" s="48"/>
+      <c r="X362" s="13"/>
       <c r="Y362" s="13"/>
       <c r="Z362" s="13"/>
       <c r="AA362" s="13"/>
@@ -16073,7 +16064,7 @@
       <c r="U363" s="13"/>
       <c r="V363" s="13"/>
       <c r="W363" s="18"/>
-      <c r="X363" s="48"/>
+      <c r="X363" s="13"/>
       <c r="Y363" s="13"/>
       <c r="Z363" s="13"/>
       <c r="AA363" s="13"/>
@@ -16103,7 +16094,7 @@
       <c r="U364" s="13"/>
       <c r="V364" s="13"/>
       <c r="W364" s="18"/>
-      <c r="X364" s="48"/>
+      <c r="X364" s="13"/>
       <c r="Y364" s="13"/>
       <c r="Z364" s="13"/>
       <c r="AA364" s="13"/>
@@ -16133,7 +16124,7 @@
       <c r="U365" s="13"/>
       <c r="V365" s="13"/>
       <c r="W365" s="18"/>
-      <c r="X365" s="48"/>
+      <c r="X365" s="13"/>
       <c r="Y365" s="13"/>
       <c r="Z365" s="13"/>
       <c r="AA365" s="13"/>
@@ -16163,7 +16154,7 @@
       <c r="U366" s="13"/>
       <c r="V366" s="13"/>
       <c r="W366" s="18"/>
-      <c r="X366" s="48"/>
+      <c r="X366" s="13"/>
       <c r="Y366" s="13"/>
       <c r="Z366" s="13"/>
       <c r="AA366" s="13"/>
@@ -16193,7 +16184,7 @@
       <c r="U367" s="13"/>
       <c r="V367" s="13"/>
       <c r="W367" s="18"/>
-      <c r="X367" s="48"/>
+      <c r="X367" s="13"/>
       <c r="Y367" s="13"/>
       <c r="Z367" s="13"/>
       <c r="AA367" s="13"/>
@@ -16223,7 +16214,7 @@
       <c r="U368" s="13"/>
       <c r="V368" s="13"/>
       <c r="W368" s="18"/>
-      <c r="X368" s="48"/>
+      <c r="X368" s="13"/>
       <c r="Y368" s="13"/>
       <c r="Z368" s="13"/>
       <c r="AA368" s="13"/>
@@ -16253,7 +16244,7 @@
       <c r="U369" s="13"/>
       <c r="V369" s="13"/>
       <c r="W369" s="18"/>
-      <c r="X369" s="48"/>
+      <c r="X369" s="13"/>
       <c r="Y369" s="13"/>
       <c r="Z369" s="13"/>
       <c r="AA369" s="13"/>
@@ -16283,7 +16274,7 @@
       <c r="U370" s="13"/>
       <c r="V370" s="13"/>
       <c r="W370" s="18"/>
-      <c r="X370" s="48"/>
+      <c r="X370" s="13"/>
       <c r="Y370" s="13"/>
       <c r="Z370" s="13"/>
       <c r="AA370" s="13"/>
@@ -16313,7 +16304,7 @@
       <c r="U371" s="13"/>
       <c r="V371" s="13"/>
       <c r="W371" s="18"/>
-      <c r="X371" s="48"/>
+      <c r="X371" s="13"/>
       <c r="Y371" s="13"/>
       <c r="Z371" s="13"/>
       <c r="AA371" s="13"/>
@@ -16343,7 +16334,7 @@
       <c r="U372" s="13"/>
       <c r="V372" s="13"/>
       <c r="W372" s="18"/>
-      <c r="X372" s="48"/>
+      <c r="X372" s="13"/>
       <c r="Y372" s="13"/>
       <c r="Z372" s="13"/>
       <c r="AA372" s="13"/>
@@ -16373,7 +16364,7 @@
       <c r="U373" s="13"/>
       <c r="V373" s="13"/>
       <c r="W373" s="18"/>
-      <c r="X373" s="48"/>
+      <c r="X373" s="13"/>
       <c r="Y373" s="13"/>
       <c r="Z373" s="13"/>
       <c r="AA373" s="13"/>
@@ -16403,7 +16394,7 @@
       <c r="U374" s="13"/>
       <c r="V374" s="13"/>
       <c r="W374" s="18"/>
-      <c r="X374" s="48"/>
+      <c r="X374" s="13"/>
       <c r="Y374" s="13"/>
       <c r="Z374" s="13"/>
       <c r="AA374" s="13"/>
@@ -16433,7 +16424,7 @@
       <c r="U375" s="13"/>
       <c r="V375" s="13"/>
       <c r="W375" s="18"/>
-      <c r="X375" s="48"/>
+      <c r="X375" s="13"/>
       <c r="Y375" s="13"/>
       <c r="Z375" s="13"/>
       <c r="AA375" s="13"/>
@@ -16463,7 +16454,7 @@
       <c r="U376" s="13"/>
       <c r="V376" s="13"/>
       <c r="W376" s="18"/>
-      <c r="X376" s="48"/>
+      <c r="X376" s="13"/>
       <c r="Y376" s="13"/>
       <c r="Z376" s="13"/>
       <c r="AA376" s="13"/>
@@ -16493,7 +16484,7 @@
       <c r="U377" s="13"/>
       <c r="V377" s="13"/>
       <c r="W377" s="18"/>
-      <c r="X377" s="48"/>
+      <c r="X377" s="13"/>
       <c r="Y377" s="13"/>
       <c r="Z377" s="13"/>
       <c r="AA377" s="13"/>
@@ -16523,7 +16514,7 @@
       <c r="U378" s="13"/>
       <c r="V378" s="13"/>
       <c r="W378" s="18"/>
-      <c r="X378" s="48"/>
+      <c r="X378" s="13"/>
       <c r="Y378" s="13"/>
       <c r="Z378" s="13"/>
       <c r="AA378" s="13"/>
@@ -16553,7 +16544,7 @@
       <c r="U379" s="13"/>
       <c r="V379" s="13"/>
       <c r="W379" s="18"/>
-      <c r="X379" s="48"/>
+      <c r="X379" s="13"/>
       <c r="Y379" s="13"/>
       <c r="Z379" s="13"/>
       <c r="AA379" s="13"/>
@@ -16583,7 +16574,7 @@
       <c r="U380" s="13"/>
       <c r="V380" s="13"/>
       <c r="W380" s="18"/>
-      <c r="X380" s="48"/>
+      <c r="X380" s="13"/>
       <c r="Y380" s="13"/>
       <c r="Z380" s="13"/>
       <c r="AA380" s="13"/>
@@ -16613,7 +16604,7 @@
       <c r="U381" s="13"/>
       <c r="V381" s="13"/>
       <c r="W381" s="18"/>
-      <c r="X381" s="48"/>
+      <c r="X381" s="13"/>
       <c r="Y381" s="13"/>
       <c r="Z381" s="13"/>
       <c r="AA381" s="13"/>
@@ -16643,7 +16634,7 @@
       <c r="U382" s="13"/>
       <c r="V382" s="13"/>
       <c r="W382" s="18"/>
-      <c r="X382" s="48"/>
+      <c r="X382" s="13"/>
       <c r="Y382" s="13"/>
       <c r="Z382" s="13"/>
       <c r="AA382" s="13"/>
@@ -16673,7 +16664,7 @@
       <c r="U383" s="13"/>
       <c r="V383" s="13"/>
       <c r="W383" s="18"/>
-      <c r="X383" s="48"/>
+      <c r="X383" s="13"/>
       <c r="Y383" s="13"/>
       <c r="Z383" s="13"/>
       <c r="AA383" s="13"/>
@@ -16703,7 +16694,7 @@
       <c r="U384" s="13"/>
       <c r="V384" s="13"/>
       <c r="W384" s="18"/>
-      <c r="X384" s="48"/>
+      <c r="X384" s="13"/>
       <c r="Y384" s="13"/>
       <c r="Z384" s="13"/>
       <c r="AA384" s="13"/>
@@ -16733,7 +16724,7 @@
       <c r="U385" s="13"/>
       <c r="V385" s="13"/>
       <c r="W385" s="18"/>
-      <c r="X385" s="48"/>
+      <c r="X385" s="13"/>
       <c r="Y385" s="13"/>
       <c r="Z385" s="13"/>
       <c r="AA385" s="13"/>
@@ -16763,7 +16754,7 @@
       <c r="U386" s="13"/>
       <c r="V386" s="13"/>
       <c r="W386" s="18"/>
-      <c r="X386" s="48"/>
+      <c r="X386" s="13"/>
       <c r="Y386" s="13"/>
       <c r="Z386" s="13"/>
       <c r="AA386" s="13"/>
@@ -16793,7 +16784,7 @@
       <c r="U387" s="13"/>
       <c r="V387" s="13"/>
       <c r="W387" s="18"/>
-      <c r="X387" s="48"/>
+      <c r="X387" s="13"/>
       <c r="Y387" s="13"/>
       <c r="Z387" s="13"/>
       <c r="AA387" s="13"/>
@@ -16823,7 +16814,7 @@
       <c r="U388" s="13"/>
       <c r="V388" s="13"/>
       <c r="W388" s="18"/>
-      <c r="X388" s="48"/>
+      <c r="X388" s="13"/>
       <c r="Y388" s="13"/>
       <c r="Z388" s="13"/>
       <c r="AA388" s="13"/>
@@ -16853,7 +16844,7 @@
       <c r="U389" s="13"/>
       <c r="V389" s="13"/>
       <c r="W389" s="18"/>
-      <c r="X389" s="48"/>
+      <c r="X389" s="13"/>
       <c r="Y389" s="13"/>
       <c r="Z389" s="13"/>
       <c r="AA389" s="13"/>
@@ -16883,7 +16874,7 @@
       <c r="U390" s="13"/>
       <c r="V390" s="13"/>
       <c r="W390" s="18"/>
-      <c r="X390" s="48"/>
+      <c r="X390" s="13"/>
       <c r="Y390" s="13"/>
       <c r="Z390" s="13"/>
       <c r="AA390" s="13"/>
@@ -16913,7 +16904,7 @@
       <c r="U391" s="13"/>
       <c r="V391" s="13"/>
       <c r="W391" s="18"/>
-      <c r="X391" s="48"/>
+      <c r="X391" s="13"/>
       <c r="Y391" s="13"/>
       <c r="Z391" s="13"/>
       <c r="AA391" s="13"/>
@@ -16943,7 +16934,7 @@
       <c r="U392" s="13"/>
       <c r="V392" s="13"/>
       <c r="W392" s="18"/>
-      <c r="X392" s="48"/>
+      <c r="X392" s="13"/>
       <c r="Y392" s="13"/>
       <c r="Z392" s="13"/>
       <c r="AA392" s="13"/>
@@ -16973,7 +16964,7 @@
       <c r="U393" s="13"/>
       <c r="V393" s="13"/>
       <c r="W393" s="18"/>
-      <c r="X393" s="48"/>
+      <c r="X393" s="13"/>
       <c r="Y393" s="13"/>
       <c r="Z393" s="13"/>
       <c r="AA393" s="13"/>
@@ -17003,7 +16994,7 @@
       <c r="U394" s="13"/>
       <c r="V394" s="13"/>
       <c r="W394" s="18"/>
-      <c r="X394" s="48"/>
+      <c r="X394" s="13"/>
       <c r="Y394" s="13"/>
       <c r="Z394" s="13"/>
       <c r="AA394" s="13"/>
@@ -17033,7 +17024,7 @@
       <c r="U395" s="13"/>
       <c r="V395" s="13"/>
       <c r="W395" s="18"/>
-      <c r="X395" s="48"/>
+      <c r="X395" s="13"/>
       <c r="Y395" s="13"/>
       <c r="Z395" s="13"/>
       <c r="AA395" s="13"/>
@@ -17063,7 +17054,7 @@
       <c r="U396" s="13"/>
       <c r="V396" s="13"/>
       <c r="W396" s="18"/>
-      <c r="X396" s="48"/>
+      <c r="X396" s="13"/>
       <c r="Y396" s="13"/>
       <c r="Z396" s="13"/>
       <c r="AA396" s="13"/>
@@ -17093,7 +17084,7 @@
       <c r="U397" s="13"/>
       <c r="V397" s="13"/>
       <c r="W397" s="18"/>
-      <c r="X397" s="48"/>
+      <c r="X397" s="13"/>
       <c r="Y397" s="13"/>
       <c r="Z397" s="13"/>
       <c r="AA397" s="13"/>
@@ -17123,7 +17114,7 @@
       <c r="U398" s="13"/>
       <c r="V398" s="13"/>
       <c r="W398" s="18"/>
-      <c r="X398" s="48"/>
+      <c r="X398" s="13"/>
       <c r="Y398" s="13"/>
       <c r="Z398" s="13"/>
       <c r="AA398" s="13"/>
@@ -17153,7 +17144,7 @@
       <c r="U399" s="13"/>
       <c r="V399" s="13"/>
       <c r="W399" s="18"/>
-      <c r="X399" s="48"/>
+      <c r="X399" s="13"/>
       <c r="Y399" s="13"/>
       <c r="Z399" s="13"/>
       <c r="AA399" s="13"/>
@@ -17183,7 +17174,7 @@
       <c r="U400" s="13"/>
       <c r="V400" s="13"/>
       <c r="W400" s="18"/>
-      <c r="X400" s="48"/>
+      <c r="X400" s="13"/>
       <c r="Y400" s="13"/>
       <c r="Z400" s="13"/>
       <c r="AA400" s="13"/>
@@ -17213,7 +17204,7 @@
       <c r="U401" s="13"/>
       <c r="V401" s="13"/>
       <c r="W401" s="18"/>
-      <c r="X401" s="48"/>
+      <c r="X401" s="13"/>
       <c r="Y401" s="13"/>
       <c r="Z401" s="13"/>
       <c r="AA401" s="13"/>
@@ -17243,7 +17234,7 @@
       <c r="U402" s="13"/>
       <c r="V402" s="13"/>
       <c r="W402" s="18"/>
-      <c r="X402" s="48"/>
+      <c r="X402" s="13"/>
       <c r="Y402" s="13"/>
       <c r="Z402" s="13"/>
       <c r="AA402" s="13"/>
@@ -17273,7 +17264,7 @@
       <c r="U403" s="13"/>
       <c r="V403" s="13"/>
       <c r="W403" s="18"/>
-      <c r="X403" s="48"/>
+      <c r="X403" s="13"/>
       <c r="Y403" s="13"/>
       <c r="Z403" s="13"/>
       <c r="AA403" s="13"/>
@@ -17303,7 +17294,7 @@
       <c r="U404" s="13"/>
       <c r="V404" s="13"/>
       <c r="W404" s="18"/>
-      <c r="X404" s="48"/>
+      <c r="X404" s="13"/>
       <c r="Y404" s="13"/>
       <c r="Z404" s="13"/>
       <c r="AA404" s="13"/>
@@ -17333,7 +17324,7 @@
       <c r="U405" s="13"/>
       <c r="V405" s="13"/>
       <c r="W405" s="18"/>
-      <c r="X405" s="48"/>
+      <c r="X405" s="13"/>
       <c r="Y405" s="13"/>
       <c r="Z405" s="13"/>
       <c r="AA405" s="13"/>
@@ -17363,7 +17354,7 @@
       <c r="U406" s="13"/>
       <c r="V406" s="13"/>
       <c r="W406" s="18"/>
-      <c r="X406" s="48"/>
+      <c r="X406" s="13"/>
       <c r="Y406" s="13"/>
       <c r="Z406" s="13"/>
       <c r="AA406" s="13"/>
@@ -17393,7 +17384,7 @@
       <c r="U407" s="13"/>
       <c r="V407" s="13"/>
       <c r="W407" s="18"/>
-      <c r="X407" s="48"/>
+      <c r="X407" s="13"/>
       <c r="Y407" s="13"/>
       <c r="Z407" s="13"/>
       <c r="AA407" s="13"/>
@@ -17423,7 +17414,7 @@
       <c r="U408" s="13"/>
       <c r="V408" s="13"/>
       <c r="W408" s="18"/>
-      <c r="X408" s="48"/>
+      <c r="X408" s="13"/>
       <c r="Y408" s="13"/>
       <c r="Z408" s="13"/>
       <c r="AA408" s="13"/>
@@ -17453,7 +17444,7 @@
       <c r="U409" s="13"/>
       <c r="V409" s="13"/>
       <c r="W409" s="18"/>
-      <c r="X409" s="48"/>
+      <c r="X409" s="13"/>
       <c r="Y409" s="13"/>
       <c r="Z409" s="13"/>
       <c r="AA409" s="13"/>
@@ -17483,7 +17474,7 @@
       <c r="U410" s="13"/>
       <c r="V410" s="13"/>
       <c r="W410" s="18"/>
-      <c r="X410" s="48"/>
+      <c r="X410" s="13"/>
       <c r="Y410" s="13"/>
       <c r="Z410" s="13"/>
       <c r="AA410" s="13"/>
@@ -17513,7 +17504,7 @@
       <c r="U411" s="13"/>
       <c r="V411" s="13"/>
       <c r="W411" s="18"/>
-      <c r="X411" s="48"/>
+      <c r="X411" s="13"/>
       <c r="Y411" s="13"/>
       <c r="Z411" s="13"/>
       <c r="AA411" s="13"/>
@@ -17543,7 +17534,7 @@
       <c r="U412" s="13"/>
       <c r="V412" s="13"/>
       <c r="W412" s="18"/>
-      <c r="X412" s="48"/>
+      <c r="X412" s="13"/>
       <c r="Y412" s="13"/>
       <c r="Z412" s="13"/>
       <c r="AA412" s="13"/>
@@ -17573,7 +17564,7 @@
       <c r="U413" s="13"/>
       <c r="V413" s="13"/>
       <c r="W413" s="18"/>
-      <c r="X413" s="48"/>
+      <c r="X413" s="13"/>
       <c r="Y413" s="13"/>
       <c r="Z413" s="13"/>
       <c r="AA413" s="13"/>
@@ -17603,7 +17594,7 @@
       <c r="U414" s="13"/>
       <c r="V414" s="13"/>
       <c r="W414" s="18"/>
-      <c r="X414" s="48"/>
+      <c r="X414" s="13"/>
       <c r="Y414" s="13"/>
       <c r="Z414" s="13"/>
       <c r="AA414" s="13"/>
@@ -17633,7 +17624,7 @@
       <c r="U415" s="13"/>
       <c r="V415" s="13"/>
       <c r="W415" s="18"/>
-      <c r="X415" s="48"/>
+      <c r="X415" s="13"/>
       <c r="Y415" s="13"/>
       <c r="Z415" s="13"/>
       <c r="AA415" s="13"/>
@@ -17663,7 +17654,7 @@
       <c r="U416" s="13"/>
       <c r="V416" s="13"/>
       <c r="W416" s="18"/>
-      <c r="X416" s="48"/>
+      <c r="X416" s="13"/>
       <c r="Y416" s="13"/>
       <c r="Z416" s="13"/>
       <c r="AA416" s="13"/>
@@ -17693,7 +17684,7 @@
       <c r="U417" s="13"/>
       <c r="V417" s="13"/>
       <c r="W417" s="18"/>
-      <c r="X417" s="48"/>
+      <c r="X417" s="13"/>
       <c r="Y417" s="13"/>
       <c r="Z417" s="13"/>
       <c r="AA417" s="13"/>
@@ -17723,7 +17714,7 @@
       <c r="U418" s="13"/>
       <c r="V418" s="13"/>
       <c r="W418" s="18"/>
-      <c r="X418" s="48"/>
+      <c r="X418" s="13"/>
       <c r="Y418" s="13"/>
       <c r="Z418" s="13"/>
       <c r="AA418" s="13"/>
@@ -17753,7 +17744,7 @@
       <c r="U419" s="13"/>
       <c r="V419" s="13"/>
       <c r="W419" s="18"/>
-      <c r="X419" s="48"/>
+      <c r="X419" s="13"/>
       <c r="Y419" s="13"/>
       <c r="Z419" s="13"/>
       <c r="AA419" s="13"/>
@@ -17783,7 +17774,7 @@
       <c r="U420" s="13"/>
       <c r="V420" s="13"/>
       <c r="W420" s="18"/>
-      <c r="X420" s="48"/>
+      <c r="X420" s="13"/>
       <c r="Y420" s="13"/>
       <c r="Z420" s="13"/>
       <c r="AA420" s="13"/>
@@ -17813,7 +17804,7 @@
       <c r="U421" s="13"/>
       <c r="V421" s="13"/>
       <c r="W421" s="18"/>
-      <c r="X421" s="48"/>
+      <c r="X421" s="13"/>
       <c r="Y421" s="13"/>
       <c r="Z421" s="13"/>
       <c r="AA421" s="13"/>
@@ -17843,7 +17834,7 @@
       <c r="U422" s="13"/>
       <c r="V422" s="13"/>
       <c r="W422" s="18"/>
-      <c r="X422" s="48"/>
+      <c r="X422" s="13"/>
       <c r="Y422" s="13"/>
       <c r="Z422" s="13"/>
       <c r="AA422" s="13"/>
@@ -17873,7 +17864,7 @@
       <c r="U423" s="13"/>
       <c r="V423" s="13"/>
       <c r="W423" s="18"/>
-      <c r="X423" s="48"/>
+      <c r="X423" s="13"/>
       <c r="Y423" s="13"/>
       <c r="Z423" s="13"/>
       <c r="AA423" s="13"/>
@@ -17903,7 +17894,7 @@
       <c r="U424" s="13"/>
       <c r="V424" s="13"/>
       <c r="W424" s="18"/>
-      <c r="X424" s="48"/>
+      <c r="X424" s="13"/>
       <c r="Y424" s="13"/>
       <c r="Z424" s="13"/>
       <c r="AA424" s="13"/>
@@ -17933,7 +17924,7 @@
       <c r="U425" s="13"/>
       <c r="V425" s="13"/>
       <c r="W425" s="18"/>
-      <c r="X425" s="48"/>
+      <c r="X425" s="13"/>
       <c r="Y425" s="13"/>
       <c r="Z425" s="13"/>
       <c r="AA425" s="13"/>
@@ -17963,7 +17954,7 @@
       <c r="U426" s="13"/>
       <c r="V426" s="13"/>
       <c r="W426" s="18"/>
-      <c r="X426" s="48"/>
+      <c r="X426" s="13"/>
       <c r="Y426" s="13"/>
       <c r="Z426" s="13"/>
       <c r="AA426" s="13"/>
@@ -17993,7 +17984,7 @@
       <c r="U427" s="13"/>
       <c r="V427" s="13"/>
       <c r="W427" s="18"/>
-      <c r="X427" s="48"/>
+      <c r="X427" s="13"/>
       <c r="Y427" s="13"/>
       <c r="Z427" s="13"/>
       <c r="AA427" s="13"/>
@@ -18023,7 +18014,7 @@
       <c r="U428" s="13"/>
       <c r="V428" s="13"/>
       <c r="W428" s="18"/>
-      <c r="X428" s="48"/>
+      <c r="X428" s="13"/>
       <c r="Y428" s="13"/>
       <c r="Z428" s="13"/>
       <c r="AA428" s="13"/>
@@ -18053,7 +18044,7 @@
       <c r="U429" s="13"/>
       <c r="V429" s="13"/>
       <c r="W429" s="18"/>
-      <c r="X429" s="48"/>
+      <c r="X429" s="13"/>
       <c r="Y429" s="13"/>
       <c r="Z429" s="13"/>
       <c r="AA429" s="13"/>
@@ -18083,7 +18074,7 @@
       <c r="U430" s="13"/>
       <c r="V430" s="13"/>
       <c r="W430" s="18"/>
-      <c r="X430" s="48"/>
+      <c r="X430" s="13"/>
       <c r="Y430" s="13"/>
       <c r="Z430" s="13"/>
       <c r="AA430" s="13"/>
@@ -18113,7 +18104,7 @@
       <c r="U431" s="13"/>
       <c r="V431" s="13"/>
       <c r="W431" s="18"/>
-      <c r="X431" s="48"/>
+      <c r="X431" s="13"/>
       <c r="Y431" s="13"/>
       <c r="Z431" s="13"/>
       <c r="AA431" s="13"/>
@@ -18143,7 +18134,7 @@
       <c r="U432" s="13"/>
       <c r="V432" s="13"/>
       <c r="W432" s="18"/>
-      <c r="X432" s="48"/>
+      <c r="X432" s="13"/>
       <c r="Y432" s="13"/>
       <c r="Z432" s="13"/>
       <c r="AA432" s="13"/>
@@ -18173,7 +18164,7 @@
       <c r="U433" s="13"/>
       <c r="V433" s="13"/>
       <c r="W433" s="18"/>
-      <c r="X433" s="48"/>
+      <c r="X433" s="13"/>
       <c r="Y433" s="13"/>
       <c r="Z433" s="13"/>
       <c r="AA433" s="13"/>
@@ -18203,7 +18194,7 @@
       <c r="U434" s="13"/>
       <c r="V434" s="13"/>
       <c r="W434" s="18"/>
-      <c r="X434" s="48"/>
+      <c r="X434" s="13"/>
       <c r="Y434" s="13"/>
       <c r="Z434" s="13"/>
       <c r="AA434" s="13"/>
@@ -18233,7 +18224,7 @@
       <c r="U435" s="13"/>
       <c r="V435" s="13"/>
       <c r="W435" s="18"/>
-      <c r="X435" s="48"/>
+      <c r="X435" s="13"/>
       <c r="Y435" s="13"/>
       <c r="Z435" s="13"/>
       <c r="AA435" s="13"/>
@@ -18263,7 +18254,7 @@
       <c r="U436" s="13"/>
       <c r="V436" s="13"/>
       <c r="W436" s="18"/>
-      <c r="X436" s="48"/>
+      <c r="X436" s="13"/>
       <c r="Y436" s="13"/>
       <c r="Z436" s="13"/>
       <c r="AA436" s="13"/>
@@ -18293,7 +18284,7 @@
       <c r="U437" s="13"/>
       <c r="V437" s="13"/>
       <c r="W437" s="18"/>
-      <c r="X437" s="48"/>
+      <c r="X437" s="13"/>
       <c r="Y437" s="13"/>
       <c r="Z437" s="13"/>
       <c r="AA437" s="13"/>
@@ -18323,7 +18314,7 @@
       <c r="U438" s="13"/>
       <c r="V438" s="13"/>
       <c r="W438" s="18"/>
-      <c r="X438" s="48"/>
+      <c r="X438" s="13"/>
       <c r="Y438" s="13"/>
       <c r="Z438" s="13"/>
       <c r="AA438" s="13"/>
@@ -18353,7 +18344,7 @@
       <c r="U439" s="13"/>
       <c r="V439" s="13"/>
       <c r="W439" s="18"/>
-      <c r="X439" s="48"/>
+      <c r="X439" s="13"/>
       <c r="Y439" s="13"/>
       <c r="Z439" s="13"/>
       <c r="AA439" s="13"/>
@@ -18383,7 +18374,7 @@
       <c r="U440" s="13"/>
       <c r="V440" s="13"/>
       <c r="W440" s="18"/>
-      <c r="X440" s="48"/>
+      <c r="X440" s="13"/>
       <c r="Y440" s="13"/>
       <c r="Z440" s="13"/>
       <c r="AA440" s="13"/>
@@ -18413,7 +18404,7 @@
       <c r="U441" s="13"/>
       <c r="V441" s="13"/>
       <c r="W441" s="18"/>
-      <c r="X441" s="48"/>
+      <c r="X441" s="13"/>
       <c r="Y441" s="13"/>
       <c r="Z441" s="13"/>
       <c r="AA441" s="13"/>
@@ -18443,7 +18434,7 @@
       <c r="U442" s="13"/>
       <c r="V442" s="13"/>
       <c r="W442" s="18"/>
-      <c r="X442" s="48"/>
+      <c r="X442" s="13"/>
       <c r="Y442" s="13"/>
       <c r="Z442" s="13"/>
       <c r="AA442" s="13"/>
@@ -18473,7 +18464,7 @@
       <c r="U443" s="13"/>
       <c r="V443" s="13"/>
       <c r="W443" s="18"/>
-      <c r="X443" s="48"/>
+      <c r="X443" s="13"/>
       <c r="Y443" s="13"/>
       <c r="Z443" s="13"/>
       <c r="AA443" s="13"/>
@@ -18503,7 +18494,7 @@
       <c r="U444" s="13"/>
       <c r="V444" s="13"/>
       <c r="W444" s="18"/>
-      <c r="X444" s="48"/>
+      <c r="X444" s="13"/>
       <c r="Y444" s="13"/>
       <c r="Z444" s="13"/>
       <c r="AA444" s="13"/>
@@ -18533,7 +18524,7 @@
       <c r="U445" s="13"/>
       <c r="V445" s="13"/>
       <c r="W445" s="18"/>
-      <c r="X445" s="48"/>
+      <c r="X445" s="13"/>
       <c r="Y445" s="13"/>
       <c r="Z445" s="13"/>
       <c r="AA445" s="13"/>
@@ -18563,7 +18554,7 @@
       <c r="U446" s="13"/>
       <c r="V446" s="13"/>
       <c r="W446" s="18"/>
-      <c r="X446" s="48"/>
+      <c r="X446" s="13"/>
       <c r="Y446" s="13"/>
       <c r="Z446" s="13"/>
       <c r="AA446" s="13"/>
@@ -18593,7 +18584,7 @@
       <c r="U447" s="13"/>
       <c r="V447" s="13"/>
       <c r="W447" s="18"/>
-      <c r="X447" s="48"/>
+      <c r="X447" s="13"/>
       <c r="Y447" s="13"/>
       <c r="Z447" s="13"/>
       <c r="AA447" s="13"/>
@@ -18623,7 +18614,7 @@
       <c r="U448" s="13"/>
       <c r="V448" s="13"/>
       <c r="W448" s="18"/>
-      <c r="X448" s="48"/>
+      <c r="X448" s="13"/>
       <c r="Y448" s="13"/>
       <c r="Z448" s="13"/>
       <c r="AA448" s="13"/>
@@ -18653,7 +18644,7 @@
       <c r="U449" s="13"/>
       <c r="V449" s="13"/>
       <c r="W449" s="18"/>
-      <c r="X449" s="48"/>
+      <c r="X449" s="13"/>
       <c r="Y449" s="13"/>
       <c r="Z449" s="13"/>
       <c r="AA449" s="13"/>
@@ -18683,7 +18674,7 @@
       <c r="U450" s="13"/>
       <c r="V450" s="13"/>
       <c r="W450" s="18"/>
-      <c r="X450" s="48"/>
+      <c r="X450" s="13"/>
       <c r="Y450" s="13"/>
       <c r="Z450" s="13"/>
       <c r="AA450" s="13"/>
@@ -18713,7 +18704,7 @@
       <c r="U451" s="13"/>
       <c r="V451" s="13"/>
       <c r="W451" s="18"/>
-      <c r="X451" s="48"/>
+      <c r="X451" s="13"/>
       <c r="Y451" s="13"/>
       <c r="Z451" s="13"/>
       <c r="AA451" s="13"/>
@@ -18743,7 +18734,7 @@
       <c r="U452" s="13"/>
       <c r="V452" s="13"/>
       <c r="W452" s="18"/>
-      <c r="X452" s="48"/>
+      <c r="X452" s="13"/>
       <c r="Y452" s="13"/>
       <c r="Z452" s="13"/>
       <c r="AA452" s="13"/>
@@ -18773,7 +18764,7 @@
       <c r="U453" s="13"/>
       <c r="V453" s="13"/>
       <c r="W453" s="18"/>
-      <c r="X453" s="48"/>
+      <c r="X453" s="13"/>
       <c r="Y453" s="13"/>
       <c r="Z453" s="13"/>
       <c r="AA453" s="13"/>
@@ -18803,7 +18794,7 @@
       <c r="U454" s="13"/>
       <c r="V454" s="13"/>
       <c r="W454" s="18"/>
-      <c r="X454" s="48"/>
+      <c r="X454" s="13"/>
       <c r="Y454" s="13"/>
       <c r="Z454" s="13"/>
       <c r="AA454" s="13"/>
@@ -18833,7 +18824,7 @@
       <c r="U455" s="13"/>
       <c r="V455" s="13"/>
       <c r="W455" s="18"/>
-      <c r="X455" s="48"/>
+      <c r="X455" s="13"/>
       <c r="Y455" s="13"/>
       <c r="Z455" s="13"/>
       <c r="AA455" s="13"/>
@@ -18863,7 +18854,7 @@
       <c r="U456" s="13"/>
       <c r="V456" s="13"/>
       <c r="W456" s="18"/>
-      <c r="X456" s="48"/>
+      <c r="X456" s="13"/>
       <c r="Y456" s="13"/>
       <c r="Z456" s="13"/>
       <c r="AA456" s="13"/>
@@ -18893,7 +18884,7 @@
       <c r="U457" s="13"/>
       <c r="V457" s="13"/>
       <c r="W457" s="18"/>
-      <c r="X457" s="48"/>
+      <c r="X457" s="13"/>
       <c r="Y457" s="13"/>
       <c r="Z457" s="13"/>
       <c r="AA457" s="13"/>
@@ -18923,7 +18914,7 @@
       <c r="U458" s="13"/>
       <c r="V458" s="13"/>
       <c r="W458" s="18"/>
-      <c r="X458" s="48"/>
+      <c r="X458" s="13"/>
       <c r="Y458" s="13"/>
       <c r="Z458" s="13"/>
       <c r="AA458" s="13"/>
@@ -18953,7 +18944,7 @@
       <c r="U459" s="13"/>
       <c r="V459" s="13"/>
       <c r="W459" s="18"/>
-      <c r="X459" s="48"/>
+      <c r="X459" s="13"/>
       <c r="Y459" s="13"/>
       <c r="Z459" s="13"/>
       <c r="AA459" s="13"/>
@@ -18983,7 +18974,7 @@
       <c r="U460" s="13"/>
       <c r="V460" s="13"/>
       <c r="W460" s="18"/>
-      <c r="X460" s="48"/>
+      <c r="X460" s="13"/>
       <c r="Y460" s="13"/>
       <c r="Z460" s="13"/>
       <c r="AA460" s="13"/>
@@ -19013,7 +19004,7 @@
       <c r="U461" s="13"/>
       <c r="V461" s="13"/>
       <c r="W461" s="18"/>
-      <c r="X461" s="48"/>
+      <c r="X461" s="13"/>
       <c r="Y461" s="13"/>
       <c r="Z461" s="13"/>
       <c r="AA461" s="13"/>
@@ -19043,7 +19034,7 @@
       <c r="U462" s="13"/>
       <c r="V462" s="13"/>
       <c r="W462" s="18"/>
-      <c r="X462" s="48"/>
+      <c r="X462" s="13"/>
       <c r="Y462" s="13"/>
       <c r="Z462" s="13"/>
       <c r="AA462" s="13"/>
@@ -19073,7 +19064,7 @@
       <c r="U463" s="13"/>
       <c r="V463" s="13"/>
       <c r="W463" s="18"/>
-      <c r="X463" s="48"/>
+      <c r="X463" s="13"/>
       <c r="Y463" s="13"/>
       <c r="Z463" s="13"/>
       <c r="AA463" s="13"/>
@@ -19103,7 +19094,7 @@
       <c r="U464" s="13"/>
       <c r="V464" s="13"/>
       <c r="W464" s="18"/>
-      <c r="X464" s="48"/>
+      <c r="X464" s="13"/>
       <c r="Y464" s="13"/>
       <c r="Z464" s="13"/>
       <c r="AA464" s="13"/>
@@ -19133,7 +19124,7 @@
       <c r="U465" s="13"/>
       <c r="V465" s="13"/>
       <c r="W465" s="18"/>
-      <c r="X465" s="48"/>
+      <c r="X465" s="13"/>
       <c r="Y465" s="13"/>
       <c r="Z465" s="13"/>
       <c r="AA465" s="13"/>
@@ -19163,7 +19154,7 @@
       <c r="U466" s="13"/>
       <c r="V466" s="13"/>
       <c r="W466" s="18"/>
-      <c r="X466" s="48"/>
+      <c r="X466" s="13"/>
       <c r="Y466" s="13"/>
       <c r="Z466" s="13"/>
       <c r="AA466" s="13"/>
@@ -19193,7 +19184,7 @@
       <c r="U467" s="13"/>
       <c r="V467" s="13"/>
       <c r="W467" s="18"/>
-      <c r="X467" s="48"/>
+      <c r="X467" s="13"/>
       <c r="Y467" s="13"/>
       <c r="Z467" s="13"/>
       <c r="AA467" s="13"/>
@@ -19223,7 +19214,7 @@
       <c r="U468" s="13"/>
       <c r="V468" s="13"/>
       <c r="W468" s="18"/>
-      <c r="X468" s="48"/>
+      <c r="X468" s="13"/>
       <c r="Y468" s="13"/>
       <c r="Z468" s="13"/>
       <c r="AA468" s="13"/>
@@ -19253,7 +19244,7 @@
       <c r="U469" s="13"/>
       <c r="V469" s="13"/>
       <c r="W469" s="18"/>
-      <c r="X469" s="48"/>
+      <c r="X469" s="13"/>
       <c r="Y469" s="13"/>
       <c r="Z469" s="13"/>
       <c r="AA469" s="13"/>
@@ -19283,7 +19274,7 @@
       <c r="U470" s="13"/>
       <c r="V470" s="13"/>
       <c r="W470" s="18"/>
-      <c r="X470" s="48"/>
+      <c r="X470" s="13"/>
       <c r="Y470" s="13"/>
       <c r="Z470" s="13"/>
       <c r="AA470" s="13"/>
@@ -19313,7 +19304,7 @@
       <c r="U471" s="13"/>
       <c r="V471" s="13"/>
       <c r="W471" s="18"/>
-      <c r="X471" s="48"/>
+      <c r="X471" s="13"/>
       <c r="Y471" s="13"/>
       <c r="Z471" s="13"/>
       <c r="AA471" s="13"/>
@@ -19343,7 +19334,7 @@
       <c r="U472" s="13"/>
       <c r="V472" s="13"/>
       <c r="W472" s="18"/>
-      <c r="X472" s="48"/>
+      <c r="X472" s="13"/>
       <c r="Y472" s="13"/>
       <c r="Z472" s="13"/>
       <c r="AA472" s="13"/>
@@ -19373,7 +19364,7 @@
       <c r="U473" s="13"/>
       <c r="V473" s="13"/>
       <c r="W473" s="18"/>
-      <c r="X473" s="48"/>
+      <c r="X473" s="13"/>
       <c r="Y473" s="13"/>
       <c r="Z473" s="13"/>
       <c r="AA473" s="13"/>
@@ -19403,7 +19394,7 @@
       <c r="U474" s="13"/>
       <c r="V474" s="13"/>
       <c r="W474" s="18"/>
-      <c r="X474" s="48"/>
+      <c r="X474" s="13"/>
       <c r="Y474" s="13"/>
       <c r="Z474" s="13"/>
       <c r="AA474" s="13"/>
@@ -19433,7 +19424,7 @@
       <c r="U475" s="13"/>
       <c r="V475" s="13"/>
       <c r="W475" s="18"/>
-      <c r="X475" s="48"/>
+      <c r="X475" s="13"/>
       <c r="Y475" s="13"/>
       <c r="Z475" s="13"/>
       <c r="AA475" s="13"/>
@@ -19463,7 +19454,7 @@
       <c r="U476" s="13"/>
       <c r="V476" s="13"/>
       <c r="W476" s="18"/>
-      <c r="X476" s="48"/>
+      <c r="X476" s="13"/>
       <c r="Y476" s="13"/>
       <c r="Z476" s="13"/>
       <c r="AA476" s="13"/>
@@ -19493,7 +19484,7 @@
       <c r="U477" s="13"/>
       <c r="V477" s="13"/>
       <c r="W477" s="18"/>
-      <c r="X477" s="48"/>
+      <c r="X477" s="13"/>
       <c r="Y477" s="13"/>
       <c r="Z477" s="13"/>
       <c r="AA477" s="13"/>
@@ -19523,7 +19514,7 @@
       <c r="U478" s="13"/>
       <c r="V478" s="13"/>
       <c r="W478" s="18"/>
-      <c r="X478" s="48"/>
+      <c r="X478" s="13"/>
       <c r="Y478" s="13"/>
       <c r="Z478" s="13"/>
       <c r="AA478" s="13"/>
@@ -19553,7 +19544,7 @@
       <c r="U479" s="13"/>
       <c r="V479" s="13"/>
       <c r="W479" s="18"/>
-      <c r="X479" s="48"/>
+      <c r="X479" s="13"/>
       <c r="Y479" s="13"/>
       <c r="Z479" s="13"/>
       <c r="AA479" s="13"/>
@@ -19583,7 +19574,7 @@
       <c r="U480" s="13"/>
       <c r="V480" s="13"/>
       <c r="W480" s="18"/>
-      <c r="X480" s="48"/>
+      <c r="X480" s="13"/>
       <c r="Y480" s="13"/>
       <c r="Z480" s="13"/>
       <c r="AA480" s="13"/>
@@ -19613,7 +19604,7 @@
       <c r="U481" s="13"/>
       <c r="V481" s="13"/>
       <c r="W481" s="18"/>
-      <c r="X481" s="48"/>
+      <c r="X481" s="13"/>
       <c r="Y481" s="13"/>
       <c r="Z481" s="13"/>
       <c r="AA481" s="13"/>
@@ -19643,7 +19634,7 @@
       <c r="U482" s="13"/>
       <c r="V482" s="13"/>
       <c r="W482" s="18"/>
-      <c r="X482" s="48"/>
+      <c r="X482" s="13"/>
       <c r="Y482" s="13"/>
       <c r="Z482" s="13"/>
       <c r="AA482" s="13"/>
@@ -19673,7 +19664,7 @@
       <c r="U483" s="13"/>
       <c r="V483" s="13"/>
       <c r="W483" s="18"/>
-      <c r="X483" s="48"/>
+      <c r="X483" s="13"/>
       <c r="Y483" s="13"/>
       <c r="Z483" s="13"/>
       <c r="AA483" s="13"/>
@@ -19703,7 +19694,7 @@
       <c r="U484" s="13"/>
       <c r="V484" s="13"/>
       <c r="W484" s="18"/>
-      <c r="X484" s="48"/>
+      <c r="X484" s="13"/>
       <c r="Y484" s="13"/>
       <c r="Z484" s="13"/>
       <c r="AA484" s="13"/>
@@ -19733,7 +19724,7 @@
       <c r="U485" s="13"/>
       <c r="V485" s="13"/>
       <c r="W485" s="18"/>
-      <c r="X485" s="48"/>
+      <c r="X485" s="13"/>
       <c r="Y485" s="13"/>
       <c r="Z485" s="13"/>
       <c r="AA485" s="13"/>
@@ -19763,7 +19754,7 @@
       <c r="U486" s="13"/>
       <c r="V486" s="13"/>
       <c r="W486" s="18"/>
-      <c r="X486" s="48"/>
+      <c r="X486" s="13"/>
       <c r="Y486" s="13"/>
       <c r="Z486" s="13"/>
       <c r="AA486" s="13"/>
@@ -19793,7 +19784,7 @@
       <c r="U487" s="13"/>
       <c r="V487" s="13"/>
       <c r="W487" s="18"/>
-      <c r="X487" s="48"/>
+      <c r="X487" s="13"/>
       <c r="Y487" s="13"/>
       <c r="Z487" s="13"/>
       <c r="AA487" s="13"/>
@@ -19823,7 +19814,7 @@
       <c r="U488" s="13"/>
       <c r="V488" s="13"/>
       <c r="W488" s="18"/>
-      <c r="X488" s="48"/>
+      <c r="X488" s="13"/>
       <c r="Y488" s="13"/>
       <c r="Z488" s="13"/>
       <c r="AA488" s="13"/>
@@ -19853,7 +19844,7 @@
       <c r="U489" s="13"/>
       <c r="V489" s="13"/>
       <c r="W489" s="18"/>
-      <c r="X489" s="48"/>
+      <c r="X489" s="13"/>
       <c r="Y489" s="13"/>
       <c r="Z489" s="13"/>
       <c r="AA489" s="13"/>
@@ -19883,7 +19874,7 @@
       <c r="U490" s="13"/>
       <c r="V490" s="13"/>
       <c r="W490" s="18"/>
-      <c r="X490" s="48"/>
+      <c r="X490" s="13"/>
       <c r="Y490" s="13"/>
       <c r="Z490" s="13"/>
       <c r="AA490" s="13"/>
@@ -19913,7 +19904,7 @@
       <c r="U491" s="13"/>
       <c r="V491" s="13"/>
       <c r="W491" s="18"/>
-      <c r="X491" s="48"/>
+      <c r="X491" s="13"/>
       <c r="Y491" s="13"/>
       <c r="Z491" s="13"/>
       <c r="AA491" s="13"/>
@@ -19943,7 +19934,7 @@
       <c r="U492" s="13"/>
       <c r="V492" s="13"/>
       <c r="W492" s="18"/>
-      <c r="X492" s="48"/>
+      <c r="X492" s="13"/>
       <c r="Y492" s="13"/>
       <c r="Z492" s="13"/>
       <c r="AA492" s="13"/>
@@ -19973,7 +19964,7 @@
       <c r="U493" s="13"/>
       <c r="V493" s="13"/>
       <c r="W493" s="18"/>
-      <c r="X493" s="48"/>
+      <c r="X493" s="13"/>
       <c r="Y493" s="13"/>
       <c r="Z493" s="13"/>
       <c r="AA493" s="13"/>
@@ -20003,7 +19994,7 @@
       <c r="U494" s="13"/>
       <c r="V494" s="13"/>
       <c r="W494" s="18"/>
-      <c r="X494" s="48"/>
+      <c r="X494" s="13"/>
       <c r="Y494" s="13"/>
       <c r="Z494" s="13"/>
       <c r="AA494" s="13"/>
@@ -20033,7 +20024,7 @@
       <c r="U495" s="13"/>
       <c r="V495" s="13"/>
       <c r="W495" s="18"/>
-      <c r="X495" s="48"/>
+      <c r="X495" s="13"/>
       <c r="Y495" s="13"/>
       <c r="Z495" s="13"/>
       <c r="AA495" s="13"/>
@@ -20063,7 +20054,7 @@
       <c r="U496" s="13"/>
       <c r="V496" s="13"/>
       <c r="W496" s="18"/>
-      <c r="X496" s="48"/>
+      <c r="X496" s="13"/>
       <c r="Y496" s="13"/>
       <c r="Z496" s="13"/>
       <c r="AA496" s="13"/>
@@ -20093,7 +20084,7 @@
       <c r="U497" s="13"/>
       <c r="V497" s="13"/>
       <c r="W497" s="18"/>
-      <c r="X497" s="48"/>
+      <c r="X497" s="13"/>
       <c r="Y497" s="13"/>
       <c r="Z497" s="13"/>
       <c r="AA497" s="13"/>
@@ -20123,7 +20114,7 @@
       <c r="U498" s="13"/>
       <c r="V498" s="13"/>
       <c r="W498" s="18"/>
-      <c r="X498" s="48"/>
+      <c r="X498" s="13"/>
       <c r="Y498" s="13"/>
       <c r="Z498" s="13"/>
       <c r="AA498" s="13"/>
@@ -20153,7 +20144,7 @@
       <c r="U499" s="13"/>
       <c r="V499" s="13"/>
       <c r="W499" s="18"/>
-      <c r="X499" s="48"/>
+      <c r="X499" s="13"/>
       <c r="Y499" s="13"/>
       <c r="Z499" s="13"/>
       <c r="AA499" s="13"/>
@@ -20183,7 +20174,7 @@
       <c r="U500" s="13"/>
       <c r="V500" s="13"/>
       <c r="W500" s="18"/>
-      <c r="X500" s="48"/>
+      <c r="X500" s="13"/>
       <c r="Y500" s="13"/>
       <c r="Z500" s="13"/>
       <c r="AA500" s="13"/>
@@ -20213,7 +20204,7 @@
       <c r="U501" s="13"/>
       <c r="V501" s="13"/>
       <c r="W501" s="18"/>
-      <c r="X501" s="48"/>
+      <c r="X501" s="13"/>
       <c r="Y501" s="13"/>
       <c r="Z501" s="13"/>
       <c r="AA501" s="13"/>
@@ -20243,7 +20234,7 @@
       <c r="U502" s="13"/>
       <c r="V502" s="13"/>
       <c r="W502" s="18"/>
-      <c r="X502" s="48"/>
+      <c r="X502" s="13"/>
       <c r="Y502" s="13"/>
       <c r="Z502" s="13"/>
       <c r="AA502" s="13"/>
@@ -20273,7 +20264,7 @@
       <c r="U503" s="13"/>
       <c r="V503" s="13"/>
       <c r="W503" s="18"/>
-      <c r="X503" s="48"/>
+      <c r="X503" s="13"/>
       <c r="Y503" s="13"/>
       <c r="Z503" s="13"/>
       <c r="AA503" s="13"/>
@@ -20303,7 +20294,7 @@
       <c r="U504" s="13"/>
       <c r="V504" s="13"/>
       <c r="W504" s="18"/>
-      <c r="X504" s="48"/>
+      <c r="X504" s="13"/>
       <c r="Y504" s="13"/>
       <c r="Z504" s="13"/>
       <c r="AA504" s="13"/>
@@ -20333,7 +20324,7 @@
       <c r="U505" s="13"/>
       <c r="V505" s="13"/>
       <c r="W505" s="18"/>
-      <c r="X505" s="48"/>
+      <c r="X505" s="13"/>
       <c r="Y505" s="13"/>
       <c r="Z505" s="13"/>
       <c r="AA505" s="13"/>
@@ -20363,7 +20354,7 @@
       <c r="U506" s="13"/>
       <c r="V506" s="13"/>
       <c r="W506" s="18"/>
-      <c r="X506" s="48"/>
+      <c r="X506" s="13"/>
       <c r="Y506" s="13"/>
       <c r="Z506" s="13"/>
       <c r="AA506" s="13"/>
@@ -20393,7 +20384,7 @@
       <c r="U507" s="13"/>
       <c r="V507" s="13"/>
       <c r="W507" s="18"/>
-      <c r="X507" s="48"/>
+      <c r="X507" s="13"/>
       <c r="Y507" s="13"/>
       <c r="Z507" s="13"/>
       <c r="AA507" s="13"/>
@@ -20423,7 +20414,7 @@
       <c r="U508" s="13"/>
       <c r="V508" s="13"/>
       <c r="W508" s="18"/>
-      <c r="X508" s="48"/>
+      <c r="X508" s="13"/>
       <c r="Y508" s="13"/>
       <c r="Z508" s="13"/>
       <c r="AA508" s="13"/>
@@ -20453,7 +20444,7 @@
       <c r="U509" s="13"/>
       <c r="V509" s="13"/>
       <c r="W509" s="18"/>
-      <c r="X509" s="48"/>
+      <c r="X509" s="13"/>
       <c r="Y509" s="13"/>
       <c r="Z509" s="13"/>
       <c r="AA509" s="13"/>
@@ -20483,7 +20474,7 @@
       <c r="U510" s="13"/>
       <c r="V510" s="13"/>
       <c r="W510" s="18"/>
-      <c r="X510" s="48"/>
+      <c r="X510" s="13"/>
       <c r="Y510" s="13"/>
       <c r="Z510" s="13"/>
       <c r="AA510" s="13"/>
@@ -20513,7 +20504,7 @@
       <c r="U511" s="13"/>
       <c r="V511" s="13"/>
       <c r="W511" s="18"/>
-      <c r="X511" s="48"/>
+      <c r="X511" s="13"/>
       <c r="Y511" s="13"/>
       <c r="Z511" s="13"/>
       <c r="AA511" s="13"/>
@@ -20543,7 +20534,7 @@
       <c r="U512" s="13"/>
       <c r="V512" s="13"/>
       <c r="W512" s="18"/>
-      <c r="X512" s="48"/>
+      <c r="X512" s="13"/>
       <c r="Y512" s="13"/>
       <c r="Z512" s="13"/>
       <c r="AA512" s="13"/>
@@ -20573,7 +20564,7 @@
       <c r="U513" s="13"/>
       <c r="V513" s="13"/>
       <c r="W513" s="18"/>
-      <c r="X513" s="48"/>
+      <c r="X513" s="13"/>
       <c r="Y513" s="13"/>
       <c r="Z513" s="13"/>
       <c r="AA513" s="13"/>
@@ -20603,7 +20594,7 @@
       <c r="U514" s="13"/>
       <c r="V514" s="13"/>
       <c r="W514" s="18"/>
-      <c r="X514" s="48"/>
+      <c r="X514" s="13"/>
       <c r="Y514" s="13"/>
       <c r="Z514" s="13"/>
       <c r="AA514" s="13"/>
@@ -20633,7 +20624,7 @@
       <c r="U515" s="13"/>
       <c r="V515" s="13"/>
       <c r="W515" s="18"/>
-      <c r="X515" s="48"/>
+      <c r="X515" s="13"/>
       <c r="Y515" s="13"/>
       <c r="Z515" s="13"/>
       <c r="AA515" s="13"/>
@@ -20663,7 +20654,7 @@
       <c r="U516" s="13"/>
       <c r="V516" s="13"/>
       <c r="W516" s="18"/>
-      <c r="X516" s="48"/>
+      <c r="X516" s="13"/>
       <c r="Y516" s="13"/>
       <c r="Z516" s="13"/>
       <c r="AA516" s="13"/>
@@ -20693,7 +20684,7 @@
       <c r="U517" s="13"/>
       <c r="V517" s="13"/>
       <c r="W517" s="18"/>
-      <c r="X517" s="48"/>
+      <c r="X517" s="13"/>
       <c r="Y517" s="13"/>
       <c r="Z517" s="13"/>
       <c r="AA517" s="13"/>
@@ -20723,7 +20714,7 @@
       <c r="U518" s="13"/>
       <c r="V518" s="13"/>
       <c r="W518" s="18"/>
-      <c r="X518" s="48"/>
+      <c r="X518" s="13"/>
       <c r="Y518" s="13"/>
       <c r="Z518" s="13"/>
       <c r="AA518" s="13"/>
@@ -20753,7 +20744,7 @@
       <c r="U519" s="13"/>
       <c r="V519" s="13"/>
       <c r="W519" s="18"/>
-      <c r="X519" s="48"/>
+      <c r="X519" s="13"/>
       <c r="Y519" s="13"/>
       <c r="Z519" s="13"/>
       <c r="AA519" s="13"/>
@@ -20783,7 +20774,7 @@
       <c r="U520" s="13"/>
       <c r="V520" s="13"/>
       <c r="W520" s="18"/>
-      <c r="X520" s="48"/>
+      <c r="X520" s="13"/>
       <c r="Y520" s="13"/>
       <c r="Z520" s="13"/>
       <c r="AA520" s="13"/>
@@ -20813,7 +20804,7 @@
       <c r="U521" s="13"/>
       <c r="V521" s="13"/>
       <c r="W521" s="18"/>
-      <c r="X521" s="48"/>
+      <c r="X521" s="13"/>
       <c r="Y521" s="13"/>
       <c r="Z521" s="13"/>
       <c r="AA521" s="13"/>
@@ -20843,7 +20834,7 @@
       <c r="U522" s="13"/>
       <c r="V522" s="13"/>
       <c r="W522" s="18"/>
-      <c r="X522" s="48"/>
+      <c r="X522" s="13"/>
       <c r="Y522" s="13"/>
       <c r="Z522" s="13"/>
       <c r="AA522" s="13"/>
@@ -20873,7 +20864,7 @@
       <c r="U523" s="13"/>
       <c r="V523" s="13"/>
       <c r="W523" s="18"/>
-      <c r="X523" s="48"/>
+      <c r="X523" s="13"/>
       <c r="Y523" s="13"/>
       <c r="Z523" s="13"/>
       <c r="AA523" s="13"/>
@@ -20903,7 +20894,7 @@
       <c r="U524" s="13"/>
       <c r="V524" s="13"/>
       <c r="W524" s="18"/>
-      <c r="X524" s="48"/>
+      <c r="X524" s="13"/>
       <c r="Y524" s="13"/>
       <c r="Z524" s="13"/>
       <c r="AA524" s="13"/>
@@ -20933,7 +20924,7 @@
       <c r="U525" s="13"/>
       <c r="V525" s="13"/>
       <c r="W525" s="18"/>
-      <c r="X525" s="48"/>
+      <c r="X525" s="13"/>
       <c r="Y525" s="13"/>
       <c r="Z525" s="13"/>
       <c r="AA525" s="13"/>
@@ -20963,7 +20954,7 @@
       <c r="U526" s="13"/>
       <c r="V526" s="13"/>
       <c r="W526" s="18"/>
-      <c r="X526" s="48"/>
+      <c r="X526" s="13"/>
       <c r="Y526" s="13"/>
       <c r="Z526" s="13"/>
       <c r="AA526" s="13"/>
@@ -20993,7 +20984,7 @@
       <c r="U527" s="13"/>
       <c r="V527" s="13"/>
       <c r="W527" s="18"/>
-      <c r="X527" s="48"/>
+      <c r="X527" s="13"/>
       <c r="Y527" s="13"/>
       <c r="Z527" s="13"/>
       <c r="AA527" s="13"/>
@@ -21023,7 +21014,7 @@
       <c r="U528" s="13"/>
       <c r="V528" s="13"/>
       <c r="W528" s="18"/>
-      <c r="X528" s="48"/>
+      <c r="X528" s="13"/>
       <c r="Y528" s="13"/>
       <c r="Z528" s="13"/>
       <c r="AA528" s="13"/>
@@ -21053,7 +21044,7 @@
       <c r="U529" s="13"/>
       <c r="V529" s="13"/>
       <c r="W529" s="18"/>
-      <c r="X529" s="48"/>
+      <c r="X529" s="13"/>
       <c r="Y529" s="13"/>
       <c r="Z529" s="13"/>
       <c r="AA529" s="13"/>
@@ -21083,7 +21074,7 @@
       <c r="U530" s="13"/>
       <c r="V530" s="13"/>
       <c r="W530" s="18"/>
-      <c r="X530" s="48"/>
+      <c r="X530" s="13"/>
       <c r="Y530" s="13"/>
       <c r="Z530" s="13"/>
       <c r="AA530" s="13"/>
@@ -21113,7 +21104,7 @@
       <c r="U531" s="13"/>
       <c r="V531" s="13"/>
       <c r="W531" s="18"/>
-      <c r="X531" s="48"/>
+      <c r="X531" s="13"/>
       <c r="Y531" s="13"/>
       <c r="Z531" s="13"/>
       <c r="AA531" s="13"/>
@@ -21143,7 +21134,7 @@
       <c r="U532" s="13"/>
       <c r="V532" s="13"/>
       <c r="W532" s="18"/>
-      <c r="X532" s="48"/>
+      <c r="X532" s="13"/>
       <c r="Y532" s="13"/>
       <c r="Z532" s="13"/>
       <c r="AA532" s="13"/>
@@ -21173,7 +21164,7 @@
       <c r="U533" s="13"/>
       <c r="V533" s="13"/>
       <c r="W533" s="18"/>
-      <c r="X533" s="48"/>
+      <c r="X533" s="13"/>
       <c r="Y533" s="13"/>
       <c r="Z533" s="13"/>
       <c r="AA533" s="13"/>
@@ -21203,7 +21194,7 @@
       <c r="U534" s="13"/>
       <c r="V534" s="13"/>
       <c r="W534" s="18"/>
-      <c r="X534" s="48"/>
+      <c r="X534" s="13"/>
       <c r="Y534" s="13"/>
       <c r="Z534" s="13"/>
       <c r="AA534" s="13"/>
@@ -21233,7 +21224,7 @@
       <c r="U535" s="13"/>
       <c r="V535" s="13"/>
       <c r="W535" s="18"/>
-      <c r="X535" s="48"/>
+      <c r="X535" s="13"/>
       <c r="Y535" s="13"/>
       <c r="Z535" s="13"/>
       <c r="AA535" s="13"/>
@@ -21263,7 +21254,7 @@
       <c r="U536" s="13"/>
       <c r="V536" s="13"/>
       <c r="W536" s="18"/>
-      <c r="X536" s="48"/>
+      <c r="X536" s="13"/>
       <c r="Y536" s="13"/>
       <c r="Z536" s="13"/>
       <c r="AA536" s="13"/>
@@ -21293,7 +21284,7 @@
       <c r="U537" s="13"/>
       <c r="V537" s="13"/>
       <c r="W537" s="18"/>
-      <c r="X537" s="48"/>
+      <c r="X537" s="13"/>
       <c r="Y537" s="13"/>
       <c r="Z537" s="13"/>
       <c r="AA537" s="13"/>
@@ -21323,7 +21314,7 @@
       <c r="U538" s="13"/>
       <c r="V538" s="13"/>
       <c r="W538" s="18"/>
-      <c r="X538" s="48"/>
+      <c r="X538" s="13"/>
       <c r="Y538" s="13"/>
       <c r="Z538" s="13"/>
       <c r="AA538" s="13"/>
@@ -21353,7 +21344,7 @@
       <c r="U539" s="13"/>
       <c r="V539" s="13"/>
       <c r="W539" s="18"/>
-      <c r="X539" s="48"/>
+      <c r="X539" s="13"/>
       <c r="Y539" s="13"/>
       <c r="Z539" s="13"/>
       <c r="AA539" s="13"/>
@@ -21383,7 +21374,7 @@
       <c r="U540" s="13"/>
       <c r="V540" s="13"/>
       <c r="W540" s="18"/>
-      <c r="X540" s="48"/>
+      <c r="X540" s="13"/>
       <c r="Y540" s="13"/>
       <c r="Z540" s="13"/>
       <c r="AA540" s="13"/>
@@ -21413,7 +21404,7 @@
       <c r="U541" s="13"/>
       <c r="V541" s="13"/>
       <c r="W541" s="18"/>
-      <c r="X541" s="48"/>
+      <c r="X541" s="13"/>
       <c r="Y541" s="13"/>
       <c r="Z541" s="13"/>
       <c r="AA541" s="13"/>
@@ -21443,7 +21434,7 @@
       <c r="U542" s="13"/>
       <c r="V542" s="13"/>
       <c r="W542" s="18"/>
-      <c r="X542" s="48"/>
+      <c r="X542" s="13"/>
       <c r="Y542" s="13"/>
       <c r="Z542" s="13"/>
       <c r="AA542" s="13"/>
@@ -21473,7 +21464,7 @@
       <c r="U543" s="13"/>
       <c r="V543" s="13"/>
       <c r="W543" s="18"/>
-      <c r="X543" s="48"/>
+      <c r="X543" s="13"/>
       <c r="Y543" s="13"/>
       <c r="Z543" s="13"/>
       <c r="AA543" s="13"/>
@@ -21503,7 +21494,7 @@
       <c r="U544" s="13"/>
       <c r="V544" s="13"/>
       <c r="W544" s="18"/>
-      <c r="X544" s="48"/>
+      <c r="X544" s="13"/>
       <c r="Y544" s="13"/>
       <c r="Z544" s="13"/>
       <c r="AA544" s="13"/>
@@ -21533,7 +21524,7 @@
       <c r="U545" s="13"/>
       <c r="V545" s="13"/>
       <c r="W545" s="18"/>
-      <c r="X545" s="48"/>
+      <c r="X545" s="13"/>
       <c r="Y545" s="13"/>
       <c r="Z545" s="13"/>
       <c r="AA545" s="13"/>
@@ -21563,7 +21554,7 @@
       <c r="U546" s="13"/>
       <c r="V546" s="13"/>
       <c r="W546" s="18"/>
-      <c r="X546" s="48"/>
+      <c r="X546" s="13"/>
       <c r="Y546" s="13"/>
       <c r="Z546" s="13"/>
       <c r="AA546" s="13"/>
@@ -21593,7 +21584,7 @@
       <c r="U547" s="13"/>
       <c r="V547" s="13"/>
       <c r="W547" s="18"/>
-      <c r="X547" s="48"/>
+      <c r="X547" s="13"/>
       <c r="Y547" s="13"/>
       <c r="Z547" s="13"/>
       <c r="AA547" s="13"/>
@@ -21623,7 +21614,7 @@
       <c r="U548" s="13"/>
       <c r="V548" s="13"/>
       <c r="W548" s="18"/>
-      <c r="X548" s="48"/>
+      <c r="X548" s="13"/>
       <c r="Y548" s="13"/>
       <c r="Z548" s="13"/>
       <c r="AA548" s="13"/>
@@ -21653,7 +21644,7 @@
       <c r="U549" s="13"/>
       <c r="V549" s="13"/>
       <c r="W549" s="18"/>
-      <c r="X549" s="48"/>
+      <c r="X549" s="13"/>
       <c r="Y549" s="13"/>
       <c r="Z549" s="13"/>
       <c r="AA549" s="13"/>
@@ -21683,7 +21674,7 @@
       <c r="U550" s="13"/>
       <c r="V550" s="13"/>
       <c r="W550" s="18"/>
-      <c r="X550" s="48"/>
+      <c r="X550" s="13"/>
       <c r="Y550" s="13"/>
       <c r="Z550" s="13"/>
       <c r="AA550" s="13"/>
@@ -21713,7 +21704,7 @@
       <c r="U551" s="13"/>
       <c r="V551" s="13"/>
       <c r="W551" s="18"/>
-      <c r="X551" s="48"/>
+      <c r="X551" s="13"/>
       <c r="Y551" s="13"/>
       <c r="Z551" s="13"/>
       <c r="AA551" s="13"/>
@@ -21743,7 +21734,7 @@
       <c r="U552" s="13"/>
       <c r="V552" s="13"/>
       <c r="W552" s="18"/>
-      <c r="X552" s="48"/>
+      <c r="X552" s="13"/>
       <c r="Y552" s="13"/>
       <c r="Z552" s="13"/>
       <c r="AA552" s="13"/>
@@ -21773,7 +21764,7 @@
       <c r="U553" s="13"/>
       <c r="V553" s="13"/>
       <c r="W553" s="18"/>
-      <c r="X553" s="48"/>
+      <c r="X553" s="13"/>
       <c r="Y553" s="13"/>
       <c r="Z553" s="13"/>
       <c r="AA553" s="13"/>
@@ -21803,7 +21794,7 @@
       <c r="U554" s="13"/>
       <c r="V554" s="13"/>
       <c r="W554" s="18"/>
-      <c r="X554" s="48"/>
+      <c r="X554" s="13"/>
       <c r="Y554" s="13"/>
       <c r="Z554" s="13"/>
       <c r="AA554" s="13"/>
@@ -21833,7 +21824,7 @@
       <c r="U555" s="13"/>
       <c r="V555" s="13"/>
       <c r="W555" s="18"/>
-      <c r="X555" s="48"/>
+      <c r="X555" s="13"/>
       <c r="Y555" s="13"/>
       <c r="Z555" s="13"/>
       <c r="AA555" s="13"/>
@@ -21863,7 +21854,7 @@
       <c r="U556" s="13"/>
       <c r="V556" s="13"/>
       <c r="W556" s="18"/>
-      <c r="X556" s="48"/>
+      <c r="X556" s="13"/>
       <c r="Y556" s="13"/>
       <c r="Z556" s="13"/>
       <c r="AA556" s="13"/>
@@ -21893,7 +21884,7 @@
       <c r="U557" s="13"/>
       <c r="V557" s="13"/>
       <c r="W557" s="18"/>
-      <c r="X557" s="48"/>
+      <c r="X557" s="13"/>
       <c r="Y557" s="13"/>
       <c r="Z557" s="13"/>
       <c r="AA557" s="13"/>
@@ -21923,7 +21914,7 @@
       <c r="U558" s="13"/>
       <c r="V558" s="13"/>
       <c r="W558" s="18"/>
-      <c r="X558" s="48"/>
+      <c r="X558" s="13"/>
       <c r="Y558" s="13"/>
       <c r="Z558" s="13"/>
       <c r="AA558" s="13"/>
@@ -21953,7 +21944,7 @@
       <c r="U559" s="13"/>
       <c r="V559" s="13"/>
       <c r="W559" s="18"/>
-      <c r="X559" s="48"/>
+      <c r="X559" s="13"/>
       <c r="Y559" s="13"/>
       <c r="Z559" s="13"/>
       <c r="AA559" s="13"/>
@@ -21983,7 +21974,7 @@
       <c r="U560" s="13"/>
       <c r="V560" s="13"/>
       <c r="W560" s="18"/>
-      <c r="X560" s="48"/>
+      <c r="X560" s="13"/>
       <c r="Y560" s="13"/>
       <c r="Z560" s="13"/>
       <c r="AA560" s="13"/>
@@ -22013,7 +22004,7 @@
       <c r="U561" s="13"/>
       <c r="V561" s="13"/>
       <c r="W561" s="18"/>
-      <c r="X561" s="48"/>
+      <c r="X561" s="13"/>
       <c r="Y561" s="13"/>
       <c r="Z561" s="13"/>
       <c r="AA561" s="13"/>
@@ -22043,7 +22034,7 @@
       <c r="U562" s="13"/>
       <c r="V562" s="13"/>
       <c r="W562" s="18"/>
-      <c r="X562" s="48"/>
+      <c r="X562" s="13"/>
       <c r="Y562" s="13"/>
       <c r="Z562" s="13"/>
       <c r="AA562" s="13"/>
@@ -22073,7 +22064,7 @@
       <c r="U563" s="13"/>
       <c r="V563" s="13"/>
       <c r="W563" s="18"/>
-      <c r="X563" s="48"/>
+      <c r="X563" s="13"/>
       <c r="Y563" s="13"/>
       <c r="Z563" s="13"/>
       <c r="AA563" s="13"/>
@@ -22103,7 +22094,7 @@
       <c r="U564" s="13"/>
       <c r="V564" s="13"/>
       <c r="W564" s="18"/>
-      <c r="X564" s="48"/>
+      <c r="X564" s="13"/>
       <c r="Y564" s="13"/>
       <c r="Z564" s="13"/>
       <c r="AA564" s="13"/>
@@ -22133,7 +22124,7 @@
       <c r="U565" s="13"/>
       <c r="V565" s="13"/>
       <c r="W565" s="18"/>
-      <c r="X565" s="48"/>
+      <c r="X565" s="13"/>
       <c r="Y565" s="13"/>
       <c r="Z565" s="13"/>
       <c r="AA565" s="13"/>
@@ -22163,7 +22154,7 @@
       <c r="U566" s="13"/>
       <c r="V566" s="13"/>
       <c r="W566" s="18"/>
-      <c r="X566" s="48"/>
+      <c r="X566" s="13"/>
       <c r="Y566" s="13"/>
       <c r="Z566" s="13"/>
       <c r="AA566" s="13"/>
@@ -22193,7 +22184,7 @@
       <c r="U567" s="13"/>
       <c r="V567" s="13"/>
       <c r="W567" s="18"/>
-      <c r="X567" s="48"/>
+      <c r="X567" s="13"/>
       <c r="Y567" s="13"/>
       <c r="Z567" s="13"/>
       <c r="AA567" s="13"/>
@@ -22223,7 +22214,7 @@
       <c r="U568" s="13"/>
       <c r="V568" s="13"/>
       <c r="W568" s="18"/>
-      <c r="X568" s="48"/>
+      <c r="X568" s="13"/>
       <c r="Y568" s="13"/>
       <c r="Z568" s="13"/>
       <c r="AA568" s="13"/>
@@ -22253,7 +22244,7 @@
       <c r="U569" s="13"/>
       <c r="V569" s="13"/>
       <c r="W569" s="18"/>
-      <c r="X569" s="48"/>
+      <c r="X569" s="13"/>
       <c r="Y569" s="13"/>
       <c r="Z569" s="13"/>
       <c r="AA569" s="13"/>
@@ -22283,7 +22274,7 @@
       <c r="U570" s="13"/>
       <c r="V570" s="13"/>
       <c r="W570" s="18"/>
-      <c r="X570" s="48"/>
+      <c r="X570" s="13"/>
       <c r="Y570" s="13"/>
       <c r="Z570" s="13"/>
       <c r="AA570" s="13"/>
@@ -22313,7 +22304,7 @@
       <c r="U571" s="13"/>
       <c r="V571" s="13"/>
       <c r="W571" s="18"/>
-      <c r="X571" s="48"/>
+      <c r="X571" s="13"/>
       <c r="Y571" s="13"/>
       <c r="Z571" s="13"/>
       <c r="AA571" s="13"/>
@@ -22343,7 +22334,7 @@
       <c r="U572" s="13"/>
       <c r="V572" s="13"/>
       <c r="W572" s="18"/>
-      <c r="X572" s="48"/>
+      <c r="X572" s="13"/>
       <c r="Y572" s="13"/>
       <c r="Z572" s="13"/>
       <c r="AA572" s="13"/>
@@ -22373,7 +22364,7 @@
       <c r="U573" s="13"/>
       <c r="V573" s="13"/>
       <c r="W573" s="18"/>
-      <c r="X573" s="48"/>
+      <c r="X573" s="13"/>
       <c r="Y573" s="13"/>
       <c r="Z573" s="13"/>
       <c r="AA573" s="13"/>
@@ -22403,7 +22394,7 @@
       <c r="U574" s="13"/>
       <c r="V574" s="13"/>
       <c r="W574" s="18"/>
-      <c r="X574" s="48"/>
+      <c r="X574" s="13"/>
       <c r="Y574" s="13"/>
       <c r="Z574" s="13"/>
       <c r="AA574" s="13"/>
@@ -22433,7 +22424,7 @@
       <c r="U575" s="13"/>
       <c r="V575" s="13"/>
       <c r="W575" s="18"/>
-      <c r="X575" s="48"/>
+      <c r="X575" s="13"/>
       <c r="Y575" s="13"/>
       <c r="Z575" s="13"/>
       <c r="AA575" s="13"/>
@@ -22463,7 +22454,7 @@
       <c r="U576" s="13"/>
       <c r="V576" s="13"/>
       <c r="W576" s="18"/>
-      <c r="X576" s="48"/>
+      <c r="X576" s="13"/>
       <c r="Y576" s="13"/>
       <c r="Z576" s="13"/>
       <c r="AA576" s="13"/>
@@ -22493,7 +22484,7 @@
       <c r="U577" s="13"/>
       <c r="V577" s="13"/>
       <c r="W577" s="18"/>
-      <c r="X577" s="48"/>
+      <c r="X577" s="13"/>
       <c r="Y577" s="13"/>
       <c r="Z577" s="13"/>
       <c r="AA577" s="13"/>
@@ -22523,7 +22514,7 @@
       <c r="U578" s="13"/>
       <c r="V578" s="13"/>
       <c r="W578" s="18"/>
-      <c r="X578" s="48"/>
+      <c r="X578" s="13"/>
       <c r="Y578" s="13"/>
       <c r="Z578" s="13"/>
       <c r="AA578" s="13"/>
@@ -22553,7 +22544,7 @@
       <c r="U579" s="13"/>
       <c r="V579" s="13"/>
       <c r="W579" s="18"/>
-      <c r="X579" s="48"/>
+      <c r="X579" s="13"/>
       <c r="Y579" s="13"/>
       <c r="Z579" s="13"/>
       <c r="AA579" s="13"/>
@@ -22583,7 +22574,7 @@
       <c r="U580" s="13"/>
       <c r="V580" s="13"/>
       <c r="W580" s="18"/>
-      <c r="X580" s="48"/>
+      <c r="X580" s="13"/>
       <c r="Y580" s="13"/>
       <c r="Z580" s="13"/>
       <c r="AA580" s="13"/>
@@ -22613,7 +22604,7 @@
       <c r="U581" s="13"/>
       <c r="V581" s="13"/>
       <c r="W581" s="18"/>
-      <c r="X581" s="48"/>
+      <c r="X581" s="13"/>
       <c r="Y581" s="13"/>
       <c r="Z581" s="13"/>
       <c r="AA581" s="13"/>
@@ -22643,7 +22634,7 @@
       <c r="U582" s="13"/>
       <c r="V582" s="13"/>
       <c r="W582" s="18"/>
-      <c r="X582" s="48"/>
+      <c r="X582" s="13"/>
       <c r="Y582" s="13"/>
       <c r="Z582" s="13"/>
       <c r="AA582" s="13"/>
@@ -22673,7 +22664,7 @@
       <c r="U583" s="13"/>
       <c r="V583" s="13"/>
       <c r="W583" s="18"/>
-      <c r="X583" s="48"/>
+      <c r="X583" s="13"/>
       <c r="Y583" s="13"/>
       <c r="Z583" s="13"/>
       <c r="AA583" s="13"/>
@@ -22703,7 +22694,7 @@
       <c r="U584" s="13"/>
       <c r="V584" s="13"/>
       <c r="W584" s="18"/>
-      <c r="X584" s="48"/>
+      <c r="X584" s="13"/>
       <c r="Y584" s="13"/>
       <c r="Z584" s="13"/>
       <c r="AA584" s="13"/>
@@ -22733,7 +22724,7 @@
       <c r="U585" s="13"/>
       <c r="V585" s="13"/>
       <c r="W585" s="18"/>
-      <c r="X585" s="48"/>
+      <c r="X585" s="13"/>
       <c r="Y585" s="13"/>
       <c r="Z585" s="13"/>
       <c r="AA585" s="13"/>
@@ -22763,7 +22754,7 @@
       <c r="U586" s="13"/>
       <c r="V586" s="13"/>
       <c r="W586" s="18"/>
-      <c r="X586" s="48"/>
+      <c r="X586" s="13"/>
       <c r="Y586" s="13"/>
       <c r="Z586" s="13"/>
       <c r="AA586" s="13"/>
@@ -22793,7 +22784,7 @@
       <c r="U587" s="13"/>
       <c r="V587" s="13"/>
       <c r="W587" s="18"/>
-      <c r="X587" s="48"/>
+      <c r="X587" s="13"/>
       <c r="Y587" s="13"/>
       <c r="Z587" s="13"/>
       <c r="AA587" s="13"/>
@@ -22823,7 +22814,7 @@
       <c r="U588" s="13"/>
       <c r="V588" s="13"/>
       <c r="W588" s="18"/>
-      <c r="X588" s="48"/>
+      <c r="X588" s="13"/>
       <c r="Y588" s="13"/>
       <c r="Z588" s="13"/>
       <c r="AA588" s="13"/>
@@ -22853,7 +22844,7 @@
       <c r="U589" s="13"/>
       <c r="V589" s="13"/>
       <c r="W589" s="18"/>
-      <c r="X589" s="48"/>
+      <c r="X589" s="13"/>
       <c r="Y589" s="13"/>
       <c r="Z589" s="13"/>
       <c r="AA589" s="13"/>
@@ -22883,7 +22874,7 @@
       <c r="U590" s="13"/>
       <c r="V590" s="13"/>
       <c r="W590" s="18"/>
-      <c r="X590" s="48"/>
+      <c r="X590" s="13"/>
       <c r="Y590" s="13"/>
       <c r="Z590" s="13"/>
       <c r="AA590" s="13"/>
@@ -22913,7 +22904,7 @@
       <c r="U591" s="13"/>
       <c r="V591" s="13"/>
       <c r="W591" s="18"/>
-      <c r="X591" s="48"/>
+      <c r="X591" s="13"/>
       <c r="Y591" s="13"/>
       <c r="Z591" s="13"/>
       <c r="AA591" s="13"/>
@@ -22943,7 +22934,7 @@
       <c r="U592" s="13"/>
       <c r="V592" s="13"/>
       <c r="W592" s="18"/>
-      <c r="X592" s="48"/>
+      <c r="X592" s="13"/>
       <c r="Y592" s="13"/>
       <c r="Z592" s="13"/>
       <c r="AA592" s="13"/>
@@ -22973,7 +22964,7 @@
       <c r="U593" s="13"/>
       <c r="V593" s="13"/>
       <c r="W593" s="18"/>
-      <c r="X593" s="48"/>
+      <c r="X593" s="13"/>
       <c r="Y593" s="13"/>
       <c r="Z593" s="13"/>
       <c r="AA593" s="13"/>
@@ -23003,7 +22994,7 @@
       <c r="U594" s="13"/>
       <c r="V594" s="13"/>
       <c r="W594" s="18"/>
-      <c r="X594" s="48"/>
+      <c r="X594" s="13"/>
       <c r="Y594" s="13"/>
       <c r="Z594" s="13"/>
       <c r="AA594" s="13"/>
@@ -23033,7 +23024,7 @@
       <c r="U595" s="13"/>
       <c r="V595" s="13"/>
       <c r="W595" s="18"/>
-      <c r="X595" s="48"/>
+      <c r="X595" s="13"/>
       <c r="Y595" s="13"/>
       <c r="Z595" s="13"/>
       <c r="AA595" s="13"/>
@@ -23063,7 +23054,7 @@
       <c r="U596" s="13"/>
       <c r="V596" s="13"/>
       <c r="W596" s="18"/>
-      <c r="X596" s="48"/>
+      <c r="X596" s="13"/>
       <c r="Y596" s="13"/>
       <c r="Z596" s="13"/>
       <c r="AA596" s="13"/>
@@ -23093,7 +23084,7 @@
       <c r="U597" s="13"/>
       <c r="V597" s="13"/>
       <c r="W597" s="18"/>
-      <c r="X597" s="48"/>
+      <c r="X597" s="13"/>
       <c r="Y597" s="13"/>
       <c r="Z597" s="13"/>
       <c r="AA597" s="13"/>
@@ -23123,7 +23114,7 @@
       <c r="U598" s="13"/>
       <c r="V598" s="13"/>
       <c r="W598" s="18"/>
-      <c r="X598" s="48"/>
+      <c r="X598" s="13"/>
       <c r="Y598" s="13"/>
       <c r="Z598" s="13"/>
       <c r="AA598" s="13"/>
@@ -23153,7 +23144,7 @@
       <c r="U599" s="13"/>
       <c r="V599" s="13"/>
       <c r="W599" s="18"/>
-      <c r="X599" s="48"/>
+      <c r="X599" s="13"/>
       <c r="Y599" s="13"/>
       <c r="Z599" s="13"/>
       <c r="AA599" s="13"/>
@@ -23183,7 +23174,7 @@
       <c r="U600" s="13"/>
       <c r="V600" s="13"/>
       <c r="W600" s="18"/>
-      <c r="X600" s="48"/>
+      <c r="X600" s="13"/>
       <c r="Y600" s="13"/>
       <c r="Z600" s="13"/>
       <c r="AA600" s="13"/>
@@ -23213,7 +23204,7 @@
       <c r="U601" s="13"/>
       <c r="V601" s="13"/>
       <c r="W601" s="18"/>
-      <c r="X601" s="48"/>
+      <c r="X601" s="13"/>
       <c r="Y601" s="13"/>
       <c r="Z601" s="13"/>
       <c r="AA601" s="13"/>
@@ -23243,7 +23234,7 @@
       <c r="U602" s="13"/>
       <c r="V602" s="13"/>
       <c r="W602" s="18"/>
-      <c r="X602" s="48"/>
+      <c r="X602" s="13"/>
       <c r="Y602" s="13"/>
       <c r="Z602" s="13"/>
       <c r="AA602" s="13"/>
@@ -23273,7 +23264,7 @@
       <c r="U603" s="13"/>
       <c r="V603" s="13"/>
       <c r="W603" s="18"/>
-      <c r="X603" s="48"/>
+      <c r="X603" s="13"/>
       <c r="Y603" s="13"/>
       <c r="Z603" s="13"/>
       <c r="AA603" s="13"/>
@@ -23303,7 +23294,7 @@
       <c r="U604" s="13"/>
       <c r="V604" s="13"/>
       <c r="W604" s="18"/>
-      <c r="X604" s="48"/>
+      <c r="X604" s="13"/>
       <c r="Y604" s="13"/>
       <c r="Z604" s="13"/>
       <c r="AA604" s="13"/>
@@ -23333,7 +23324,7 @@
       <c r="U605" s="13"/>
       <c r="V605" s="13"/>
       <c r="W605" s="18"/>
-      <c r="X605" s="48"/>
+      <c r="X605" s="13"/>
       <c r="Y605" s="13"/>
       <c r="Z605" s="13"/>
       <c r="AA605" s="13"/>
@@ -23363,7 +23354,7 @@
       <c r="U606" s="13"/>
       <c r="V606" s="13"/>
       <c r="W606" s="18"/>
-      <c r="X606" s="48"/>
+      <c r="X606" s="13"/>
       <c r="Y606" s="13"/>
       <c r="Z606" s="13"/>
       <c r="AA606" s="13"/>
@@ -23393,7 +23384,7 @@
       <c r="U607" s="13"/>
       <c r="V607" s="13"/>
       <c r="W607" s="18"/>
-      <c r="X607" s="48"/>
+      <c r="X607" s="13"/>
       <c r="Y607" s="13"/>
       <c r="Z607" s="13"/>
       <c r="AA607" s="13"/>
@@ -23423,7 +23414,7 @@
       <c r="U608" s="13"/>
       <c r="V608" s="13"/>
       <c r="W608" s="18"/>
-      <c r="X608" s="48"/>
+      <c r="X608" s="13"/>
       <c r="Y608" s="13"/>
       <c r="Z608" s="13"/>
       <c r="AA608" s="13"/>
@@ -23453,7 +23444,7 @@
       <c r="U609" s="13"/>
       <c r="V609" s="13"/>
       <c r="W609" s="18"/>
-      <c r="X609" s="48"/>
+      <c r="X609" s="13"/>
       <c r="Y609" s="13"/>
       <c r="Z609" s="13"/>
       <c r="AA609" s="13"/>
@@ -23483,7 +23474,7 @@
       <c r="U610" s="13"/>
       <c r="V610" s="13"/>
       <c r="W610" s="18"/>
-      <c r="X610" s="48"/>
+      <c r="X610" s="13"/>
       <c r="Y610" s="13"/>
       <c r="Z610" s="13"/>
       <c r="AA610" s="13"/>
@@ -23513,7 +23504,7 @@
       <c r="U611" s="13"/>
       <c r="V611" s="13"/>
       <c r="W611" s="18"/>
-      <c r="X611" s="48"/>
+      <c r="X611" s="13"/>
       <c r="Y611" s="13"/>
       <c r="Z611" s="13"/>
       <c r="AA611" s="13"/>
@@ -23543,7 +23534,7 @@
       <c r="U612" s="13"/>
       <c r="V612" s="13"/>
       <c r="W612" s="18"/>
-      <c r="X612" s="48"/>
+      <c r="X612" s="13"/>
       <c r="Y612" s="13"/>
       <c r="Z612" s="13"/>
       <c r="AA612" s="13"/>
@@ -23573,7 +23564,7 @@
       <c r="U613" s="13"/>
       <c r="V613" s="13"/>
       <c r="W613" s="18"/>
-      <c r="X613" s="48"/>
+      <c r="X613" s="13"/>
       <c r="Y613" s="13"/>
       <c r="Z613" s="13"/>
       <c r="AA613" s="13"/>
@@ -23603,7 +23594,7 @@
       <c r="U614" s="13"/>
       <c r="V614" s="13"/>
       <c r="W614" s="18"/>
-      <c r="X614" s="48"/>
+      <c r="X614" s="13"/>
       <c r="Y614" s="13"/>
       <c r="Z614" s="13"/>
       <c r="AA614" s="13"/>
@@ -23633,7 +23624,7 @@
       <c r="U615" s="13"/>
       <c r="V615" s="13"/>
       <c r="W615" s="18"/>
-      <c r="X615" s="48"/>
+      <c r="X615" s="13"/>
       <c r="Y615" s="13"/>
       <c r="Z615" s="13"/>
       <c r="AA615" s="13"/>
@@ -23663,7 +23654,7 @@
       <c r="U616" s="13"/>
       <c r="V616" s="13"/>
       <c r="W616" s="18"/>
-      <c r="X616" s="48"/>
+      <c r="X616" s="13"/>
       <c r="Y616" s="13"/>
       <c r="Z616" s="13"/>
       <c r="AA616" s="13"/>
@@ -23693,7 +23684,7 @@
       <c r="U617" s="13"/>
       <c r="V617" s="13"/>
       <c r="W617" s="18"/>
-      <c r="X617" s="48"/>
+      <c r="X617" s="13"/>
       <c r="Y617" s="13"/>
       <c r="Z617" s="13"/>
       <c r="AA617" s="13"/>
@@ -23723,7 +23714,7 @@
       <c r="U618" s="13"/>
       <c r="V618" s="13"/>
       <c r="W618" s="18"/>
-      <c r="X618" s="48"/>
+      <c r="X618" s="13"/>
       <c r="Y618" s="13"/>
       <c r="Z618" s="13"/>
       <c r="AA618" s="13"/>
@@ -23753,7 +23744,7 @@
       <c r="U619" s="13"/>
       <c r="V619" s="13"/>
       <c r="W619" s="18"/>
-      <c r="X619" s="48"/>
+      <c r="X619" s="13"/>
       <c r="Y619" s="13"/>
       <c r="Z619" s="13"/>
       <c r="AA619" s="13"/>
@@ -23783,7 +23774,7 @@
       <c r="U620" s="13"/>
       <c r="V620" s="13"/>
       <c r="W620" s="18"/>
-      <c r="X620" s="48"/>
+      <c r="X620" s="13"/>
       <c r="Y620" s="13"/>
       <c r="Z620" s="13"/>
       <c r="AA620" s="13"/>
@@ -23813,7 +23804,7 @@
       <c r="U621" s="13"/>
       <c r="V621" s="13"/>
       <c r="W621" s="18"/>
-      <c r="X621" s="48"/>
+      <c r="X621" s="13"/>
       <c r="Y621" s="13"/>
       <c r="Z621" s="13"/>
       <c r="AA621" s="13"/>
@@ -23843,7 +23834,7 @@
       <c r="U622" s="13"/>
       <c r="V622" s="13"/>
       <c r="W622" s="18"/>
-      <c r="X622" s="48"/>
+      <c r="X622" s="13"/>
       <c r="Y622" s="13"/>
       <c r="Z622" s="13"/>
       <c r="AA622" s="13"/>
@@ -23873,7 +23864,7 @@
       <c r="U623" s="13"/>
       <c r="V623" s="13"/>
       <c r="W623" s="18"/>
-      <c r="X623" s="48"/>
+      <c r="X623" s="13"/>
       <c r="Y623" s="13"/>
       <c r="Z623" s="13"/>
       <c r="AA623" s="13"/>
@@ -23903,7 +23894,7 @@
       <c r="U624" s="13"/>
       <c r="V624" s="13"/>
       <c r="W624" s="18"/>
-      <c r="X624" s="48"/>
+      <c r="X624" s="13"/>
       <c r="Y624" s="13"/>
       <c r="Z624" s="13"/>
       <c r="AA624" s="13"/>
@@ -23933,7 +23924,7 @@
       <c r="U625" s="13"/>
       <c r="V625" s="13"/>
       <c r="W625" s="18"/>
-      <c r="X625" s="48"/>
+      <c r="X625" s="13"/>
       <c r="Y625" s="13"/>
       <c r="Z625" s="13"/>
       <c r="AA625" s="13"/>
@@ -23963,7 +23954,7 @@
       <c r="U626" s="13"/>
       <c r="V626" s="13"/>
       <c r="W626" s="18"/>
-      <c r="X626" s="48"/>
+      <c r="X626" s="13"/>
       <c r="Y626" s="13"/>
       <c r="Z626" s="13"/>
       <c r="AA626" s="13"/>
@@ -23993,7 +23984,7 @@
       <c r="U627" s="13"/>
       <c r="V627" s="13"/>
       <c r="W627" s="18"/>
-      <c r="X627" s="48"/>
+      <c r="X627" s="13"/>
       <c r="Y627" s="13"/>
       <c r="Z627" s="13"/>
       <c r="AA627" s="13"/>
@@ -24023,7 +24014,7 @@
       <c r="U628" s="13"/>
       <c r="V628" s="13"/>
       <c r="W628" s="18"/>
-      <c r="X628" s="48"/>
+      <c r="X628" s="13"/>
       <c r="Y628" s="13"/>
       <c r="Z628" s="13"/>
       <c r="AA628" s="13"/>
@@ -24053,7 +24044,7 @@
       <c r="U629" s="13"/>
       <c r="V629" s="13"/>
       <c r="W629" s="18"/>
-      <c r="X629" s="48"/>
+      <c r="X629" s="13"/>
       <c r="Y629" s="13"/>
       <c r="Z629" s="13"/>
       <c r="AA629" s="13"/>
@@ -24083,7 +24074,7 @@
       <c r="U630" s="13"/>
       <c r="V630" s="13"/>
       <c r="W630" s="18"/>
-      <c r="X630" s="48"/>
+      <c r="X630" s="13"/>
       <c r="Y630" s="13"/>
       <c r="Z630" s="13"/>
       <c r="AA630" s="13"/>
@@ -24113,7 +24104,7 @@
       <c r="U631" s="13"/>
       <c r="V631" s="13"/>
       <c r="W631" s="18"/>
-      <c r="X631" s="48"/>
+      <c r="X631" s="13"/>
       <c r="Y631" s="13"/>
       <c r="Z631" s="13"/>
       <c r="AA631" s="13"/>
@@ -24143,7 +24134,7 @@
       <c r="U632" s="13"/>
       <c r="V632" s="13"/>
       <c r="W632" s="18"/>
-      <c r="X632" s="48"/>
+      <c r="X632" s="13"/>
       <c r="Y632" s="13"/>
       <c r="Z632" s="13"/>
       <c r="AA632" s="13"/>
@@ -24173,7 +24164,7 @@
       <c r="U633" s="13"/>
       <c r="V633" s="13"/>
       <c r="W633" s="18"/>
-      <c r="X633" s="48"/>
+      <c r="X633" s="13"/>
       <c r="Y633" s="13"/>
       <c r="Z633" s="13"/>
       <c r="AA633" s="13"/>
@@ -24203,7 +24194,7 @@
       <c r="U634" s="13"/>
       <c r="V634" s="13"/>
       <c r="W634" s="18"/>
-      <c r="X634" s="48"/>
+      <c r="X634" s="13"/>
       <c r="Y634" s="13"/>
       <c r="Z634" s="13"/>
       <c r="AA634" s="13"/>
@@ -24233,7 +24224,7 @@
       <c r="U635" s="13"/>
       <c r="V635" s="13"/>
       <c r="W635" s="18"/>
-      <c r="X635" s="48"/>
+      <c r="X635" s="13"/>
       <c r="Y635" s="13"/>
       <c r="Z635" s="13"/>
       <c r="AA635" s="13"/>
@@ -24263,7 +24254,7 @@
       <c r="U636" s="13"/>
       <c r="V636" s="13"/>
       <c r="W636" s="18"/>
-      <c r="X636" s="48"/>
+      <c r="X636" s="13"/>
       <c r="Y636" s="13"/>
       <c r="Z636" s="13"/>
       <c r="AA636" s="13"/>
@@ -24293,7 +24284,7 @@
       <c r="U637" s="13"/>
       <c r="V637" s="13"/>
       <c r="W637" s="18"/>
-      <c r="X637" s="48"/>
+      <c r="X637" s="13"/>
       <c r="Y637" s="13"/>
       <c r="Z637" s="13"/>
       <c r="AA637" s="13"/>
@@ -24323,7 +24314,7 @@
       <c r="U638" s="13"/>
       <c r="V638" s="13"/>
       <c r="W638" s="18"/>
-      <c r="X638" s="48"/>
+      <c r="X638" s="13"/>
       <c r="Y638" s="13"/>
       <c r="Z638" s="13"/>
       <c r="AA638" s="13"/>
@@ -24353,7 +24344,7 @@
       <c r="U639" s="13"/>
       <c r="V639" s="13"/>
       <c r="W639" s="18"/>
-      <c r="X639" s="48"/>
+      <c r="X639" s="13"/>
       <c r="Y639" s="13"/>
       <c r="Z639" s="13"/>
       <c r="AA639" s="13"/>
@@ -24383,7 +24374,7 @@
       <c r="U640" s="13"/>
       <c r="V640" s="13"/>
       <c r="W640" s="18"/>
-      <c r="X640" s="48"/>
+      <c r="X640" s="13"/>
       <c r="Y640" s="13"/>
       <c r="Z640" s="13"/>
       <c r="AA640" s="13"/>
@@ -24413,7 +24404,7 @@
       <c r="U641" s="13"/>
       <c r="V641" s="13"/>
       <c r="W641" s="18"/>
-      <c r="X641" s="48"/>
+      <c r="X641" s="13"/>
       <c r="Y641" s="13"/>
       <c r="Z641" s="13"/>
       <c r="AA641" s="13"/>
@@ -24443,7 +24434,7 @@
       <c r="U642" s="13"/>
       <c r="V642" s="13"/>
       <c r="W642" s="18"/>
-      <c r="X642" s="48"/>
+      <c r="X642" s="13"/>
       <c r="Y642" s="13"/>
       <c r="Z642" s="13"/>
       <c r="AA642" s="13"/>
@@ -24473,7 +24464,7 @@
       <c r="U643" s="13"/>
       <c r="V643" s="13"/>
       <c r="W643" s="18"/>
-      <c r="X643" s="48"/>
+      <c r="X643" s="13"/>
       <c r="Y643" s="13"/>
       <c r="Z643" s="13"/>
       <c r="AA643" s="13"/>
@@ -24503,7 +24494,7 @@
       <c r="U644" s="13"/>
       <c r="V644" s="13"/>
       <c r="W644" s="18"/>
-      <c r="X644" s="48"/>
+      <c r="X644" s="13"/>
       <c r="Y644" s="13"/>
       <c r="Z644" s="13"/>
       <c r="AA644" s="13"/>
@@ -24533,7 +24524,7 @@
       <c r="U645" s="13"/>
       <c r="V645" s="13"/>
       <c r="W645" s="18"/>
-      <c r="X645" s="48"/>
+      <c r="X645" s="13"/>
       <c r="Y645" s="13"/>
       <c r="Z645" s="13"/>
       <c r="AA645" s="13"/>
@@ -24563,7 +24554,7 @@
       <c r="U646" s="13"/>
       <c r="V646" s="13"/>
       <c r="W646" s="18"/>
-      <c r="X646" s="48"/>
+      <c r="X646" s="13"/>
       <c r="Y646" s="13"/>
       <c r="Z646" s="13"/>
       <c r="AA646" s="13"/>
@@ -24593,7 +24584,7 @@
       <c r="U647" s="13"/>
       <c r="V647" s="13"/>
       <c r="W647" s="18"/>
-      <c r="X647" s="48"/>
+      <c r="X647" s="13"/>
       <c r="Y647" s="13"/>
       <c r="Z647" s="13"/>
       <c r="AA647" s="13"/>
@@ -24623,7 +24614,7 @@
       <c r="U648" s="13"/>
       <c r="V648" s="13"/>
       <c r="W648" s="18"/>
-      <c r="X648" s="48"/>
+      <c r="X648" s="13"/>
       <c r="Y648" s="13"/>
       <c r="Z648" s="13"/>
       <c r="AA648" s="13"/>
@@ -24653,7 +24644,7 @@
       <c r="U649" s="13"/>
       <c r="V649" s="13"/>
       <c r="W649" s="18"/>
-      <c r="X649" s="48"/>
+      <c r="X649" s="13"/>
       <c r="Y649" s="13"/>
       <c r="Z649" s="13"/>
       <c r="AA649" s="13"/>
@@ -24683,7 +24674,7 @@
       <c r="U650" s="13"/>
       <c r="V650" s="13"/>
       <c r="W650" s="18"/>
-      <c r="X650" s="48"/>
+      <c r="X650" s="13"/>
       <c r="Y650" s="13"/>
       <c r="Z650" s="13"/>
       <c r="AA650" s="13"/>
@@ -24713,7 +24704,7 @@
       <c r="U651" s="13"/>
       <c r="V651" s="13"/>
       <c r="W651" s="18"/>
-      <c r="X651" s="48"/>
+      <c r="X651" s="13"/>
       <c r="Y651" s="13"/>
       <c r="Z651" s="13"/>
       <c r="AA651" s="13"/>
@@ -24743,7 +24734,7 @@
       <c r="U652" s="13"/>
       <c r="V652" s="13"/>
       <c r="W652" s="18"/>
-      <c r="X652" s="48"/>
+      <c r="X652" s="13"/>
       <c r="Y652" s="13"/>
       <c r="Z652" s="13"/>
       <c r="AA652" s="13"/>
@@ -24773,7 +24764,7 @@
       <c r="U653" s="13"/>
       <c r="V653" s="13"/>
       <c r="W653" s="18"/>
-      <c r="X653" s="48"/>
+      <c r="X653" s="13"/>
       <c r="Y653" s="13"/>
       <c r="Z653" s="13"/>
       <c r="AA653" s="13"/>
@@ -24803,7 +24794,7 @@
       <c r="U654" s="13"/>
       <c r="V654" s="13"/>
       <c r="W654" s="18"/>
-      <c r="X654" s="48"/>
+      <c r="X654" s="13"/>
       <c r="Y654" s="13"/>
       <c r="Z654" s="13"/>
       <c r="AA654" s="13"/>
@@ -24833,7 +24824,7 @@
       <c r="U655" s="13"/>
       <c r="V655" s="13"/>
       <c r="W655" s="18"/>
-      <c r="X655" s="48"/>
+      <c r="X655" s="13"/>
       <c r="Y655" s="13"/>
       <c r="Z655" s="13"/>
       <c r="AA655" s="13"/>
@@ -24863,7 +24854,7 @@
       <c r="U656" s="13"/>
       <c r="V656" s="13"/>
       <c r="W656" s="18"/>
-      <c r="X656" s="48"/>
+      <c r="X656" s="13"/>
       <c r="Y656" s="13"/>
       <c r="Z656" s="13"/>
       <c r="AA656" s="13"/>
@@ -24893,7 +24884,7 @@
       <c r="U657" s="13"/>
       <c r="V657" s="13"/>
       <c r="W657" s="18"/>
-      <c r="X657" s="48"/>
+      <c r="X657" s="13"/>
       <c r="Y657" s="13"/>
       <c r="Z657" s="13"/>
       <c r="AA657" s="13"/>
@@ -24923,7 +24914,7 @@
       <c r="U658" s="13"/>
       <c r="V658" s="13"/>
       <c r="W658" s="18"/>
-      <c r="X658" s="48"/>
+      <c r="X658" s="13"/>
       <c r="Y658" s="13"/>
       <c r="Z658" s="13"/>
       <c r="AA658" s="13"/>
@@ -24953,7 +24944,7 @@
       <c r="U659" s="13"/>
       <c r="V659" s="13"/>
       <c r="W659" s="18"/>
-      <c r="X659" s="48"/>
+      <c r="X659" s="13"/>
       <c r="Y659" s="13"/>
       <c r="Z659" s="13"/>
       <c r="AA659" s="13"/>
@@ -24983,7 +24974,7 @@
       <c r="U660" s="13"/>
       <c r="V660" s="13"/>
       <c r="W660" s="18"/>
-      <c r="X660" s="48"/>
+      <c r="X660" s="13"/>
       <c r="Y660" s="13"/>
       <c r="Z660" s="13"/>
       <c r="AA660" s="13"/>
@@ -25013,7 +25004,7 @@
       <c r="U661" s="13"/>
       <c r="V661" s="13"/>
       <c r="W661" s="18"/>
-      <c r="X661" s="48"/>
+      <c r="X661" s="13"/>
       <c r="Y661" s="13"/>
       <c r="Z661" s="13"/>
       <c r="AA661" s="13"/>
@@ -25043,7 +25034,7 @@
       <c r="U662" s="13"/>
       <c r="V662" s="13"/>
       <c r="W662" s="18"/>
-      <c r="X662" s="48"/>
+      <c r="X662" s="13"/>
       <c r="Y662" s="13"/>
       <c r="Z662" s="13"/>
       <c r="AA662" s="13"/>
@@ -25073,7 +25064,7 @@
       <c r="U663" s="13"/>
       <c r="V663" s="13"/>
       <c r="W663" s="18"/>
-      <c r="X663" s="48"/>
+      <c r="X663" s="13"/>
       <c r="Y663" s="13"/>
       <c r="Z663" s="13"/>
       <c r="AA663" s="13"/>
@@ -25103,7 +25094,7 @@
       <c r="U664" s="13"/>
       <c r="V664" s="13"/>
       <c r="W664" s="18"/>
-      <c r="X664" s="48"/>
+      <c r="X664" s="13"/>
       <c r="Y664" s="13"/>
       <c r="Z664" s="13"/>
       <c r="AA664" s="13"/>
@@ -25133,7 +25124,7 @@
       <c r="U665" s="13"/>
       <c r="V665" s="13"/>
       <c r="W665" s="18"/>
-      <c r="X665" s="48"/>
+      <c r="X665" s="13"/>
       <c r="Y665" s="13"/>
       <c r="Z665" s="13"/>
       <c r="AA665" s="13"/>
@@ -25163,7 +25154,7 @@
       <c r="U666" s="13"/>
       <c r="V666" s="13"/>
       <c r="W666" s="18"/>
-      <c r="X666" s="48"/>
+      <c r="X666" s="13"/>
       <c r="Y666" s="13"/>
       <c r="Z666" s="13"/>
       <c r="AA666" s="13"/>
@@ -25193,7 +25184,7 @@
       <c r="U667" s="13"/>
       <c r="V667" s="13"/>
       <c r="W667" s="18"/>
-      <c r="X667" s="48"/>
+      <c r="X667" s="13"/>
       <c r="Y667" s="13"/>
       <c r="Z667" s="13"/>
       <c r="AA667" s="13"/>
@@ -25223,7 +25214,7 @@
       <c r="U668" s="13"/>
       <c r="V668" s="13"/>
       <c r="W668" s="18"/>
-      <c r="X668" s="48"/>
+      <c r="X668" s="13"/>
       <c r="Y668" s="13"/>
       <c r="Z668" s="13"/>
       <c r="AA668" s="13"/>
@@ -25253,7 +25244,7 @@
       <c r="U669" s="13"/>
       <c r="V669" s="13"/>
       <c r="W669" s="18"/>
-      <c r="X669" s="48"/>
+      <c r="X669" s="13"/>
       <c r="Y669" s="13"/>
       <c r="Z669" s="13"/>
       <c r="AA669" s="13"/>
@@ -25283,7 +25274,7 @@
       <c r="U670" s="13"/>
       <c r="V670" s="13"/>
       <c r="W670" s="18"/>
-      <c r="X670" s="48"/>
+      <c r="X670" s="13"/>
       <c r="Y670" s="13"/>
       <c r="Z670" s="13"/>
       <c r="AA670" s="13"/>
@@ -25313,7 +25304,7 @@
       <c r="U671" s="13"/>
       <c r="V671" s="13"/>
       <c r="W671" s="18"/>
-      <c r="X671" s="48"/>
+      <c r="X671" s="13"/>
       <c r="Y671" s="13"/>
       <c r="Z671" s="13"/>
       <c r="AA671" s="13"/>
@@ -25343,7 +25334,7 @@
       <c r="U672" s="13"/>
       <c r="V672" s="13"/>
       <c r="W672" s="18"/>
-      <c r="X672" s="48"/>
+      <c r="X672" s="13"/>
       <c r="Y672" s="13"/>
       <c r="Z672" s="13"/>
       <c r="AA672" s="13"/>
@@ -25373,7 +25364,7 @@
       <c r="U673" s="13"/>
       <c r="V673" s="13"/>
       <c r="W673" s="18"/>
-      <c r="X673" s="48"/>
+      <c r="X673" s="13"/>
       <c r="Y673" s="13"/>
       <c r="Z673" s="13"/>
       <c r="AA673" s="13"/>
@@ -25403,7 +25394,7 @@
       <c r="U674" s="13"/>
       <c r="V674" s="13"/>
       <c r="W674" s="18"/>
-      <c r="X674" s="48"/>
+      <c r="X674" s="13"/>
       <c r="Y674" s="13"/>
       <c r="Z674" s="13"/>
       <c r="AA674" s="13"/>
@@ -25433,7 +25424,7 @@
       <c r="U675" s="13"/>
       <c r="V675" s="13"/>
       <c r="W675" s="18"/>
-      <c r="X675" s="48"/>
+      <c r="X675" s="13"/>
       <c r="Y675" s="13"/>
       <c r="Z675" s="13"/>
       <c r="AA675" s="13"/>
@@ -25463,7 +25454,7 @@
       <c r="U676" s="13"/>
       <c r="V676" s="13"/>
       <c r="W676" s="18"/>
-      <c r="X676" s="48"/>
+      <c r="X676" s="13"/>
       <c r="Y676" s="13"/>
       <c r="Z676" s="13"/>
       <c r="AA676" s="13"/>
@@ -25493,7 +25484,7 @@
       <c r="U677" s="13"/>
       <c r="V677" s="13"/>
       <c r="W677" s="18"/>
-      <c r="X677" s="48"/>
+      <c r="X677" s="13"/>
       <c r="Y677" s="13"/>
       <c r="Z677" s="13"/>
       <c r="AA677" s="13"/>
@@ -25523,7 +25514,7 @@
       <c r="U678" s="13"/>
       <c r="V678" s="13"/>
       <c r="W678" s="18"/>
-      <c r="X678" s="48"/>
+      <c r="X678" s="13"/>
       <c r="Y678" s="13"/>
       <c r="Z678" s="13"/>
       <c r="AA678" s="13"/>
@@ -25553,7 +25544,7 @@
       <c r="U679" s="13"/>
       <c r="V679" s="13"/>
       <c r="W679" s="18"/>
-      <c r="X679" s="48"/>
+      <c r="X679" s="13"/>
       <c r="Y679" s="13"/>
       <c r="Z679" s="13"/>
       <c r="AA679" s="13"/>
@@ -25583,7 +25574,7 @@
       <c r="U680" s="13"/>
       <c r="V680" s="13"/>
       <c r="W680" s="18"/>
-      <c r="X680" s="48"/>
+      <c r="X680" s="13"/>
       <c r="Y680" s="13"/>
       <c r="Z680" s="13"/>
       <c r="AA680" s="13"/>
@@ -25613,7 +25604,7 @@
       <c r="U681" s="13"/>
       <c r="V681" s="13"/>
       <c r="W681" s="18"/>
-      <c r="X681" s="48"/>
+      <c r="X681" s="13"/>
       <c r="Y681" s="13"/>
       <c r="Z681" s="13"/>
       <c r="AA681" s="13"/>
@@ -25643,7 +25634,7 @@
       <c r="U682" s="13"/>
       <c r="V682" s="13"/>
       <c r="W682" s="18"/>
-      <c r="X682" s="48"/>
+      <c r="X682" s="13"/>
       <c r="Y682" s="13"/>
       <c r="Z682" s="13"/>
       <c r="AA682" s="13"/>
@@ -25673,7 +25664,7 @@
       <c r="U683" s="13"/>
       <c r="V683" s="13"/>
       <c r="W683" s="18"/>
-      <c r="X683" s="48"/>
+      <c r="X683" s="13"/>
       <c r="Y683" s="13"/>
       <c r="Z683" s="13"/>
       <c r="AA683" s="13"/>
@@ -25703,7 +25694,7 @@
       <c r="U684" s="13"/>
       <c r="V684" s="13"/>
       <c r="W684" s="18"/>
-      <c r="X684" s="48"/>
+      <c r="X684" s="13"/>
       <c r="Y684" s="13"/>
       <c r="Z684" s="13"/>
       <c r="AA684" s="13"/>
@@ -25733,7 +25724,7 @@
       <c r="U685" s="13"/>
       <c r="V685" s="13"/>
       <c r="W685" s="18"/>
-      <c r="X685" s="48"/>
+      <c r="X685" s="13"/>
       <c r="Y685" s="13"/>
       <c r="Z685" s="13"/>
       <c r="AA685" s="13"/>
@@ -25763,7 +25754,7 @@
       <c r="U686" s="13"/>
       <c r="V686" s="13"/>
       <c r="W686" s="18"/>
-      <c r="X686" s="48"/>
+      <c r="X686" s="13"/>
       <c r="Y686" s="13"/>
       <c r="Z686" s="13"/>
       <c r="AA686" s="13"/>
@@ -25793,7 +25784,7 @@
       <c r="U687" s="13"/>
       <c r="V687" s="13"/>
       <c r="W687" s="18"/>
-      <c r="X687" s="48"/>
+      <c r="X687" s="13"/>
       <c r="Y687" s="13"/>
       <c r="Z687" s="13"/>
       <c r="AA687" s="13"/>
@@ -25823,7 +25814,7 @@
       <c r="U688" s="13"/>
       <c r="V688" s="13"/>
       <c r="W688" s="18"/>
-      <c r="X688" s="48"/>
+      <c r="X688" s="13"/>
       <c r="Y688" s="13"/>
       <c r="Z688" s="13"/>
       <c r="AA688" s="13"/>
@@ -25853,7 +25844,7 @@
       <c r="U689" s="13"/>
       <c r="V689" s="13"/>
       <c r="W689" s="18"/>
-      <c r="X689" s="48"/>
+      <c r="X689" s="13"/>
       <c r="Y689" s="13"/>
       <c r="Z689" s="13"/>
       <c r="AA689" s="13"/>
@@ -25883,7 +25874,7 @@
       <c r="U690" s="13"/>
       <c r="V690" s="13"/>
       <c r="W690" s="18"/>
-      <c r="X690" s="48"/>
+      <c r="X690" s="13"/>
       <c r="Y690" s="13"/>
       <c r="Z690" s="13"/>
       <c r="AA690" s="13"/>
@@ -25913,7 +25904,7 @@
       <c r="U691" s="13"/>
       <c r="V691" s="13"/>
       <c r="W691" s="18"/>
-      <c r="X691" s="48"/>
+      <c r="X691" s="13"/>
       <c r="Y691" s="13"/>
       <c r="Z691" s="13"/>
       <c r="AA691" s="13"/>
@@ -25943,7 +25934,7 @@
       <c r="U692" s="13"/>
       <c r="V692" s="13"/>
       <c r="W692" s="18"/>
-      <c r="X692" s="48"/>
+      <c r="X692" s="13"/>
       <c r="Y692" s="13"/>
       <c r="Z692" s="13"/>
       <c r="AA692" s="13"/>
@@ -25973,7 +25964,7 @@
       <c r="U693" s="13"/>
       <c r="V693" s="13"/>
       <c r="W693" s="18"/>
-      <c r="X693" s="48"/>
+      <c r="X693" s="13"/>
       <c r="Y693" s="13"/>
       <c r="Z693" s="13"/>
       <c r="AA693" s="13"/>
@@ -26003,7 +25994,7 @@
       <c r="U694" s="13"/>
       <c r="V694" s="13"/>
       <c r="W694" s="18"/>
-      <c r="X694" s="48"/>
+      <c r="X694" s="13"/>
       <c r="Y694" s="13"/>
       <c r="Z694" s="13"/>
       <c r="AA694" s="13"/>
@@ -26033,7 +26024,7 @@
       <c r="U695" s="13"/>
       <c r="V695" s="13"/>
       <c r="W695" s="18"/>
-      <c r="X695" s="48"/>
+      <c r="X695" s="13"/>
       <c r="Y695" s="13"/>
       <c r="Z695" s="13"/>
       <c r="AA695" s="13"/>
@@ -26063,7 +26054,7 @@
       <c r="U696" s="13"/>
       <c r="V696" s="13"/>
       <c r="W696" s="18"/>
-      <c r="X696" s="48"/>
+      <c r="X696" s="13"/>
       <c r="Y696" s="13"/>
       <c r="Z696" s="13"/>
       <c r="AA696" s="13"/>
@@ -26093,7 +26084,7 @@
       <c r="U697" s="13"/>
       <c r="V697" s="13"/>
       <c r="W697" s="18"/>
-      <c r="X697" s="48"/>
+      <c r="X697" s="13"/>
       <c r="Y697" s="13"/>
       <c r="Z697" s="13"/>
       <c r="AA697" s="13"/>
@@ -26123,7 +26114,7 @@
       <c r="U698" s="13"/>
       <c r="V698" s="13"/>
       <c r="W698" s="18"/>
-      <c r="X698" s="48"/>
+      <c r="X698" s="13"/>
       <c r="Y698" s="13"/>
       <c r="Z698" s="13"/>
       <c r="AA698" s="13"/>
@@ -26153,7 +26144,7 @@
       <c r="U699" s="13"/>
       <c r="V699" s="13"/>
       <c r="W699" s="18"/>
-      <c r="X699" s="48"/>
+      <c r="X699" s="13"/>
       <c r="Y699" s="13"/>
       <c r="Z699" s="13"/>
       <c r="AA699" s="13"/>
@@ -26183,7 +26174,7 @@
       <c r="U700" s="13"/>
       <c r="V700" s="13"/>
       <c r="W700" s="18"/>
-      <c r="X700" s="48"/>
+      <c r="X700" s="13"/>
       <c r="Y700" s="13"/>
       <c r="Z700" s="13"/>
       <c r="AA700" s="13"/>
@@ -26213,7 +26204,7 @@
       <c r="U701" s="13"/>
       <c r="V701" s="13"/>
       <c r="W701" s="18"/>
-      <c r="X701" s="48"/>
+      <c r="X701" s="13"/>
       <c r="Y701" s="13"/>
       <c r="Z701" s="13"/>
       <c r="AA701" s="13"/>
@@ -26243,7 +26234,7 @@
       <c r="U702" s="13"/>
       <c r="V702" s="13"/>
       <c r="W702" s="18"/>
-      <c r="X702" s="48"/>
+      <c r="X702" s="13"/>
       <c r="Y702" s="13"/>
       <c r="Z702" s="13"/>
       <c r="AA702" s="13"/>
@@ -26273,7 +26264,7 @@
       <c r="U703" s="13"/>
       <c r="V703" s="13"/>
       <c r="W703" s="18"/>
-      <c r="X703" s="48"/>
+      <c r="X703" s="13"/>
       <c r="Y703" s="13"/>
       <c r="Z703" s="13"/>
       <c r="AA703" s="13"/>
@@ -26303,7 +26294,7 @@
       <c r="U704" s="13"/>
       <c r="V704" s="13"/>
       <c r="W704" s="18"/>
-      <c r="X704" s="48"/>
+      <c r="X704" s="13"/>
       <c r="Y704" s="13"/>
       <c r="Z704" s="13"/>
       <c r="AA704" s="13"/>
@@ -26333,7 +26324,7 @@
       <c r="U705" s="13"/>
       <c r="V705" s="13"/>
       <c r="W705" s="18"/>
-      <c r="X705" s="48"/>
+      <c r="X705" s="13"/>
       <c r="Y705" s="13"/>
       <c r="Z705" s="13"/>
       <c r="AA705" s="13"/>
@@ -26363,7 +26354,7 @@
       <c r="U706" s="13"/>
       <c r="V706" s="13"/>
       <c r="W706" s="18"/>
-      <c r="X706" s="48"/>
+      <c r="X706" s="13"/>
       <c r="Y706" s="13"/>
       <c r="Z706" s="13"/>
       <c r="AA706" s="13"/>
@@ -26393,7 +26384,7 @@
       <c r="U707" s="13"/>
       <c r="V707" s="13"/>
       <c r="W707" s="18"/>
-      <c r="X707" s="48"/>
+      <c r="X707" s="13"/>
       <c r="Y707" s="13"/>
       <c r="Z707" s="13"/>
       <c r="AA707" s="13"/>
@@ -26423,7 +26414,7 @@
       <c r="U708" s="13"/>
       <c r="V708" s="13"/>
       <c r="W708" s="18"/>
-      <c r="X708" s="48"/>
+      <c r="X708" s="13"/>
       <c r="Y708" s="13"/>
       <c r="Z708" s="13"/>
       <c r="AA708" s="13"/>
@@ -26453,7 +26444,7 @@
       <c r="U709" s="13"/>
       <c r="V709" s="13"/>
       <c r="W709" s="18"/>
-      <c r="X709" s="48"/>
+      <c r="X709" s="13"/>
       <c r="Y709" s="13"/>
       <c r="Z709" s="13"/>
       <c r="AA709" s="13"/>
@@ -26483,7 +26474,7 @@
       <c r="U710" s="13"/>
       <c r="V710" s="13"/>
       <c r="W710" s="18"/>
-      <c r="X710" s="48"/>
+      <c r="X710" s="13"/>
       <c r="Y710" s="13"/>
       <c r="Z710" s="13"/>
       <c r="AA710" s="13"/>
@@ -26513,7 +26504,7 @@
       <c r="U711" s="13"/>
       <c r="V711" s="13"/>
       <c r="W711" s="18"/>
-      <c r="X711" s="48"/>
+      <c r="X711" s="13"/>
       <c r="Y711" s="13"/>
       <c r="Z711" s="13"/>
       <c r="AA711" s="13"/>
@@ -26543,7 +26534,7 @@
       <c r="U712" s="13"/>
       <c r="V712" s="13"/>
       <c r="W712" s="18"/>
-      <c r="X712" s="48"/>
+      <c r="X712" s="13"/>
       <c r="Y712" s="13"/>
       <c r="Z712" s="13"/>
       <c r="AA712" s="13"/>
@@ -26573,7 +26564,7 @@
       <c r="U713" s="13"/>
       <c r="V713" s="13"/>
       <c r="W713" s="18"/>
-      <c r="X713" s="48"/>
+      <c r="X713" s="13"/>
       <c r="Y713" s="13"/>
       <c r="Z713" s="13"/>
       <c r="AA713" s="13"/>
@@ -26603,7 +26594,7 @@
       <c r="U714" s="13"/>
       <c r="V714" s="13"/>
       <c r="W714" s="18"/>
-      <c r="X714" s="48"/>
+      <c r="X714" s="13"/>
       <c r="Y714" s="13"/>
       <c r="Z714" s="13"/>
       <c r="AA714" s="13"/>
@@ -26633,7 +26624,7 @@
       <c r="U715" s="13"/>
       <c r="V715" s="13"/>
       <c r="W715" s="18"/>
-      <c r="X715" s="48"/>
+      <c r="X715" s="13"/>
       <c r="Y715" s="13"/>
       <c r="Z715" s="13"/>
       <c r="AA715" s="13"/>
@@ -26663,7 +26654,7 @@
       <c r="U716" s="13"/>
       <c r="V716" s="13"/>
       <c r="W716" s="18"/>
-      <c r="X716" s="48"/>
+      <c r="X716" s="13"/>
       <c r="Y716" s="13"/>
       <c r="Z716" s="13"/>
       <c r="AA716" s="13"/>
@@ -26693,7 +26684,7 @@
       <c r="U717" s="13"/>
       <c r="V717" s="13"/>
       <c r="W717" s="18"/>
-      <c r="X717" s="48"/>
+      <c r="X717" s="13"/>
       <c r="Y717" s="13"/>
       <c r="Z717" s="13"/>
       <c r="AA717" s="13"/>
@@ -26723,7 +26714,7 @@
       <c r="U718" s="13"/>
       <c r="V718" s="13"/>
       <c r="W718" s="18"/>
-      <c r="X718" s="48"/>
+      <c r="X718" s="13"/>
       <c r="Y718" s="13"/>
       <c r="Z718" s="13"/>
       <c r="AA718" s="13"/>
@@ -26753,7 +26744,7 @@
       <c r="U719" s="13"/>
       <c r="V719" s="13"/>
       <c r="W719" s="18"/>
-      <c r="X719" s="48"/>
+      <c r="X719" s="13"/>
       <c r="Y719" s="13"/>
       <c r="Z719" s="13"/>
       <c r="AA719" s="13"/>
@@ -26783,7 +26774,7 @@
       <c r="U720" s="13"/>
       <c r="V720" s="13"/>
       <c r="W720" s="18"/>
-      <c r="X720" s="48"/>
+      <c r="X720" s="13"/>
       <c r="Y720" s="13"/>
       <c r="Z720" s="13"/>
       <c r="AA720" s="13"/>
@@ -26813,7 +26804,7 @@
       <c r="U721" s="13"/>
       <c r="V721" s="13"/>
       <c r="W721" s="18"/>
-      <c r="X721" s="48"/>
+      <c r="X721" s="13"/>
       <c r="Y721" s="13"/>
       <c r="Z721" s="13"/>
       <c r="AA721" s="13"/>
@@ -26843,7 +26834,7 @@
       <c r="U722" s="13"/>
       <c r="V722" s="13"/>
       <c r="W722" s="18"/>
-      <c r="X722" s="48"/>
+      <c r="X722" s="13"/>
       <c r="Y722" s="13"/>
       <c r="Z722" s="13"/>
       <c r="AA722" s="13"/>
@@ -26873,7 +26864,7 @@
       <c r="U723" s="13"/>
       <c r="V723" s="13"/>
       <c r="W723" s="18"/>
-      <c r="X723" s="48"/>
+      <c r="X723" s="13"/>
       <c r="Y723" s="13"/>
       <c r="Z723" s="13"/>
       <c r="AA723" s="13"/>
@@ -26903,7 +26894,7 @@
       <c r="U724" s="13"/>
       <c r="V724" s="13"/>
       <c r="W724" s="18"/>
-      <c r="X724" s="48"/>
+      <c r="X724" s="13"/>
       <c r="Y724" s="13"/>
       <c r="Z724" s="13"/>
       <c r="AA724" s="13"/>
@@ -26933,7 +26924,7 @@
       <c r="U725" s="13"/>
       <c r="V725" s="13"/>
       <c r="W725" s="18"/>
-      <c r="X725" s="48"/>
+      <c r="X725" s="13"/>
       <c r="Y725" s="13"/>
       <c r="Z725" s="13"/>
       <c r="AA725" s="13"/>
@@ -26963,7 +26954,7 @@
       <c r="U726" s="13"/>
       <c r="V726" s="13"/>
       <c r="W726" s="18"/>
-      <c r="X726" s="48"/>
+      <c r="X726" s="13"/>
       <c r="Y726" s="13"/>
       <c r="Z726" s="13"/>
       <c r="AA726" s="13"/>
@@ -26993,7 +26984,7 @@
       <c r="U727" s="13"/>
       <c r="V727" s="13"/>
       <c r="W727" s="18"/>
-      <c r="X727" s="48"/>
+      <c r="X727" s="13"/>
       <c r="Y727" s="13"/>
       <c r="Z727" s="13"/>
       <c r="AA727" s="13"/>
@@ -27023,7 +27014,7 @@
       <c r="U728" s="13"/>
       <c r="V728" s="13"/>
       <c r="W728" s="18"/>
-      <c r="X728" s="48"/>
+      <c r="X728" s="13"/>
       <c r="Y728" s="13"/>
       <c r="Z728" s="13"/>
       <c r="AA728" s="13"/>
@@ -27053,7 +27044,7 @@
       <c r="U729" s="13"/>
       <c r="V729" s="13"/>
       <c r="W729" s="18"/>
-      <c r="X729" s="48"/>
+      <c r="X729" s="13"/>
       <c r="Y729" s="13"/>
       <c r="Z729" s="13"/>
       <c r="AA729" s="13"/>
@@ -27083,7 +27074,7 @@
       <c r="U730" s="13"/>
       <c r="V730" s="13"/>
       <c r="W730" s="18"/>
-      <c r="X730" s="48"/>
+      <c r="X730" s="13"/>
       <c r="Y730" s="13"/>
       <c r="Z730" s="13"/>
       <c r="AA730" s="13"/>
@@ -27113,7 +27104,7 @@
       <c r="U731" s="13"/>
       <c r="V731" s="13"/>
       <c r="W731" s="18"/>
-      <c r="X731" s="48"/>
+      <c r="X731" s="13"/>
       <c r="Y731" s="13"/>
       <c r="Z731" s="13"/>
       <c r="AA731" s="13"/>
@@ -27143,7 +27134,7 @@
       <c r="U732" s="13"/>
       <c r="V732" s="13"/>
       <c r="W732" s="18"/>
-      <c r="X732" s="48"/>
+      <c r="X732" s="13"/>
       <c r="Y732" s="13"/>
       <c r="Z732" s="13"/>
       <c r="AA732" s="13"/>
@@ -27173,7 +27164,7 @@
       <c r="U733" s="13"/>
       <c r="V733" s="13"/>
       <c r="W733" s="18"/>
-      <c r="X733" s="48"/>
+      <c r="X733" s="13"/>
       <c r="Y733" s="13"/>
       <c r="Z733" s="13"/>
       <c r="AA733" s="13"/>
@@ -27203,7 +27194,7 @@
       <c r="U734" s="13"/>
       <c r="V734" s="13"/>
       <c r="W734" s="18"/>
-      <c r="X734" s="48"/>
+      <c r="X734" s="13"/>
       <c r="Y734" s="13"/>
       <c r="Z734" s="13"/>
       <c r="AA734" s="13"/>
@@ -27233,7 +27224,7 @@
       <c r="U735" s="13"/>
       <c r="V735" s="13"/>
       <c r="W735" s="18"/>
-      <c r="X735" s="48"/>
+      <c r="X735" s="13"/>
       <c r="Y735" s="13"/>
       <c r="Z735" s="13"/>
       <c r="AA735" s="13"/>
@@ -27263,7 +27254,7 @@
       <c r="U736" s="13"/>
       <c r="V736" s="13"/>
       <c r="W736" s="18"/>
-      <c r="X736" s="48"/>
+      <c r="X736" s="13"/>
       <c r="Y736" s="13"/>
       <c r="Z736" s="13"/>
       <c r="AA736" s="13"/>
@@ -27293,7 +27284,7 @@
       <c r="U737" s="13"/>
       <c r="V737" s="13"/>
       <c r="W737" s="18"/>
-      <c r="X737" s="48"/>
+      <c r="X737" s="13"/>
       <c r="Y737" s="13"/>
       <c r="Z737" s="13"/>
       <c r="AA737" s="13"/>
@@ -27323,7 +27314,7 @@
       <c r="U738" s="13"/>
       <c r="V738" s="13"/>
       <c r="W738" s="18"/>
-      <c r="X738" s="48"/>
+      <c r="X738" s="13"/>
       <c r="Y738" s="13"/>
       <c r="Z738" s="13"/>
       <c r="AA738" s="13"/>
@@ -27353,7 +27344,7 @@
       <c r="U739" s="13"/>
       <c r="V739" s="13"/>
       <c r="W739" s="18"/>
-      <c r="X739" s="48"/>
+      <c r="X739" s="13"/>
       <c r="Y739" s="13"/>
       <c r="Z739" s="13"/>
       <c r="AA739" s="13"/>
@@ -27383,7 +27374,7 @@
       <c r="U740" s="13"/>
       <c r="V740" s="13"/>
       <c r="W740" s="18"/>
-      <c r="X740" s="48"/>
+      <c r="X740" s="13"/>
       <c r="Y740" s="13"/>
       <c r="Z740" s="13"/>
       <c r="AA740" s="13"/>
@@ -27413,7 +27404,7 @@
       <c r="U741" s="13"/>
       <c r="V741" s="13"/>
       <c r="W741" s="18"/>
-      <c r="X741" s="48"/>
+      <c r="X741" s="13"/>
       <c r="Y741" s="13"/>
       <c r="Z741" s="13"/>
       <c r="AA741" s="13"/>
@@ -27443,7 +27434,7 @@
       <c r="U742" s="13"/>
       <c r="V742" s="13"/>
       <c r="W742" s="18"/>
-      <c r="X742" s="48"/>
+      <c r="X742" s="13"/>
       <c r="Y742" s="13"/>
       <c r="Z742" s="13"/>
       <c r="AA742" s="13"/>
@@ -27473,7 +27464,7 @@
       <c r="U743" s="13"/>
       <c r="V743" s="13"/>
       <c r="W743" s="18"/>
-      <c r="X743" s="48"/>
+      <c r="X743" s="13"/>
       <c r="Y743" s="13"/>
       <c r="Z743" s="13"/>
       <c r="AA743" s="13"/>
@@ -27503,7 +27494,7 @@
       <c r="U744" s="13"/>
       <c r="V744" s="13"/>
       <c r="W744" s="18"/>
-      <c r="X744" s="48"/>
+      <c r="X744" s="13"/>
       <c r="Y744" s="13"/>
       <c r="Z744" s="13"/>
       <c r="AA744" s="13"/>
@@ -27533,7 +27524,7 @@
       <c r="U745" s="13"/>
       <c r="V745" s="13"/>
       <c r="W745" s="18"/>
-      <c r="X745" s="48"/>
+      <c r="X745" s="13"/>
       <c r="Y745" s="13"/>
       <c r="Z745" s="13"/>
       <c r="AA745" s="13"/>
@@ -27563,7 +27554,7 @@
       <c r="U746" s="13"/>
       <c r="V746" s="13"/>
       <c r="W746" s="18"/>
-      <c r="X746" s="48"/>
+      <c r="X746" s="13"/>
       <c r="Y746" s="13"/>
       <c r="Z746" s="13"/>
       <c r="AA746" s="13"/>
@@ -27593,7 +27584,7 @@
       <c r="U747" s="13"/>
       <c r="V747" s="13"/>
       <c r="W747" s="18"/>
-      <c r="X747" s="48"/>
+      <c r="X747" s="13"/>
       <c r="Y747" s="13"/>
       <c r="Z747" s="13"/>
       <c r="AA747" s="13"/>
@@ -27623,7 +27614,7 @@
       <c r="U748" s="13"/>
       <c r="V748" s="13"/>
       <c r="W748" s="18"/>
-      <c r="X748" s="48"/>
+      <c r="X748" s="13"/>
       <c r="Y748" s="13"/>
       <c r="Z748" s="13"/>
       <c r="AA748" s="13"/>
@@ -27653,7 +27644,7 @@
       <c r="U749" s="13"/>
       <c r="V749" s="13"/>
       <c r="W749" s="18"/>
-      <c r="X749" s="48"/>
+      <c r="X749" s="13"/>
       <c r="Y749" s="13"/>
       <c r="Z749" s="13"/>
       <c r="AA749" s="13"/>
@@ -27683,7 +27674,7 @@
       <c r="U750" s="13"/>
       <c r="V750" s="13"/>
       <c r="W750" s="18"/>
-      <c r="X750" s="48"/>
+      <c r="X750" s="13"/>
       <c r="Y750" s="13"/>
       <c r="Z750" s="13"/>
       <c r="AA750" s="13"/>
@@ -27713,7 +27704,7 @@
       <c r="U751" s="13"/>
       <c r="V751" s="13"/>
       <c r="W751" s="18"/>
-      <c r="X751" s="48"/>
+      <c r="X751" s="13"/>
       <c r="Y751" s="13"/>
       <c r="Z751" s="13"/>
       <c r="AA751" s="13"/>
@@ -27743,7 +27734,7 @@
       <c r="U752" s="13"/>
       <c r="V752" s="13"/>
       <c r="W752" s="18"/>
-      <c r="X752" s="48"/>
+      <c r="X752" s="13"/>
       <c r="Y752" s="13"/>
       <c r="Z752" s="13"/>
       <c r="AA752" s="13"/>
@@ -27773,7 +27764,7 @@
       <c r="U753" s="13"/>
       <c r="V753" s="13"/>
       <c r="W753" s="18"/>
-      <c r="X753" s="48"/>
+      <c r="X753" s="13"/>
       <c r="Y753" s="13"/>
       <c r="Z753" s="13"/>
       <c r="AA753" s="13"/>
@@ -27803,7 +27794,7 @@
       <c r="U754" s="13"/>
       <c r="V754" s="13"/>
       <c r="W754" s="18"/>
-      <c r="X754" s="48"/>
+      <c r="X754" s="13"/>
       <c r="Y754" s="13"/>
       <c r="Z754" s="13"/>
       <c r="AA754" s="13"/>
@@ -27833,7 +27824,7 @@
       <c r="U755" s="13"/>
       <c r="V755" s="13"/>
       <c r="W755" s="18"/>
-      <c r="X755" s="48"/>
+      <c r="X755" s="13"/>
       <c r="Y755" s="13"/>
       <c r="Z755" s="13"/>
       <c r="AA755" s="13"/>
@@ -27863,7 +27854,7 @@
       <c r="U756" s="13"/>
       <c r="V756" s="13"/>
       <c r="W756" s="18"/>
-      <c r="X756" s="48"/>
+      <c r="X756" s="13"/>
       <c r="Y756" s="13"/>
       <c r="Z756" s="13"/>
       <c r="AA756" s="13"/>
@@ -27893,7 +27884,7 @@
       <c r="U757" s="13"/>
       <c r="V757" s="13"/>
       <c r="W757" s="18"/>
-      <c r="X757" s="48"/>
+      <c r="X757" s="13"/>
       <c r="Y757" s="13"/>
       <c r="Z757" s="13"/>
       <c r="AA757" s="13"/>
@@ -27923,7 +27914,7 @@
       <c r="U758" s="13"/>
       <c r="V758" s="13"/>
       <c r="W758" s="18"/>
-      <c r="X758" s="48"/>
+      <c r="X758" s="13"/>
       <c r="Y758" s="13"/>
       <c r="Z758" s="13"/>
       <c r="AA758" s="13"/>
@@ -27953,7 +27944,7 @@
       <c r="U759" s="13"/>
       <c r="V759" s="13"/>
       <c r="W759" s="18"/>
-      <c r="X759" s="48"/>
+      <c r="X759" s="13"/>
       <c r="Y759" s="13"/>
       <c r="Z759" s="13"/>
       <c r="AA759" s="13"/>
@@ -27983,7 +27974,7 @@
       <c r="U760" s="13"/>
       <c r="V760" s="13"/>
       <c r="W760" s="18"/>
-      <c r="X760" s="48"/>
+      <c r="X760" s="13"/>
       <c r="Y760" s="13"/>
       <c r="Z760" s="13"/>
       <c r="AA760" s="13"/>
@@ -28013,7 +28004,7 @@
       <c r="U761" s="13"/>
       <c r="V761" s="13"/>
       <c r="W761" s="18"/>
-      <c r="X761" s="48"/>
+      <c r="X761" s="13"/>
       <c r="Y761" s="13"/>
       <c r="Z761" s="13"/>
       <c r="AA761" s="13"/>
@@ -28043,7 +28034,7 @@
       <c r="U762" s="13"/>
       <c r="V762" s="13"/>
       <c r="W762" s="18"/>
-      <c r="X762" s="48"/>
+      <c r="X762" s="13"/>
       <c r="Y762" s="13"/>
       <c r="Z762" s="13"/>
       <c r="AA762" s="13"/>
@@ -28073,7 +28064,7 @@
       <c r="U763" s="13"/>
       <c r="V763" s="13"/>
       <c r="W763" s="18"/>
-      <c r="X763" s="48"/>
+      <c r="X763" s="13"/>
       <c r="Y763" s="13"/>
       <c r="Z763" s="13"/>
       <c r="AA763" s="13"/>
@@ -28103,7 +28094,7 @@
       <c r="U764" s="13"/>
       <c r="V764" s="13"/>
       <c r="W764" s="18"/>
-      <c r="X764" s="48"/>
+      <c r="X764" s="13"/>
       <c r="Y764" s="13"/>
       <c r="Z764" s="13"/>
       <c r="AA764" s="13"/>
@@ -28133,7 +28124,7 @@
       <c r="U765" s="13"/>
       <c r="V765" s="13"/>
       <c r="W765" s="18"/>
-      <c r="X765" s="48"/>
+      <c r="X765" s="13"/>
       <c r="Y765" s="13"/>
       <c r="Z765" s="13"/>
       <c r="AA765" s="13"/>
@@ -28163,7 +28154,7 @@
       <c r="U766" s="13"/>
       <c r="V766" s="13"/>
       <c r="W766" s="18"/>
-      <c r="X766" s="48"/>
+      <c r="X766" s="13"/>
       <c r="Y766" s="13"/>
       <c r="Z766" s="13"/>
       <c r="AA766" s="13"/>
@@ -28193,7 +28184,7 @@
       <c r="U767" s="13"/>
       <c r="V767" s="13"/>
       <c r="W767" s="18"/>
-      <c r="X767" s="48"/>
+      <c r="X767" s="13"/>
       <c r="Y767" s="13"/>
       <c r="Z767" s="13"/>
       <c r="AA767" s="13"/>
@@ -28223,7 +28214,7 @@
       <c r="U768" s="13"/>
       <c r="V768" s="13"/>
       <c r="W768" s="18"/>
-      <c r="X768" s="48"/>
+      <c r="X768" s="13"/>
       <c r="Y768" s="13"/>
       <c r="Z768" s="13"/>
       <c r="AA768" s="13"/>
@@ -28253,7 +28244,7 @@
       <c r="U769" s="13"/>
       <c r="V769" s="13"/>
       <c r="W769" s="18"/>
-      <c r="X769" s="48"/>
+      <c r="X769" s="13"/>
       <c r="Y769" s="13"/>
       <c r="Z769" s="13"/>
       <c r="AA769" s="13"/>
@@ -28283,7 +28274,7 @@
       <c r="U770" s="13"/>
       <c r="V770" s="13"/>
       <c r="W770" s="18"/>
-      <c r="X770" s="48"/>
+      <c r="X770" s="13"/>
       <c r="Y770" s="13"/>
       <c r="Z770" s="13"/>
       <c r="AA770" s="13"/>
@@ -28313,7 +28304,7 @@
       <c r="U771" s="13"/>
       <c r="V771" s="13"/>
       <c r="W771" s="18"/>
-      <c r="X771" s="48"/>
+      <c r="X771" s="13"/>
       <c r="Y771" s="13"/>
       <c r="Z771" s="13"/>
       <c r="AA771" s="13"/>
@@ -28343,7 +28334,7 @@
       <c r="U772" s="13"/>
       <c r="V772" s="13"/>
       <c r="W772" s="18"/>
-      <c r="X772" s="48"/>
+      <c r="X772" s="13"/>
       <c r="Y772" s="13"/>
       <c r="Z772" s="13"/>
       <c r="AA772" s="13"/>
@@ -28373,7 +28364,7 @@
       <c r="U773" s="13"/>
       <c r="V773" s="13"/>
       <c r="W773" s="18"/>
-      <c r="X773" s="48"/>
+      <c r="X773" s="13"/>
       <c r="Y773" s="13"/>
       <c r="Z773" s="13"/>
       <c r="AA773" s="13"/>
@@ -28403,7 +28394,7 @@
       <c r="U774" s="13"/>
       <c r="V774" s="13"/>
       <c r="W774" s="18"/>
-      <c r="X774" s="48"/>
+      <c r="X774" s="13"/>
       <c r="Y774" s="13"/>
       <c r="Z774" s="13"/>
       <c r="AA774" s="13"/>
@@ -28433,7 +28424,7 @@
       <c r="U775" s="13"/>
       <c r="V775" s="13"/>
       <c r="W775" s="18"/>
-      <c r="X775" s="48"/>
+      <c r="X775" s="13"/>
       <c r="Y775" s="13"/>
       <c r="Z775" s="13"/>
       <c r="AA775" s="13"/>
@@ -28463,7 +28454,7 @@
       <c r="U776" s="13"/>
       <c r="V776" s="13"/>
       <c r="W776" s="18"/>
-      <c r="X776" s="48"/>
+      <c r="X776" s="13"/>
       <c r="Y776" s="13"/>
       <c r="Z776" s="13"/>
       <c r="AA776" s="13"/>
@@ -28493,7 +28484,7 @@
       <c r="U777" s="13"/>
       <c r="V777" s="13"/>
       <c r="W777" s="18"/>
-      <c r="X777" s="48"/>
+      <c r="X777" s="13"/>
       <c r="Y777" s="13"/>
       <c r="Z777" s="13"/>
       <c r="AA777" s="13"/>
@@ -28523,7 +28514,7 @@
       <c r="U778" s="13"/>
       <c r="V778" s="13"/>
       <c r="W778" s="18"/>
-      <c r="X778" s="48"/>
+      <c r="X778" s="13"/>
       <c r="Y778" s="13"/>
       <c r="Z778" s="13"/>
       <c r="AA778" s="13"/>
@@ -28553,7 +28544,7 @@
       <c r="U779" s="13"/>
       <c r="V779" s="13"/>
       <c r="W779" s="18"/>
-      <c r="X779" s="48"/>
+      <c r="X779" s="13"/>
       <c r="Y779" s="13"/>
       <c r="Z779" s="13"/>
       <c r="AA779" s="13"/>
@@ -28583,7 +28574,7 @@
       <c r="U780" s="13"/>
       <c r="V780" s="13"/>
       <c r="W780" s="18"/>
-      <c r="X780" s="48"/>
+      <c r="X780" s="13"/>
       <c r="Y780" s="13"/>
       <c r="Z780" s="13"/>
       <c r="AA780" s="13"/>
@@ -28613,7 +28604,7 @@
       <c r="U781" s="13"/>
       <c r="V781" s="13"/>
       <c r="W781" s="18"/>
-      <c r="X781" s="48"/>
+      <c r="X781" s="13"/>
       <c r="Y781" s="13"/>
       <c r="Z781" s="13"/>
       <c r="AA781" s="13"/>
@@ -28643,7 +28634,7 @@
       <c r="U782" s="13"/>
       <c r="V782" s="13"/>
       <c r="W782" s="18"/>
-      <c r="X782" s="48"/>
+      <c r="X782" s="13"/>
       <c r="Y782" s="13"/>
       <c r="Z782" s="13"/>
       <c r="AA782" s="13"/>
@@ -28673,7 +28664,7 @@
       <c r="U783" s="13"/>
       <c r="V783" s="13"/>
       <c r="W783" s="18"/>
-      <c r="X783" s="48"/>
+      <c r="X783" s="13"/>
       <c r="Y783" s="13"/>
       <c r="Z783" s="13"/>
       <c r="AA783" s="13"/>
@@ -28703,7 +28694,7 @@
       <c r="U784" s="13"/>
       <c r="V784" s="13"/>
       <c r="W784" s="18"/>
-      <c r="X784" s="48"/>
+      <c r="X784" s="13"/>
       <c r="Y784" s="13"/>
       <c r="Z784" s="13"/>
       <c r="AA784" s="13"/>
@@ -28733,7 +28724,7 @@
       <c r="U785" s="13"/>
       <c r="V785" s="13"/>
       <c r="W785" s="18"/>
-      <c r="X785" s="48"/>
+      <c r="X785" s="13"/>
       <c r="Y785" s="13"/>
       <c r="Z785" s="13"/>
       <c r="AA785" s="13"/>
@@ -28763,7 +28754,7 @@
       <c r="U786" s="13"/>
       <c r="V786" s="13"/>
       <c r="W786" s="18"/>
-      <c r="X786" s="48"/>
+      <c r="X786" s="13"/>
       <c r="Y786" s="13"/>
       <c r="Z786" s="13"/>
       <c r="AA786" s="13"/>
@@ -28793,7 +28784,7 @@
       <c r="U787" s="13"/>
       <c r="V787" s="13"/>
       <c r="W787" s="18"/>
-      <c r="X787" s="48"/>
+      <c r="X787" s="13"/>
       <c r="Y787" s="13"/>
       <c r="Z787" s="13"/>
       <c r="AA787" s="13"/>
@@ -28823,7 +28814,7 @@
       <c r="U788" s="13"/>
       <c r="V788" s="13"/>
       <c r="W788" s="18"/>
-      <c r="X788" s="48"/>
+      <c r="X788" s="13"/>
       <c r="Y788" s="13"/>
       <c r="Z788" s="13"/>
       <c r="AA788" s="13"/>
@@ -28853,7 +28844,7 @@
       <c r="U789" s="13"/>
       <c r="V789" s="13"/>
       <c r="W789" s="18"/>
-      <c r="X789" s="48"/>
+      <c r="X789" s="13"/>
       <c r="Y789" s="13"/>
       <c r="Z789" s="13"/>
       <c r="AA789" s="13"/>
@@ -28883,7 +28874,7 @@
       <c r="U790" s="13"/>
       <c r="V790" s="13"/>
       <c r="W790" s="18"/>
-      <c r="X790" s="48"/>
+      <c r="X790" s="13"/>
       <c r="Y790" s="13"/>
       <c r="Z790" s="13"/>
       <c r="AA790" s="13"/>
@@ -28913,7 +28904,7 @@
       <c r="U791" s="13"/>
       <c r="V791" s="13"/>
       <c r="W791" s="18"/>
-      <c r="X791" s="48"/>
+      <c r="X791" s="13"/>
       <c r="Y791" s="13"/>
       <c r="Z791" s="13"/>
       <c r="AA791" s="13"/>
@@ -28943,7 +28934,7 @@
       <c r="U792" s="13"/>
       <c r="V792" s="13"/>
       <c r="W792" s="18"/>
-      <c r="X792" s="48"/>
+      <c r="X792" s="13"/>
       <c r="Y792" s="13"/>
       <c r="Z792" s="13"/>
       <c r="AA792" s="13"/>
@@ -28973,7 +28964,7 @@
       <c r="U793" s="13"/>
       <c r="V793" s="13"/>
       <c r="W793" s="18"/>
-      <c r="X793" s="48"/>
+      <c r="X793" s="13"/>
       <c r="Y793" s="13"/>
       <c r="Z793" s="13"/>
       <c r="AA793" s="13"/>
@@ -29003,7 +28994,7 @@
       <c r="U794" s="13"/>
       <c r="V794" s="13"/>
       <c r="W794" s="18"/>
-      <c r="X794" s="48"/>
+      <c r="X794" s="13"/>
       <c r="Y794" s="13"/>
       <c r="Z794" s="13"/>
       <c r="AA794" s="13"/>
@@ -29033,7 +29024,7 @@
       <c r="U795" s="13"/>
       <c r="V795" s="13"/>
       <c r="W795" s="18"/>
-      <c r="X795" s="48"/>
+      <c r="X795" s="13"/>
       <c r="Y795" s="13"/>
       <c r="Z795" s="13"/>
       <c r="AA795" s="13"/>
@@ -29063,7 +29054,7 @@
       <c r="U796" s="13"/>
       <c r="V796" s="13"/>
       <c r="W796" s="18"/>
-      <c r="X796" s="48"/>
+      <c r="X796" s="13"/>
       <c r="Y796" s="13"/>
       <c r="Z796" s="13"/>
       <c r="AA796" s="13"/>
@@ -29093,7 +29084,7 @@
       <c r="U797" s="13"/>
       <c r="V797" s="13"/>
       <c r="W797" s="18"/>
-      <c r="X797" s="48"/>
+      <c r="X797" s="13"/>
       <c r="Y797" s="13"/>
       <c r="Z797" s="13"/>
       <c r="AA797" s="13"/>
@@ -29123,7 +29114,7 @@
       <c r="U798" s="13"/>
       <c r="V798" s="13"/>
       <c r="W798" s="18"/>
-      <c r="X798" s="48"/>
+      <c r="X798" s="13"/>
       <c r="Y798" s="13"/>
       <c r="Z798" s="13"/>
       <c r="AA798" s="13"/>
@@ -29153,7 +29144,7 @@
       <c r="U799" s="13"/>
       <c r="V799" s="13"/>
       <c r="W799" s="18"/>
-      <c r="X799" s="48"/>
+      <c r="X799" s="13"/>
       <c r="Y799" s="13"/>
       <c r="Z799" s="13"/>
       <c r="AA799" s="13"/>
@@ -29183,7 +29174,7 @@
       <c r="U800" s="13"/>
       <c r="V800" s="13"/>
       <c r="W800" s="18"/>
-      <c r="X800" s="48"/>
+      <c r="X800" s="13"/>
       <c r="Y800" s="13"/>
       <c r="Z800" s="13"/>
       <c r="AA800" s="13"/>
@@ -29213,7 +29204,7 @@
       <c r="U801" s="13"/>
       <c r="V801" s="13"/>
       <c r="W801" s="18"/>
-      <c r="X801" s="48"/>
+      <c r="X801" s="13"/>
       <c r="Y801" s="13"/>
       <c r="Z801" s="13"/>
       <c r="AA801" s="13"/>
@@ -29243,7 +29234,7 @@
       <c r="U802" s="13"/>
       <c r="V802" s="13"/>
       <c r="W802" s="18"/>
-      <c r="X802" s="48"/>
+      <c r="X802" s="13"/>
       <c r="Y802" s="13"/>
       <c r="Z802" s="13"/>
       <c r="AA802" s="13"/>
@@ -29273,7 +29264,7 @@
       <c r="U803" s="13"/>
       <c r="V803" s="13"/>
       <c r="W803" s="18"/>
-      <c r="X803" s="48"/>
+      <c r="X803" s="13"/>
       <c r="Y803" s="13"/>
       <c r="Z803" s="13"/>
       <c r="AA803" s="13"/>
@@ -29303,7 +29294,7 @@
       <c r="U804" s="13"/>
       <c r="V804" s="13"/>
       <c r="W804" s="18"/>
-      <c r="X804" s="48"/>
+      <c r="X804" s="13"/>
       <c r="Y804" s="13"/>
       <c r="Z804" s="13"/>
       <c r="AA804" s="13"/>
@@ -29333,7 +29324,7 @@
       <c r="U805" s="13"/>
       <c r="V805" s="13"/>
       <c r="W805" s="18"/>
-      <c r="X805" s="48"/>
+      <c r="X805" s="13"/>
       <c r="Y805" s="13"/>
       <c r="Z805" s="13"/>
       <c r="AA805" s="13"/>
@@ -29363,7 +29354,7 @@
       <c r="U806" s="13"/>
       <c r="V806" s="13"/>
       <c r="W806" s="18"/>
-      <c r="X806" s="48"/>
+      <c r="X806" s="13"/>
       <c r="Y806" s="13"/>
       <c r="Z806" s="13"/>
       <c r="AA806" s="13"/>
@@ -29393,7 +29384,7 @@
       <c r="U807" s="13"/>
       <c r="V807" s="13"/>
       <c r="W807" s="18"/>
-      <c r="X807" s="48"/>
+      <c r="X807" s="13"/>
       <c r="Y807" s="13"/>
       <c r="Z807" s="13"/>
       <c r="AA807" s="13"/>
@@ -29423,7 +29414,7 @@
       <c r="U808" s="13"/>
       <c r="V808" s="13"/>
       <c r="W808" s="18"/>
-      <c r="X808" s="48"/>
+      <c r="X808" s="13"/>
       <c r="Y808" s="13"/>
       <c r="Z808" s="13"/>
       <c r="AA808" s="13"/>
@@ -29453,7 +29444,7 @@
       <c r="U809" s="13"/>
       <c r="V809" s="13"/>
       <c r="W809" s="18"/>
-      <c r="X809" s="48"/>
+      <c r="X809" s="13"/>
       <c r="Y809" s="13"/>
       <c r="Z809" s="13"/>
       <c r="AA809" s="13"/>
@@ -29483,7 +29474,7 @@
       <c r="U810" s="13"/>
       <c r="V810" s="13"/>
       <c r="W810" s="18"/>
-      <c r="X810" s="48"/>
+      <c r="X810" s="13"/>
       <c r="Y810" s="13"/>
       <c r="Z810" s="13"/>
       <c r="AA810" s="13"/>
@@ -29513,7 +29504,7 @@
       <c r="U811" s="13"/>
       <c r="V811" s="13"/>
       <c r="W811" s="18"/>
-      <c r="X811" s="48"/>
+      <c r="X811" s="13"/>
       <c r="Y811" s="13"/>
       <c r="Z811" s="13"/>
       <c r="AA811" s="13"/>
@@ -29543,7 +29534,7 @@
       <c r="U812" s="13"/>
       <c r="V812" s="13"/>
       <c r="W812" s="18"/>
-      <c r="X812" s="48"/>
+      <c r="X812" s="13"/>
       <c r="Y812" s="13"/>
       <c r="Z812" s="13"/>
       <c r="AA812" s="13"/>
@@ -29573,7 +29564,7 @@
       <c r="U813" s="13"/>
       <c r="V813" s="13"/>
       <c r="W813" s="18"/>
-      <c r="X813" s="48"/>
+      <c r="X813" s="13"/>
       <c r="Y813" s="13"/>
       <c r="Z813" s="13"/>
       <c r="AA813" s="13"/>
@@ -29603,7 +29594,7 @@
       <c r="U814" s="13"/>
       <c r="V814" s="13"/>
       <c r="W814" s="18"/>
-      <c r="X814" s="48"/>
+      <c r="X814" s="13"/>
       <c r="Y814" s="13"/>
       <c r="Z814" s="13"/>
       <c r="AA814" s="13"/>
@@ -29633,7 +29624,7 @@
       <c r="U815" s="13"/>
       <c r="V815" s="13"/>
       <c r="W815" s="18"/>
-      <c r="X815" s="48"/>
+      <c r="X815" s="13"/>
       <c r="Y815" s="13"/>
       <c r="Z815" s="13"/>
       <c r="AA815" s="13"/>
@@ -29663,7 +29654,7 @@
       <c r="U816" s="13"/>
       <c r="V816" s="13"/>
       <c r="W816" s="18"/>
-      <c r="X816" s="48"/>
+      <c r="X816" s="13"/>
       <c r="Y816" s="13"/>
       <c r="Z816" s="13"/>
       <c r="AA816" s="13"/>
@@ -29693,7 +29684,7 @@
       <c r="U817" s="13"/>
       <c r="V817" s="13"/>
       <c r="W817" s="18"/>
-      <c r="X817" s="48"/>
+      <c r="X817" s="13"/>
       <c r="Y817" s="13"/>
       <c r="Z817" s="13"/>
       <c r="AA817" s="13"/>
@@ -29723,7 +29714,7 @@
       <c r="U818" s="13"/>
       <c r="V818" s="13"/>
       <c r="W818" s="18"/>
-      <c r="X818" s="48"/>
+      <c r="X818" s="13"/>
       <c r="Y818" s="13"/>
       <c r="Z818" s="13"/>
       <c r="AA818" s="13"/>
@@ -29753,7 +29744,7 @@
       <c r="U819" s="13"/>
       <c r="V819" s="13"/>
       <c r="W819" s="18"/>
-      <c r="X819" s="48"/>
+      <c r="X819" s="13"/>
       <c r="Y819" s="13"/>
       <c r="Z819" s="13"/>
       <c r="AA819" s="13"/>
@@ -29783,7 +29774,7 @@
       <c r="U820" s="13"/>
       <c r="V820" s="13"/>
       <c r="W820" s="18"/>
-      <c r="X820" s="48"/>
+      <c r="X820" s="13"/>
       <c r="Y820" s="13"/>
       <c r="Z820" s="13"/>
       <c r="AA820" s="13"/>
@@ -29813,7 +29804,7 @@
       <c r="U821" s="13"/>
       <c r="V821" s="13"/>
       <c r="W821" s="18"/>
-      <c r="X821" s="48"/>
+      <c r="X821" s="13"/>
       <c r="Y821" s="13"/>
       <c r="Z821" s="13"/>
       <c r="AA821" s="13"/>
@@ -29843,7 +29834,7 @@
       <c r="U822" s="13"/>
       <c r="V822" s="13"/>
       <c r="W822" s="18"/>
-      <c r="X822" s="48"/>
+      <c r="X822" s="13"/>
       <c r="Y822" s="13"/>
       <c r="Z822" s="13"/>
       <c r="AA822" s="13"/>
@@ -29873,7 +29864,7 @@
       <c r="U823" s="13"/>
       <c r="V823" s="13"/>
       <c r="W823" s="18"/>
-      <c r="X823" s="48"/>
+      <c r="X823" s="13"/>
       <c r="Y823" s="13"/>
       <c r="Z823" s="13"/>
       <c r="AA823" s="13"/>
@@ -29903,7 +29894,7 @@
       <c r="U824" s="13"/>
       <c r="V824" s="13"/>
       <c r="W824" s="18"/>
-      <c r="X824" s="48"/>
+      <c r="X824" s="13"/>
       <c r="Y824" s="13"/>
       <c r="Z824" s="13"/>
       <c r="AA824" s="13"/>
@@ -29933,7 +29924,7 @@
       <c r="U825" s="13"/>
       <c r="V825" s="13"/>
       <c r="W825" s="18"/>
-      <c r="X825" s="48"/>
+      <c r="X825" s="13"/>
       <c r="Y825" s="13"/>
       <c r="Z825" s="13"/>
       <c r="AA825" s="13"/>
@@ -29963,7 +29954,7 @@
       <c r="U826" s="13"/>
       <c r="V826" s="13"/>
       <c r="W826" s="18"/>
-      <c r="X826" s="48"/>
+      <c r="X826" s="13"/>
       <c r="Y826" s="13"/>
       <c r="Z826" s="13"/>
       <c r="AA826" s="13"/>
@@ -29993,7 +29984,7 @@
       <c r="U827" s="13"/>
       <c r="V827" s="13"/>
       <c r="W827" s="18"/>
-      <c r="X827" s="48"/>
+      <c r="X827" s="13"/>
       <c r="Y827" s="13"/>
       <c r="Z827" s="13"/>
       <c r="AA827" s="13"/>
@@ -30023,7 +30014,7 @@
       <c r="U828" s="13"/>
       <c r="V828" s="13"/>
       <c r="W828" s="18"/>
-      <c r="X828" s="48"/>
+      <c r="X828" s="13"/>
       <c r="Y828" s="13"/>
       <c r="Z828" s="13"/>
       <c r="AA828" s="13"/>
@@ -30053,7 +30044,7 @@
       <c r="U829" s="13"/>
       <c r="V829" s="13"/>
       <c r="W829" s="18"/>
-      <c r="X829" s="48"/>
+      <c r="X829" s="13"/>
       <c r="Y829" s="13"/>
       <c r="Z829" s="13"/>
       <c r="AA829" s="13"/>
@@ -30083,7 +30074,7 @@
       <c r="U830" s="13"/>
       <c r="V830" s="13"/>
       <c r="W830" s="18"/>
-      <c r="X830" s="48"/>
+      <c r="X830" s="13"/>
       <c r="Y830" s="13"/>
       <c r="Z830" s="13"/>
       <c r="AA830" s="13"/>
@@ -30113,7 +30104,7 @@
       <c r="U831" s="13"/>
       <c r="V831" s="13"/>
       <c r="W831" s="18"/>
-      <c r="X831" s="48"/>
+      <c r="X831" s="13"/>
       <c r="Y831" s="13"/>
       <c r="Z831" s="13"/>
       <c r="AA831" s="13"/>
@@ -30143,7 +30134,7 @@
       <c r="U832" s="13"/>
       <c r="V832" s="13"/>
       <c r="W832" s="18"/>
-      <c r="X832" s="48"/>
+      <c r="X832" s="13"/>
       <c r="Y832" s="13"/>
       <c r="Z832" s="13"/>
       <c r="AA832" s="13"/>
@@ -30173,7 +30164,7 @@
       <c r="U833" s="13"/>
       <c r="V833" s="13"/>
       <c r="W833" s="18"/>
-      <c r="X833" s="48"/>
+      <c r="X833" s="13"/>
       <c r="Y833" s="13"/>
       <c r="Z833" s="13"/>
       <c r="AA833" s="13"/>
@@ -30203,7 +30194,7 @@
       <c r="U834" s="13"/>
       <c r="V834" s="13"/>
       <c r="W834" s="18"/>
-      <c r="X834" s="48"/>
+      <c r="X834" s="13"/>
       <c r="Y834" s="13"/>
       <c r="Z834" s="13"/>
       <c r="AA834" s="13"/>
@@ -30233,7 +30224,7 @@
       <c r="U835" s="13"/>
       <c r="V835" s="13"/>
       <c r="W835" s="18"/>
-      <c r="X835" s="48"/>
+      <c r="X835" s="13"/>
       <c r="Y835" s="13"/>
       <c r="Z835" s="13"/>
       <c r="AA835" s="13"/>
@@ -30263,7 +30254,7 @@
       <c r="U836" s="13"/>
       <c r="V836" s="13"/>
       <c r="W836" s="18"/>
-      <c r="X836" s="48"/>
+      <c r="X836" s="13"/>
       <c r="Y836" s="13"/>
       <c r="Z836" s="13"/>
       <c r="AA836" s="13"/>
@@ -30293,7 +30284,7 @@
       <c r="U837" s="13"/>
       <c r="V837" s="13"/>
       <c r="W837" s="18"/>
-      <c r="X837" s="48"/>
+      <c r="X837" s="13"/>
       <c r="Y837" s="13"/>
       <c r="Z837" s="13"/>
       <c r="AA837" s="13"/>
@@ -30323,7 +30314,7 @@
       <c r="U838" s="13"/>
       <c r="V838" s="13"/>
       <c r="W838" s="18"/>
-      <c r="X838" s="48"/>
+      <c r="X838" s="13"/>
       <c r="Y838" s="13"/>
       <c r="Z838" s="13"/>
       <c r="AA838" s="13"/>
@@ -30353,7 +30344,7 @@
       <c r="U839" s="13"/>
       <c r="V839" s="13"/>
       <c r="W839" s="18"/>
-      <c r="X839" s="48"/>
+      <c r="X839" s="13"/>
       <c r="Y839" s="13"/>
       <c r="Z839" s="13"/>
       <c r="AA839" s="13"/>
@@ -30383,7 +30374,7 @@
       <c r="U840" s="13"/>
       <c r="V840" s="13"/>
       <c r="W840" s="18"/>
-      <c r="X840" s="48"/>
+      <c r="X840" s="13"/>
       <c r="Y840" s="13"/>
       <c r="Z840" s="13"/>
       <c r="AA840" s="13"/>
@@ -30413,7 +30404,7 @@
       <c r="U841" s="13"/>
       <c r="V841" s="13"/>
       <c r="W841" s="18"/>
-      <c r="X841" s="48"/>
+      <c r="X841" s="13"/>
       <c r="Y841" s="13"/>
       <c r="Z841" s="13"/>
       <c r="AA841" s="13"/>
@@ -30443,7 +30434,7 @@
       <c r="U842" s="13"/>
       <c r="V842" s="13"/>
       <c r="W842" s="18"/>
-      <c r="X842" s="48"/>
+      <c r="X842" s="13"/>
       <c r="Y842" s="13"/>
       <c r="Z842" s="13"/>
       <c r="AA842" s="13"/>
@@ -30473,7 +30464,7 @@
       <c r="U843" s="13"/>
       <c r="V843" s="13"/>
       <c r="W843" s="18"/>
-      <c r="X843" s="48"/>
+      <c r="X843" s="13"/>
       <c r="Y843" s="13"/>
       <c r="Z843" s="13"/>
       <c r="AA843" s="13"/>
@@ -30503,7 +30494,7 @@
       <c r="U844" s="13"/>
       <c r="V844" s="13"/>
       <c r="W844" s="18"/>
-      <c r="X844" s="48"/>
+      <c r="X844" s="13"/>
       <c r="Y844" s="13"/>
       <c r="Z844" s="13"/>
       <c r="AA844" s="13"/>
@@ -30533,7 +30524,7 @@
       <c r="U845" s="13"/>
       <c r="V845" s="13"/>
       <c r="W845" s="18"/>
-      <c r="X845" s="48"/>
+      <c r="X845" s="13"/>
       <c r="Y845" s="13"/>
       <c r="Z845" s="13"/>
       <c r="AA845" s="13"/>
@@ -30563,7 +30554,7 @@
       <c r="U846" s="13"/>
       <c r="V846" s="13"/>
       <c r="W846" s="18"/>
-      <c r="X846" s="48"/>
+      <c r="X846" s="13"/>
       <c r="Y846" s="13"/>
       <c r="Z846" s="13"/>
       <c r="AA846" s="13"/>
@@ -30593,7 +30584,7 @@
       <c r="U847" s="13"/>
       <c r="V847" s="13"/>
       <c r="W847" s="18"/>
-      <c r="X847" s="48"/>
+      <c r="X847" s="13"/>
       <c r="Y847" s="13"/>
       <c r="Z847" s="13"/>
       <c r="AA847" s="13"/>
@@ -30623,7 +30614,7 @@
       <c r="U848" s="13"/>
       <c r="V848" s="13"/>
       <c r="W848" s="18"/>
-      <c r="X848" s="48"/>
+      <c r="X848" s="13"/>
       <c r="Y848" s="13"/>
       <c r="Z848" s="13"/>
       <c r="AA848" s="13"/>
@@ -30653,7 +30644,7 @@
       <c r="U849" s="13"/>
       <c r="V849" s="13"/>
       <c r="W849" s="18"/>
-      <c r="X849" s="48"/>
+      <c r="X849" s="13"/>
       <c r="Y849" s="13"/>
       <c r="Z849" s="13"/>
       <c r="AA849" s="13"/>
@@ -30683,7 +30674,7 @@
       <c r="U850" s="13"/>
       <c r="V850" s="13"/>
       <c r="W850" s="18"/>
-      <c r="X850" s="48"/>
+      <c r="X850" s="13"/>
       <c r="Y850" s="13"/>
       <c r="Z850" s="13"/>
       <c r="AA850" s="13"/>
@@ -30713,7 +30704,7 @@
       <c r="U851" s="13"/>
       <c r="V851" s="13"/>
       <c r="W851" s="18"/>
-      <c r="X851" s="48"/>
+      <c r="X851" s="13"/>
       <c r="Y851" s="13"/>
       <c r="Z851" s="13"/>
       <c r="AA851" s="13"/>
@@ -30743,7 +30734,7 @@
       <c r="U852" s="13"/>
       <c r="V852" s="13"/>
       <c r="W852" s="18"/>
-      <c r="X852" s="48"/>
+      <c r="X852" s="13"/>
       <c r="Y852" s="13"/>
       <c r="Z852" s="13"/>
       <c r="AA852" s="13"/>
@@ -30773,7 +30764,7 @@
       <c r="U853" s="13"/>
       <c r="V853" s="13"/>
       <c r="W853" s="18"/>
-      <c r="X853" s="48"/>
+      <c r="X853" s="13"/>
       <c r="Y853" s="13"/>
       <c r="Z853" s="13"/>
       <c r="AA853" s="13"/>
@@ -30803,7 +30794,7 @@
       <c r="U854" s="13"/>
       <c r="V854" s="13"/>
       <c r="W854" s="18"/>
-      <c r="X854" s="48"/>
+      <c r="X854" s="13"/>
       <c r="Y854" s="13"/>
       <c r="Z854" s="13"/>
       <c r="AA854" s="13"/>
@@ -30833,7 +30824,7 @@
       <c r="U855" s="13"/>
       <c r="V855" s="13"/>
       <c r="W855" s="18"/>
-      <c r="X855" s="48"/>
+      <c r="X855" s="13"/>
       <c r="Y855" s="13"/>
       <c r="Z855" s="13"/>
       <c r="AA855" s="13"/>
@@ -30863,7 +30854,7 @@
       <c r="U856" s="13"/>
       <c r="V856" s="13"/>
       <c r="W856" s="18"/>
-      <c r="X856" s="48"/>
+      <c r="X856" s="13"/>
       <c r="Y856" s="13"/>
       <c r="Z856" s="13"/>
       <c r="AA856" s="13"/>
@@ -30893,7 +30884,7 @@
       <c r="U857" s="13"/>
       <c r="V857" s="13"/>
       <c r="W857" s="18"/>
-      <c r="X857" s="48"/>
+      <c r="X857" s="13"/>
       <c r="Y857" s="13"/>
       <c r="Z857" s="13"/>
       <c r="AA857" s="13"/>
@@ -30923,7 +30914,7 @@
       <c r="U858" s="13"/>
       <c r="V858" s="13"/>
       <c r="W858" s="18"/>
-      <c r="X858" s="48"/>
+      <c r="X858" s="13"/>
       <c r="Y858" s="13"/>
       <c r="Z858" s="13"/>
       <c r="AA858" s="13"/>
@@ -30953,7 +30944,7 @@
       <c r="U859" s="13"/>
       <c r="V859" s="13"/>
       <c r="W859" s="18"/>
-      <c r="X859" s="48"/>
+      <c r="X859" s="13"/>
       <c r="Y859" s="13"/>
       <c r="Z859" s="13"/>
       <c r="AA859" s="13"/>
@@ -30983,7 +30974,7 @@
       <c r="U860" s="13"/>
       <c r="V860" s="13"/>
       <c r="W860" s="18"/>
-      <c r="X860" s="48"/>
+      <c r="X860" s="13"/>
       <c r="Y860" s="13"/>
       <c r="Z860" s="13"/>
       <c r="AA860" s="13"/>
@@ -31013,7 +31004,7 @@
       <c r="U861" s="13"/>
       <c r="V861" s="13"/>
       <c r="W861" s="18"/>
-      <c r="X861" s="48"/>
+      <c r="X861" s="13"/>
       <c r="Y861" s="13"/>
       <c r="Z861" s="13"/>
       <c r="AA861" s="13"/>
@@ -31043,7 +31034,7 @@
       <c r="U862" s="13"/>
       <c r="V862" s="13"/>
       <c r="W862" s="18"/>
-      <c r="X862" s="48"/>
+      <c r="X862" s="13"/>
       <c r="Y862" s="13"/>
       <c r="Z862" s="13"/>
       <c r="AA862" s="13"/>
@@ -31073,7 +31064,7 @@
       <c r="U863" s="13"/>
       <c r="V863" s="13"/>
       <c r="W863" s="18"/>
-      <c r="X863" s="48"/>
+      <c r="X863" s="13"/>
       <c r="Y863" s="13"/>
       <c r="Z863" s="13"/>
       <c r="AA863" s="13"/>
@@ -31103,7 +31094,7 @@
       <c r="U864" s="13"/>
       <c r="V864" s="13"/>
       <c r="W864" s="18"/>
-      <c r="X864" s="48"/>
+      <c r="X864" s="13"/>
       <c r="Y864" s="13"/>
       <c r="Z864" s="13"/>
       <c r="AA864" s="13"/>
@@ -31133,7 +31124,7 @@
       <c r="U865" s="13"/>
       <c r="V865" s="13"/>
       <c r="W865" s="18"/>
-      <c r="X865" s="48"/>
+      <c r="X865" s="13"/>
       <c r="Y865" s="13"/>
       <c r="Z865" s="13"/>
       <c r="AA865" s="13"/>
@@ -31163,7 +31154,7 @@
       <c r="U866" s="13"/>
       <c r="V866" s="13"/>
       <c r="W866" s="18"/>
-      <c r="X866" s="48"/>
+      <c r="X866" s="13"/>
       <c r="Y866" s="13"/>
       <c r="Z866" s="13"/>
       <c r="AA866" s="13"/>
@@ -31193,7 +31184,7 @@
       <c r="U867" s="13"/>
       <c r="V867" s="13"/>
       <c r="W867" s="18"/>
-      <c r="X867" s="48"/>
+      <c r="X867" s="13"/>
       <c r="Y867" s="13"/>
       <c r="Z867" s="13"/>
       <c r="AA867" s="13"/>
@@ -31223,7 +31214,7 @@
       <c r="U868" s="13"/>
       <c r="V868" s="13"/>
       <c r="W868" s="18"/>
-      <c r="X868" s="48"/>
+      <c r="X868" s="13"/>
       <c r="Y868" s="13"/>
       <c r="Z868" s="13"/>
       <c r="AA868" s="13"/>
@@ -31253,7 +31244,7 @@
       <c r="U869" s="13"/>
       <c r="V869" s="13"/>
       <c r="W869" s="18"/>
-      <c r="X869" s="48"/>
+      <c r="X869" s="13"/>
       <c r="Y869" s="13"/>
       <c r="Z869" s="13"/>
       <c r="AA869" s="13"/>
@@ -31283,7 +31274,7 @@
       <c r="U870" s="13"/>
       <c r="V870" s="13"/>
       <c r="W870" s="18"/>
-      <c r="X870" s="48"/>
+      <c r="X870" s="13"/>
       <c r="Y870" s="13"/>
       <c r="Z870" s="13"/>
       <c r="AA870" s="13"/>
@@ -31313,7 +31304,7 @@
       <c r="U871" s="13"/>
       <c r="V871" s="13"/>
       <c r="W871" s="18"/>
-      <c r="X871" s="48"/>
+      <c r="X871" s="13"/>
       <c r="Y871" s="13"/>
       <c r="Z871" s="13"/>
       <c r="AA871" s="13"/>
@@ -31343,7 +31334,7 @@
       <c r="U872" s="13"/>
       <c r="V872" s="13"/>
       <c r="W872" s="18"/>
-      <c r="X872" s="48"/>
+      <c r="X872" s="13"/>
       <c r="Y872" s="13"/>
       <c r="Z872" s="13"/>
       <c r="AA872" s="13"/>
@@ -31373,7 +31364,7 @@
       <c r="U873" s="13"/>
       <c r="V873" s="13"/>
       <c r="W873" s="18"/>
-      <c r="X873" s="48"/>
+      <c r="X873" s="13"/>
       <c r="Y873" s="13"/>
       <c r="Z873" s="13"/>
       <c r="AA873" s="13"/>
@@ -31403,7 +31394,7 @@
       <c r="U874" s="13"/>
       <c r="V874" s="13"/>
       <c r="W874" s="18"/>
-      <c r="X874" s="48"/>
+      <c r="X874" s="13"/>
       <c r="Y874" s="13"/>
       <c r="Z874" s="13"/>
       <c r="AA874" s="13"/>
@@ -31433,7 +31424,7 @@
       <c r="U875" s="13"/>
       <c r="V875" s="13"/>
       <c r="W875" s="18"/>
-      <c r="X875" s="48"/>
+      <c r="X875" s="13"/>
       <c r="Y875" s="13"/>
       <c r="Z875" s="13"/>
       <c r="AA875" s="13"/>
@@ -31463,7 +31454,7 @@
       <c r="U876" s="13"/>
       <c r="V876" s="13"/>
       <c r="W876" s="18"/>
-      <c r="X876" s="48"/>
+      <c r="X876" s="13"/>
       <c r="Y876" s="13"/>
       <c r="Z876" s="13"/>
       <c r="AA876" s="13"/>
@@ -31493,7 +31484,7 @@
       <c r="U877" s="13"/>
       <c r="V877" s="13"/>
       <c r="W877" s="18"/>
-      <c r="X877" s="48"/>
+      <c r="X877" s="13"/>
       <c r="Y877" s="13"/>
       <c r="Z877" s="13"/>
       <c r="AA877" s="13"/>
@@ -31523,7 +31514,7 @@
       <c r="U878" s="13"/>
       <c r="V878" s="13"/>
       <c r="W878" s="18"/>
-      <c r="X878" s="48"/>
+      <c r="X878" s="13"/>
       <c r="Y878" s="13"/>
       <c r="Z878" s="13"/>
       <c r="AA878" s="13"/>
@@ -31553,7 +31544,7 @@
       <c r="U879" s="13"/>
       <c r="V879" s="13"/>
       <c r="W879" s="18"/>
-      <c r="X879" s="48"/>
+      <c r="X879" s="13"/>
       <c r="Y879" s="13"/>
       <c r="Z879" s="13"/>
       <c r="AA879" s="13"/>
@@ -31583,7 +31574,7 @@
       <c r="U880" s="13"/>
       <c r="V880" s="13"/>
       <c r="W880" s="18"/>
-      <c r="X880" s="48"/>
+      <c r="X880" s="13"/>
       <c r="Y880" s="13"/>
       <c r="Z880" s="13"/>
       <c r="AA880" s="13"/>
@@ -31613,7 +31604,7 @@
       <c r="U881" s="13"/>
       <c r="V881" s="13"/>
       <c r="W881" s="18"/>
-      <c r="X881" s="48"/>
+      <c r="X881" s="13"/>
       <c r="Y881" s="13"/>
       <c r="Z881" s="13"/>
       <c r="AA881" s="13"/>
@@ -31643,7 +31634,7 @@
       <c r="U882" s="13"/>
       <c r="V882" s="13"/>
       <c r="W882" s="18"/>
-      <c r="X882" s="48"/>
+      <c r="X882" s="13"/>
       <c r="Y882" s="13"/>
       <c r="Z882" s="13"/>
       <c r="AA882" s="13"/>
@@ -31673,7 +31664,7 @@
       <c r="U883" s="13"/>
       <c r="V883" s="13"/>
       <c r="W883" s="18"/>
-      <c r="X883" s="48"/>
+      <c r="X883" s="13"/>
       <c r="Y883" s="13"/>
       <c r="Z883" s="13"/>
       <c r="AA883" s="13"/>
@@ -31703,7 +31694,7 @@
       <c r="U884" s="13"/>
       <c r="V884" s="13"/>
       <c r="W884" s="18"/>
-      <c r="X884" s="48"/>
+      <c r="X884" s="13"/>
       <c r="Y884" s="13"/>
       <c r="Z884" s="13"/>
       <c r="AA884" s="13"/>
@@ -31733,7 +31724,7 @@
       <c r="U885" s="13"/>
       <c r="V885" s="13"/>
       <c r="W885" s="18"/>
-      <c r="X885" s="48"/>
+      <c r="X885" s="13"/>
       <c r="Y885" s="13"/>
       <c r="Z885" s="13"/>
       <c r="AA885" s="13"/>
@@ -31763,7 +31754,7 @@
       <c r="U886" s="13"/>
       <c r="V886" s="13"/>
       <c r="W886" s="18"/>
-      <c r="X886" s="48"/>
+      <c r="X886" s="13"/>
       <c r="Y886" s="13"/>
       <c r="Z886" s="13"/>
       <c r="AA886" s="13"/>
@@ -31793,7 +31784,7 @@
       <c r="U887" s="13"/>
       <c r="V887" s="13"/>
       <c r="W887" s="18"/>
-      <c r="X887" s="48"/>
+      <c r="X887" s="13"/>
       <c r="Y887" s="13"/>
       <c r="Z887" s="13"/>
       <c r="AA887" s="13"/>
@@ -31823,7 +31814,7 @@
       <c r="U888" s="13"/>
       <c r="V888" s="13"/>
       <c r="W888" s="18"/>
-      <c r="X888" s="48"/>
+      <c r="X888" s="13"/>
       <c r="Y888" s="13"/>
       <c r="Z888" s="13"/>
       <c r="AA888" s="13"/>
@@ -31853,7 +31844,7 @@
       <c r="U889" s="13"/>
       <c r="V889" s="13"/>
       <c r="W889" s="18"/>
-      <c r="X889" s="48"/>
+      <c r="X889" s="13"/>
       <c r="Y889" s="13"/>
       <c r="Z889" s="13"/>
       <c r="AA889" s="13"/>
@@ -31883,7 +31874,7 @@
       <c r="U890" s="13"/>
       <c r="V890" s="13"/>
       <c r="W890" s="18"/>
-      <c r="X890" s="48"/>
+      <c r="X890" s="13"/>
       <c r="Y890" s="13"/>
       <c r="Z890" s="13"/>
       <c r="AA890" s="13"/>
@@ -31913,7 +31904,7 @@
       <c r="U891" s="13"/>
       <c r="V891" s="13"/>
       <c r="W891" s="18"/>
-      <c r="X891" s="48"/>
+      <c r="X891" s="13"/>
       <c r="Y891" s="13"/>
       <c r="Z891" s="13"/>
       <c r="AA891" s="13"/>
@@ -31943,7 +31934,7 @@
       <c r="U892" s="13"/>
       <c r="V892" s="13"/>
       <c r="W892" s="18"/>
-      <c r="X892" s="48"/>
+      <c r="X892" s="13"/>
       <c r="Y892" s="13"/>
       <c r="Z892" s="13"/>
       <c r="AA892" s="13"/>
@@ -31973,7 +31964,7 @@
       <c r="U893" s="13"/>
       <c r="V893" s="13"/>
       <c r="W893" s="18"/>
-      <c r="X893" s="48"/>
+      <c r="X893" s="13"/>
       <c r="Y893" s="13"/>
       <c r="Z893" s="13"/>
       <c r="AA893" s="13"/>
@@ -32003,7 +31994,7 @@
       <c r="U894" s="13"/>
       <c r="V894" s="13"/>
       <c r="W894" s="18"/>
-      <c r="X894" s="48"/>
+      <c r="X894" s="13"/>
       <c r="Y894" s="13"/>
       <c r="Z894" s="13"/>
       <c r="AA894" s="13"/>
@@ -32033,7 +32024,7 @@
       <c r="U895" s="13"/>
       <c r="V895" s="13"/>
       <c r="W895" s="18"/>
-      <c r="X895" s="48"/>
+      <c r="X895" s="13"/>
       <c r="Y895" s="13"/>
       <c r="Z895" s="13"/>
       <c r="AA895" s="13"/>
@@ -32063,7 +32054,7 @@
       <c r="U896" s="13"/>
       <c r="V896" s="13"/>
       <c r="W896" s="18"/>
-      <c r="X896" s="48"/>
+      <c r="X896" s="13"/>
       <c r="Y896" s="13"/>
       <c r="Z896" s="13"/>
       <c r="AA896" s="13"/>
@@ -32093,7 +32084,7 @@
       <c r="U897" s="13"/>
       <c r="V897" s="13"/>
       <c r="W897" s="18"/>
-      <c r="X897" s="48"/>
+      <c r="X897" s="13"/>
       <c r="Y897" s="13"/>
       <c r="Z897" s="13"/>
       <c r="AA897" s="13"/>
@@ -32123,7 +32114,7 @@
       <c r="U898" s="13"/>
       <c r="V898" s="13"/>
       <c r="W898" s="18"/>
-      <c r="X898" s="48"/>
+      <c r="X898" s="13"/>
       <c r="Y898" s="13"/>
       <c r="Z898" s="13"/>
       <c r="AA898" s="13"/>
@@ -32153,7 +32144,7 @@
       <c r="U899" s="13"/>
       <c r="V899" s="13"/>
       <c r="W899" s="18"/>
-      <c r="X899" s="48"/>
+      <c r="X899" s="13"/>
       <c r="Y899" s="13"/>
       <c r="Z899" s="13"/>
       <c r="AA899" s="13"/>
@@ -32183,7 +32174,7 @@
       <c r="U900" s="13"/>
       <c r="V900" s="13"/>
       <c r="W900" s="18"/>
-      <c r="X900" s="48"/>
+      <c r="X900" s="13"/>
       <c r="Y900" s="13"/>
       <c r="Z900" s="13"/>
       <c r="AA900" s="13"/>
@@ -32213,7 +32204,7 @@
       <c r="U901" s="13"/>
       <c r="V901" s="13"/>
       <c r="W901" s="18"/>
-      <c r="X901" s="48"/>
+      <c r="X901" s="13"/>
       <c r="Y901" s="13"/>
       <c r="Z901" s="13"/>
       <c r="AA901" s="13"/>
@@ -32243,7 +32234,7 @@
       <c r="U902" s="13"/>
       <c r="V902" s="13"/>
       <c r="W902" s="18"/>
-      <c r="X902" s="48"/>
+      <c r="X902" s="13"/>
       <c r="Y902" s="13"/>
       <c r="Z902" s="13"/>
       <c r="AA902" s="13"/>
@@ -32273,7 +32264,7 @@
       <c r="U903" s="13"/>
       <c r="V903" s="13"/>
       <c r="W903" s="18"/>
-      <c r="X903" s="48"/>
+      <c r="X903" s="13"/>
       <c r="Y903" s="13"/>
       <c r="Z903" s="13"/>
       <c r="AA903" s="13"/>
@@ -32303,7 +32294,7 @@
       <c r="U904" s="13"/>
       <c r="V904" s="13"/>
       <c r="W904" s="18"/>
-      <c r="X904" s="48"/>
+      <c r="X904" s="13"/>
       <c r="Y904" s="13"/>
       <c r="Z904" s="13"/>
       <c r="AA904" s="13"/>
@@ -32333,7 +32324,7 @@
       <c r="U905" s="13"/>
       <c r="V905" s="13"/>
       <c r="W905" s="18"/>
-      <c r="X905" s="48"/>
+      <c r="X905" s="13"/>
       <c r="Y905" s="13"/>
       <c r="Z905" s="13"/>
       <c r="AA905" s="13"/>
@@ -32363,7 +32354,7 @@
       <c r="U906" s="13"/>
       <c r="V906" s="13"/>
       <c r="W906" s="18"/>
-      <c r="X906" s="48"/>
+      <c r="X906" s="13"/>
       <c r="Y906" s="13"/>
       <c r="Z906" s="13"/>
       <c r="AA906" s="13"/>
@@ -32393,7 +32384,7 @@
       <c r="U907" s="13"/>
       <c r="V907" s="13"/>
       <c r="W907" s="18"/>
-      <c r="X907" s="48"/>
+      <c r="X907" s="13"/>
       <c r="Y907" s="13"/>
       <c r="Z907" s="13"/>
       <c r="AA907" s="13"/>
@@ -32423,7 +32414,7 @@
       <c r="U908" s="13"/>
       <c r="V908" s="13"/>
       <c r="W908" s="18"/>
-      <c r="X908" s="48"/>
+      <c r="X908" s="13"/>
       <c r="Y908" s="13"/>
       <c r="Z908" s="13"/>
       <c r="AA908" s="13"/>
@@ -32453,7 +32444,7 @@
       <c r="U909" s="13"/>
       <c r="V909" s="13"/>
       <c r="W909" s="18"/>
-      <c r="X909" s="48"/>
+      <c r="X909" s="13"/>
       <c r="Y909" s="13"/>
       <c r="Z909" s="13"/>
       <c r="AA909" s="13"/>
@@ -32483,7 +32474,7 @@
       <c r="U910" s="13"/>
       <c r="V910" s="13"/>
       <c r="W910" s="18"/>
-      <c r="X910" s="48"/>
+      <c r="X910" s="13"/>
       <c r="Y910" s="13"/>
       <c r="Z910" s="13"/>
       <c r="AA910" s="13"/>
@@ -32513,7 +32504,7 @@
       <c r="U911" s="13"/>
       <c r="V911" s="13"/>
       <c r="W911" s="18"/>
-      <c r="X911" s="48"/>
+      <c r="X911" s="13"/>
       <c r="Y911" s="13"/>
       <c r="Z911" s="13"/>
       <c r="AA911" s="13"/>
@@ -32543,7 +32534,7 @@
       <c r="U912" s="13"/>
       <c r="V912" s="13"/>
       <c r="W912" s="18"/>
-      <c r="X912" s="48"/>
+      <c r="X912" s="13"/>
       <c r="Y912" s="13"/>
       <c r="Z912" s="13"/>
       <c r="AA912" s="13"/>
@@ -32573,7 +32564,7 @@
       <c r="U913" s="13"/>
       <c r="V913" s="13"/>
       <c r="W913" s="18"/>
-      <c r="X913" s="48"/>
+      <c r="X913" s="13"/>
       <c r="Y913" s="13"/>
       <c r="Z913" s="13"/>
       <c r="AA913" s="13"/>
@@ -32603,7 +32594,7 @@
       <c r="U914" s="13"/>
       <c r="V914" s="13"/>
       <c r="W914" s="18"/>
-      <c r="X914" s="48"/>
+      <c r="X914" s="13"/>
       <c r="Y914" s="13"/>
       <c r="Z914" s="13"/>
       <c r="AA914" s="13"/>
@@ -32633,7 +32624,7 @@
       <c r="U915" s="13"/>
       <c r="V915" s="13"/>
       <c r="W915" s="18"/>
-      <c r="X915" s="48"/>
+      <c r="X915" s="13"/>
       <c r="Y915" s="13"/>
       <c r="Z915" s="13"/>
       <c r="AA915" s="13"/>
@@ -32663,7 +32654,7 @@
       <c r="U916" s="13"/>
       <c r="V916" s="13"/>
       <c r="W916" s="18"/>
-      <c r="X916" s="48"/>
+      <c r="X916" s="13"/>
       <c r="Y916" s="13"/>
       <c r="Z916" s="13"/>
       <c r="AA916" s="13"/>
@@ -32693,7 +32684,7 @@
       <c r="U917" s="13"/>
       <c r="V917" s="13"/>
       <c r="W917" s="18"/>
-      <c r="X917" s="48"/>
+      <c r="X917" s="13"/>
       <c r="Y917" s="13"/>
       <c r="Z917" s="13"/>
       <c r="AA917" s="13"/>
@@ -32723,7 +32714,7 @@
       <c r="U918" s="13"/>
       <c r="V918" s="13"/>
       <c r="W918" s="18"/>
-      <c r="X918" s="48"/>
+      <c r="X918" s="13"/>
       <c r="Y918" s="13"/>
       <c r="Z918" s="13"/>
       <c r="AA918" s="13"/>
@@ -32753,7 +32744,7 @@
       <c r="U919" s="13"/>
       <c r="V919" s="13"/>
       <c r="W919" s="18"/>
-      <c r="X919" s="48"/>
+      <c r="X919" s="13"/>
       <c r="Y919" s="13"/>
       <c r="Z919" s="13"/>
       <c r="AA919" s="13"/>
@@ -32783,7 +32774,7 @@
       <c r="U920" s="13"/>
       <c r="V920" s="13"/>
       <c r="W920" s="18"/>
-      <c r="X920" s="48"/>
+      <c r="X920" s="13"/>
       <c r="Y920" s="13"/>
       <c r="Z920" s="13"/>
       <c r="AA920" s="13"/>
@@ -32813,7 +32804,7 @@
       <c r="U921" s="13"/>
       <c r="V921" s="13"/>
       <c r="W921" s="18"/>
-      <c r="X921" s="48"/>
+      <c r="X921" s="13"/>
       <c r="Y921" s="13"/>
       <c r="Z921" s="13"/>
       <c r="AA921" s="13"/>
@@ -32843,7 +32834,7 @@
       <c r="U922" s="13"/>
       <c r="V922" s="13"/>
       <c r="W922" s="18"/>
-      <c r="X922" s="48"/>
+      <c r="X922" s="13"/>
       <c r="Y922" s="13"/>
       <c r="Z922" s="13"/>
       <c r="AA922" s="13"/>
@@ -32873,7 +32864,7 @@
       <c r="U923" s="13"/>
       <c r="V923" s="13"/>
       <c r="W923" s="18"/>
-      <c r="X923" s="48"/>
+      <c r="X923" s="13"/>
       <c r="Y923" s="13"/>
       <c r="Z923" s="13"/>
       <c r="AA923" s="13"/>
@@ -32903,7 +32894,7 @@
       <c r="U924" s="13"/>
       <c r="V924" s="13"/>
       <c r="W924" s="18"/>
-      <c r="X924" s="48"/>
+      <c r="X924" s="13"/>
       <c r="Y924" s="13"/>
       <c r="Z924" s="13"/>
       <c r="AA924" s="13"/>
@@ -32933,7 +32924,7 @@
       <c r="U925" s="13"/>
       <c r="V925" s="13"/>
       <c r="W925" s="18"/>
-      <c r="X925" s="48"/>
+      <c r="X925" s="13"/>
       <c r="Y925" s="13"/>
       <c r="Z925" s="13"/>
       <c r="AA925" s="13"/>
@@ -32963,7 +32954,7 @@
       <c r="U926" s="13"/>
       <c r="V926" s="13"/>
       <c r="W926" s="18"/>
-      <c r="X926" s="48"/>
+      <c r="X926" s="13"/>
       <c r="Y926" s="13"/>
       <c r="Z926" s="13"/>
       <c r="AA926" s="13"/>
@@ -32993,7 +32984,7 @@
       <c r="U927" s="13"/>
       <c r="V927" s="13"/>
       <c r="W927" s="18"/>
-      <c r="X927" s="48"/>
+      <c r="X927" s="13"/>
       <c r="Y927" s="13"/>
       <c r="Z927" s="13"/>
       <c r="AA927" s="13"/>
@@ -33023,7 +33014,7 @@
       <c r="U928" s="13"/>
       <c r="V928" s="13"/>
       <c r="W928" s="18"/>
-      <c r="X928" s="48"/>
+      <c r="X928" s="13"/>
       <c r="Y928" s="13"/>
       <c r="Z928" s="13"/>
       <c r="AA928" s="13"/>
@@ -33053,7 +33044,7 @@
       <c r="U929" s="13"/>
       <c r="V929" s="13"/>
       <c r="W929" s="18"/>
-      <c r="X929" s="48"/>
+      <c r="X929" s="13"/>
       <c r="Y929" s="13"/>
       <c r="Z929" s="13"/>
       <c r="AA929" s="13"/>
@@ -33083,7 +33074,7 @@
       <c r="U930" s="13"/>
       <c r="V930" s="13"/>
       <c r="W930" s="18"/>
-      <c r="X930" s="48"/>
+      <c r="X930" s="13"/>
       <c r="Y930" s="13"/>
       <c r="Z930" s="13"/>
       <c r="AA930" s="13"/>
@@ -33113,7 +33104,7 @@
       <c r="U931" s="13"/>
       <c r="V931" s="13"/>
       <c r="W931" s="18"/>
-      <c r="X931" s="48"/>
+      <c r="X931" s="13"/>
       <c r="Y931" s="13"/>
       <c r="Z931" s="13"/>
       <c r="AA931" s="13"/>
@@ -33143,7 +33134,7 @@
       <c r="U932" s="13"/>
       <c r="V932" s="13"/>
       <c r="W932" s="18"/>
-      <c r="X932" s="48"/>
+      <c r="X932" s="13"/>
       <c r="Y932" s="13"/>
       <c r="Z932" s="13"/>
       <c r="AA932" s="13"/>
@@ -33173,7 +33164,7 @@
       <c r="U933" s="13"/>
       <c r="V933" s="13"/>
       <c r="W933" s="18"/>
-      <c r="X933" s="48"/>
+      <c r="X933" s="13"/>
       <c r="Y933" s="13"/>
       <c r="Z933" s="13"/>
       <c r="AA933" s="13"/>
@@ -33203,7 +33194,7 @@
       <c r="U934" s="13"/>
       <c r="V934" s="13"/>
       <c r="W934" s="18"/>
-      <c r="X934" s="48"/>
+      <c r="X934" s="13"/>
       <c r="Y934" s="13"/>
       <c r="Z934" s="13"/>
       <c r="AA934" s="13"/>
@@ -33233,7 +33224,7 @@
       <c r="U935" s="13"/>
       <c r="V935" s="13"/>
       <c r="W935" s="18"/>
-      <c r="X935" s="48"/>
+      <c r="X935" s="13"/>
       <c r="Y935" s="13"/>
       <c r="Z935" s="13"/>
       <c r="AA935" s="13"/>
@@ -33263,7 +33254,7 @@
       <c r="U936" s="13"/>
       <c r="V936" s="13"/>
       <c r="W936" s="18"/>
-      <c r="X936" s="48"/>
+      <c r="X936" s="13"/>
       <c r="Y936" s="13"/>
       <c r="Z936" s="13"/>
       <c r="AA936" s="13"/>
@@ -33293,7 +33284,7 @@
       <c r="U937" s="13"/>
       <c r="V937" s="13"/>
       <c r="W937" s="18"/>
-      <c r="X937" s="48"/>
+      <c r="X937" s="13"/>
       <c r="Y937" s="13"/>
       <c r="Z937" s="13"/>
       <c r="AA937" s="13"/>
@@ -33323,7 +33314,7 @@
       <c r="U938" s="13"/>
       <c r="V938" s="13"/>
       <c r="W938" s="18"/>
-      <c r="X938" s="48"/>
+      <c r="X938" s="13"/>
       <c r="Y938" s="13"/>
       <c r="Z938" s="13"/>
       <c r="AA938" s="13"/>
@@ -33353,7 +33344,7 @@
       <c r="U939" s="13"/>
       <c r="V939" s="13"/>
       <c r="W939" s="18"/>
-      <c r="X939" s="48"/>
+      <c r="X939" s="13"/>
       <c r="Y939" s="13"/>
       <c r="Z939" s="13"/>
       <c r="AA939" s="13"/>
@@ -33383,7 +33374,7 @@
       <c r="U940" s="13"/>
       <c r="V940" s="13"/>
       <c r="W940" s="18"/>
-      <c r="X940" s="48"/>
+      <c r="X940" s="13"/>
       <c r="Y940" s="13"/>
       <c r="Z940" s="13"/>
       <c r="AA940" s="13"/>
@@ -33413,7 +33404,7 @@
       <c r="U941" s="13"/>
       <c r="V941" s="13"/>
       <c r="W941" s="18"/>
-      <c r="X941" s="48"/>
+      <c r="X941" s="13"/>
       <c r="Y941" s="13"/>
       <c r="Z941" s="13"/>
       <c r="AA941" s="13"/>
@@ -33443,7 +33434,7 @@
       <c r="U942" s="13"/>
       <c r="V942" s="13"/>
       <c r="W942" s="18"/>
-      <c r="X942" s="48"/>
+      <c r="X942" s="13"/>
       <c r="Y942" s="13"/>
       <c r="Z942" s="13"/>
       <c r="AA942" s="13"/>
@@ -33473,7 +33464,7 @@
       <c r="U943" s="13"/>
       <c r="V943" s="13"/>
       <c r="W943" s="18"/>
-      <c r="X943" s="48"/>
+      <c r="X943" s="13"/>
       <c r="Y943" s="13"/>
       <c r="Z943" s="13"/>
       <c r="AA943" s="13"/>
@@ -33503,7 +33494,7 @@
       <c r="U944" s="13"/>
       <c r="V944" s="13"/>
       <c r="W944" s="18"/>
-      <c r="X944" s="48"/>
+      <c r="X944" s="13"/>
       <c r="Y944" s="13"/>
       <c r="Z944" s="13"/>
       <c r="AA944" s="13"/>
@@ -33533,7 +33524,7 @@
       <c r="U945" s="13"/>
       <c r="V945" s="13"/>
       <c r="W945" s="18"/>
-      <c r="X945" s="48"/>
+      <c r="X945" s="13"/>
       <c r="Y945" s="13"/>
       <c r="Z945" s="13"/>
       <c r="AA945" s="13"/>
@@ -33563,7 +33554,7 @@
       <c r="U946" s="13"/>
       <c r="V946" s="13"/>
       <c r="W946" s="18"/>
-      <c r="X946" s="48"/>
+      <c r="X946" s="13"/>
       <c r="Y946" s="13"/>
       <c r="Z946" s="13"/>
       <c r="AA946" s="13"/>
@@ -33593,7 +33584,7 @@
       <c r="U947" s="13"/>
       <c r="V947" s="13"/>
       <c r="W947" s="18"/>
-      <c r="X947" s="48"/>
+      <c r="X947" s="13"/>
       <c r="Y947" s="13"/>
       <c r="Z947" s="13"/>
       <c r="AA947" s="13"/>
@@ -33623,7 +33614,7 @@
       <c r="U948" s="13"/>
       <c r="V948" s="13"/>
       <c r="W948" s="18"/>
-      <c r="X948" s="48"/>
+      <c r="X948" s="13"/>
       <c r="Y948" s="13"/>
       <c r="Z948" s="13"/>
       <c r="AA948" s="13"/>
@@ -33653,7 +33644,7 @@
       <c r="U949" s="13"/>
       <c r="V949" s="13"/>
       <c r="W949" s="18"/>
-      <c r="X949" s="48"/>
+      <c r="X949" s="13"/>
       <c r="Y949" s="13"/>
       <c r="Z949" s="13"/>
       <c r="AA949" s="13"/>
@@ -33683,7 +33674,7 @@
       <c r="U950" s="13"/>
       <c r="V950" s="13"/>
       <c r="W950" s="18"/>
-      <c r="X950" s="48"/>
+      <c r="X950" s="13"/>
       <c r="Y950" s="13"/>
       <c r="Z950" s="13"/>
       <c r="AA950" s="13"/>
@@ -33713,7 +33704,7 @@
       <c r="U951" s="13"/>
       <c r="V951" s="13"/>
       <c r="W951" s="18"/>
-      <c r="X951" s="48"/>
+      <c r="X951" s="13"/>
       <c r="Y951" s="13"/>
       <c r="Z951" s="13"/>
       <c r="AA951" s="13"/>
@@ -33743,7 +33734,7 @@
       <c r="U952" s="13"/>
       <c r="V952" s="13"/>
       <c r="W952" s="18"/>
-      <c r="X952" s="48"/>
+      <c r="X952" s="13"/>
       <c r="Y952" s="13"/>
       <c r="Z952" s="13"/>
       <c r="AA952" s="13"/>
@@ -33773,7 +33764,7 @@
       <c r="U953" s="13"/>
       <c r="V953" s="13"/>
       <c r="W953" s="18"/>
-      <c r="X953" s="48"/>
+      <c r="X953" s="13"/>
       <c r="Y953" s="13"/>
       <c r="Z953" s="13"/>
       <c r="AA953" s="13"/>
@@ -33803,7 +33794,7 @@
       <c r="U954" s="13"/>
       <c r="V954" s="13"/>
       <c r="W954" s="18"/>
-      <c r="X954" s="48"/>
+      <c r="X954" s="13"/>
       <c r="Y954" s="13"/>
       <c r="Z954" s="13"/>
       <c r="AA954" s="13"/>
@@ -33833,7 +33824,7 @@
       <c r="U955" s="13"/>
       <c r="V955" s="13"/>
       <c r="W955" s="18"/>
-      <c r="X955" s="48"/>
+      <c r="X955" s="13"/>
       <c r="Y955" s="13"/>
       <c r="Z955" s="13"/>
       <c r="AA955" s="13"/>
@@ -33863,7 +33854,7 @@
       <c r="U956" s="13"/>
       <c r="V956" s="13"/>
       <c r="W956" s="18"/>
-      <c r="X956" s="48"/>
+      <c r="X956" s="13"/>
       <c r="Y956" s="13"/>
       <c r="Z956" s="13"/>
       <c r="AA956" s="13"/>
@@ -33893,7 +33884,7 @@
       <c r="U957" s="13"/>
       <c r="V957" s="13"/>
       <c r="W957" s="18"/>
-      <c r="X957" s="48"/>
+      <c r="X957" s="13"/>
       <c r="Y957" s="13"/>
       <c r="Z957" s="13"/>
       <c r="AA957" s="13"/>
@@ -33923,7 +33914,7 @@
       <c r="U958" s="13"/>
       <c r="V958" s="13"/>
       <c r="W958" s="18"/>
-      <c r="X958" s="48"/>
+      <c r="X958" s="13"/>
       <c r="Y958" s="13"/>
       <c r="Z958" s="13"/>
       <c r="AA958" s="13"/>
@@ -33953,7 +33944,7 @@
       <c r="U959" s="13"/>
       <c r="V959" s="13"/>
       <c r="W959" s="18"/>
-      <c r="X959" s="48"/>
+      <c r="X959" s="13"/>
       <c r="Y959" s="13"/>
       <c r="Z959" s="13"/>
       <c r="AA959" s="13"/>
@@ -33983,7 +33974,7 @@
       <c r="U960" s="13"/>
       <c r="V960" s="13"/>
       <c r="W960" s="18"/>
-      <c r="X960" s="48"/>
+      <c r="X960" s="13"/>
       <c r="Y960" s="13"/>
       <c r="Z960" s="13"/>
       <c r="AA960" s="13"/>
@@ -34013,7 +34004,7 @@
       <c r="U961" s="13"/>
       <c r="V961" s="13"/>
       <c r="W961" s="18"/>
-      <c r="X961" s="48"/>
+      <c r="X961" s="13"/>
       <c r="Y961" s="13"/>
       <c r="Z961" s="13"/>
       <c r="AA961" s="13"/>
@@ -34043,7 +34034,7 @@
       <c r="U962" s="13"/>
       <c r="V962" s="13"/>
       <c r="W962" s="18"/>
-      <c r="X962" s="48"/>
+      <c r="X962" s="13"/>
       <c r="Y962" s="13"/>
       <c r="Z962" s="13"/>
       <c r="AA962" s="13"/>
@@ -34073,7 +34064,7 @@
       <c r="U963" s="13"/>
       <c r="V963" s="13"/>
       <c r="W963" s="18"/>
-      <c r="X963" s="48"/>
+      <c r="X963" s="13"/>
       <c r="Y963" s="13"/>
       <c r="Z963" s="13"/>
       <c r="AA963" s="13"/>
@@ -34103,7 +34094,7 @@
       <c r="U964" s="13"/>
       <c r="V964" s="13"/>
       <c r="W964" s="18"/>
-      <c r="X964" s="48"/>
+      <c r="X964" s="13"/>
       <c r="Y964" s="13"/>
       <c r="Z964" s="13"/>
       <c r="AA964" s="13"/>
@@ -34133,7 +34124,7 @@
       <c r="U965" s="13"/>
       <c r="V965" s="13"/>
       <c r="W965" s="18"/>
-      <c r="X965" s="48"/>
+      <c r="X965" s="13"/>
       <c r="Y965" s="13"/>
       <c r="Z965" s="13"/>
       <c r="AA965" s="13"/>
@@ -34163,7 +34154,7 @@
       <c r="U966" s="13"/>
       <c r="V966" s="13"/>
       <c r="W966" s="18"/>
-      <c r="X966" s="48"/>
+      <c r="X966" s="13"/>
       <c r="Y966" s="13"/>
       <c r="Z966" s="13"/>
       <c r="AA966" s="13"/>
@@ -34193,7 +34184,7 @@
       <c r="U967" s="13"/>
       <c r="V967" s="13"/>
       <c r="W967" s="18"/>
-      <c r="X967" s="48"/>
+      <c r="X967" s="13"/>
       <c r="Y967" s="13"/>
       <c r="Z967" s="13"/>
       <c r="AA967" s="13"/>
@@ -34223,7 +34214,7 @@
       <c r="U968" s="13"/>
       <c r="V968" s="13"/>
       <c r="W968" s="18"/>
-      <c r="X968" s="48"/>
+      <c r="X968" s="13"/>
       <c r="Y968" s="13"/>
       <c r="Z968" s="13"/>
       <c r="AA968" s="13"/>
@@ -34253,7 +34244,7 @@
       <c r="U969" s="13"/>
       <c r="V969" s="13"/>
       <c r="W969" s="18"/>
-      <c r="X969" s="48"/>
+      <c r="X969" s="13"/>
       <c r="Y969" s="13"/>
       <c r="Z969" s="13"/>
       <c r="AA969" s="13"/>
@@ -34283,7 +34274,7 @@
       <c r="U970" s="13"/>
       <c r="V970" s="13"/>
       <c r="W970" s="18"/>
-      <c r="X970" s="48"/>
+      <c r="X970" s="13"/>
       <c r="Y970" s="13"/>
       <c r="Z970" s="13"/>
       <c r="AA970" s="13"/>
@@ -34313,7 +34304,7 @@
       <c r="U971" s="13"/>
       <c r="V971" s="13"/>
       <c r="W971" s="18"/>
-      <c r="X971" s="48"/>
+      <c r="X971" s="13"/>
       <c r="Y971" s="13"/>
       <c r="Z971" s="13"/>
       <c r="AA971" s="13"/>
@@ -34343,7 +34334,7 @@
       <c r="U972" s="13"/>
       <c r="V972" s="13"/>
       <c r="W972" s="18"/>
-      <c r="X972" s="48"/>
+      <c r="X972" s="13"/>
       <c r="Y972" s="13"/>
       <c r="Z972" s="13"/>
       <c r="AA972" s="13"/>
@@ -34373,7 +34364,7 @@
       <c r="U973" s="13"/>
       <c r="V973" s="13"/>
       <c r="W973" s="18"/>
-      <c r="X973" s="48"/>
+      <c r="X973" s="13"/>
       <c r="Y973" s="13"/>
       <c r="Z973" s="13"/>
       <c r="AA973" s="13"/>
@@ -34403,7 +34394,7 @@
       <c r="U974" s="13"/>
       <c r="V974" s="13"/>
       <c r="W974" s="18"/>
-      <c r="X974" s="48"/>
+      <c r="X974" s="13"/>
       <c r="Y974" s="13"/>
       <c r="Z974" s="13"/>
       <c r="AA974" s="13"/>
@@ -34433,7 +34424,7 @@
       <c r="U975" s="13"/>
       <c r="V975" s="13"/>
       <c r="W975" s="18"/>
-      <c r="X975" s="48"/>
+      <c r="X975" s="13"/>
       <c r="Y975" s="13"/>
       <c r="Z975" s="13"/>
       <c r="AA975" s="13"/>
@@ -34463,7 +34454,7 @@
       <c r="U976" s="13"/>
       <c r="V976" s="13"/>
       <c r="W976" s="18"/>
-      <c r="X976" s="48"/>
+      <c r="X976" s="13"/>
       <c r="Y976" s="13"/>
       <c r="Z976" s="13"/>
       <c r="AA976" s="13"/>
@@ -34493,7 +34484,7 @@
       <c r="U977" s="13"/>
       <c r="V977" s="13"/>
       <c r="W977" s="18"/>
-      <c r="X977" s="48"/>
+      <c r="X977" s="13"/>
       <c r="Y977" s="13"/>
       <c r="Z977" s="13"/>
       <c r="AA977" s="13"/>
@@ -34523,7 +34514,7 @@
       <c r="U978" s="13"/>
       <c r="V978" s="13"/>
       <c r="W978" s="18"/>
-      <c r="X978" s="48"/>
+      <c r="X978" s="13"/>
       <c r="Y978" s="13"/>
       <c r="Z978" s="13"/>
       <c r="AA978" s="13"/>
@@ -34553,7 +34544,7 @@
       <c r="U979" s="13"/>
       <c r="V979" s="13"/>
       <c r="W979" s="18"/>
-      <c r="X979" s="48"/>
+      <c r="X979" s="13"/>
       <c r="Y979" s="13"/>
       <c r="Z979" s="13"/>
       <c r="AA979" s="13"/>
@@ -34583,7 +34574,7 @@
       <c r="U980" s="13"/>
       <c r="V980" s="13"/>
       <c r="W980" s="18"/>
-      <c r="X980" s="48"/>
+      <c r="X980" s="13"/>
       <c r="Y980" s="13"/>
       <c r="Z980" s="13"/>
       <c r="AA980" s="13"/>
@@ -34613,7 +34604,7 @@
       <c r="U981" s="13"/>
       <c r="V981" s="13"/>
       <c r="W981" s="18"/>
-      <c r="X981" s="48"/>
+      <c r="X981" s="13"/>
       <c r="Y981" s="13"/>
       <c r="Z981" s="13"/>
       <c r="AA981" s="13"/>
@@ -34643,7 +34634,7 @@
       <c r="U982" s="13"/>
       <c r="V982" s="13"/>
       <c r="W982" s="18"/>
-      <c r="X982" s="48"/>
+      <c r="X982" s="13"/>
       <c r="Y982" s="13"/>
       <c r="Z982" s="13"/>
       <c r="AA982" s="13"/>
@@ -34673,7 +34664,7 @@
       <c r="U983" s="13"/>
       <c r="V983" s="13"/>
       <c r="W983" s="18"/>
-      <c r="X983" s="48"/>
+      <c r="X983" s="13"/>
       <c r="Y983" s="13"/>
       <c r="Z983" s="13"/>
       <c r="AA983" s="13"/>
@@ -34703,7 +34694,7 @@
       <c r="U984" s="13"/>
       <c r="V984" s="13"/>
       <c r="W984" s="18"/>
-      <c r="X984" s="48"/>
+      <c r="X984" s="13"/>
       <c r="Y984" s="13"/>
       <c r="Z984" s="13"/>
       <c r="AA984" s="13"/>
@@ -34733,7 +34724,7 @@
       <c r="U985" s="13"/>
       <c r="V985" s="13"/>
       <c r="W985" s="18"/>
-      <c r="X985" s="48"/>
+      <c r="X985" s="13"/>
       <c r="Y985" s="13"/>
       <c r="Z985" s="13"/>
       <c r="AA985" s="13"/>
@@ -34763,7 +34754,7 @@
       <c r="U986" s="13"/>
       <c r="V986" s="13"/>
       <c r="W986" s="18"/>
-      <c r="X986" s="48"/>
+      <c r="X986" s="13"/>
       <c r="Y986" s="13"/>
       <c r="Z986" s="13"/>
       <c r="AA986" s="13"/>
@@ -34793,7 +34784,7 @@
       <c r="U987" s="13"/>
       <c r="V987" s="13"/>
       <c r="W987" s="18"/>
-      <c r="X987" s="48"/>
+      <c r="X987" s="13"/>
       <c r="Y987" s="13"/>
       <c r="Z987" s="13"/>
       <c r="AA987" s="13"/>
@@ -34823,7 +34814,7 @@
       <c r="U988" s="13"/>
       <c r="V988" s="13"/>
       <c r="W988" s="18"/>
-      <c r="X988" s="48"/>
+      <c r="X988" s="13"/>
       <c r="Y988" s="13"/>
       <c r="Z988" s="13"/>
       <c r="AA988" s="13"/>
@@ -34853,7 +34844,7 @@
       <c r="U989" s="13"/>
       <c r="V989" s="13"/>
       <c r="W989" s="18"/>
-      <c r="X989" s="48"/>
+      <c r="X989" s="13"/>
       <c r="Y989" s="13"/>
       <c r="Z989" s="13"/>
       <c r="AA989" s="13"/>
@@ -34883,7 +34874,7 @@
       <c r="U990" s="13"/>
       <c r="V990" s="13"/>
       <c r="W990" s="18"/>
-      <c r="X990" s="48"/>
+      <c r="X990" s="13"/>
       <c r="Y990" s="13"/>
       <c r="Z990" s="13"/>
       <c r="AA990" s="13"/>
@@ -34913,7 +34904,7 @@
       <c r="U991" s="13"/>
       <c r="V991" s="13"/>
       <c r="W991" s="18"/>
-      <c r="X991" s="48"/>
+      <c r="X991" s="13"/>
       <c r="Y991" s="13"/>
       <c r="Z991" s="13"/>
       <c r="AA991" s="13"/>
@@ -34943,7 +34934,7 @@
       <c r="U992" s="13"/>
       <c r="V992" s="13"/>
       <c r="W992" s="18"/>
-      <c r="X992" s="48"/>
+      <c r="X992" s="13"/>
       <c r="Y992" s="13"/>
       <c r="Z992" s="13"/>
       <c r="AA992" s="13"/>
@@ -34973,7 +34964,7 @@
       <c r="U993" s="13"/>
       <c r="V993" s="13"/>
       <c r="W993" s="18"/>
-      <c r="X993" s="48"/>
+      <c r="X993" s="13"/>
       <c r="Y993" s="13"/>
       <c r="Z993" s="13"/>
       <c r="AA993" s="13"/>
@@ -35003,7 +34994,7 @@
       <c r="U994" s="13"/>
       <c r="V994" s="13"/>
       <c r="W994" s="18"/>
-      <c r="X994" s="48"/>
+      <c r="X994" s="13"/>
       <c r="Y994" s="13"/>
       <c r="Z994" s="13"/>
       <c r="AA994" s="13"/>
@@ -35033,7 +35024,7 @@
       <c r="U995" s="13"/>
       <c r="V995" s="13"/>
       <c r="W995" s="18"/>
-      <c r="X995" s="48"/>
+      <c r="X995" s="13"/>
       <c r="Y995" s="13"/>
       <c r="Z995" s="13"/>
       <c r="AA995" s="13"/>
@@ -35063,7 +35054,7 @@
       <c r="U996" s="13"/>
       <c r="V996" s="13"/>
       <c r="W996" s="18"/>
-      <c r="X996" s="48"/>
+      <c r="X996" s="13"/>
       <c r="Y996" s="13"/>
       <c r="Z996" s="13"/>
       <c r="AA996" s="13"/>
@@ -35093,7 +35084,7 @@
       <c r="U997" s="13"/>
       <c r="V997" s="13"/>
       <c r="W997" s="18"/>
-      <c r="X997" s="48"/>
+      <c r="X997" s="13"/>
       <c r="Y997" s="13"/>
       <c r="Z997" s="13"/>
       <c r="AA997" s="13"/>
@@ -35123,7 +35114,7 @@
       <c r="U998" s="13"/>
       <c r="V998" s="13"/>
       <c r="W998" s="18"/>
-      <c r="X998" s="48"/>
+      <c r="X998" s="13"/>
       <c r="Y998" s="13"/>
       <c r="Z998" s="13"/>
       <c r="AA998" s="13"/>

--- a/src/5.1_GLGC-Meta-Data-TEMPLATE.xlsx
+++ b/src/5.1_GLGC-Meta-Data-TEMPLATE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdron/Documents/GitHub/glgc_internal/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39878DE-DCFC-344B-B4E2-3357741277F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9490681D-23D2-6043-B87C-BC076B9B8FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-1420" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -873,6 +873,29 @@
 All variables were taken at the baseline visit (exam 1).</t>
   </si>
   <si>
+    <t>Phenotype outlier removal</t>
+  </si>
+  <si>
+    <t>Example: 
+Outliers were considered for each analysis group.
+For LDL-C and HDL-C, outliers were removed if they exceeded 6 SD of the mean.
+For TG and BMI, outliers were removed if they exceeded the IQR.
+For AGE, individuals above 100 years old were excluded.</t>
+  </si>
+  <si>
+    <t>LDL-C calculation</t>
+  </si>
+  <si>
+    <t>Example:
+We used the Friedewald equation.</t>
+  </si>
+  <si>
+    <t>Genome Reference Build</t>
+  </si>
+  <si>
+    <t>hg38</t>
+  </si>
+  <si>
     <r>
       <t>AFR-GxE(BMI):</t>
     </r>
@@ -931,32 +954,9 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-age + sex (1/2) + PC1:10
+age + age² + sex (1/2) + PC1:10
 Covaraites the same for sex-stratified analysis, except the 'sex' covariate is dropped</t>
     </r>
-  </si>
-  <si>
-    <t>Phenotype outlier removal</t>
-  </si>
-  <si>
-    <t>Example: 
-Outliers were considered for each analysis group.
-For LDL-C and HDL-C, outliers were removed if they exceeded 6 SD of the mean.
-For TG and BMI, outliers were removed if they exceeded the IQR.
-For AGE, individuals above 100 years old were excluded.</t>
-  </si>
-  <si>
-    <t>LDL-C calculation</t>
-  </si>
-  <si>
-    <t>Example:
-We used the Friedewald equation.</t>
-  </si>
-  <si>
-    <t>Genome Reference Build</t>
-  </si>
-  <si>
-    <t>hg38</t>
   </si>
 </sst>
 </file>
@@ -5036,10 +5036,10 @@
   <dimension ref="A1:AD998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S4" sqref="S4"/>
+      <selection pane="bottomRight" activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5173,7 +5173,7 @@
         <v>33</v>
       </c>
       <c r="S2" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T2" s="30" t="s">
         <v>27</v>
@@ -5191,10 +5191,10 @@
         <v>85</v>
       </c>
       <c r="Y2" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Z2" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA2" s="31" t="s">
         <v>34</v>
@@ -5265,7 +5265,7 @@
         <v>77</v>
       </c>
       <c r="S3" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T3" s="22" t="s">
         <v>81</v>
@@ -5281,16 +5281,16 @@
         <v>86</v>
       </c>
       <c r="Y3" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z3" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AA3" s="17" t="s">
         <v>79</v>
       </c>
       <c r="AB3" s="21" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AC3" s="17" t="s">
         <v>80</v>
